--- a/excelanalog/example.xlsx
+++ b/excelanalog/example.xlsx
@@ -490,7 +490,7 @@
       </c>
       <c r="I8" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">Исполнитель КП (ФИО) </t>
+          <t>Исполнитель КП (ФИО)</t>
         </is>
       </c>
       <c r="J8" s="1" t="inlineStr">

--- a/excelanalog/example.xlsx
+++ b/excelanalog/example.xlsx
@@ -550,19 +550,17 @@
           <t>_</t>
         </is>
       </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="K9" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="J9" s="2">
+        <f>Sheet2!H24</f>
+        <v/>
+      </c>
+      <c r="K9" s="2">
+        <f>Sheet2!I24</f>
+        <v/>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="B8"/>
     <mergeCell ref="A8"/>
     <mergeCell ref="E8"/>
@@ -574,7 +572,13 @@
     <mergeCell ref="J8"/>
     <mergeCell ref="K8"/>
     <mergeCell ref="D5"/>
+    <mergeCell ref="H3:I3"/>
   </mergeCells>
+  <dataValidations count="1">
+    <dataValidation sqref="H3 I3" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
+      <formula1>"АУП,Югорское УМТС и К,УОВОФ,Надымское УАВР,Югорское УАВР,Белоярское УАВР,Надымское УТТиСТ,Югорское УТТиСТ,Белоярское УТТиСТ,ИТЦ,Учебно-производственный центр"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/excelanalog/example.xlsx
+++ b/excelanalog/example.xlsx
@@ -512,32 +512,32 @@
       </c>
       <c r="B9" s="2" t="inlineStr">
         <is>
-          <t>НУ-ОБЩ-1-КП-001</t>
+          <t>НУ-ПРИБ-1-КП-003</t>
         </is>
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>НУ-ОБЩ-1-КП-001-01</t>
+          <t>НУ-ПРИБ-1-КП-003-01</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>Контроль отражения методологической позиции по налоговому учету хозяйственных операций в методологических документах компании</t>
+          <t>Экспертиза проектов договоров</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>"Ответственный исполнитель Общества (далее - исполнитель КП) проверяет корректность отражения в учетной политике Общества по налоговому учету положений Корпоративных учетных принципов, сформированных и доведенных вышестоящей организацией.  Исполнитель КП отдела налогов проверяет в учетной политике по налоговому учету  корректность и полноту отражения норм НК РФ, а также единых принципов, разработанных и доведенных Департаментом ПАО ""Газпром"" (К.И. Оганян). В случае если исполнитель КП обнаружи</t>
+          <t>"Ответственный исполнитель структурного подразделения куратора договора (далее - исполнитель КП) при заключении договора /дополнительного соглашения к договору проводит комплексный анализ проекта договора в соответствии с Положением  о договорной работе.  По результатам заключения договора /дополнительного соглашения к договору исполнитель контролирует подписание договора с контрагентом  с учетом всех корректировок/замечаний, полученных в процессе согласования договора. КП выполняется в отношени</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>Ежегодно</t>
+          <t>Ежемесячно/ по мере заключения договоров/дополнительных соглашений</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>Ручной</t>
+          <t>Автоматизированный</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">

--- a/excelanalog/example.xlsx
+++ b/excelanalog/example.xlsx
@@ -1,13 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet3" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,14 +18,20 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="1">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
+  </numFmts>
+  <fonts count="2">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -34,7 +42,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -42,18 +50,22 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="centerContinuous" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -419,166 +431,896 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K9"/>
+  <dimension ref="A1:I22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <cols>
-    <col width="20" customWidth="1" min="1" max="1"/>
-    <col width="20" customWidth="1" min="2" max="2"/>
-    <col width="20" customWidth="1" min="3" max="3"/>
-    <col width="20" customWidth="1" min="4" max="4"/>
-    <col width="20" customWidth="1" min="5" max="5"/>
-    <col width="20" customWidth="1" min="6" max="6"/>
-    <col width="20" customWidth="1" min="7" max="7"/>
-    <col width="20" customWidth="1" min="8" max="8"/>
-    <col width="20" customWidth="1" min="9" max="9"/>
-    <col width="20" customWidth="1" min="10" max="10"/>
-    <col width="20" customWidth="1" min="11" max="11"/>
-  </cols>
   <sheetData>
-    <row r="1"/>
-    <row r="2"/>
-    <row r="3"/>
-    <row r="4"/>
-    <row r="5"/>
-    <row r="6"/>
-    <row r="7"/>
-    <row r="8">
-      <c r="A8" s="1" t="inlineStr">
+    <row r="1">
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Сводный реестр контрольных процедур</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="D2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>_____________________________________</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>наименование филиала/отдела)</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>осуществляемых в целях налогового мониторинга</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>________________________________</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
         <is>
           <t>номер п/п</t>
         </is>
       </c>
-      <c r="B8" s="1" t="inlineStr">
+      <c r="B13" s="1" t="inlineStr">
         <is>
           <t>Код КП(общий)</t>
         </is>
       </c>
-      <c r="C8" s="1" t="inlineStr">
-        <is>
-          <t>Код КП(Промежуточный)</t>
-        </is>
-      </c>
-      <c r="D8" s="1" t="inlineStr">
-        <is>
-          <t>Наименования КП</t>
-        </is>
-      </c>
-      <c r="E8" s="1" t="inlineStr">
-        <is>
-          <t>Описание КП</t>
-        </is>
-      </c>
-      <c r="F8" s="1" t="inlineStr">
-        <is>
-          <t>Периодичность проведения (ежедневно/ ежеквартально/ежемесячно/по мере поступления и т.д)</t>
-        </is>
-      </c>
-      <c r="G8" s="1" t="inlineStr">
-        <is>
-          <t>Способ подсчета результаты  проведения КП (ручной/автоматизированный)</t>
-        </is>
-      </c>
-      <c r="H8" s="1" t="inlineStr">
-        <is>
-          <t>Подразделение, ответственное за выполнение контрольной процедуры</t>
-        </is>
-      </c>
-      <c r="I8" s="1" t="inlineStr">
-        <is>
-          <t>Исполнитель КП (ФИО)</t>
-        </is>
-      </c>
-      <c r="J8" s="1" t="inlineStr">
-        <is>
-          <t>Количество выполненных КП</t>
-        </is>
-      </c>
-      <c r="K8" s="1" t="inlineStr">
-        <is>
-          <t>Количество выявленных ошибок/ нарушений</t>
-        </is>
-      </c>
-    </row>
-    <row r="9" ht="400" customHeight="1">
-      <c r="A9" s="2" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="B9" s="2" t="inlineStr">
-        <is>
-          <t>НУ-ПРИБ-1-КП-003</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>НУ-ПРИБ-1-КП-003-01</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>Экспертиза проектов договоров</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>"Ответственный исполнитель структурного подразделения куратора договора (далее - исполнитель КП) при заключении договора /дополнительного соглашения к договору проводит комплексный анализ проекта договора в соответствии с Положением  о договорной работе.  По результатам заключения договора /дополнительного соглашения к договору исполнитель контролирует подписание договора с контрагентом  с учетом всех корректировок/замечаний, полученных в процессе согласования договора. КП выполняется в отношени</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>Ежемесячно/ по мере заключения договоров/дополнительных соглашений</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>Автоматизированный</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>_</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>_</t>
-        </is>
-      </c>
-      <c r="J9" s="2">
-        <f>Sheet2!H24</f>
-        <v/>
-      </c>
-      <c r="K9" s="2">
-        <f>Sheet2!I24</f>
-        <v/>
+      <c r="C13" s="1" t="inlineStr">
+        <is>
+          <t>Код КП(промежуточный)</t>
+        </is>
+      </c>
+      <c r="D13" s="1" t="inlineStr">
+        <is>
+          <t>Наименование ИП</t>
+        </is>
+      </c>
+      <c r="E13" s="1" t="inlineStr">
+        <is>
+          <t>Подразделение, ответственное за проведение контрольной процедуры</t>
+        </is>
+      </c>
+      <c r="F13" s="1" t="inlineStr">
+        <is>
+          <t>Исполнитель КП</t>
+        </is>
+      </c>
+      <c r="G13" s="1" t="inlineStr">
+        <is>
+          <t>Количество выполненых КП</t>
+        </is>
+      </c>
+      <c r="H13" s="1" t="inlineStr">
+        <is>
+          <t>Количество выявленных ошибок</t>
+        </is>
+      </c>
+      <c r="I13" s="1" t="inlineStr">
+        <is>
+          <t>Документ</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>1</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>НУ-ОБЩ-1-КП-003</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>НУ-ОБЩ-1-КП-003-05</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Проверка полноты и достоверности ПУД</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>GDK</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Панкова</t>
+        </is>
+      </c>
+      <c r="G14" t="n">
+        <v>14</v>
+      </c>
+      <c r="H14" t="n">
+        <v>14</v>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>checklist(6)</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>1</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>НУ-ОБЩ-1-КП-003</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>НУ-ОБЩ-1-КП-003-02</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Проверка полноты и достоверности ПУД</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>УКГ</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Андреас</t>
+        </is>
+      </c>
+      <c r="G15" t="n">
+        <v>12</v>
+      </c>
+      <c r="H15" t="n">
+        <v>8</v>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>checklist(7)</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>1</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>НУ-ОБЩ-1-КП-004</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>НУ-ОБЩ-1-КП-004-03</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Проверка корректности ПУД и осуществления проводки в учетной системе</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Отдел налогов</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Северская</t>
+        </is>
+      </c>
+      <c r="G16" t="n">
+        <v>28</v>
+      </c>
+      <c r="H16" t="n">
+        <v>77</v>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>checklist(8)</t>
+        </is>
+      </c>
+    </row>
+    <row r="17"/>
+    <row r="18"/>
+    <row r="19"/>
+    <row r="21">
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>________________________________</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>________________________________</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>________________________________</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>должность</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>подпись</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>ФИО</t>
+        </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="12">
-    <mergeCell ref="B8"/>
-    <mergeCell ref="A8"/>
-    <mergeCell ref="E8"/>
-    <mergeCell ref="C8"/>
-    <mergeCell ref="H8"/>
-    <mergeCell ref="F8"/>
-    <mergeCell ref="G8"/>
-    <mergeCell ref="I8"/>
-    <mergeCell ref="J8"/>
-    <mergeCell ref="K8"/>
-    <mergeCell ref="D5"/>
-    <mergeCell ref="H3:I3"/>
-  </mergeCells>
-  <dataValidations count="1">
-    <dataValidation sqref="H3 I3" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
+  <dataValidations count="2">
+    <dataValidation sqref="D3" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
       <formula1>"АУП,Югорское УМТС и К,УОВОФ,Надымское УАВР,Югорское УАВР,Белоярское УАВР,Надымское УТТиСТ,Югорское УТТиСТ,Белоярское УТТиСТ,ИТЦ,Учебно-производственный центр"</formula1>
+    </dataValidation>
+    <dataValidation sqref="D7" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
+      <formula1>"За Декабрь 2023г,За Январь 2023г,За Февраль 2023г,За Март 2023г,За Апрель 2023г,За Май 2023г,За Июнь 2023г,За Июль 2023г,За Август 2023г,За Сентябрь 2023г,За Октябрь 2023г,За Ноябрь 2023г"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:J10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>№ п/п</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Код КП(промежуточный)</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Исполнитель ИП</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>номер чек листа</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Объект контроля (договор, акт, счет-фактура, КС-2 и др.)</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Дата документа</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Номер документа</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Количество документов/операций</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Количество ошибок/нарушений</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Примечание</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>НУ-ОБЩ-1-КП-003-05</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Панкова</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>#Н/Д</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>eeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeee</t>
+        </is>
+      </c>
+      <c r="F2" s="2" t="n">
+        <v>45190</v>
+      </c>
+      <c r="G2" t="n">
+        <v>6</v>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+      <c r="I2" t="n">
+        <v>2</v>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>rrr</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>НУ-ОБЩ-1-КП-003-05</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Панкова</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>#Н/Д</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>dddddddddddddddddddddddddddddddddddddd</t>
+        </is>
+      </c>
+      <c r="F3" s="2" t="n">
+        <v>45191</v>
+      </c>
+      <c r="G3" t="n">
+        <v>7</v>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+      <c r="I3" t="n">
+        <v>3</v>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>fff</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>НУ-ОБЩ-1-КП-003-05</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Панкова</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>#Н/Д</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>cccccccccccccccccccccccccccccccccccccccccccccccccc</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="n">
+        <v>45188</v>
+      </c>
+      <c r="G4" t="n">
+        <v>8</v>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+      <c r="I4" t="n">
+        <v>4</v>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>vvvv</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>НУ-ОБЩ-1-КП-003-05</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Панкова</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>#Н/Д</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>vvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvv</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="n">
+        <v>45179</v>
+      </c>
+      <c r="G5" t="n">
+        <v>9</v>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+      <c r="I5" t="n">
+        <v>5</v>
+      </c>
+      <c r="J5" t="n">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>1</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>НУ-ОБЩ-1-КП-003-02</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Андреас</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>#Н/Д</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>еееееееее</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="n">
+        <v>45187</v>
+      </c>
+      <c r="G6" t="n">
+        <v>433</v>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+      <c r="I6" t="n">
+        <v>1</v>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>frrrffr</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>2</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>НУ-ОБЩ-1-КП-003-02</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Андреас</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>#Н/Д</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>ппппппп</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="n">
+        <v>44695</v>
+      </c>
+      <c r="G7" t="n">
+        <v>132</v>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+      <c r="I7" t="n">
+        <v>2</v>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>kkkkkk</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>3</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>НУ-ОБЩ-1-КП-003-02</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Андреас</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>#Н/Д</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>ииииииииии</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="n">
+        <v>44968</v>
+      </c>
+      <c r="G8" t="n">
+        <v>424</v>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+      <c r="I8" t="n">
+        <v>5</v>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>rrrrrr</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>1</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>НУ-ОБЩ-1-КП-004-03</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Северская</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>#Н/Д</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>ииииииииииииииииииииииииииииииииииииии</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="n">
+        <v>44448</v>
+      </c>
+      <c r="G9" t="n">
+        <v>412</v>
+      </c>
+      <c r="H9" t="n">
+        <v>24</v>
+      </c>
+      <c r="I9" t="n">
+        <v>54</v>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>ее</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>2</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>НУ-ОБЩ-1-КП-004-03</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Северская</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>#Н/Д</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>gggggggggggggggggggggggggggggggggggggggggggggg</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="n">
+        <v>44596</v>
+      </c>
+      <c r="G10" t="n">
+        <v>892</v>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
+      </c>
+      <c r="I10" t="n">
+        <v>23</v>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>ааа</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:L4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>номер п/п</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Код КП(общий)</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Код КП(промежуточный)</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Наименование контрольной процедуры</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Описание КП</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Переодичность проведения</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Способ подсчета результаты проведения КП</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Подразделение, ответственное за проведение контрольной процедуры</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Исполнитель КП</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Количество выполненых КП</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Количество выявленных ошибок</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Документ, подтверждающий проведение контрольной процедуры</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>НУ-ОБЩ-1-КП-003</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr"/>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Проверка полноты и достоверности ПУД</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr"/>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="n">
+        <v>14</v>
+      </c>
+      <c r="K2" t="n">
+        <v>14</v>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>Чек-лист/Реестр объектов контроля</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>НУ-ОБЩ-1-КП-003</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Проверка полноты и достоверности ПУД</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="n">
+        <v>12</v>
+      </c>
+      <c r="K3" t="n">
+        <v>8</v>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>Чек-лист/Реестр объектов контроля</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>1</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>НУ-ОБЩ-1-КП-004</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Проверка корректности ПУД и осуществления проводки в учетной системе</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="n">
+        <v>28</v>
+      </c>
+      <c r="K4" t="n">
+        <v>77</v>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>Чек-лист/Реестр объектов контроля</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/excelanalog/example.xlsx
+++ b/excelanalog/example.xlsx
@@ -651,9 +651,135 @@
         </is>
       </c>
     </row>
-    <row r="17"/>
-    <row r="18"/>
-    <row r="19"/>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>1</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>НУ-ОБЩ-1-КП-002</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>НУ-ОБЩ-1-КП-002-01</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Мониторинг изменений налогового законодательства</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>УКГ</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Зуев</t>
+        </is>
+      </c>
+      <c r="G17" t="n">
+        <v>52</v>
+      </c>
+      <c r="H17" t="n">
+        <v>26</v>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>checklist(9)</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>1</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>НУ-ОБЩ-1-КП-005</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>НУ-ОБЩ-1-КП-005-01</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Проверка полноты и корректности внесения данных в НСИ</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Отдел налогов</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Северская</t>
+        </is>
+      </c>
+      <c r="G18" t="n">
+        <v>8</v>
+      </c>
+      <c r="H18" t="n">
+        <v>10</v>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>checklist(10)</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>1</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>НУ-ОБЩ-1-КП-001</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>НУ-ОБЩ-1-КП-001-01</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Контроль отражения методологической позиции по налоговому учету хозяйственных операций в методологических документах компании</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr"/>
+      <c r="H19" t="inlineStr"/>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>checklist(11)</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="G20">
+        <f>SUM(G1:G19)</f>
+        <v/>
+      </c>
+      <c r="H20">
+        <f>SUM(H1:H19)</f>
+        <v/>
+      </c>
+    </row>
     <row r="21">
       <c r="B21" t="inlineStr">
         <is>
@@ -691,7 +817,7 @@
   </sheetData>
   <dataValidations count="2">
     <dataValidation sqref="D3" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
-      <formula1>"АУП,Югорское УМТС и К,УОВОФ,Надымское УАВР,Югорское УАВР,Белоярское УАВР,Надымское УТТиСТ,Югорское УТТиСТ,Белоярское УТТиСТ,ИТЦ,Учебно-производственный центр"</formula1>
+      <formula1>"АУП,Югорское УМТС и К,УОВОФ,Надымское УАВР,Югорское УАВР,Белоярское УАВР,Надымское УТ</formula1>
     </dataValidation>
     <dataValidation sqref="D7" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
       <formula1>"За Декабрь 2023г,За Январь 2023г,За Февраль 2023г,За Март 2023г,За Апрель 2023г,За Май 2023г,За Июнь 2023г,За Июль 2023г,За Август 2023г,За Сентябрь 2023г,За Октябрь 2023г,За Ноябрь 2023г"</formula1>
@@ -707,7 +833,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J10"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1142,6 +1268,192 @@
           <t>ааа</t>
         </is>
       </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>1</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>НУ-ОБЩ-1-КП-002-01</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Зуев</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>#Н/Д</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>гггггггггггггггггггггггггггггго</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="n">
+        <v>45191</v>
+      </c>
+      <c r="G11" t="n">
+        <v>32332</v>
+      </c>
+      <c r="H11" t="n">
+        <v>14</v>
+      </c>
+      <c r="I11" t="n">
+        <v>21</v>
+      </c>
+      <c r="J11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>2</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>НУ-ОБЩ-1-КП-002-01</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Зуев</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>оооооооооооооооооооооооооооооооо</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="n">
+        <v>45190</v>
+      </c>
+      <c r="G12" t="n">
+        <v>4232</v>
+      </c>
+      <c r="H12" t="n">
+        <v>32</v>
+      </c>
+      <c r="I12" t="n">
+        <v>2</v>
+      </c>
+      <c r="J12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>3</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>НУ-ОБЩ-1-КП-002-01</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Зуев</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>кккккккккккккккккккккккккккккккккккккккккк</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="n">
+        <v>45183</v>
+      </c>
+      <c r="G13" t="n">
+        <v>32332</v>
+      </c>
+      <c r="H13" t="n">
+        <v>6</v>
+      </c>
+      <c r="I13" t="n">
+        <v>3</v>
+      </c>
+      <c r="J13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>1</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>НУ-ОБЩ-1-КП-005-01</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Северская</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>#Н/Д</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>ппппппппппппппппппппппппппппппппппппппп</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="n">
+        <v>44969</v>
+      </c>
+      <c r="G14" t="n">
+        <v>44444444</v>
+      </c>
+      <c r="H14" t="n">
+        <v>5</v>
+      </c>
+      <c r="I14" t="n">
+        <v>1</v>
+      </c>
+      <c r="J14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr"/>
+      <c r="B15" t="inlineStr"/>
+      <c r="C15" t="inlineStr"/>
+      <c r="D15" t="inlineStr"/>
+      <c r="E15" t="inlineStr"/>
+      <c r="F15" s="2" t="n">
+        <v>45053</v>
+      </c>
+      <c r="G15" t="n">
+        <v>33333333</v>
+      </c>
+      <c r="H15" t="n">
+        <v>3</v>
+      </c>
+      <c r="I15" t="n">
+        <v>9</v>
+      </c>
+      <c r="J15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>1</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>НУ-ОБЩ-1-КП-001-01</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr"/>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>#Н/Д</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr"/>
+      <c r="F16" t="inlineStr"/>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr"/>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1154,7 +1466,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L4"/>
+  <dimension ref="A1:L7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1320,6 +1632,98 @@
         </is>
       </c>
     </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>1</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>НУ-ОБЩ-1-КП-002</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Мониторинг изменений налогового законодательства</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="n">
+        <v>52</v>
+      </c>
+      <c r="K5" t="n">
+        <v>26</v>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>Чек-лист/Реестр объектов контроля</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>1</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>НУ-ОБЩ-1-КП-005</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Проверка полноты и корректности внесения данных в НСИ</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="n">
+        <v>8</v>
+      </c>
+      <c r="K6" t="n">
+        <v>10</v>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>Чек-лист/Реестр объектов контроля</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>1</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>НУ-ОБЩ-1-КП-001</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Контроль отражения методологической позиции по налоговому учету хозяйственных операций в методологических документах компании</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr"/>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>Чек-лист/Реестр объектов контроля</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/excelanalog/example.xlsx
+++ b/excelanalog/example.xlsx
@@ -60,10 +60,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
@@ -431,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I22"/>
+  <dimension ref="A1:I23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -733,44 +736,13 @@
         </is>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" t="n">
-        <v>1</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>НУ-ОБЩ-1-КП-001</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>НУ-ОБЩ-1-КП-001-01</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>Контроль отражения методологической позиции по налоговому учету хозяйственных операций в методологических документах компании</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>_</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>_</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr"/>
-      <c r="H19" t="inlineStr"/>
-      <c r="I19" t="inlineStr">
-        <is>
-          <t>checklist(11)</t>
-        </is>
-      </c>
-    </row>
+    <row r="19"/>
     <row r="20">
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Итого:</t>
+        </is>
+      </c>
       <c r="G20">
         <f>SUM(G1:G19)</f>
         <v/>
@@ -779,36 +751,41 @@
         <f>SUM(H1:H19)</f>
         <v/>
       </c>
-    </row>
-    <row r="21">
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>________________________________</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>________________________________</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>________________________________</t>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="B22" t="inlineStr">
         <is>
+          <t>________________________________</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>________________________________</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>________________________________</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="B23" t="inlineStr">
+        <is>
           <t>должность</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr">
+      <c r="D23" t="inlineStr">
         <is>
           <t>подпись</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr">
+      <c r="F23" s="2" t="inlineStr">
         <is>
           <t>ФИО</t>
         </is>
@@ -817,7 +794,7 @@
   </sheetData>
   <dataValidations count="2">
     <dataValidation sqref="D3" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
-      <formula1>"АУП,Югорское УМТС и К,УОВОФ,Надымское УАВР,Югорское УАВР,Белоярское УАВР,Надымское УТ</formula1>
+      <formula1>"АУП,Югорское УМТС и К,УОВОФ,Надымское УАВР,Югорское УАВР,Белоярское УАВР,Надымское УТТиСТ,Югорское УТТиСТ,Белоярское УТТиСТ,ИТЦ,Учебно-производственный центр,УЭЗ и С,Управление связи,Бобровское ЛПУ,Верхнеказымское ЛПУ,Ивдельское ЛПУ,Казымское ЛПУ,Карпинское ЛПУ,Комсомольское ЛПУ,Краснотурьинское ЛПУ,Лонг-Юганское ЛПУ"</formula1>
     </dataValidation>
     <dataValidation sqref="D7" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
       <formula1>"За Декабрь 2023г,За Январь 2023г,За Февраль 2023г,За Март 2023г,За Апрель 2023г,За Май 2023г,За Июнь 2023г,За Июль 2023г,За Август 2023г,За Сентябрь 2023г,За Октябрь 2023г,За Ноябрь 2023г"</formula1>
@@ -833,7 +810,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:J15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -917,7 +894,7 @@
           <t>eeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeee</t>
         </is>
       </c>
-      <c r="F2" s="2" t="n">
+      <c r="F2" s="3" t="n">
         <v>45190</v>
       </c>
       <c r="G2" t="n">
@@ -959,7 +936,7 @@
           <t>dddddddddddddddddddddddddddddddddddddd</t>
         </is>
       </c>
-      <c r="F3" s="2" t="n">
+      <c r="F3" s="3" t="n">
         <v>45191</v>
       </c>
       <c r="G3" t="n">
@@ -1001,7 +978,7 @@
           <t>cccccccccccccccccccccccccccccccccccccccccccccccccc</t>
         </is>
       </c>
-      <c r="F4" s="2" t="n">
+      <c r="F4" s="3" t="n">
         <v>45188</v>
       </c>
       <c r="G4" t="n">
@@ -1043,7 +1020,7 @@
           <t>vvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvv</t>
         </is>
       </c>
-      <c r="F5" s="2" t="n">
+      <c r="F5" s="3" t="n">
         <v>45179</v>
       </c>
       <c r="G5" t="n">
@@ -1083,7 +1060,7 @@
           <t>еееееееее</t>
         </is>
       </c>
-      <c r="F6" s="2" t="n">
+      <c r="F6" s="3" t="n">
         <v>45187</v>
       </c>
       <c r="G6" t="n">
@@ -1125,7 +1102,7 @@
           <t>ппппппп</t>
         </is>
       </c>
-      <c r="F7" s="2" t="n">
+      <c r="F7" s="3" t="n">
         <v>44695</v>
       </c>
       <c r="G7" t="n">
@@ -1167,7 +1144,7 @@
           <t>ииииииииии</t>
         </is>
       </c>
-      <c r="F8" s="2" t="n">
+      <c r="F8" s="3" t="n">
         <v>44968</v>
       </c>
       <c r="G8" t="n">
@@ -1209,7 +1186,7 @@
           <t>ииииииииииииииииииииииииииииииииииииии</t>
         </is>
       </c>
-      <c r="F9" s="2" t="n">
+      <c r="F9" s="3" t="n">
         <v>44448</v>
       </c>
       <c r="G9" t="n">
@@ -1251,7 +1228,7 @@
           <t>gggggggggggggggggggggggggggggggggggggggggggggg</t>
         </is>
       </c>
-      <c r="F10" s="2" t="n">
+      <c r="F10" s="3" t="n">
         <v>44596</v>
       </c>
       <c r="G10" t="n">
@@ -1293,7 +1270,7 @@
           <t>гггггггггггггггггггггггггггггго</t>
         </is>
       </c>
-      <c r="F11" s="2" t="n">
+      <c r="F11" s="3" t="n">
         <v>45191</v>
       </c>
       <c r="G11" t="n">
@@ -1327,7 +1304,7 @@
           <t>оооооооооооооооооооооооооооооооо</t>
         </is>
       </c>
-      <c r="F12" s="2" t="n">
+      <c r="F12" s="3" t="n">
         <v>45190</v>
       </c>
       <c r="G12" t="n">
@@ -1361,7 +1338,7 @@
           <t>кккккккккккккккккккккккккккккккккккккккккк</t>
         </is>
       </c>
-      <c r="F13" s="2" t="n">
+      <c r="F13" s="3" t="n">
         <v>45183</v>
       </c>
       <c r="G13" t="n">
@@ -1399,7 +1376,7 @@
           <t>ппппппппппппппппппппппппппппппппппппппп</t>
         </is>
       </c>
-      <c r="F14" s="2" t="n">
+      <c r="F14" s="3" t="n">
         <v>44969</v>
       </c>
       <c r="G14" t="n">
@@ -1419,7 +1396,7 @@
       <c r="C15" t="inlineStr"/>
       <c r="D15" t="inlineStr"/>
       <c r="E15" t="inlineStr"/>
-      <c r="F15" s="2" t="n">
+      <c r="F15" s="3" t="n">
         <v>45053</v>
       </c>
       <c r="G15" t="n">
@@ -1432,28 +1409,6 @@
         <v>9</v>
       </c>
       <c r="J15" t="inlineStr"/>
-    </row>
-    <row r="16">
-      <c r="A16" t="n">
-        <v>1</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>НУ-ОБЩ-1-КП-001-01</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr"/>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>#Н/Д</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr"/>
-      <c r="F16" t="inlineStr"/>
-      <c r="G16" t="inlineStr"/>
-      <c r="H16" t="inlineStr"/>
-      <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1466,7 +1421,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L7"/>
+  <dimension ref="A1:L6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1696,34 +1651,6 @@
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>1</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>НУ-ОБЩ-1-КП-001</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr"/>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>Контроль отражения методологической позиции по налоговому учету хозяйственных операций в методологических документах компании</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr"/>
-      <c r="F7" t="inlineStr"/>
-      <c r="G7" t="inlineStr"/>
-      <c r="H7" t="inlineStr"/>
-      <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>Чек-лист/Реестр объектов контроля</t>
-        </is>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/excelanalog/example.xlsx
+++ b/excelanalog/example.xlsx
@@ -419,7 +419,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K9"/>
+  <dimension ref="A1:L9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -438,6 +438,7 @@
     <col width="20" customWidth="1" min="9" max="9"/>
     <col width="20" customWidth="1" min="10" max="10"/>
     <col width="20" customWidth="1" min="11" max="11"/>
+    <col width="20" customWidth="1" min="12" max="12"/>
   </cols>
   <sheetData>
     <row r="1"/>
@@ -503,8 +504,13 @@
           <t>Количество выявленных ошибок/ нарушений</t>
         </is>
       </c>
+      <c r="L8" s="1" t="inlineStr">
+        <is>
+          <t>Филиал</t>
+        </is>
+      </c>
     </row>
-    <row r="9" ht="400" customHeight="1">
+    <row r="9" ht="90" customHeight="1">
       <c r="A9" s="2" t="inlineStr">
         <is>
           <t>1</t>
@@ -512,27 +518,27 @@
       </c>
       <c r="B9" s="2" t="inlineStr">
         <is>
-          <t>НУ-ОБЩ-1-КП-002</t>
+          <t>НУ-ОБЩ-1-КП-001</t>
         </is>
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>НУ-ОБЩ-1-КП-002-02</t>
+          <t>НУ-ОБЩ-1-КП-001-01</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>Мониторинг изменений налогового законодательства</t>
+          <t>Контроль отражения методологической позиции по налоговому учету хозяйственных операций в методологических документах компании</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>"Ответственный исполнитель бухгалтерии  администрации (далее - исполнитель КП) осуществляет мониторинг изменений в бухгалтерском и налоговом законодательстве (в том числе с использованием справочной информационной системы ""Консультант Плюс"", ""Гарант"", а также на официальных сайтах Минфина и ФНС.  В случае обнаружения информации о предстоящих / произошедших изменениях, информация доводится до всех заинтересованных лиц Общества путем направления служебных записок / электронных сообщений.  В сл</t>
+          <t>"Ответственный исполнитель Общества (далее - исполнитель КП) проверяет корректность отражения в учетной политике Общества по налоговому учету положений Корпоративных учетных принципов, сформированных и доведенных вышестоящей организацией.  Исполнитель КП отдела налогов проверяет в учетной политике по налоговому учету  корректность и полноту отражения норм НК РФ, а также единых принципов, разработанных и доведенных Департаментом ПАО ""Газпром"" (К.И. Оганян). В случае если исполнитель КП обнаружи</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>Ежеквартально на постоянной основе/по мере внесения изменений в законодательство</t>
+          <t>Ежегодно</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -558,24 +564,30 @@
         <f>Sheet2!I24</f>
         <v/>
       </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="12">
+  <mergeCells count="13">
     <mergeCell ref="B8"/>
     <mergeCell ref="A8"/>
     <mergeCell ref="E8"/>
     <mergeCell ref="C8"/>
-    <mergeCell ref="H8"/>
+    <mergeCell ref="L9"/>
     <mergeCell ref="F8"/>
     <mergeCell ref="G8"/>
+    <mergeCell ref="H8"/>
     <mergeCell ref="I8"/>
     <mergeCell ref="J8"/>
+    <mergeCell ref="L8"/>
     <mergeCell ref="K8"/>
     <mergeCell ref="D5"/>
-    <mergeCell ref="H3:I3"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation sqref="H3 I3" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
+    <dataValidation sqref="L9" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
       <formula1>"АУП,Югорское УМТС и К,УОВОФ,Надымское УАВР,Югорское УАВР,Белоярское УАВР,Надымское УТТиСТ,Югорское УТТиСТ,Белоярское УТТиСТ,ИТЦ,Учебно-производственный центр,УЭЗ и С,Управление связи,Бобровское ЛПУ,Верхнеказымское ЛПУ,Ивдельское ЛПУ,Казымское ЛПУ,Карпинское ЛПУ,Комсомольское ЛПУ,Краснотурьинское ЛПУ,Лонг-Юганское ЛПУ,Надымское ЛПУ,Нижнетуринское ЛПУ,Ново-Уренгойское ЛПУ,Ныдинское ЛПУ,Октябрьское ЛПУ,Пангодинское ЛПУПелымское ЛПУ,Перегребненское ЛПУ,Правохеттинское ЛПУ,Приозерное ЛПУ,Пунгинское ЛПУ,Сорумское ЛПУ,Сосновское ЛПУ,Таежное ЛПУ,Уральское ЛПУ,Ягельное ЛПУ,Ямбургское ЛПУ,Санаторий-профилакторий,КСК Норд"</formula1>
     </dataValidation>
   </dataValidations>

--- a/excelanalog/example.xlsx
+++ b/excelanalog/example.xlsx
@@ -8,6 +8,8 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet3" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -17,13 +19,16 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -34,7 +39,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -42,17 +47,23 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="centerContinuous" vertical="center" wrapText="1"/>
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -419,178 +430,662 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L9"/>
+  <dimension ref="A1:J32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <cols>
-    <col width="20" customWidth="1" min="1" max="1"/>
-    <col width="20" customWidth="1" min="2" max="2"/>
-    <col width="20" customWidth="1" min="3" max="3"/>
-    <col width="20" customWidth="1" min="4" max="4"/>
-    <col width="20" customWidth="1" min="5" max="5"/>
-    <col width="20" customWidth="1" min="6" max="6"/>
-    <col width="20" customWidth="1" min="7" max="7"/>
-    <col width="20" customWidth="1" min="8" max="8"/>
-    <col width="20" customWidth="1" min="9" max="9"/>
-    <col width="20" customWidth="1" min="10" max="10"/>
-    <col width="20" customWidth="1" min="11" max="11"/>
-    <col width="20" customWidth="1" min="12" max="12"/>
-  </cols>
   <sheetData>
-    <row r="1"/>
-    <row r="2"/>
-    <row r="3"/>
-    <row r="4"/>
-    <row r="5"/>
-    <row r="6"/>
-    <row r="7"/>
-    <row r="8">
-      <c r="A8" s="1" t="inlineStr">
+    <row r="1">
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Сводный реестр контрольных процедур</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="D2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>_____________________________________</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>наименование филиала/отдела)</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>осуществляемых в целях налогового мониторинга</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>________________________________</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
         <is>
           <t>номер п/п</t>
         </is>
       </c>
-      <c r="B8" s="1" t="inlineStr">
+      <c r="B13" s="1" t="inlineStr">
         <is>
           <t>Код КП(общий)</t>
         </is>
       </c>
-      <c r="C8" s="1" t="inlineStr">
-        <is>
-          <t>Код КП(Промежуточный)</t>
-        </is>
-      </c>
-      <c r="D8" s="1" t="inlineStr">
-        <is>
-          <t>Наименования КП</t>
-        </is>
-      </c>
-      <c r="E8" s="1" t="inlineStr">
-        <is>
-          <t>Описание КП</t>
-        </is>
-      </c>
-      <c r="F8" s="1" t="inlineStr">
-        <is>
-          <t>Периодичность проведения (ежедневно/ ежеквартально/ежемесячно/по мере поступления и т.д)</t>
-        </is>
-      </c>
-      <c r="G8" s="1" t="inlineStr">
-        <is>
-          <t>Способ подсчета результаты  проведения КП (ручной/автоматизированный)</t>
-        </is>
-      </c>
-      <c r="H8" s="1" t="inlineStr">
-        <is>
-          <t>Подразделение, ответственное за выполнение контрольной процедуры</t>
-        </is>
-      </c>
-      <c r="I8" s="1" t="inlineStr">
-        <is>
-          <t>Исполнитель КП (ФИО)</t>
-        </is>
-      </c>
-      <c r="J8" s="1" t="inlineStr">
-        <is>
-          <t>Количество выполненных КП</t>
-        </is>
-      </c>
-      <c r="K8" s="1" t="inlineStr">
-        <is>
-          <t>Количество выявленных ошибок/ нарушений</t>
-        </is>
-      </c>
-      <c r="L8" s="1" t="inlineStr">
-        <is>
-          <t>Филиал</t>
-        </is>
-      </c>
-    </row>
-    <row r="9" ht="90" customHeight="1">
-      <c r="A9" s="2" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="B9" s="2" t="inlineStr">
+      <c r="C13" s="1" t="inlineStr">
+        <is>
+          <t>Код КП(промежуточный)</t>
+        </is>
+      </c>
+      <c r="D13" s="1" t="inlineStr">
+        <is>
+          <t>Наименование ИП</t>
+        </is>
+      </c>
+      <c r="E13" s="1" t="inlineStr">
+        <is>
+          <t>Подразделение, ответственное за проведение контрольной процедуры</t>
+        </is>
+      </c>
+      <c r="F13" s="1" t="inlineStr">
+        <is>
+          <t>Исполнитель КП</t>
+        </is>
+      </c>
+      <c r="G13" s="1" t="inlineStr">
+        <is>
+          <t>Количество выполненых КП</t>
+        </is>
+      </c>
+      <c r="H13" s="1" t="inlineStr">
+        <is>
+          <t>Количество выявленных ошибок</t>
+        </is>
+      </c>
+      <c r="I13" s="1" t="inlineStr">
+        <is>
+          <t>Документ</t>
+        </is>
+      </c>
+      <c r="J13" s="1" t="inlineStr">
+        <is>
+          <t>филиал</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>1</v>
+      </c>
+      <c r="B14" t="inlineStr">
         <is>
           <t>НУ-ОБЩ-1-КП-001</t>
         </is>
       </c>
-      <c r="C9" s="2" t="inlineStr">
+      <c r="C14" t="inlineStr">
         <is>
           <t>НУ-ОБЩ-1-КП-001-01</t>
         </is>
       </c>
-      <c r="D9" s="2" t="inlineStr">
+      <c r="D14" t="inlineStr">
         <is>
           <t>Контроль отражения методологической позиции по налоговому учету хозяйственных операций в методологических документах компании</t>
         </is>
       </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>"Ответственный исполнитель Общества (далее - исполнитель КП) проверяет корректность отражения в учетной политике Общества по налоговому учету положений Корпоративных учетных принципов, сформированных и доведенных вышестоящей организацией.  Исполнитель КП отдела налогов проверяет в учетной политике по налоговому учету  корректность и полноту отражения норм НК РФ, а также единых принципов, разработанных и доведенных Департаментом ПАО ""Газпром"" (К.И. Оганян). В случае если исполнитель КП обнаружи</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>Ежегодно</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>Ручной</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>_</t>
         </is>
       </c>
-      <c r="I9" s="2" t="inlineStr">
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>АУАУА</t>
+        </is>
+      </c>
+      <c r="G14" t="n">
+        <v>22</v>
+      </c>
+      <c r="H14" t="n">
+        <v>21</v>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>checklist(133)</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>Значение филиала</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>1</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>НУ-ОБЩ-1-КП-001</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>НУ-ОБЩ-1-КП-001-01</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Контроль отражения методологической позиции по налоговому учету хозяйственных операций в методологических документах компании</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
         <is>
           <t>_</t>
         </is>
       </c>
-      <c r="J9" s="2">
-        <f>Sheet2!H24</f>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>ПКЦВУ</t>
+        </is>
+      </c>
+      <c r="G15" t="n">
+        <v>32</v>
+      </c>
+      <c r="H15" t="n">
+        <v>22</v>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>checklist(134)</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>Значение филиала</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>1</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>НУ-ОБЩ-1-КП-001</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>НУ-ОБЩ-1-КП-001-02</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Контроль отражения методологической позиции по налоговому учету хозяйственных операций в методологических документах компании</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>АУЦЦС</t>
+        </is>
+      </c>
+      <c r="G16" t="n">
+        <v>32</v>
+      </c>
+      <c r="H16" t="n">
+        <v>55</v>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>checklist(135)</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>Значение филиала</t>
+        </is>
+      </c>
+    </row>
+    <row r="17"/>
+    <row r="18"/>
+    <row r="19"/>
+    <row r="20"/>
+    <row r="21"/>
+    <row r="22"/>
+    <row r="23"/>
+    <row r="24"/>
+    <row r="25"/>
+    <row r="26"/>
+    <row r="27"/>
+    <row r="28"/>
+    <row r="29">
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>Итого:</t>
+        </is>
+      </c>
+      <c r="G29">
+        <f>SUM(G1:G28)</f>
         <v/>
       </c>
-      <c r="K9" s="2">
-        <f>Sheet2!I24</f>
+      <c r="H29">
+        <f>SUM(H1:H28)</f>
         <v/>
       </c>
-      <c r="L9" s="2" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>________________________________</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>________________________________</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>________________________________</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>должность</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>подпись</t>
+        </is>
+      </c>
+      <c r="F32" s="2" t="inlineStr">
+        <is>
+          <t>ФИО</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="13">
-    <mergeCell ref="B8"/>
-    <mergeCell ref="A8"/>
-    <mergeCell ref="E8"/>
-    <mergeCell ref="C8"/>
-    <mergeCell ref="L9"/>
-    <mergeCell ref="F8"/>
-    <mergeCell ref="G8"/>
-    <mergeCell ref="H8"/>
-    <mergeCell ref="I8"/>
-    <mergeCell ref="J8"/>
-    <mergeCell ref="L8"/>
-    <mergeCell ref="K8"/>
-    <mergeCell ref="D5"/>
+  <mergeCells count="1">
+    <mergeCell ref="J14:J16"/>
   </mergeCells>
-  <dataValidations count="1">
-    <dataValidation sqref="L9" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
+  <dataValidations count="2">
+    <dataValidation sqref="D3" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
       <formula1>"АУП,Югорское УМТС и К,УОВОФ,Надымское УАВР,Югорское УАВР,Белоярское УАВР,Надымское УТТиСТ,Югорское УТТиСТ,Белоярское УТТиСТ,ИТЦ,Учебно-производственный центр,УЭЗ и С,Управление связи,Бобровское ЛПУ,Верхнеказымское ЛПУ,Ивдельское ЛПУ,Казымское ЛПУ,Карпинское ЛПУ,Комсомольское ЛПУ,Краснотурьинское ЛПУ,Лонг-Юганское ЛПУ,Надымское ЛПУ,Нижнетуринское ЛПУ,Ново-Уренгойское ЛПУ,Ныдинское ЛПУ,Октябрьское ЛПУ,Пангодинское ЛПУПелымское ЛПУ,Перегребненское ЛПУ,Правохеттинское ЛПУ,Приозерное ЛПУ,Пунгинское ЛПУ,Сорумское ЛПУ,Сосновское ЛПУ,Таежное ЛПУ,Уральское ЛПУ,Ягельное ЛПУ,Ямбургское ЛПУ,Санаторий-профилакторий,КСК Норд"</formula1>
+    </dataValidation>
+    <dataValidation sqref="D7" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
+      <formula1>"За Декабрь 2023г,За Январь 2023г,За Февраль 2023г,За Март 2023г,За Апрель 2023г,За Май 2023г,За Июнь 2023г,За Июль 2023г,За Август 2023г,За Сентябрь 2023г,За Октябрь 2023г,За Ноябрь 2023г"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:J4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>№ п/п</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Код КП(промежуточный)</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Исполнитель ИП</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>номер чек листа</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Объект контроля (договор, акт, счет-фактура, КС-2 и др.)</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Дата документа</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Номер документа</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Количество документов/операций</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Количество ошибок/нарушений</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Примечание</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>НУ-ОБЩ-1-КП-001-01</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>АУАУА</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>#Н/Д</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="n">
+        <v>22</v>
+      </c>
+      <c r="I2" t="n">
+        <v>21</v>
+      </c>
+      <c r="J2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>НУ-ОБЩ-1-КП-001-01</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>ПКЦВУ</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>#Н/Д</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="n">
+        <v>32</v>
+      </c>
+      <c r="I3" t="n">
+        <v>22</v>
+      </c>
+      <c r="J3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>1</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>НУ-ОБЩ-1-КП-001-02</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>АУЦЦС</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>#Н/Д</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="n">
+        <v>32</v>
+      </c>
+      <c r="I4" t="n">
+        <v>55</v>
+      </c>
+      <c r="J4" t="inlineStr"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:L4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>номер п/п</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Код КП(общий)</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Код КП(промежуточный)</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Наименование контрольной процедуры</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Описание КП</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Переодичность проведения</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Способ подсчета результаты проведения КП</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Подразделение, ответственное за проведение контрольной процедуры</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Исполнитель КП</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Количество выполненых КП</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Количество выявленных ошибок</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Документ, подтверждающий проведение контрольной процедуры</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>НУ-ОБЩ-1-КП-001</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr"/>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Контроль отражения методологической позиции по налоговому учету хозяйственных операций в методологических документах компании</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr"/>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="n">
+        <v>22</v>
+      </c>
+      <c r="K2" t="n">
+        <v>21</v>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>Чек-лист/Реестр объектов контроля</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>НУ-ОБЩ-1-КП-001</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Контроль отражения методологической позиции по налоговому учету хозяйственных операций в методологических документах компании</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="n">
+        <v>32</v>
+      </c>
+      <c r="K3" t="n">
+        <v>22</v>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>Чек-лист/Реестр объектов контроля</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>1</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>НУ-ОБЩ-1-КП-001</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Контроль отражения методологической позиции по налоговому учету хозяйственных операций в методологических документах компании</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="n">
+        <v>32</v>
+      </c>
+      <c r="K4" t="n">
+        <v>55</v>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>Чек-лист/Реестр объектов контроля</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/excelanalog/example.xlsx
+++ b/excelanalog/example.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J32"/>
+  <dimension ref="A1:J23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -670,79 +670,102 @@
         </is>
       </c>
     </row>
-    <row r="17"/>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>1</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>НУ-ОБЩ-1-КП-001</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>НУ-ОБЩ-1-КП-001-01</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Контроль отражения методологической позиции по налоговому учету хозяйственных операций в методологических документах компании</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
+      </c>
+      <c r="G17" t="n">
+        <v>15</v>
+      </c>
+      <c r="H17" t="n">
+        <v>2</v>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>checklist(136)</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>Значение филиала</t>
+        </is>
+      </c>
+    </row>
     <row r="18"/>
     <row r="19"/>
-    <row r="20"/>
-    <row r="21"/>
-    <row r="22"/>
-    <row r="23"/>
-    <row r="24"/>
-    <row r="25"/>
-    <row r="26"/>
-    <row r="27"/>
-    <row r="28"/>
-    <row r="29">
-      <c r="F29" t="inlineStr">
+    <row r="20">
+      <c r="F20" t="inlineStr">
         <is>
           <t>Итого:</t>
         </is>
       </c>
-      <c r="G29">
-        <f>SUM(G1:G28)</f>
+      <c r="G20">
+        <f>SUM(G1:G19)</f>
         <v/>
       </c>
-      <c r="H29">
-        <f>SUM(H1:H28)</f>
+      <c r="H20">
+        <f>SUM(H1:H19)</f>
         <v/>
       </c>
-      <c r="I29" t="inlineStr">
+      <c r="I20" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
-    <row r="31">
-      <c r="B31" t="inlineStr">
+    <row r="22">
+      <c r="D22" t="inlineStr">
         <is>
           <t>________________________________</t>
         </is>
       </c>
-      <c r="D31" t="inlineStr">
+      <c r="F22" t="inlineStr">
         <is>
           <t>________________________________</t>
         </is>
       </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>________________________________</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>должность</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
+    </row>
+    <row r="23">
+      <c r="D23" t="inlineStr">
         <is>
           <t>подпись</t>
         </is>
       </c>
-      <c r="F32" s="2" t="inlineStr">
+      <c r="F23" s="2" t="inlineStr">
         <is>
           <t>ФИО</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="J14:J16"/>
-  </mergeCells>
   <dataValidations count="2">
     <dataValidation sqref="D3" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
-      <formula1>"АУП,Югорское УМТС и К,УОВОФ,Надымское УАВР,Югорское УАВР,Белоярское УАВР,Надымское УТТиСТ,Югорское УТТиСТ,Белоярское УТТиСТ,ИТЦ,Учебно-производственный центр,УЭЗ и С,Управление связи,Бобровское ЛПУ,Верхнеказымское ЛПУ,Ивдельское ЛПУ,Казымское ЛПУ,Карпинское ЛПУ,Комсомольское ЛПУ,Краснотурьинское ЛПУ,Лонг-Юганское ЛПУ,Надымское ЛПУ,Нижнетуринское ЛПУ,Ново-Уренгойское ЛПУ,Ныдинское ЛПУ,Октябрьское ЛПУ,Пангодинское ЛПУПелымское ЛПУ,Перегребненское ЛПУ,Правохеттинское ЛПУ,Приозерное ЛПУ,Пунгинское ЛПУ,Сорумское ЛПУ,Сосновское ЛПУ,Таежное ЛПУ,Уральское ЛПУ,Ягельное ЛПУ,Ямбургское ЛПУ,Санаторий-профилакторий,КСК Норд"</formula1>
+      <formula1>"АУП,Югорское УМТС и К,УОВОФ,Надымское УАВР,Югорское УАВР,Белоярское УАВР,Надымское УТТиСТ,Югорское УТТиСТ,Белоярское УТТиСТ,ИТЦ,Учебно-производственный центр,УЭЗ и С,Управление связи,Бобровское ЛПУ,Верхнеказымское ЛПУ,Ивдельское ЛПУ,Казымское ЛПУ,Карп</formula1>
     </dataValidation>
     <dataValidation sqref="D7" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
       <formula1>"За Декабрь 2023г,За Январь 2023г,За Февраль 2023г,За Март 2023г,За Апрель 2023г,За Май 2023г,За Июнь 2023г,За Июль 2023г,За Август 2023г,За Сентябрь 2023г,За Октябрь 2023г,За Ноябрь 2023г"</formula1>
@@ -758,7 +781,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J4"/>
+  <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -907,6 +930,36 @@
         <v>55</v>
       </c>
       <c r="J4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>1</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>НУ-ОБЩ-1-КП-001-01</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>#Н/Д</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="n">
+        <v>15</v>
+      </c>
+      <c r="I5" t="n">
+        <v>2</v>
+      </c>
+      <c r="J5" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -919,7 +972,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L4"/>
+  <dimension ref="A1:L5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1085,6 +1138,38 @@
         </is>
       </c>
     </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>1</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>НУ-ОБЩ-1-КП-001</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Контроль отражения методологической позиции по налоговому учету хозяйствен</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="n">
+        <v>15</v>
+      </c>
+      <c r="K5" t="n">
+        <v>2</v>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>Чек-лист/Реестр объектов контроля</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/excelanalog/example.xlsx
+++ b/excelanalog/example.xlsx
@@ -455,7 +455,7 @@
     <row r="3">
       <c r="D3" t="inlineStr">
         <is>
-          <t>_____________________________________</t>
+          <t>=</t>
         </is>
       </c>
     </row>
@@ -716,8 +716,98 @@
         </is>
       </c>
     </row>
-    <row r="18"/>
-    <row r="19"/>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>1</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>НУ-ОБЩ-1-КП-002</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>НУ-ОБЩ-1-КП-002-02</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Мониторинг изменений налогового законодательства</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
+      </c>
+      <c r="G18" t="n">
+        <v>45</v>
+      </c>
+      <c r="H18" t="n">
+        <v>31</v>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>checklist(137)</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>Значение филиала</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>1</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>НУ-ОБЩ-1-КП-003</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>НУ-ОБЩ-1-КП-003-02</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Проверка полноты и достоверности ПУД</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>FEEFE</t>
+        </is>
+      </c>
+      <c r="G19" t="n">
+        <v>21</v>
+      </c>
+      <c r="H19" t="n">
+        <v>32</v>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>checklist(138)</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>Значение филиала</t>
+        </is>
+      </c>
+    </row>
     <row r="20">
       <c r="F20" t="inlineStr">
         <is>
@@ -765,7 +855,7 @@
   </sheetData>
   <dataValidations count="2">
     <dataValidation sqref="D3" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
-      <formula1>"АУП,Югорское УМТС и К,УОВОФ,Надымское УАВР,Югорское УАВР,Белоярское УАВР,Надымское УТТиСТ,Югорское УТТиСТ,Белоярское УТТиСТ,ИТЦ,Учебно-производственный центр,УЭЗ и С,Управление связи,Бобровское ЛПУ,Верхнеказымское ЛПУ,Ивдельское ЛПУ,Казымское ЛПУ,Карп</formula1>
+      <formula1>"АУП,Югорское УМТС и К,УОВОФ,Надымское УАВР,Югорское УАВР,Белоярское УАВР,Надымское УТТиСТ,Югорское УТТиСТ,Белоярское УТТиСТ,ИТЦ,Учебно-производственный центр,УЭЗ и С,Управление связи,Бобровское ЛПУ,Верхнеказымское ЛПУ,Ивдельское ЛПУ,Казымское ЛПУ,Карпинское ЛПУ,Комсомольское ЛПУ,Краснотурьинское ЛПУ,Лонг-Юганское ЛПУ,Надымское ЛПУ,Нижнетуринское ЛПУ,Ново-Уренгойское ЛПУ,Ныдинское ЛПУ,Октябрьское ЛПУ,Пангодинское ЛПУПелымское ЛПУ,Перегребненское ЛПУ,Правохеттинское ЛПУ,Приозерное ЛПУ,Пунгинское ЛПУ,Сорумское ЛПУ,Сосновское ЛПУ,Таежное ЛПУ,Уральское ЛПУ,Ягельное ЛПУ,Ямбургское ЛПУ,Санаторий-профилакторий,КСК Норд"</formula1>
     </dataValidation>
     <dataValidation sqref="D7" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
       <formula1>"За Декабрь 2023г,За Январь 2023г,За Февраль 2023г,За Март 2023г,За Апрель 2023г,За Май 2023г,За Июнь 2023г,За Июль 2023г,За Август 2023г,За Сентябрь 2023г,За Октябрь 2023г,За Ноябрь 2023г"</formula1>
@@ -781,7 +871,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J5"/>
+  <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -960,6 +1050,66 @@
         <v>2</v>
       </c>
       <c r="J5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>1</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>НУ-ОБЩ-1-КП-002-02</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>#Н/Д</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="n">
+        <v>45</v>
+      </c>
+      <c r="I6" t="n">
+        <v>31</v>
+      </c>
+      <c r="J6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>1</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>НУ-ОБЩ-1-КП-003-02</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>FEEFE</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>#Н/Д</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="n">
+        <v>21</v>
+      </c>
+      <c r="I7" t="n">
+        <v>32</v>
+      </c>
+      <c r="J7" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -972,7 +1122,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L5"/>
+  <dimension ref="A1:L7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1170,6 +1320,70 @@
         </is>
       </c>
     </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>1</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>НУ-ОБЩ-1-КП-002</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Мониторинг изменений налогового законодательства</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="n">
+        <v>45</v>
+      </c>
+      <c r="K6" t="n">
+        <v>31</v>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>Чек-лист/Реестр объектов контроля</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>1</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>НУ-ОБЩ-1-КП-003</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Проверка полноты и достоверности ПУД</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr"/>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="n">
+        <v>21</v>
+      </c>
+      <c r="K7" t="n">
+        <v>32</v>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>Чек-лист/Реестр объектов контроля</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/excelanalog/example.xlsx
+++ b/excelanalog/example.xlsx
@@ -57,13 +57,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -574,7 +571,7 @@
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>Значение филиала</t>
+          <t>Your Filial Value</t>
         </is>
       </c>
     </row>
@@ -620,7 +617,7 @@
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>Значение филиала</t>
+          <t>Your Filial Value</t>
         </is>
       </c>
     </row>
@@ -666,7 +663,7 @@
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>Значение филиала</t>
+          <t>Your Filial Value</t>
         </is>
       </c>
     </row>
@@ -712,7 +709,7 @@
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>Значение филиала</t>
+          <t>Your Filial Value</t>
         </is>
       </c>
     </row>
@@ -758,7 +755,7 @@
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>Значение филиала</t>
+          <t>Your Filial Value</t>
         </is>
       </c>
     </row>
@@ -804,51 +801,165 @@
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>Значение филиала</t>
+          <t>Your Filial Value</t>
         </is>
       </c>
     </row>
     <row r="20">
+      <c r="A20" t="n">
+        <v>1</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>НУ-ОБЩ-1-КП-003</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>НУ-ОБЩ-1-КП-003-05</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Проверка полноты и достоверности ПУД</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
+      </c>
       <c r="F20" t="inlineStr">
         <is>
+          <t>_</t>
+        </is>
+      </c>
+      <c r="G20" t="n">
+        <v>21</v>
+      </c>
+      <c r="H20" t="n">
+        <v>32</v>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>checklist(139)</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>Your Filial Value</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>1</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>НУ-ОБЩ-1-КП-003</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>НУ-ОБЩ-1-КП-003-05</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Проверка полноты и достоверности ПУД</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>GEFED</t>
+        </is>
+      </c>
+      <c r="G21" t="n">
+        <v>23</v>
+      </c>
+      <c r="H21" t="n">
+        <v>42</v>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>checklist(140)</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>Your Filial Value</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>1</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>НУ-ОБЩ-1-КП-005</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>НУ-ОБЩ-1-КП-005-01</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Проверка полноты и корректности внесения данных в НСИ</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>GFD</t>
+        </is>
+      </c>
+      <c r="G22" t="n">
+        <v>21</v>
+      </c>
+      <c r="H22" t="n">
+        <v>32</v>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>checklist(141)</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>Your Filial Value</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="F23" t="inlineStr">
+        <is>
           <t>Итого:</t>
         </is>
       </c>
-      <c r="G20">
-        <f>SUM(G1:G19)</f>
+      <c r="G23">
+        <f>SUM(G1:G22)</f>
         <v/>
       </c>
-      <c r="H20">
-        <f>SUM(H1:H19)</f>
+      <c r="H23">
+        <f>SUM(H1:H22)</f>
         <v/>
       </c>
-      <c r="I20" t="inlineStr">
+      <c r="I23" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>________________________________</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>________________________________</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>подпись</t>
-        </is>
-      </c>
-      <c r="F23" s="2" t="inlineStr">
-        <is>
-          <t>ФИО</t>
         </is>
       </c>
     </row>
@@ -871,7 +982,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J7"/>
+  <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1110,6 +1221,88 @@
         <v>32</v>
       </c>
       <c r="J7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>1</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>НУ-ОБЩ-1-КП-003-05</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>#Н/Д</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr"/>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>1</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>НУ-ОБЩ-1-КП-003-05</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>GEFED</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>#Н/Д</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="n">
+        <v>23</v>
+      </c>
+      <c r="I9" t="n">
+        <v>42</v>
+      </c>
+      <c r="J9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>1</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>НУ-ОБЩ-1-КП-005-01</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>GFD</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>#Н/Д</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr"/>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="n">
+        <v>21</v>
+      </c>
+      <c r="I10" t="n">
+        <v>32</v>
+      </c>
+      <c r="J10" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1122,7 +1315,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L7"/>
+  <dimension ref="A1:L10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1300,7 +1493,7 @@
       <c r="C5" t="inlineStr"/>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Контроль отражения методологической позиции по налоговому учету хозяйствен</t>
+          <t>Контроль отражения методологической позиции по налоговому учету хозяйственных операций в методологических документах компании</t>
         </is>
       </c>
       <c r="E5" t="inlineStr"/>
@@ -1384,6 +1577,98 @@
         </is>
       </c>
     </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>1</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>НУ-ОБЩ-1-КП-003</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Проверка полноты и достоверности ПУД</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr"/>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>Чек-лист/Реестр объектов контроля</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>1</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>НУ-ОБЩ-1-КП-003</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Проверка полноты и достоверности ПУД</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr"/>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="n">
+        <v>23</v>
+      </c>
+      <c r="K9" t="n">
+        <v>42</v>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>Чек-лист/Реестр объектов контроля</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>1</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>НУ-ОБЩ-1-КП-005</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr"/>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Проверка полноты и корректности внесения данных в НСИ</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr"/>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr"/>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="n">
+        <v>21</v>
+      </c>
+      <c r="K10" t="n">
+        <v>32</v>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>Чек-лист/Реестр объектов контроля</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/excelanalog/example.xlsx
+++ b/excelanalog/example.xlsx
@@ -427,7 +427,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J23"/>
+  <dimension ref="A1:J22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -898,66 +898,20 @@
       </c>
     </row>
     <row r="22">
-      <c r="A22" t="n">
-        <v>1</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>НУ-ОБЩ-1-КП-005</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>НУ-ОБЩ-1-КП-005-01</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>Проверка полноты и корректности внесения данных в НСИ</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>_</t>
-        </is>
-      </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>GFD</t>
-        </is>
-      </c>
-      <c r="G22" t="n">
-        <v>21</v>
-      </c>
-      <c r="H22" t="n">
-        <v>32</v>
+          <t>Итого:</t>
+        </is>
+      </c>
+      <c r="G22">
+        <f>SUM(G1:G21)</f>
+        <v/>
+      </c>
+      <c r="H22">
+        <f>SUM(H1:H21)</f>
+        <v/>
       </c>
       <c r="I22" t="inlineStr">
-        <is>
-          <t>checklist(141)</t>
-        </is>
-      </c>
-      <c r="J22" t="inlineStr">
-        <is>
-          <t>Your Filial Value</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>Итого:</t>
-        </is>
-      </c>
-      <c r="G23">
-        <f>SUM(G1:G22)</f>
-        <v/>
-      </c>
-      <c r="H23">
-        <f>SUM(H1:H22)</f>
-        <v/>
-      </c>
-      <c r="I23" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -982,7 +936,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J10"/>
+  <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1273,36 +1227,6 @@
         <v>42</v>
       </c>
       <c r="J9" t="inlineStr"/>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>1</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>НУ-ОБЩ-1-КП-005-01</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>GFD</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>#Н/Д</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr"/>
-      <c r="F10" t="inlineStr"/>
-      <c r="G10" t="inlineStr"/>
-      <c r="H10" t="n">
-        <v>21</v>
-      </c>
-      <c r="I10" t="n">
-        <v>32</v>
-      </c>
-      <c r="J10" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1315,7 +1239,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L10"/>
+  <dimension ref="A1:L9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1493,7 +1417,7 @@
       <c r="C5" t="inlineStr"/>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Контроль отражения методологической позиции по налоговому учету хозяйственных операций в методологических документах компании</t>
+          <t>Контроль отражения методологической позиции по налоговому учету хозяйствен</t>
         </is>
       </c>
       <c r="E5" t="inlineStr"/>
@@ -1637,38 +1561,6 @@
         </is>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>1</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>НУ-ОБЩ-1-КП-005</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr"/>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>Проверка полноты и корректности внесения данных в НСИ</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr"/>
-      <c r="F10" t="inlineStr"/>
-      <c r="G10" t="inlineStr"/>
-      <c r="H10" t="inlineStr"/>
-      <c r="I10" t="inlineStr"/>
-      <c r="J10" t="n">
-        <v>21</v>
-      </c>
-      <c r="K10" t="n">
-        <v>32</v>
-      </c>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>Чек-лист/Реестр объектов контроля</t>
-        </is>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/excelanalog/example.xlsx
+++ b/excelanalog/example.xlsx
@@ -427,7 +427,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J22"/>
+  <dimension ref="A1:J20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -555,18 +555,18 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>АУАУА</t>
+          <t>_</t>
         </is>
       </c>
       <c r="G14" t="n">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="H14" t="n">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>checklist(133)</t>
+          <t>checklist(136)</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -581,17 +581,17 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>НУ-ОБЩ-1-КП-001</t>
+          <t>НУ-ОБЩ-1-КП-002</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>НУ-ОБЩ-1-КП-001-01</t>
+          <t>НУ-ОБЩ-1-КП-002-02</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Контроль отражения методологической позиции по налоговому учету хозяйственных операций в методологических документах компании</t>
+          <t>Мониторинг изменений налогового законодательства</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -601,18 +601,18 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>ПКЦВУ</t>
+          <t>_</t>
         </is>
       </c>
       <c r="G15" t="n">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="H15" t="n">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>checklist(134)</t>
+          <t>checklist(137)</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -627,17 +627,17 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>НУ-ОБЩ-1-КП-001</t>
+          <t>НУ-ОБЩ-1-КП-003</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>НУ-ОБЩ-1-КП-001-02</t>
+          <t>НУ-ОБЩ-1-КП-003-02</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Контроль отражения методологической позиции по налоговому учету хозяйственных операций в методологических документах компании</t>
+          <t>Проверка полноты и достоверности ПУД</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -647,18 +647,18 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>АУЦЦС</t>
+          <t>FEEFE</t>
         </is>
       </c>
       <c r="G16" t="n">
+        <v>21</v>
+      </c>
+      <c r="H16" t="n">
         <v>32</v>
       </c>
-      <c r="H16" t="n">
-        <v>55</v>
-      </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>checklist(135)</t>
+          <t>checklist(138)</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -673,17 +673,17 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>НУ-ОБЩ-1-КП-001</t>
+          <t>НУ-ОБЩ-1-КП-003</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>НУ-ОБЩ-1-КП-001-01</t>
+          <t>НУ-ОБЩ-1-КП-003-05</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Контроль отражения методологической позиции по налоговому учету хозяйственных операций в методологических документах компании</t>
+          <t>Проверка полноты и достоверности ПУД</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -697,14 +697,14 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="H17" t="n">
-        <v>2</v>
+        <v>32</v>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>checklist(136)</t>
+          <t>checklist(139)</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -719,17 +719,17 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>НУ-ОБЩ-1-КП-002</t>
+          <t>НУ-ОБЩ-1-КП-003</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>НУ-ОБЩ-1-КП-002-02</t>
+          <t>НУ-ОБЩ-1-КП-003-05</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Мониторинг изменений налогового законодательства</t>
+          <t>Проверка полноты и достоверности ПУД</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -739,18 +739,18 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>_</t>
+          <t>GEFED</t>
         </is>
       </c>
       <c r="G18" t="n">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="H18" t="n">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>checklist(137)</t>
+          <t>checklist(140)</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -765,17 +765,17 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>НУ-ОБЩ-1-КП-003</t>
+          <t>НУ-ОБЩ-1-КП-005</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>НУ-ОБЩ-1-КП-003-02</t>
+          <t>НУ-ОБЩ-1-КП-005-01</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Проверка полноты и достоверности ПУД</t>
+          <t>Проверка полноты и корректности внесения данных в НСИ</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -785,7 +785,7 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>FEEFE</t>
+          <t>GFD</t>
         </is>
       </c>
       <c r="G19" t="n">
@@ -796,7 +796,7 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>checklist(138)</t>
+          <t>checklist(141)</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -806,112 +806,20 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="n">
-        <v>1</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>НУ-ОБЩ-1-КП-003</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>НУ-ОБЩ-1-КП-003-05</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>Проверка полноты и достоверности ПУД</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>_</t>
-        </is>
-      </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>_</t>
-        </is>
-      </c>
-      <c r="G20" t="n">
-        <v>21</v>
-      </c>
-      <c r="H20" t="n">
-        <v>32</v>
+          <t>Итого:</t>
+        </is>
+      </c>
+      <c r="G20">
+        <f>SUM(G1:G19)</f>
+        <v/>
+      </c>
+      <c r="H20">
+        <f>SUM(H1:H19)</f>
+        <v/>
       </c>
       <c r="I20" t="inlineStr">
-        <is>
-          <t>checklist(139)</t>
-        </is>
-      </c>
-      <c r="J20" t="inlineStr">
-        <is>
-          <t>Your Filial Value</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="n">
-        <v>1</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>НУ-ОБЩ-1-КП-003</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>НУ-ОБЩ-1-КП-003-05</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>Проверка полноты и достоверности ПУД</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>_</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>GEFED</t>
-        </is>
-      </c>
-      <c r="G21" t="n">
-        <v>23</v>
-      </c>
-      <c r="H21" t="n">
-        <v>42</v>
-      </c>
-      <c r="I21" t="inlineStr">
-        <is>
-          <t>checklist(140)</t>
-        </is>
-      </c>
-      <c r="J21" t="inlineStr">
-        <is>
-          <t>Your Filial Value</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>Итого:</t>
-        </is>
-      </c>
-      <c r="G22">
-        <f>SUM(G1:G21)</f>
-        <v/>
-      </c>
-      <c r="H22">
-        <f>SUM(H1:H21)</f>
-        <v/>
-      </c>
-      <c r="I22" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -920,7 +828,7 @@
   </sheetData>
   <dataValidations count="2">
     <dataValidation sqref="D3" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
-      <formula1>"АУП,Югорское УМТС и К,УОВОФ,Надымское УАВР,Югорское УАВР,Белоярское УАВР,Надымское УТТиСТ,Югорское УТТиСТ,Белоярское УТТиСТ,ИТЦ,Учебно-производственный центр,УЭЗ и С,Управление связи,Бобровское ЛПУ,Верхнеказымское ЛПУ,Ивдельское ЛПУ,Казымское ЛПУ,Карпинское ЛПУ,Комсомольское ЛПУ,Краснотурьинское ЛПУ,Лонг-Юганское ЛПУ,Надымское ЛПУ,Нижнетуринское ЛПУ,Ново-Уренгойское ЛПУ,Ныдинское ЛПУ,Октябрьское ЛПУ,Пангодинское ЛПУПелымское ЛПУ,Перегребненское ЛПУ,Правохеттинское ЛПУ,Приозерное ЛПУ,Пунгинское ЛПУ,Сорумское ЛПУ,Сосновское ЛПУ,Таежное ЛПУ,Уральское ЛПУ,Ягельное ЛПУ,Ямбургское ЛПУ,Санаторий-профилакторий,КСК Норд"</formula1>
+      <formula1>"АУП,Югорское УМТС и К,УОВОФ,Надымское УАВР,Югорское УАВР,Белоярское УАВР,Надымское УТТиСТ,Югорское УТТиСТ,Белоярск</formula1>
     </dataValidation>
     <dataValidation sqref="D7" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
       <formula1>"За Декабрь 2023г,За Январь 2023г,За Февраль 2023г,За Март 2023г,За Апрель 2023г,За Май 2023г,За Июнь 2023г,За Июль 2023г,За Август 2023г,За Сентябрь 2023г,За Октябрь 2023г,За Ноябрь 2023г"</formula1>
@@ -936,7 +844,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J9"/>
+  <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1007,7 +915,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>АУАУА</t>
+          <t>_</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -1019,10 +927,10 @@
       <c r="F2" t="inlineStr"/>
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="n">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="I2" t="n">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="J2" t="inlineStr"/>
     </row>
@@ -1032,12 +940,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>НУ-ОБЩ-1-КП-001-01</t>
+          <t>НУ-ОБЩ-1-КП-002-02</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>ПКЦВУ</t>
+          <t>_</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -1049,10 +957,10 @@
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr"/>
       <c r="H3" t="n">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="I3" t="n">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="J3" t="inlineStr"/>
     </row>
@@ -1062,12 +970,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>НУ-ОБЩ-1-КП-001-02</t>
+          <t>НУ-ОБЩ-1-КП-003-02</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>АУЦЦС</t>
+          <t>FEEFE</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -1079,10 +987,10 @@
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr"/>
       <c r="H4" t="n">
+        <v>21</v>
+      </c>
+      <c r="I4" t="n">
         <v>32</v>
-      </c>
-      <c r="I4" t="n">
-        <v>55</v>
       </c>
       <c r="J4" t="inlineStr"/>
     </row>
@@ -1092,14 +1000,10 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>НУ-ОБЩ-1-КП-001-01</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>_</t>
-        </is>
-      </c>
+          <t>НУ-ОБЩ-1-КП-003-05</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr"/>
       <c r="D5" t="inlineStr">
         <is>
           <t>#Н/Д</t>
@@ -1108,12 +1012,8 @@
       <c r="E5" t="inlineStr"/>
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr"/>
-      <c r="H5" t="n">
-        <v>15</v>
-      </c>
-      <c r="I5" t="n">
-        <v>2</v>
-      </c>
+      <c r="H5" t="inlineStr"/>
+      <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
     </row>
     <row r="6">
@@ -1122,12 +1022,12 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>НУ-ОБЩ-1-КП-002-02</t>
+          <t>НУ-ОБЩ-1-КП-003-05</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>_</t>
+          <t>GEFED</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -1139,10 +1039,10 @@
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr"/>
       <c r="H6" t="n">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="I6" t="n">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="J6" t="inlineStr"/>
     </row>
@@ -1152,12 +1052,12 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>НУ-ОБЩ-1-КП-003-02</t>
+          <t>НУ-ОБЩ-1-КП-005-01</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>FEEFE</t>
+          <t>GFD</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -1175,58 +1075,6 @@
         <v>32</v>
       </c>
       <c r="J7" t="inlineStr"/>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>1</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>НУ-ОБЩ-1-КП-003-05</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr"/>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>#Н/Д</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr"/>
-      <c r="F8" t="inlineStr"/>
-      <c r="G8" t="inlineStr"/>
-      <c r="H8" t="inlineStr"/>
-      <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>1</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>НУ-ОБЩ-1-КП-003-05</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>GEFED</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>#Н/Д</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr"/>
-      <c r="F9" t="inlineStr"/>
-      <c r="G9" t="inlineStr"/>
-      <c r="H9" t="n">
-        <v>23</v>
-      </c>
-      <c r="I9" t="n">
-        <v>42</v>
-      </c>
-      <c r="J9" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1239,7 +1087,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L9"/>
+  <dimension ref="A1:L7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1330,10 +1178,10 @@
       <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="n">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="K2" t="n">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="L2" t="inlineStr">
         <is>
@@ -1347,13 +1195,13 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>НУ-ОБЩ-1-КП-001</t>
+          <t>НУ-ОБЩ-1-КП-002</t>
         </is>
       </c>
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Контроль отражения методологической позиции по налоговому учету хозяйственных операций в методологических документах компании</t>
+          <t>Мониторинг изменений налогового законодательства</t>
         </is>
       </c>
       <c r="E3" t="inlineStr"/>
@@ -1362,10 +1210,10 @@
       <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="n">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="K3" t="n">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="L3" t="inlineStr">
         <is>
@@ -1379,13 +1227,13 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>НУ-ОБЩ-1-КП-001</t>
+          <t>НУ-ОБЩ-1-КП-003</t>
         </is>
       </c>
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Контроль отражения методологической позиции по налоговому учету хозяйственных операций в методологических документах компании</t>
+          <t>Проверка полноты и достоверности ПУД</t>
         </is>
       </c>
       <c r="E4" t="inlineStr"/>
@@ -1394,10 +1242,10 @@
       <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="n">
+        <v>21</v>
+      </c>
+      <c r="K4" t="n">
         <v>32</v>
-      </c>
-      <c r="K4" t="n">
-        <v>55</v>
       </c>
       <c r="L4" t="inlineStr">
         <is>
@@ -1411,13 +1259,13 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>НУ-ОБЩ-1-КП-001</t>
+          <t>НУ-ОБЩ-1-КП-003</t>
         </is>
       </c>
       <c r="C5" t="inlineStr"/>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Контроль отражения методологической позиции по налоговому учету хозяйствен</t>
+          <t>Проверка полноты и достоверности ПУД</t>
         </is>
       </c>
       <c r="E5" t="inlineStr"/>
@@ -1425,12 +1273,8 @@
       <c r="G5" t="inlineStr"/>
       <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr"/>
-      <c r="J5" t="n">
-        <v>15</v>
-      </c>
-      <c r="K5" t="n">
-        <v>2</v>
-      </c>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr">
         <is>
           <t>Чек-лист/Реестр объектов контроля</t>
@@ -1443,13 +1287,13 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>НУ-ОБЩ-1-КП-002</t>
+          <t>НУ-ОБЩ-1-КП-003</t>
         </is>
       </c>
       <c r="C6" t="inlineStr"/>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Мониторинг изменений налогового законодательства</t>
+          <t>Проверка полноты и достоверности ПУД</t>
         </is>
       </c>
       <c r="E6" t="inlineStr"/>
@@ -1458,10 +1302,10 @@
       <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="n">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="K6" t="n">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="L6" t="inlineStr">
         <is>
@@ -1475,13 +1319,13 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>НУ-ОБЩ-1-КП-003</t>
+          <t>НУ-ОБЩ-1-КП-005</t>
         </is>
       </c>
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Проверка полноты и достоверности ПУД</t>
+          <t>Проверка полноты и корректности внесения данных в НСИ</t>
         </is>
       </c>
       <c r="E7" t="inlineStr"/>
@@ -1501,66 +1345,6 @@
         </is>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>1</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>НУ-ОБЩ-1-КП-003</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr"/>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>Проверка полноты и достоверности ПУД</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr"/>
-      <c r="F8" t="inlineStr"/>
-      <c r="G8" t="inlineStr"/>
-      <c r="H8" t="inlineStr"/>
-      <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>Чек-лист/Реестр объектов контроля</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>1</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>НУ-ОБЩ-1-КП-003</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr"/>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>Проверка полноты и достоверности ПУД</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr"/>
-      <c r="F9" t="inlineStr"/>
-      <c r="G9" t="inlineStr"/>
-      <c r="H9" t="inlineStr"/>
-      <c r="I9" t="inlineStr"/>
-      <c r="J9" t="n">
-        <v>23</v>
-      </c>
-      <c r="K9" t="n">
-        <v>42</v>
-      </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>Чек-лист/Реестр объектов контроля</t>
-        </is>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/excelanalog/example.xlsx
+++ b/excelanalog/example.xlsx
@@ -57,8 +57,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -436,7 +437,7 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="D1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>Сводный реестр контрольных процедур</t>
         </is>
@@ -450,9 +451,9 @@
       </c>
     </row>
     <row r="3">
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>=</t>
+      <c r="D3" s="1" t="inlineStr">
+        <is>
+          <t>Выберите филиал</t>
         </is>
       </c>
     </row>
@@ -464,7 +465,7 @@
       </c>
     </row>
     <row r="6">
-      <c r="D6" t="inlineStr">
+      <c r="D6" s="1" t="inlineStr">
         <is>
           <t>осуществляемых в целях налогового мониторинга</t>
         </is>
@@ -478,52 +479,52 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="1" t="inlineStr">
+      <c r="A13" s="2" t="inlineStr">
         <is>
           <t>номер п/п</t>
         </is>
       </c>
-      <c r="B13" s="1" t="inlineStr">
+      <c r="B13" s="2" t="inlineStr">
         <is>
           <t>Код КП(общий)</t>
         </is>
       </c>
-      <c r="C13" s="1" t="inlineStr">
+      <c r="C13" s="2" t="inlineStr">
         <is>
           <t>Код КП(промежуточный)</t>
         </is>
       </c>
-      <c r="D13" s="1" t="inlineStr">
+      <c r="D13" s="2" t="inlineStr">
         <is>
           <t>Наименование ИП</t>
         </is>
       </c>
-      <c r="E13" s="1" t="inlineStr">
+      <c r="E13" s="2" t="inlineStr">
         <is>
           <t>Подразделение, ответственное за проведение контрольной процедуры</t>
         </is>
       </c>
-      <c r="F13" s="1" t="inlineStr">
+      <c r="F13" s="2" t="inlineStr">
         <is>
           <t>Исполнитель КП</t>
         </is>
       </c>
-      <c r="G13" s="1" t="inlineStr">
+      <c r="G13" s="2" t="inlineStr">
         <is>
           <t>Количество выполненых КП</t>
         </is>
       </c>
-      <c r="H13" s="1" t="inlineStr">
+      <c r="H13" s="2" t="inlineStr">
         <is>
           <t>Количество выявленных ошибок</t>
         </is>
       </c>
-      <c r="I13" s="1" t="inlineStr">
+      <c r="I13" s="2" t="inlineStr">
         <is>
           <t>Документ</t>
         </is>
       </c>
-      <c r="J13" s="1" t="inlineStr">
+      <c r="J13" s="2" t="inlineStr">
         <is>
           <t>филиал</t>
         </is>
@@ -558,15 +559,11 @@
           <t>_</t>
         </is>
       </c>
-      <c r="G14" t="n">
-        <v>15</v>
-      </c>
-      <c r="H14" t="n">
-        <v>2</v>
-      </c>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr">
         <is>
-          <t>checklist(136)</t>
+          <t>checklist(200)</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -581,17 +578,17 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>НУ-ОБЩ-1-КП-002</t>
+          <t>НУ-ОБЩ-1-КП-001</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>НУ-ОБЩ-1-КП-002-02</t>
+          <t>НУ-ОБЩ-1-КП-001-01</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Мониторинг изменений налогового законодательства</t>
+          <t>Контроль отражения методологической позиции по налоговому учету хозяйственных операций в методологических документах компании</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -604,15 +601,11 @@
           <t>_</t>
         </is>
       </c>
-      <c r="G15" t="n">
-        <v>45</v>
-      </c>
-      <c r="H15" t="n">
-        <v>31</v>
-      </c>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr">
         <is>
-          <t>checklist(137)</t>
+          <t>checklist(201)</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -627,17 +620,17 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>НУ-ОБЩ-1-КП-003</t>
+          <t>НУ-ОБЩ-1-КП-001</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>НУ-ОБЩ-1-КП-003-02</t>
+          <t>НУ-ОБЩ-1-КП-001-01</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Проверка полноты и достоверности ПУД</t>
+          <t>Контроль отражения методологической позиции по налоговому учету хозяйственных операций в методологических документах компании</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -647,18 +640,14 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>FEEFE</t>
-        </is>
-      </c>
-      <c r="G16" t="n">
-        <v>21</v>
-      </c>
-      <c r="H16" t="n">
-        <v>32</v>
-      </c>
+          <t>_</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr">
         <is>
-          <t>checklist(138)</t>
+          <t>checklist(202)</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -673,17 +662,17 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>НУ-ОБЩ-1-КП-003</t>
+          <t>НУ-ОБЩ-1-КП-001</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>НУ-ОБЩ-1-КП-003-05</t>
+          <t>НУ-ОБЩ-1-КП-001-01</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Проверка полноты и достоверности ПУД</t>
+          <t>Контроль отражения методологической позиции по налоговому учету хозяйственных операций в методологических документах компании</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -696,15 +685,11 @@
           <t>_</t>
         </is>
       </c>
-      <c r="G17" t="n">
-        <v>21</v>
-      </c>
-      <c r="H17" t="n">
-        <v>32</v>
-      </c>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr">
         <is>
-          <t>checklist(139)</t>
+          <t>checklist(203)</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -719,17 +704,17 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>НУ-ОБЩ-1-КП-003</t>
+          <t>НУ-ОБЩ-1-КП-001</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>НУ-ОБЩ-1-КП-003-05</t>
+          <t>НУ-ОБЩ-1-КП-001-01</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Проверка полноты и достоверности ПУД</t>
+          <t>Контроль отражения методологической позиции по налоговому учету хозяйственных операций в методологических документах компании</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -739,18 +724,14 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>GEFED</t>
-        </is>
-      </c>
-      <c r="G18" t="n">
-        <v>23</v>
-      </c>
-      <c r="H18" t="n">
-        <v>42</v>
-      </c>
+          <t>_</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr">
         <is>
-          <t>checklist(140)</t>
+          <t>checklist(204)</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -759,52 +740,7 @@
         </is>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" t="n">
-        <v>1</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>НУ-ОБЩ-1-КП-005</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>НУ-ОБЩ-1-КП-005-01</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>Проверка полноты и корректности внесения данных в НСИ</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>_</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>GFD</t>
-        </is>
-      </c>
-      <c r="G19" t="n">
-        <v>21</v>
-      </c>
-      <c r="H19" t="n">
-        <v>32</v>
-      </c>
-      <c r="I19" t="inlineStr">
-        <is>
-          <t>checklist(141)</t>
-        </is>
-      </c>
-      <c r="J19" t="inlineStr">
-        <is>
-          <t>Your Filial Value</t>
-        </is>
-      </c>
-    </row>
+    <row r="19"/>
     <row r="20">
       <c r="F20" t="inlineStr">
         <is>
@@ -828,7 +764,7 @@
   </sheetData>
   <dataValidations count="2">
     <dataValidation sqref="D3" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
-      <formula1>"АУП,Югорское УМТС и К,УОВОФ,Надымское УАВР,Югорское УАВР,Белоярское УАВР,Надымское УТТиСТ,Югорское УТТиСТ,Белоярск</formula1>
+      <formula1>"АУП,Югорское УМТС и К,УОВОФ,Надымское УАВР,Югорское УАВР,Белоярское УАВР,Надымское УТТиСТ,Югорское УТТиСТ,Белоярское УТТиСТ,ИТЦ,Учебно-производственный центр,УЭЗ и С,Управление связи,Бобровское ЛПУ,Верхнеказымское ЛПУ,Ивдельское ЛПУ,Казымское ЛПУ,Карпинское ЛПУ,Комсомольское ЛПУ,Краснотурьинское ЛПУ,Лонг-Юганское ЛПУ,Надымское ЛПУ,Нижнетуринское ЛПУ,Ново-Уренгойское ЛПУ,Ныдинское ЛПУ,Октябрьское ЛПУ,Пангодинское ЛПУПелымское ЛПУ,Перегребненское ЛПУ,Правохеттинское ЛПУ,Приозерное ЛПУ,Пунгинское ЛПУ,Сорумское ЛПУ,Сосновское ЛПУ,Таежное ЛПУ,Уральское ЛПУ,Ягельное ЛПУ,Ямбургское ЛПУ,Санаторий-профилакторий,КСК Норд"</formula1>
     </dataValidation>
     <dataValidation sqref="D7" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
       <formula1>"За Декабрь 2023г,За Январь 2023г,За Февраль 2023г,За Март 2023г,За Апрель 2023г,За Май 2023г,За Июнь 2023г,За Июль 2023г,За Август 2023г,За Сентябрь 2023г,За Октябрь 2023г,За Ноябрь 2023г"</formula1>
@@ -844,7 +780,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J7"/>
+  <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -853,52 +789,52 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="A1" s="2" t="inlineStr">
         <is>
           <t>№ п/п</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
         <is>
           <t>Код КП(промежуточный)</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" s="2" t="inlineStr">
         <is>
           <t>Исполнитель ИП</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>номер чек листа</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="E1" s="2" t="inlineStr">
         <is>
           <t>Объект контроля (договор, акт, счет-фактура, КС-2 и др.)</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>Дата документа</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
         <is>
           <t>Номер документа</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>Количество документов/операций</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="I1" s="2" t="inlineStr">
         <is>
           <t>Количество ошибок/нарушений</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="J1" s="2" t="inlineStr">
         <is>
           <t>Примечание</t>
         </is>
@@ -913,11 +849,7 @@
           <t>НУ-ОБЩ-1-КП-001-01</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>_</t>
-        </is>
-      </c>
+      <c r="C2" t="inlineStr"/>
       <c r="D2" t="inlineStr">
         <is>
           <t>#Н/Д</t>
@@ -926,12 +858,8 @@
       <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr"/>
       <c r="G2" t="inlineStr"/>
-      <c r="H2" t="n">
-        <v>15</v>
-      </c>
-      <c r="I2" t="n">
-        <v>2</v>
-      </c>
+      <c r="H2" t="inlineStr"/>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
     </row>
     <row r="3">
@@ -940,14 +868,10 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>НУ-ОБЩ-1-КП-002-02</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>_</t>
-        </is>
-      </c>
+          <t>НУ-ОБЩ-1-КП-001-01</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr">
         <is>
           <t>#Н/Д</t>
@@ -956,12 +880,8 @@
       <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr"/>
-      <c r="H3" t="n">
-        <v>45</v>
-      </c>
-      <c r="I3" t="n">
-        <v>31</v>
-      </c>
+      <c r="H3" t="inlineStr"/>
+      <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
     </row>
     <row r="4">
@@ -970,14 +890,10 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>НУ-ОБЩ-1-КП-003-02</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>FEEFE</t>
-        </is>
-      </c>
+          <t>НУ-ОБЩ-1-КП-001-01</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr"/>
       <c r="D4" t="inlineStr">
         <is>
           <t>#Н/Д</t>
@@ -986,12 +902,8 @@
       <c r="E4" t="inlineStr"/>
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr"/>
-      <c r="H4" t="n">
-        <v>21</v>
-      </c>
-      <c r="I4" t="n">
-        <v>32</v>
-      </c>
+      <c r="H4" t="inlineStr"/>
+      <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
     </row>
     <row r="5">
@@ -1000,7 +912,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>НУ-ОБЩ-1-КП-003-05</t>
+          <t>НУ-ОБЩ-1-КП-001-01</t>
         </is>
       </c>
       <c r="C5" t="inlineStr"/>
@@ -1022,14 +934,10 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>НУ-ОБЩ-1-КП-003-05</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>GEFED</t>
-        </is>
-      </c>
+          <t>НУ-ОБЩ-1-КП-001-01</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr"/>
       <c r="D6" t="inlineStr">
         <is>
           <t>#Н/Д</t>
@@ -1038,43 +946,9 @@
       <c r="E6" t="inlineStr"/>
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr"/>
-      <c r="H6" t="n">
-        <v>23</v>
-      </c>
-      <c r="I6" t="n">
-        <v>42</v>
-      </c>
+      <c r="H6" t="inlineStr"/>
+      <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>1</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>НУ-ОБЩ-1-КП-005-01</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>GFD</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>#Н/Д</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr"/>
-      <c r="F7" t="inlineStr"/>
-      <c r="G7" t="inlineStr"/>
-      <c r="H7" t="n">
-        <v>21</v>
-      </c>
-      <c r="I7" t="n">
-        <v>32</v>
-      </c>
-      <c r="J7" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1087,7 +961,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L7"/>
+  <dimension ref="A1:L6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1096,62 +970,62 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="A1" s="2" t="inlineStr">
         <is>
           <t>номер п/п</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
         <is>
           <t>Код КП(общий)</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" s="2" t="inlineStr">
         <is>
           <t>Код КП(промежуточный)</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>Наименование контрольной процедуры</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="E1" s="2" t="inlineStr">
         <is>
           <t>Описание КП</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>Переодичность проведения</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
         <is>
           <t>Способ подсчета результаты проведения КП</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>Подразделение, ответственное за проведение контрольной процедуры</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="I1" s="2" t="inlineStr">
         <is>
           <t>Исполнитель КП</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="J1" s="2" t="inlineStr">
         <is>
           <t>Количество выполненых КП</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="K1" s="2" t="inlineStr">
         <is>
           <t>Количество выявленных ошибок</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="L1" s="2" t="inlineStr">
         <is>
           <t>Документ, подтверждающий проведение контрольной процедуры</t>
         </is>
@@ -1177,12 +1051,8 @@
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
-      <c r="J2" t="n">
-        <v>15</v>
-      </c>
-      <c r="K2" t="n">
-        <v>2</v>
-      </c>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr">
         <is>
           <t>Чек-лист/Реестр объектов контроля</t>
@@ -1195,13 +1065,13 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>НУ-ОБЩ-1-КП-002</t>
+          <t>НУ-ОБЩ-1-КП-001</t>
         </is>
       </c>
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Мониторинг изменений налогового законодательства</t>
+          <t>Контроль отражения методологической позиции по налоговому учету хозяйственных операций в методологических документах компании</t>
         </is>
       </c>
       <c r="E3" t="inlineStr"/>
@@ -1209,12 +1079,8 @@
       <c r="G3" t="inlineStr"/>
       <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr"/>
-      <c r="J3" t="n">
-        <v>45</v>
-      </c>
-      <c r="K3" t="n">
-        <v>31</v>
-      </c>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr">
         <is>
           <t>Чек-лист/Реестр объектов контроля</t>
@@ -1227,13 +1093,13 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>НУ-ОБЩ-1-КП-003</t>
+          <t>НУ-ОБЩ-1-КП-001</t>
         </is>
       </c>
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Проверка полноты и достоверности ПУД</t>
+          <t>Контроль отражения методологической позиции по налоговому учету хозяйственных операций в методологических документах компании</t>
         </is>
       </c>
       <c r="E4" t="inlineStr"/>
@@ -1241,12 +1107,8 @@
       <c r="G4" t="inlineStr"/>
       <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr"/>
-      <c r="J4" t="n">
-        <v>21</v>
-      </c>
-      <c r="K4" t="n">
-        <v>32</v>
-      </c>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr">
         <is>
           <t>Чек-лист/Реестр объектов контроля</t>
@@ -1259,13 +1121,13 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>НУ-ОБЩ-1-КП-003</t>
+          <t>НУ-ОБЩ-1-КП-001</t>
         </is>
       </c>
       <c r="C5" t="inlineStr"/>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Проверка полноты и достоверности ПУД</t>
+          <t>Контроль отражения методологической позиции по налоговому учету хозяйственных</t>
         </is>
       </c>
       <c r="E5" t="inlineStr"/>
@@ -1287,13 +1149,13 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>НУ-ОБЩ-1-КП-003</t>
+          <t>НУ-ОБЩ-1-КП-001</t>
         </is>
       </c>
       <c r="C6" t="inlineStr"/>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Проверка полноты и достоверности ПУД</t>
+          <t>Контроль отражения методологической позиции по налоговому учету хозяйственных операций в методологических документах компании</t>
         </is>
       </c>
       <c r="E6" t="inlineStr"/>
@@ -1301,45 +1163,9 @@
       <c r="G6" t="inlineStr"/>
       <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr"/>
-      <c r="J6" t="n">
-        <v>23</v>
-      </c>
-      <c r="K6" t="n">
-        <v>42</v>
-      </c>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr">
-        <is>
-          <t>Чек-лист/Реестр объектов контроля</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>1</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>НУ-ОБЩ-1-КП-005</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr"/>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>Проверка полноты и корректности внесения данных в НСИ</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr"/>
-      <c r="F7" t="inlineStr"/>
-      <c r="G7" t="inlineStr"/>
-      <c r="H7" t="inlineStr"/>
-      <c r="I7" t="inlineStr"/>
-      <c r="J7" t="n">
-        <v>21</v>
-      </c>
-      <c r="K7" t="n">
-        <v>32</v>
-      </c>
-      <c r="L7" t="inlineStr">
         <is>
           <t>Чек-лист/Реестр объектов контроля</t>
         </is>

--- a/excelanalog/example.xlsx
+++ b/excelanalog/example.xlsx
@@ -18,7 +18,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -57,12 +60,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -556,14 +560,18 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>_</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr"/>
-      <c r="H14" t="inlineStr"/>
+          <t xml:space="preserve">Зуев </t>
+        </is>
+      </c>
+      <c r="G14" t="n">
+        <v>4</v>
+      </c>
+      <c r="H14" t="n">
+        <v>4</v>
+      </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>checklist(200)</t>
+          <t>checklist(211)</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -583,7 +591,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>НУ-ОБЩ-1-КП-001-01</t>
+          <t>НУ-ОБЩ-1-КП-001-02</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -601,11 +609,15 @@
           <t>_</t>
         </is>
       </c>
-      <c r="G15" t="inlineStr"/>
-      <c r="H15" t="inlineStr"/>
+      <c r="G15" t="n">
+        <v>23</v>
+      </c>
+      <c r="H15" t="n">
+        <v>12</v>
+      </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>checklist(201)</t>
+          <t>checklist(212)</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -620,17 +632,17 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>НУ-ОБЩ-1-КП-001</t>
+          <t>НУ-ОБЩ-1-КП-003</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>НУ-ОБЩ-1-КП-001-01</t>
+          <t>НУ-ОБЩ-1-КП-003-04</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Контроль отражения методологической позиции по налоговому учету хозяйственных операций в методологических документах компании</t>
+          <t>Проверка полноты и достоверности ПУД</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -640,14 +652,18 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>_</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr"/>
-      <c r="H16" t="inlineStr"/>
+          <t>Сиверская</t>
+        </is>
+      </c>
+      <c r="G16" t="n">
+        <v>43</v>
+      </c>
+      <c r="H16" t="n">
+        <v>22</v>
+      </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>checklist(202)</t>
+          <t>checklist(213)</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -656,90 +672,8 @@
         </is>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" t="n">
-        <v>1</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>НУ-ОБЩ-1-КП-001</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>НУ-ОБЩ-1-КП-001-01</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>Контроль отражения методологической позиции по налоговому учету хозяйственных операций в методологических документах компании</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>_</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>_</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr"/>
-      <c r="H17" t="inlineStr"/>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>checklist(203)</t>
-        </is>
-      </c>
-      <c r="J17" t="inlineStr">
-        <is>
-          <t>Your Filial Value</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="n">
-        <v>1</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>НУ-ОБЩ-1-КП-001</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>НУ-ОБЩ-1-КП-001-01</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>Контроль отражения методологической позиции по налоговому учету хозяйственных операций в методологических документах компании</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>_</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>_</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr"/>
-      <c r="H18" t="inlineStr"/>
-      <c r="I18" t="inlineStr">
-        <is>
-          <t>checklist(204)</t>
-        </is>
-      </c>
-      <c r="J18" t="inlineStr">
-        <is>
-          <t>Your Filial Value</t>
-        </is>
-      </c>
-    </row>
+    <row r="17"/>
+    <row r="18"/>
     <row r="19"/>
     <row r="20">
       <c r="F20" t="inlineStr">
@@ -780,7 +714,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J6"/>
+  <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -849,17 +783,33 @@
           <t>НУ-ОБЩ-1-КП-001-01</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr"/>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Зуев </t>
+        </is>
+      </c>
       <c r="D2" t="inlineStr">
         <is>
           <t>#Н/Д</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr"/>
-      <c r="G2" t="inlineStr"/>
-      <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr"/>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>ПК</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="n">
+        <v>11763</v>
+      </c>
+      <c r="G2" t="n">
+        <v>21</v>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+      <c r="I2" t="n">
+        <v>4</v>
+      </c>
       <c r="J2" t="inlineStr"/>
     </row>
     <row r="3">
@@ -868,20 +818,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>НУ-ОБЩ-1-КП-001-01</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr"/>
+          <t>НУ-ОБЩ-1-КП-001-02</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
+      </c>
       <c r="D3" t="inlineStr">
         <is>
           <t>#Н/Д</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr"/>
-      <c r="F3" t="inlineStr"/>
-      <c r="G3" t="inlineStr"/>
-      <c r="H3" t="inlineStr"/>
-      <c r="I3" t="inlineStr"/>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>GR</t>
+        </is>
+      </c>
+      <c r="F3" s="3" t="n">
+        <v>44915</v>
+      </c>
+      <c r="G3" t="n">
+        <v>21</v>
+      </c>
+      <c r="H3" t="n">
+        <v>23</v>
+      </c>
+      <c r="I3" t="n">
+        <v>12</v>
+      </c>
       <c r="J3" t="inlineStr"/>
     </row>
     <row r="4">
@@ -890,65 +856,39 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>НУ-ОБЩ-1-КП-001-01</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr"/>
+          <t>НУ-ОБЩ-1-КП-003-04</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Сиверская</t>
+        </is>
+      </c>
       <c r="D4" t="inlineStr">
         <is>
           <t>#Н/Д</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr"/>
-      <c r="G4" t="inlineStr"/>
-      <c r="H4" t="inlineStr"/>
-      <c r="I4" t="inlineStr"/>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>пк</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>23.21.33</t>
+        </is>
+      </c>
+      <c r="G4" t="n">
+        <v>32</v>
+      </c>
+      <c r="H4" t="n">
+        <v>43</v>
+      </c>
+      <c r="I4" t="n">
+        <v>22</v>
+      </c>
       <c r="J4" t="inlineStr"/>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>1</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>НУ-ОБЩ-1-КП-001-01</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>#Н/Д</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr"/>
-      <c r="F5" t="inlineStr"/>
-      <c r="G5" t="inlineStr"/>
-      <c r="H5" t="inlineStr"/>
-      <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>1</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>НУ-ОБЩ-1-КП-001-01</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr"/>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>#Н/Д</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr"/>
-      <c r="F6" t="inlineStr"/>
-      <c r="G6" t="inlineStr"/>
-      <c r="H6" t="inlineStr"/>
-      <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -961,7 +901,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L6"/>
+  <dimension ref="A1:L4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1051,8 +991,12 @@
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
+      <c r="J2" t="n">
+        <v>4</v>
+      </c>
+      <c r="K2" t="n">
+        <v>4</v>
+      </c>
       <c r="L2" t="inlineStr">
         <is>
           <t>Чек-лист/Реестр объектов контроля</t>
@@ -1079,8 +1023,12 @@
       <c r="G3" t="inlineStr"/>
       <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
+      <c r="J3" t="n">
+        <v>23</v>
+      </c>
+      <c r="K3" t="n">
+        <v>12</v>
+      </c>
       <c r="L3" t="inlineStr">
         <is>
           <t>Чек-лист/Реестр объектов контроля</t>
@@ -1093,13 +1041,13 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>НУ-ОБЩ-1-КП-001</t>
+          <t>НУ-ОБЩ-1-КП-003</t>
         </is>
       </c>
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Контроль отражения методологической позиции по налоговому учету хозяйственных операций в методологических документах компании</t>
+          <t>Проверка полноты и достоверности ПУД</t>
         </is>
       </c>
       <c r="E4" t="inlineStr"/>
@@ -1107,65 +1055,13 @@
       <c r="G4" t="inlineStr"/>
       <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
+      <c r="J4" t="n">
+        <v>43</v>
+      </c>
+      <c r="K4" t="n">
+        <v>22</v>
+      </c>
       <c r="L4" t="inlineStr">
-        <is>
-          <t>Чек-лист/Реестр объектов контроля</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>1</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>НУ-ОБЩ-1-КП-001</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>Контроль отражения методологической позиции по налоговому учету хозяйственных</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr"/>
-      <c r="F5" t="inlineStr"/>
-      <c r="G5" t="inlineStr"/>
-      <c r="H5" t="inlineStr"/>
-      <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>Чек-лист/Реестр объектов контроля</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>1</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>НУ-ОБЩ-1-КП-001</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr"/>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>Контроль отражения методологической позиции по налоговому учету хозяйственных операций в методологических документах компании</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr"/>
-      <c r="F6" t="inlineStr"/>
-      <c r="G6" t="inlineStr"/>
-      <c r="H6" t="inlineStr"/>
-      <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr">
         <is>
           <t>Чек-лист/Реестр объектов контроля</t>
         </is>

--- a/excelanalog/example.xlsx
+++ b/excelanalog/example.xlsx
@@ -901,7 +901,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L4"/>
+  <dimension ref="A1:CC4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -912,160 +912,982 @@
     <row r="1">
       <c r="A1" s="2" t="inlineStr">
         <is>
-          <t>номер п/п</t>
+          <t>Филиал</t>
         </is>
       </c>
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>Код КП(общий)</t>
+          <t>Количество</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>Код КП(промежуточный)</t>
+          <t>НУ-ВН-1-КП-001</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>Наименование контрольной процедуры</t>
+          <t>НУ-ВН-1-КП-002</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
         <is>
-          <t>Описание КП</t>
+          <t>НУ-ВН-1-КП-003</t>
         </is>
       </c>
       <c r="F1" s="2" t="inlineStr">
         <is>
-          <t>Переодичность проведения</t>
+          <t>НУ-ЗН-1-КП-001</t>
         </is>
       </c>
       <c r="G1" s="2" t="inlineStr">
         <is>
-          <t>Способ подсчета результаты проведения КП</t>
+          <t>НУ-ЗН-1-КП-002</t>
         </is>
       </c>
       <c r="H1" s="2" t="inlineStr">
         <is>
-          <t>Подразделение, ответственное за проведение контрольной процедуры</t>
+          <t>НУ-ЗН-1-КП-003</t>
         </is>
       </c>
       <c r="I1" s="2" t="inlineStr">
         <is>
-          <t>Исполнитель КП</t>
+          <t>НУ-ЗН-1-КП-004</t>
         </is>
       </c>
       <c r="J1" s="2" t="inlineStr">
         <is>
-          <t>Количество выполненых КП</t>
+          <t>НУ-НДПИ-1-КП-001</t>
         </is>
       </c>
       <c r="K1" s="2" t="inlineStr">
         <is>
-          <t>Количество выявленных ошибок</t>
+          <t>НУ-НДПИ-1-КП-002</t>
         </is>
       </c>
       <c r="L1" s="2" t="inlineStr">
         <is>
-          <t>Документ, подтверждающий проведение контрольной процедуры</t>
+          <t>НУ-НДПИ-1-КП-006</t>
+        </is>
+      </c>
+      <c r="M1" s="2" t="inlineStr">
+        <is>
+          <t>НУ-НДС-1-КП-001</t>
+        </is>
+      </c>
+      <c r="N1" s="2" t="inlineStr">
+        <is>
+          <t>НУ-НДС-1-КП-002</t>
+        </is>
+      </c>
+      <c r="O1" s="2" t="inlineStr">
+        <is>
+          <t>НУ-НДС-1-КП-003</t>
+        </is>
+      </c>
+      <c r="P1" s="2" t="inlineStr">
+        <is>
+          <t>НУ-НДС-1-КП-004</t>
+        </is>
+      </c>
+      <c r="Q1" s="2" t="inlineStr">
+        <is>
+          <t>НУ-НДС-1-КП-005</t>
+        </is>
+      </c>
+      <c r="R1" s="2" t="inlineStr">
+        <is>
+          <t>НУ-НДС-1-КП-006</t>
+        </is>
+      </c>
+      <c r="S1" s="2" t="inlineStr">
+        <is>
+          <t>НУ-НДС-1-КП-007</t>
+        </is>
+      </c>
+      <c r="T1" s="2" t="inlineStr">
+        <is>
+          <t>НУ-НДС-1-КП-008</t>
+        </is>
+      </c>
+      <c r="U1" s="2" t="inlineStr">
+        <is>
+          <t>НУ-НДС-1-КП-009</t>
+        </is>
+      </c>
+      <c r="V1" s="2" t="inlineStr">
+        <is>
+          <t>НУ-НДС-1-КП-010</t>
+        </is>
+      </c>
+      <c r="W1" s="2" t="inlineStr">
+        <is>
+          <t>НУ-НДС-1-КП-011</t>
+        </is>
+      </c>
+      <c r="X1" s="2" t="inlineStr">
+        <is>
+          <t>НУ-НДС-1-КП-012</t>
+        </is>
+      </c>
+      <c r="Y1" s="2" t="inlineStr">
+        <is>
+          <t>НУ-НДС-1-КП-013</t>
+        </is>
+      </c>
+      <c r="Z1" s="2" t="inlineStr">
+        <is>
+          <t>НУ-НДС-1-КП-014</t>
+        </is>
+      </c>
+      <c r="AA1" s="2" t="inlineStr">
+        <is>
+          <t>НУ-НДС-1-КП-015</t>
+        </is>
+      </c>
+      <c r="AB1" s="2" t="inlineStr">
+        <is>
+          <t>НУ-НДФЛ-1-КП-001</t>
+        </is>
+      </c>
+      <c r="AC1" s="2" t="inlineStr">
+        <is>
+          <t>НУ-НДФЛ-1-КП-003</t>
+        </is>
+      </c>
+      <c r="AD1" s="2" t="inlineStr">
+        <is>
+          <t>НУ-НДФЛ-1-КП-004</t>
+        </is>
+      </c>
+      <c r="AE1" s="2" t="inlineStr">
+        <is>
+          <t>НУ-НДФЛ-1-КП-005</t>
+        </is>
+      </c>
+      <c r="AF1" s="2" t="inlineStr">
+        <is>
+          <t>НУ-НДФЛ-1-КП-006</t>
+        </is>
+      </c>
+      <c r="AG1" s="2" t="inlineStr">
+        <is>
+          <t>НУ-НИ-1-КП-001</t>
+        </is>
+      </c>
+      <c r="AH1" s="2" t="inlineStr">
+        <is>
+          <t>НУ-НИ-1-КП-002</t>
+        </is>
+      </c>
+      <c r="AI1" s="2" t="inlineStr">
+        <is>
+          <t>НУ-НИ-1-КП-003</t>
+        </is>
+      </c>
+      <c r="AJ1" s="2" t="inlineStr">
+        <is>
+          <t>НУ-НИ-1-КП-004</t>
+        </is>
+      </c>
+      <c r="AK1" s="2" t="inlineStr">
+        <is>
+          <t>НУ-НИ-1-КП-005</t>
+        </is>
+      </c>
+      <c r="AL1" s="2" t="inlineStr">
+        <is>
+          <t>НУ-НИ-1-КП-006</t>
+        </is>
+      </c>
+      <c r="AM1" s="2" t="inlineStr">
+        <is>
+          <t>НУ-ОБЩ-1-КП-001</t>
+        </is>
+      </c>
+      <c r="AN1" s="2" t="inlineStr">
+        <is>
+          <t>НУ-ОБЩ-1-КП-002</t>
+        </is>
+      </c>
+      <c r="AO1" s="2" t="inlineStr">
+        <is>
+          <t>НУ-ОБЩ-1-КП-003</t>
+        </is>
+      </c>
+      <c r="AP1" s="2" t="inlineStr">
+        <is>
+          <t>НУ-ОБЩ-1-КП-004</t>
+        </is>
+      </c>
+      <c r="AQ1" s="2" t="inlineStr">
+        <is>
+          <t>НУ-ОБЩ-1-КП-005</t>
+        </is>
+      </c>
+      <c r="AR1" s="2" t="inlineStr">
+        <is>
+          <t>НУ-ОБЩ-1-КП-006</t>
+        </is>
+      </c>
+      <c r="AS1" s="2" t="inlineStr">
+        <is>
+          <t>НУ-ОБЩ-1-КП-007</t>
+        </is>
+      </c>
+      <c r="AT1" s="2" t="inlineStr">
+        <is>
+          <t>НУ-ОБЩ-1-КП-008</t>
+        </is>
+      </c>
+      <c r="AU1" s="2" t="inlineStr">
+        <is>
+          <t>НУ-ОБЩ-1-КП-009</t>
+        </is>
+      </c>
+      <c r="AV1" s="2" t="inlineStr">
+        <is>
+          <t>НУ-ОБЩ-1-КП-010</t>
+        </is>
+      </c>
+      <c r="AW1" s="2" t="inlineStr">
+        <is>
+          <t>НУ-ОБЩ-1-КП-011</t>
+        </is>
+      </c>
+      <c r="AX1" s="2" t="inlineStr">
+        <is>
+          <t>НУ-ПРИБ-1-КП-001</t>
+        </is>
+      </c>
+      <c r="AY1" s="2" t="inlineStr">
+        <is>
+          <t>НУ-ПРИБ-1-КП-002</t>
+        </is>
+      </c>
+      <c r="AZ1" s="2" t="inlineStr">
+        <is>
+          <t>НУ-ПРИБ-1-КП-003</t>
+        </is>
+      </c>
+      <c r="BA1" s="2" t="inlineStr">
+        <is>
+          <t>НУ-ПРИБ-1-КП-009</t>
+        </is>
+      </c>
+      <c r="BB1" s="2" t="inlineStr">
+        <is>
+          <t>НУ-ПРИБ-1-КП-010</t>
+        </is>
+      </c>
+      <c r="BC1" s="2" t="inlineStr">
+        <is>
+          <t>НУ-ПРИБ-1-КП-011</t>
+        </is>
+      </c>
+      <c r="BD1" s="2" t="inlineStr">
+        <is>
+          <t>НУ-ПРИБ-1-КП-013</t>
+        </is>
+      </c>
+      <c r="BE1" s="2" t="inlineStr">
+        <is>
+          <t>НУ-ПРИБ-1-КП-014</t>
+        </is>
+      </c>
+      <c r="BF1" s="2" t="inlineStr">
+        <is>
+          <t>НУ-ПРИБ-1-КП-015</t>
+        </is>
+      </c>
+      <c r="BG1" s="2" t="inlineStr">
+        <is>
+          <t>НУ-ПРИБ-1-КП-016</t>
+        </is>
+      </c>
+      <c r="BH1" s="2" t="inlineStr">
+        <is>
+          <t>НУ-ПРИБ-1-КП-017</t>
+        </is>
+      </c>
+      <c r="BI1" s="2" t="inlineStr">
+        <is>
+          <t>НУ-ПРИБ-1-КП-019</t>
+        </is>
+      </c>
+      <c r="BJ1" s="2" t="inlineStr">
+        <is>
+          <t>НУ-ПРИБ-1-КП-020</t>
+        </is>
+      </c>
+      <c r="BK1" s="2" t="inlineStr">
+        <is>
+          <t>НУ-ПРИБ-1-КП-021НУ-ПРИБ-1-КП-025</t>
+        </is>
+      </c>
+      <c r="BL1" s="2" t="inlineStr">
+        <is>
+          <t>НУ-ПРИБ-1-КП-026НУ-ПРИБ-1-КП-028</t>
+        </is>
+      </c>
+      <c r="BM1" s="2" t="inlineStr">
+        <is>
+          <t>НУ-ПРИБ-1-КП-029</t>
+        </is>
+      </c>
+      <c r="BN1" s="2" t="inlineStr">
+        <is>
+          <t>НУ-ПРИБ-1-КП-030</t>
+        </is>
+      </c>
+      <c r="BO1" s="2" t="inlineStr">
+        <is>
+          <t>НУ-ПРИБ-1-КП-033</t>
+        </is>
+      </c>
+      <c r="BP1" s="2" t="inlineStr">
+        <is>
+          <t>НУ-ПРИБ-1-КП-036</t>
+        </is>
+      </c>
+      <c r="BQ1" s="2" t="inlineStr">
+        <is>
+          <t>НУ-ПРИБ-1-КП-039</t>
+        </is>
+      </c>
+      <c r="BR1" s="2" t="inlineStr">
+        <is>
+          <t>НУ-ПРИБ-1-КП-040</t>
+        </is>
+      </c>
+      <c r="BS1" s="2" t="inlineStr">
+        <is>
+          <t>НУ-ПРИБ-1-КП-042</t>
+        </is>
+      </c>
+      <c r="BT1" s="2" t="inlineStr">
+        <is>
+          <t>НУ-ПРИБ-1-КП-044</t>
+        </is>
+      </c>
+      <c r="BU1" s="2" t="inlineStr">
+        <is>
+          <t>НУ-ПРИБ-1-КП-045</t>
+        </is>
+      </c>
+      <c r="BV1" s="2" t="inlineStr">
+        <is>
+          <t>НУ-ПРИБ-1-КП-046</t>
+        </is>
+      </c>
+      <c r="BW1" s="2" t="inlineStr">
+        <is>
+          <t>НУ-СВ-1-КП-001</t>
+        </is>
+      </c>
+      <c r="BX1" s="2" t="inlineStr">
+        <is>
+          <t>НУ-СВ-1-КП-002</t>
+        </is>
+      </c>
+      <c r="BY1" s="2" t="inlineStr">
+        <is>
+          <t>НУ-СВ-1-КП-003</t>
+        </is>
+      </c>
+      <c r="BZ1" s="2" t="inlineStr">
+        <is>
+          <t>НУ-ТН-1-КП-001</t>
+        </is>
+      </c>
+      <c r="CA1" s="2" t="inlineStr">
+        <is>
+          <t>НУ-ТН-1-КП-002</t>
+        </is>
+      </c>
+      <c r="CB1" s="2" t="inlineStr">
+        <is>
+          <t>НУ-ТН-1-КП-004</t>
+        </is>
+      </c>
+      <c r="CC1" s="2" t="inlineStr">
+        <is>
+          <t>НУ-ТН-1-КП-005</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="n">
-        <v>1</v>
-      </c>
+      <c r="A2" t="inlineStr"/>
       <c r="B2" t="inlineStr">
         <is>
-          <t>НУ-ОБЩ-1-КП-001</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>Контроль отражения методологической позиции по налоговому учету хозяйственных операций в методологических документах компании</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr"/>
-      <c r="G2" t="inlineStr"/>
-      <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr"/>
+          <t>Количество выполненых КП</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
       <c r="J2" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>4</v>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>Чек-лист/Реестр объектов контроля</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S2" t="n">
+        <v>0</v>
+      </c>
+      <c r="T2" t="n">
+        <v>0</v>
+      </c>
+      <c r="U2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="n">
+        <v>0</v>
+      </c>
+      <c r="X2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM2" t="n">
+        <v>27</v>
+      </c>
+      <c r="AN2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO2" t="n">
+        <v>43</v>
+      </c>
+      <c r="AP2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BR2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BW2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CC2" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="n">
-        <v>1</v>
-      </c>
+      <c r="A3" t="inlineStr"/>
       <c r="B3" t="inlineStr">
         <is>
-          <t>НУ-ОБЩ-1-КП-001</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>Контроль отражения методологической позиции по налоговому учету хозяйственных операций в методологических документах компании</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr"/>
-      <c r="F3" t="inlineStr"/>
-      <c r="G3" t="inlineStr"/>
-      <c r="H3" t="inlineStr"/>
-      <c r="I3" t="inlineStr"/>
+          <t>Количество выявленных ошибок</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
       <c r="J3" t="n">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>12</v>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>Чек-лист/Реестр объектов контроля</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R3" t="n">
+        <v>0</v>
+      </c>
+      <c r="S3" t="n">
+        <v>0</v>
+      </c>
+      <c r="T3" t="n">
+        <v>0</v>
+      </c>
+      <c r="U3" t="n">
+        <v>0</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="n">
+        <v>0</v>
+      </c>
+      <c r="X3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>16</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO3" t="n">
+        <v>22</v>
+      </c>
+      <c r="AP3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BR3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BW3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ3" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA3" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB3" t="n">
+        <v>0</v>
+      </c>
+      <c r="CC3" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="n">
-        <v>1</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>НУ-ОБЩ-1-КП-003</t>
-        </is>
-      </c>
+      <c r="A4" t="inlineStr"/>
+      <c r="B4" t="inlineStr"/>
       <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>Проверка полноты и достоверности ПУД</t>
-        </is>
-      </c>
+      <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr"/>
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr"/>
       <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr"/>
-      <c r="J4" t="n">
-        <v>43</v>
-      </c>
-      <c r="K4" t="n">
-        <v>22</v>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>Чек-лист/Реестр объектов контроля</t>
-        </is>
-      </c>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
+      <c r="M4" t="inlineStr"/>
+      <c r="N4" t="inlineStr"/>
+      <c r="O4" t="inlineStr"/>
+      <c r="P4" t="inlineStr"/>
+      <c r="Q4" t="inlineStr"/>
+      <c r="R4" t="inlineStr"/>
+      <c r="S4" t="inlineStr"/>
+      <c r="T4" t="inlineStr"/>
+      <c r="U4" t="inlineStr"/>
+      <c r="V4" t="inlineStr"/>
+      <c r="W4" t="inlineStr"/>
+      <c r="X4" t="inlineStr"/>
+      <c r="Y4" t="inlineStr"/>
+      <c r="Z4" t="inlineStr"/>
+      <c r="AA4" t="inlineStr"/>
+      <c r="AB4" t="inlineStr"/>
+      <c r="AC4" t="inlineStr"/>
+      <c r="AD4" t="inlineStr"/>
+      <c r="AE4" t="inlineStr"/>
+      <c r="AF4" t="inlineStr"/>
+      <c r="AG4" t="inlineStr"/>
+      <c r="AH4" t="inlineStr"/>
+      <c r="AI4" t="inlineStr"/>
+      <c r="AJ4" t="inlineStr"/>
+      <c r="AK4" t="inlineStr"/>
+      <c r="AL4" t="inlineStr"/>
+      <c r="AM4" t="inlineStr"/>
+      <c r="AN4" t="inlineStr"/>
+      <c r="AO4" t="inlineStr"/>
+      <c r="AP4" t="inlineStr"/>
+      <c r="AQ4" t="inlineStr"/>
+      <c r="AR4" t="inlineStr"/>
+      <c r="AS4" t="inlineStr"/>
+      <c r="AT4" t="inlineStr"/>
+      <c r="AU4" t="inlineStr"/>
+      <c r="AV4" t="inlineStr"/>
+      <c r="AW4" t="inlineStr"/>
+      <c r="AX4" t="inlineStr"/>
+      <c r="AY4" t="inlineStr"/>
+      <c r="AZ4" t="inlineStr"/>
+      <c r="BA4" t="inlineStr"/>
+      <c r="BB4" t="inlineStr"/>
+      <c r="BC4" t="inlineStr"/>
+      <c r="BD4" t="inlineStr"/>
+      <c r="BE4" t="inlineStr"/>
+      <c r="BF4" t="inlineStr"/>
+      <c r="BG4" t="inlineStr"/>
+      <c r="BH4" t="inlineStr"/>
+      <c r="BI4" t="inlineStr"/>
+      <c r="BJ4" t="inlineStr"/>
+      <c r="BK4" t="inlineStr"/>
+      <c r="BL4" t="inlineStr"/>
+      <c r="BM4" t="inlineStr"/>
+      <c r="BN4" t="inlineStr"/>
+      <c r="BO4" t="inlineStr"/>
+      <c r="BP4" t="inlineStr"/>
+      <c r="BQ4" t="inlineStr"/>
+      <c r="BR4" t="inlineStr"/>
+      <c r="BS4" t="inlineStr"/>
+      <c r="BT4" t="inlineStr"/>
+      <c r="BU4" t="inlineStr"/>
+      <c r="BV4" t="inlineStr"/>
+      <c r="BW4" t="inlineStr"/>
+      <c r="BX4" t="inlineStr"/>
+      <c r="BY4" t="inlineStr"/>
+      <c r="BZ4" t="inlineStr"/>
+      <c r="CA4" t="inlineStr"/>
+      <c r="CB4" t="inlineStr"/>
+      <c r="CC4" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/excelanalog/example.xlsx
+++ b/excelanalog/example.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet2" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet4" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -545,7 +546,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>НУ-ОБЩ-1-КП-001-01</t>
+          <t>НУ-ОБЩ-1-КП-001-02</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -560,18 +561,18 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t xml:space="preserve">Зуев </t>
+          <t>_</t>
         </is>
       </c>
       <c r="G14" t="n">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="H14" t="n">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>checklist(211)</t>
+          <t>checklist(212)</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -586,17 +587,17 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>НУ-ОБЩ-1-КП-001</t>
+          <t>НУ-ОБЩ-1-КП-003</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>НУ-ОБЩ-1-КП-001-02</t>
+          <t>НУ-ОБЩ-1-КП-003-04</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Контроль отражения методологической позиции по налоговому учету хозяйственных операций в методологических документах компании</t>
+          <t>Проверка полноты и достоверности ПУД</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -606,18 +607,18 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>_</t>
+          <t>Сиверская</t>
         </is>
       </c>
       <c r="G15" t="n">
-        <v>23</v>
+        <v>43</v>
       </c>
       <c r="H15" t="n">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>checklist(212)</t>
+          <t>checklist(213)</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -632,17 +633,17 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>НУ-ОБЩ-1-КП-003</t>
+          <t>НУ-ОБЩ-1-КП-001</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>НУ-ОБЩ-1-КП-003-04</t>
+          <t>НУ-ОБЩ-1-КП-001-01</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Проверка полноты и достоверности ПУД</t>
+          <t>Контроль отражения методологической позиции по налоговому учету хозяйственных операций в методологических документах компании</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -652,7 +653,7 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Сиверская</t>
+          <t>_</t>
         </is>
       </c>
       <c r="G16" t="n">
@@ -663,7 +664,7 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>checklist(213)</t>
+          <t>checklist(214)</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -780,12 +781,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>НУ-ОБЩ-1-КП-001-01</t>
+          <t>НУ-ОБЩ-1-КП-001-02</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Зуев </t>
+          <t>_</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -795,20 +796,20 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>ПК</t>
+          <t>GR</t>
         </is>
       </c>
       <c r="F2" s="3" t="n">
-        <v>11763</v>
+        <v>44915</v>
       </c>
       <c r="G2" t="n">
         <v>21</v>
       </c>
       <c r="H2" t="n">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="I2" t="n">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="J2" t="inlineStr"/>
     </row>
@@ -818,12 +819,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>НУ-ОБЩ-1-КП-001-02</t>
+          <t>НУ-ОБЩ-1-КП-003-04</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>_</t>
+          <t>Сиверская</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -833,20 +834,22 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>GR</t>
-        </is>
-      </c>
-      <c r="F3" s="3" t="n">
-        <v>44915</v>
+          <t>пк</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>23.21.33</t>
+        </is>
       </c>
       <c r="G3" t="n">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="H3" t="n">
-        <v>23</v>
+        <v>43</v>
       </c>
       <c r="I3" t="n">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="J3" t="inlineStr"/>
     </row>
@@ -856,38 +859,20 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>НУ-ОБЩ-1-КП-003-04</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Сиверская</t>
-        </is>
-      </c>
+          <t>НУ-ОБЩ-1-КП-001-01</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr"/>
       <c r="D4" t="inlineStr">
         <is>
           <t>#Н/Д</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>пк</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>23.21.33</t>
-        </is>
-      </c>
-      <c r="G4" t="n">
-        <v>32</v>
-      </c>
-      <c r="H4" t="n">
-        <v>43</v>
-      </c>
-      <c r="I4" t="n">
-        <v>22</v>
-      </c>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
+      <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
     </row>
   </sheetData>
@@ -1432,7 +1417,7 @@
         <v>0</v>
       </c>
       <c r="AM2" t="n">
-        <v>27</v>
+        <v>66</v>
       </c>
       <c r="AN2" t="n">
         <v>0</v>
@@ -1677,7 +1662,7 @@
         <v>0</v>
       </c>
       <c r="AM3" t="n">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="AN3" t="n">
         <v>0</v>
@@ -1892,4 +1877,2135 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F81"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>№ п/п</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>Код КП(общий)</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>Количество выполненых КП</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>Количество выявленных ошибок</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>Документ, подтверждающий проведение контрольной процедуры</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>Наименование КП</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>НУ-ВН-1-КП-001</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Чек-лист/Реестр объектов контроля</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Контроль полноты и корректности определения объектов налогообложения водным налогом</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>НУ-ВН-1-КП-002</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Чек-лист/Реестр объектов контроля</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Контроль корректности определения налоговой базы по водному налогу</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>НУ-ВН-1-КП-003</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Чек-лист/Реестр объектов контроля</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Контроль корректности применения налоговой ставки водного налога</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>НУ-ЗН-1-КП-001</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Чек-лист/Реестр объектов контроля</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Контроль корректности определения объектов налогообложения по земельному налогу</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>НУ-ЗН-1-КП-002</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Чек-лист/Реестр объектов контроля</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Контроль корректности определения налоговой базы по земельному налогу</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>НУ-ЗН-1-КП-003</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Чек-лист/Реестр объектов контроля</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Контроль корректности определения налоговых ставок по земельному налогу</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>НУ-ЗН-1-КП-004</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Чек-лист/Реестр объектов контроля</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Контроль полноты и правомерности применения федеральных и местных льгот по земельному налогу (освобождение, пониженная ставка)</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>НУ-НДПИ-1-КП-001</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Чек-лист/Реестр объектов контроля</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Контроль полноты и корректности определения объектов налогообложения по НДПИ</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>НУ-НДПИ-1-КП-002</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>0</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Чек-лист/Реестр объектов контроля</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Контроль корректности определения налоговой базы по НДПИ на нефть, газ, газовый конденсат </t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>НУ-НДПИ-1-КП-006</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>0</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Чек-лист/Реестр объектов контроля</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Контроль корректности расчета налоговой ставки НДПИ на газ, газовый конденсат</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>НУ-НДС-1-КП-001</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>0</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Чек-лист/Реестр объектов контроля</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Контроль полноты и корректности определения объектов налогообложения по НДС</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>НУ-НДС-1-КП-002</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>0</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0</v>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Чек-лист/Реестр объектов контроля</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Контроль полноты и корректности отражения исходящего НДС в учетной системе</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>НУ-НДС-1-КП-003</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>0</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Чек-лист/Реестр объектов контроля</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Контроль корректности и своевременности восстановления НДС</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>НУ-НДС-1-КП-004</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>0</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0</v>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Чек-лист/Реестр объектов контроля</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Контроль корректности и правомерности отнесения операций к не облагаемым НДС</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>НУ-НДС-1-КП-005</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>0</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0</v>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Чек-лист/Реестр объектов контроля</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Контроль корректности формирования выставленных счетов-фактур</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>НУ-НДС-1-КП-006</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>0</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0</v>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Чек-лист/Реестр объектов контроля</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Контроль полноты и корректности отражения входящего НДС в учетной системе</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>НУ-НДС-1-КП-007</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>0</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0</v>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Чек-лист/Реестр объектов контроля</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Контроль периода отнесения НДС к вычету</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>НУ-НДС-1-КП-008</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>0</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0</v>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Чек-лист/Реестр объектов контроля</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Контроль корректности составления полученных счетов-фактур</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>НУ-НДС-1-КП-009</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>0</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Чек-лист/Реестр объектов контроля</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Контроль отнесения входящего НДС по видам деятельности, облагаемой НДС/ необлагаемой НДС</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>20</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>НУ-НДС-1-КП-010</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>0</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0</v>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Чек-лист/Реестр объектов контроля</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Контроль распределения входящего НДС, относящегося одновременно к облагаемым и необлагаемым операциям</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>21</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>НУ-НДС-1-КП-011</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>0</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0</v>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Чек-лист/Реестр объектов контроля</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Контроль корректности и своевременности принятия к вычету НДС, уплаченного таможенным органам при ввозе товаров на территорию РФ </t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>22</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>НУ-НДС-1-КП-012</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>0</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0</v>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>Чек-лист/Реестр объектов контроля</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Контроль корректности исчисления НДС в качестве налогового агента</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>23</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>НУ-НДС-1-КП-013</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>0</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0</v>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>Чек-лист/Реестр объектов контроля</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Контроль полноты и корректности заполнения книги продаж</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>24</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>НУ-НДС-1-КП-014</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>0</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0</v>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>Чек-лист/Реестр объектов контроля</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Контроль полноты и корректности заполнения книги покупок</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>25</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>НУ-НДС-1-КП-015</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>0</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0</v>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>Чек-лист/Реестр объектов контроля</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Контроль полноты и корректности составления журнала выставленных/полученных счетов-фактур</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>26</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>НУ-НДФЛ-1-КП-001</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>0</v>
+      </c>
+      <c r="D27" t="n">
+        <v>0</v>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>Чек-лист/Реестр объектов контроля</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>Контроль корректности расчета заработной платы специалистами Бухгалтерии для целей удержания НДФЛ</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>27</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>НУ-НДФЛ-1-КП-003</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>0</v>
+      </c>
+      <c r="D28" t="n">
+        <v>0</v>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>Чек-лист/Реестр объектов контроля</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>Контроль удержания НДФЛ при выплате сотрудникам дохода в виде материальной выгоды</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>28</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>НУ-НДФЛ-1-КП-004</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>0</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0</v>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>Чек-лист/Реестр объектов контроля</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Контроль корректности определения налоговой базы по НДФЛ </t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>29</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>НУ-НДФЛ-1-КП-005</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>0</v>
+      </c>
+      <c r="D30" t="n">
+        <v>0</v>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>Чек-лист/Реестр объектов контроля</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>Контроль полноты и корректности применения налоговых вычетов по НДФЛ</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>30</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>НУ-НДФЛ-1-КП-006</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>0</v>
+      </c>
+      <c r="D31" t="n">
+        <v>0</v>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>Чек-лист/Реестр объектов контроля</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>Контроль корректности применения ставки НДФЛ при налогообложении доходов нерезидентов</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>31</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>НУ-НИ-1-КП-001</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
+        <v>0</v>
+      </c>
+      <c r="D32" t="n">
+        <v>0</v>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>Чек-лист/Реестр объектов контроля</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Контроль корректности классификации имущества в качестве недвижимого/движимого </t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>32</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>НУ-НИ-1-КП-002</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
+        <v>0</v>
+      </c>
+      <c r="D33" t="n">
+        <v>0</v>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>Чек-лист/Реестр объектов контроля</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>Контроль корректности определения даты принятия к учёту объектов ОС</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>33</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>НУ-НИ-1-КП-003</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
+        <v>0</v>
+      </c>
+      <c r="D34" t="n">
+        <v>0</v>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>Чек-лист/Реестр объектов контроля</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Контроль корректности учета недвижимого имущества </t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>34</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>НУ-НИ-1-КП-004</t>
+        </is>
+      </c>
+      <c r="C35" t="n">
+        <v>0</v>
+      </c>
+      <c r="D35" t="n">
+        <v>0</v>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>Чек-лист/Реестр объектов контроля</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>Контроль корректности определения налоговой базы по налогу на имущество исходя из кадастровой стоимости</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>35</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>НУ-НИ-1-КП-005</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
+        <v>0</v>
+      </c>
+      <c r="D36" t="n">
+        <v>0</v>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>Чек-лист/Реестр объектов контроля</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>Контроль корректности определения налоговых ставок по налогу на имущество</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>36</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>НУ-НИ-1-КП-006</t>
+        </is>
+      </c>
+      <c r="C37" t="n">
+        <v>0</v>
+      </c>
+      <c r="D37" t="n">
+        <v>0</v>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>Чек-лист/Реестр объектов контроля</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>Контроль полноты и правомерности применения федеральных и региональных льгот по налогу на имущество (освобождение, пониженная ставка)</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>37</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>НУ-ОБЩ-1-КП-001</t>
+        </is>
+      </c>
+      <c r="C38" t="n">
+        <v>66</v>
+      </c>
+      <c r="D38" t="n">
+        <v>34</v>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>Чек-лист/Реестр объектов контроля</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>Контроль отражения методологической позиции по налоговому учету хозяйственных операций в методологических документах компании</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>38</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>НУ-ОБЩ-1-КП-002</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
+        <v>0</v>
+      </c>
+      <c r="D39" t="n">
+        <v>0</v>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>Чек-лист/Реестр объектов контроля</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>Мониторинг изменений налогового законодательства</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>39</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>НУ-ОБЩ-1-КП-003</t>
+        </is>
+      </c>
+      <c r="C40" t="n">
+        <v>43</v>
+      </c>
+      <c r="D40" t="n">
+        <v>22</v>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>Чек-лист/Реестр объектов контроля</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>Проверка полноты и достоверности ПУД</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>40</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>НУ-ОБЩ-1-КП-004</t>
+        </is>
+      </c>
+      <c r="C41" t="n">
+        <v>0</v>
+      </c>
+      <c r="D41" t="n">
+        <v>0</v>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>Чек-лист/Реестр объектов контроля</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>Проверка корректности ПУД и осуществления проводки в учетной системе</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>41</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>НУ-ОБЩ-1-КП-005</t>
+        </is>
+      </c>
+      <c r="C42" t="n">
+        <v>0</v>
+      </c>
+      <c r="D42" t="n">
+        <v>0</v>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>Чек-лист/Реестр объектов контроля</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>Проверка полноты и корректности внесения данных в НСИ</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>42</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>НУ-ОБЩ-1-КП-006</t>
+        </is>
+      </c>
+      <c r="C43" t="n">
+        <v>0</v>
+      </c>
+      <c r="D43" t="n">
+        <v>0</v>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>Чек-лист/Реестр объектов контроля</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>Контроль полноты и корректности формирования деклараций (расчетов)</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>43</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>НУ-ОБЩ-1-КП-007</t>
+        </is>
+      </c>
+      <c r="C44" t="n">
+        <v>0</v>
+      </c>
+      <c r="D44" t="n">
+        <v>0</v>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>Чек-лист/Реестр объектов контроля</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>Контроль представления отчетности в налоговый орган</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>44</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>НУ-ОБЩ-1-КП-008</t>
+        </is>
+      </c>
+      <c r="C45" t="n">
+        <v>0</v>
+      </c>
+      <c r="D45" t="n">
+        <v>0</v>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>Чек-лист/Реестр объектов контроля</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>Контроль корректности исчисления суммы налогов, сборов, страховых взносов</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>45</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>НУ-ОБЩ-1-КП-009</t>
+        </is>
+      </c>
+      <c r="C46" t="n">
+        <v>0</v>
+      </c>
+      <c r="D46" t="n">
+        <v>0</v>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>Чек-лист/Реестр объектов контроля</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>Контроль своевременности уплаты (перечисления) налогов, сборов, страховых взносов</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>46</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>НУ-ОБЩ-1-КП-010</t>
+        </is>
+      </c>
+      <c r="C47" t="n">
+        <v>0</v>
+      </c>
+      <c r="D47" t="n">
+        <v>0</v>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>Чек-лист/Реестр объектов контроля</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Контроль за соблюдением порядка и сроков хранения первичных учетных документов и регистров </t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>47</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>НУ-ОБЩ-1-КП-011</t>
+        </is>
+      </c>
+      <c r="C48" t="n">
+        <v>0</v>
+      </c>
+      <c r="D48" t="n">
+        <v>0</v>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>Чек-лист/Реестр объектов контроля</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>Автоматизированная проверка корректности налоговых деклараций и контрольных соотношений показателей налоговой отчетности</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>48</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>НУ-ПРИБ-1-КП-001</t>
+        </is>
+      </c>
+      <c r="C49" t="n">
+        <v>0</v>
+      </c>
+      <c r="D49" t="n">
+        <v>0</v>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>Чек-лист/Реестр объектов контроля</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Проверка экономической целесообразности сделки </t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>49</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>НУ-ПРИБ-1-КП-002</t>
+        </is>
+      </c>
+      <c r="C50" t="n">
+        <v>0</v>
+      </c>
+      <c r="D50" t="n">
+        <v>0</v>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>Чек-лист/Реестр объектов контроля</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>Проверка контрагентов</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>50</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>НУ-ПРИБ-1-КП-003</t>
+        </is>
+      </c>
+      <c r="C51" t="n">
+        <v>0</v>
+      </c>
+      <c r="D51" t="n">
+        <v>0</v>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>Чек-лист/Реестр объектов контроля</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>Экспертиза проектов договоров</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>51</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>НУ-ПРИБ-1-КП-009</t>
+        </is>
+      </c>
+      <c r="C52" t="n">
+        <v>0</v>
+      </c>
+      <c r="D52" t="n">
+        <v>0</v>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>Чек-лист/Реестр объектов контроля</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>Контроль корректности формирования проводки в учетной системе</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>52</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>НУ-ПРИБ-1-КП-010</t>
+        </is>
+      </c>
+      <c r="C53" t="n">
+        <v>0</v>
+      </c>
+      <c r="D53" t="n">
+        <v>0</v>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>Чек-лист/Реестр объектов контроля</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>Контроль за отражением в составе внереализационных доходов сумм доходов в виде штрафов, пеней и (или) иных санкций за нарушение договорных обязательств, а также сумм возмещения убытков или ущерба</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>53</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>НУ-ПРИБ-1-КП-011</t>
+        </is>
+      </c>
+      <c r="C54" t="n">
+        <v>0</v>
+      </c>
+      <c r="D54" t="n">
+        <v>0</v>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>Чек-лист/Реестр объектов контроля</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Проверка своевременности проведения арендной платы по договорам аренды ОС </t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>54</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>НУ-ПРИБ-1-КП-013</t>
+        </is>
+      </c>
+      <c r="C55" t="n">
+        <v>0</v>
+      </c>
+      <c r="D55" t="n">
+        <v>0</v>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>Чек-лист/Реестр объектов контроля</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>Контроль списания безнадежного долга</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>55</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>НУ-ПРИБ-1-КП-014</t>
+        </is>
+      </c>
+      <c r="C56" t="n">
+        <v>0</v>
+      </c>
+      <c r="D56" t="n">
+        <v>0</v>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>Чек-лист/Реестр объектов контроля</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>Контроль полноты и корректности отражения в учетной системе проводок поступления объекта</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>56</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>НУ-ПРИБ-1-КП-015</t>
+        </is>
+      </c>
+      <c r="C57" t="n">
+        <v>0</v>
+      </c>
+      <c r="D57" t="n">
+        <v>0</v>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>Чек-лист/Реестр объектов контроля</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>Проверка акта на ввод в эксплуатацию / акта приема-передачи ОС</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>57</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>НУ-ПРИБ-1-КП-016</t>
+        </is>
+      </c>
+      <c r="C58" t="n">
+        <v>0</v>
+      </c>
+      <c r="D58" t="n">
+        <v>0</v>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>Чек-лист/Реестр объектов контроля</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>Контроль корректности отражения в карточке ОС данных об ОС</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>58</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>НУ-ПРИБ-1-КП-017</t>
+        </is>
+      </c>
+      <c r="C59" t="n">
+        <v>0</v>
+      </c>
+      <c r="D59" t="n">
+        <v>0</v>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>Чек-лист/Реестр объектов контроля</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>Контроль корректности расчета амортизации для целей налогового учета</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>59</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>НУ-ПРИБ-1-КП-019</t>
+        </is>
+      </c>
+      <c r="C60" t="n">
+        <v>0</v>
+      </c>
+      <c r="D60" t="n">
+        <v>0</v>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>Чек-лист/Реестр объектов контроля</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>Автоматизированный контроль корректности и своевременности признания амортизационной премии в составе расходов</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>60</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>НУ-ПРИБ-1-КП-020</t>
+        </is>
+      </c>
+      <c r="C61" t="n">
+        <v>0</v>
+      </c>
+      <c r="D61" t="n">
+        <v>0</v>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>Чек-лист/Реестр объектов контроля</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>Контроль корректности, правомерности и своевременности признания амортизационной премии в составе расходов</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>61</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>НУ-ПРИБ-1-КП-021</t>
+        </is>
+      </c>
+      <c r="C62" t="n">
+        <v>0</v>
+      </c>
+      <c r="D62" t="n">
+        <v>0</v>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>Чек-лист/Реестр объектов контроля</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>Автоматизированный контроль корректности, правомерности и своевременности отражения в налоговом учете восстановления амортизационной премии</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>62</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>НУ-ПРИБ-1-КП-025</t>
+        </is>
+      </c>
+      <c r="C63" t="n">
+        <v>0</v>
+      </c>
+      <c r="D63" t="n">
+        <v>0</v>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>Чек-лист/Реестр объектов контроля</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>Квалификация операций в качестве текущего ремонта/ капитального ремонта / реконструкции / модернизации / технического перевооружения</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>63</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>НУ-ПРИБ-1-КП-026НУ-ПРИБ-1-КП-028</t>
+        </is>
+      </c>
+      <c r="C64" t="n">
+        <v>0</v>
+      </c>
+      <c r="D64" t="n">
+        <v>0</v>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>Чек-лист/Реестр объектов контроля</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>Контроль правильности квалификации операций в качестве капитального ремонта / реконструкции / модернизации / технического перевооружения</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>64</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>НУ-ПРИБ-1-КП-029</t>
+        </is>
+      </c>
+      <c r="C65" t="n">
+        <v>0</v>
+      </c>
+      <c r="D65" t="n">
+        <v>0</v>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>Чек-лист/Реестр объектов контроля</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>Ручной контроль корректности и правомерности отражения расходов по оплате труда в налоговом учете</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>65</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>НУ-ПРИБ-1-КП-030</t>
+        </is>
+      </c>
+      <c r="C66" t="n">
+        <v>0</v>
+      </c>
+      <c r="D66" t="n">
+        <v>0</v>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>Чек-лист/Реестр объектов контроля</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>Контроль отнесения расходов к непринимаемым и принимаемым на стадии приемки ПУД</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>66</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>НУ-ПРИБ-1-КП-033</t>
+        </is>
+      </c>
+      <c r="C67" t="n">
+        <v>0</v>
+      </c>
+      <c r="D67" t="n">
+        <v>0</v>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>Чек-лист/Реестр объектов контроля</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>Контроль определения СПИ программного обеспечения</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>67</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>НУ-ПРИБ-1-КП-036</t>
+        </is>
+      </c>
+      <c r="C68" t="n">
+        <v>0</v>
+      </c>
+      <c r="D68" t="n">
+        <v>0</v>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>Чек-лист/Реестр объектов контроля</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>Контроль корректности проводок по учету доходов и расходов прошлых лет</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>68</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>НУ-ПРИБ-1-КП-039</t>
+        </is>
+      </c>
+      <c r="C69" t="n">
+        <v>0</v>
+      </c>
+      <c r="D69" t="n">
+        <v>0</v>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>Чек-лист/Реестр объектов контроля</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>Контроль корректности, правомерности и своевременности отражения расходов на освоение природных ресурсов</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>69</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>НУ-ПРИБ-1-КП-040</t>
+        </is>
+      </c>
+      <c r="C70" t="n">
+        <v>0</v>
+      </c>
+      <c r="D70" t="n">
+        <v>0</v>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>Чек-лист/Реестр объектов контроля</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>Контроль корректности отражения расчетов с контрагентами в учетной системе</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>70</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>НУ-ПРИБ-1-КП-042</t>
+        </is>
+      </c>
+      <c r="C71" t="n">
+        <v>0</v>
+      </c>
+      <c r="D71" t="n">
+        <v>0</v>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>Чек-лист/Реестр объектов контроля</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>Контроль корректности и своевременности отражения в учетной системе финансового результата при выбытии объектов основных средств</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>71</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>НУ-ПРИБ-1-КП-044</t>
+        </is>
+      </c>
+      <c r="C72" t="n">
+        <v>0</v>
+      </c>
+      <c r="D72" t="n">
+        <v>0</v>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>Чек-лист/Реестр объектов контроля</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>Контроль корректности расчета суммы нормируемых расходов</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>72</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>НУ-ПРИБ-1-КП-045</t>
+        </is>
+      </c>
+      <c r="C73" t="n">
+        <v>0</v>
+      </c>
+      <c r="D73" t="n">
+        <v>0</v>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>Чек-лист/Реестр объектов контроля</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>Контроль корректности, правомерности и своевременности отражения доходов в виде безвозмездно полученного имущества (работ, услуг) или имущественных прав</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>73</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>НУ-ПРИБ-1-КП-046</t>
+        </is>
+      </c>
+      <c r="C74" t="n">
+        <v>0</v>
+      </c>
+      <c r="D74" t="n">
+        <v>0</v>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>Чек-лист/Реестр объектов контроля</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>Контроль своевременности списания кредиторской задолженности</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>74</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>НУ-СВ-1-КП-001</t>
+        </is>
+      </c>
+      <c r="C75" t="n">
+        <v>0</v>
+      </c>
+      <c r="D75" t="n">
+        <v>0</v>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>Чек-лист/Реестр объектов контроля</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>Контроль корректности отражения убытка</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>75</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>НУ-СВ-1-КП-002</t>
+        </is>
+      </c>
+      <c r="C76" t="n">
+        <v>0</v>
+      </c>
+      <c r="D76" t="n">
+        <v>0</v>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>Чек-лист/Реестр объектов контроля</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>Контроль полноты и корректности определения объектов обложения страховыми взносами</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>76</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>НУ-СВ-1-КП-003</t>
+        </is>
+      </c>
+      <c r="C77" t="n">
+        <v>0</v>
+      </c>
+      <c r="D77" t="n">
+        <v>0</v>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>Чек-лист/Реестр объектов контроля</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>Контроль корректности расчета заработной платы специалистами Бухгалтерии для целей обложения страховыми взносами</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>77</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>НУ-ТН-1-КП-001</t>
+        </is>
+      </c>
+      <c r="C78" t="n">
+        <v>0</v>
+      </c>
+      <c r="D78" t="n">
+        <v>0</v>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>Чек-лист/Реестр объектов контроля</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>Контроль корректности определения базы для начисления страховых взносов</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>78</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>НУ-ТН-1-КП-002</t>
+        </is>
+      </c>
+      <c r="C79" t="n">
+        <v>0</v>
+      </c>
+      <c r="D79" t="n">
+        <v>0</v>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>Чек-лист/Реестр объектов контроля</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>Контроль корректности и полноты определения объектов налогообложения по транспортному налогу</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>79</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>НУ-ТН-1-КП-004</t>
+        </is>
+      </c>
+      <c r="C80" t="n">
+        <v>0</v>
+      </c>
+      <c r="D80" t="n">
+        <v>0</v>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>Чек-лист/Реестр объектов контроля</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>Контроль корректности определения налоговой базы по транспортному налогу</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>80</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>НУ-ТН-1-КП-005</t>
+        </is>
+      </c>
+      <c r="C81" t="n">
+        <v>0</v>
+      </c>
+      <c r="D81" t="n">
+        <v>0</v>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>Чек-лист/Реестр объектов контроля</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Контроль полноты и правомерности применения региональных льгот по транспортному налогу (освобождение, пониженная ставка)Контроль корректности определения налоговых ставок по транспортному налогу </t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/excelanalog/example.xlsx
+++ b/excelanalog/example.xlsx
@@ -19,10 +19,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
-    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
-  </numFmts>
+  <numFmts count="0"/>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -61,13 +58,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -433,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J20"/>
+  <dimension ref="A1:K20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -526,10 +522,15 @@
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
+          <t>Количество контрольных процедур, не выявивших ошибки</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
           <t>Документ</t>
         </is>
       </c>
-      <c r="J13" s="2" t="inlineStr">
+      <c r="K13" s="2" t="inlineStr">
         <is>
           <t>филиал</t>
         </is>
@@ -541,17 +542,17 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>НУ-ОБЩ-1-КП-001</t>
+          <t>НУ-ОБЩ-1-КП-003</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>НУ-ОБЩ-1-КП-001-02</t>
+          <t>НУ-ОБЩ-1-КП-003-04</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Контроль отражения методологической позиции по налоговому учету хозяйственных операций в методологических документах компании</t>
+          <t>Проверка полноты и достоверности ПУД</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -561,21 +562,24 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>_</t>
+          <t>Сиверская</t>
         </is>
       </c>
       <c r="G14" t="n">
-        <v>23</v>
+        <v>43</v>
       </c>
       <c r="H14" t="n">
-        <v>12</v>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>checklist(212)</t>
-        </is>
+        <v>22</v>
+      </c>
+      <c r="I14" t="n">
+        <v>21</v>
       </c>
       <c r="J14" t="inlineStr">
+        <is>
+          <t>checklist(213)</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
         <is>
           <t>Your Filial Value</t>
         </is>
@@ -587,17 +591,17 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>НУ-ОБЩ-1-КП-003</t>
+          <t>НУ-ОБЩ-1-КП-001</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>НУ-ОБЩ-1-КП-003-04</t>
+          <t>НУ-ОБЩ-1-КП-001-01</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Проверка полноты и достоверности ПУД</t>
+          <t>Контроль отражения методологической позиции по налоговому учету хозяйственных операций в методологических документах компании</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -607,7 +611,7 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Сиверская</t>
+          <t>_</t>
         </is>
       </c>
       <c r="G15" t="n">
@@ -616,12 +620,15 @@
       <c r="H15" t="n">
         <v>22</v>
       </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>checklist(213)</t>
-        </is>
+      <c r="I15" t="n">
+        <v>21</v>
       </c>
       <c r="J15" t="inlineStr">
+        <is>
+          <t>checklist(214)</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
         <is>
           <t>Your Filial Value</t>
         </is>
@@ -657,17 +664,20 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>43</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>22</v>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>checklist(214)</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="I16" t="n">
+        <v>21</v>
       </c>
       <c r="J16" t="inlineStr">
+        <is>
+          <t>checklist(215)</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
         <is>
           <t>Your Filial Value</t>
         </is>
@@ -690,7 +700,11 @@
         <f>SUM(H1:H19)</f>
         <v/>
       </c>
-      <c r="I20" t="inlineStr">
+      <c r="I20">
+        <f>SUM(I1:I19)</f>
+        <v/>
+      </c>
+      <c r="J20" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -781,12 +795,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>НУ-ОБЩ-1-КП-001-02</t>
+          <t>НУ-ОБЩ-1-КП-003-04</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>_</t>
+          <t>Сиверская</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -796,20 +810,22 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>GR</t>
-        </is>
-      </c>
-      <c r="F2" s="3" t="n">
-        <v>44915</v>
+          <t>пк</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>23.21.33</t>
+        </is>
       </c>
       <c r="G2" t="n">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="H2" t="n">
-        <v>23</v>
+        <v>43</v>
       </c>
       <c r="I2" t="n">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="J2" t="inlineStr"/>
     </row>
@@ -819,38 +835,20 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>НУ-ОБЩ-1-КП-003-04</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Сиверская</t>
-        </is>
-      </c>
+          <t>НУ-ОБЩ-1-КП-001-01</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr">
         <is>
           <t>#Н/Д</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>пк</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>23.21.33</t>
-        </is>
-      </c>
-      <c r="G3" t="n">
-        <v>32</v>
-      </c>
-      <c r="H3" t="n">
-        <v>43</v>
-      </c>
-      <c r="I3" t="n">
-        <v>22</v>
-      </c>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
+      <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
     </row>
     <row r="4">
@@ -862,7 +860,11 @@
           <t>НУ-ОБЩ-1-КП-001-01</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr"/>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
+      </c>
       <c r="D4" t="inlineStr">
         <is>
           <t>#Н/Д</t>
@@ -871,8 +873,12 @@
       <c r="E4" t="inlineStr"/>
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr"/>
-      <c r="H4" t="inlineStr"/>
-      <c r="I4" t="inlineStr"/>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
       <c r="J4" t="inlineStr"/>
     </row>
   </sheetData>
@@ -1417,7 +1423,7 @@
         <v>0</v>
       </c>
       <c r="AM2" t="n">
-        <v>66</v>
+        <v>43</v>
       </c>
       <c r="AN2" t="n">
         <v>0</v>
@@ -1662,7 +1668,7 @@
         <v>0</v>
       </c>
       <c r="AM3" t="n">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="AN3" t="n">
         <v>0</v>
@@ -1793,7 +1799,11 @@
     </row>
     <row r="4">
       <c r="A4" t="inlineStr"/>
-      <c r="B4" t="inlineStr"/>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Количество контрольных процедур, не выявивших ошибки (отклонения, нарушения)</t>
+        </is>
+      </c>
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr"/>
@@ -1885,7 +1895,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F81"/>
+  <dimension ref="A1:G81"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1916,10 +1926,15 @@
       </c>
       <c r="E1" s="2" t="inlineStr">
         <is>
+          <t>Количество контрольных процедур, не выявивших ошибки</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
           <t>Документ, подтверждающий проведение контрольной процедуры</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
         <is>
           <t>Наименование КП</t>
         </is>
@@ -1940,12 +1955,15 @@
       <c r="D2" t="n">
         <v>0</v>
       </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>Чек-лист/Реестр объектов контроля</t>
-        </is>
+      <c r="E2" t="n">
+        <v>0</v>
       </c>
       <c r="F2" t="inlineStr">
+        <is>
+          <t>Чек-лист/Реестр объектов контроля</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
         <is>
           <t>Контроль полноты и корректности определения объектов налогообложения водным налогом</t>
         </is>
@@ -1966,12 +1984,15 @@
       <c r="D3" t="n">
         <v>0</v>
       </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>Чек-лист/Реестр объектов контроля</t>
-        </is>
+      <c r="E3" t="n">
+        <v>0</v>
       </c>
       <c r="F3" t="inlineStr">
+        <is>
+          <t>Чек-лист/Реестр объектов контроля</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
         <is>
           <t>Контроль корректности определения налоговой базы по водному налогу</t>
         </is>
@@ -1992,12 +2013,15 @@
       <c r="D4" t="n">
         <v>0</v>
       </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Чек-лист/Реестр объектов контроля</t>
-        </is>
+      <c r="E4" t="n">
+        <v>0</v>
       </c>
       <c r="F4" t="inlineStr">
+        <is>
+          <t>Чек-лист/Реестр объектов контроля</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
         <is>
           <t>Контроль корректности применения налоговой ставки водного налога</t>
         </is>
@@ -2018,12 +2042,15 @@
       <c r="D5" t="n">
         <v>0</v>
       </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Чек-лист/Реестр объектов контроля</t>
-        </is>
+      <c r="E5" t="n">
+        <v>0</v>
       </c>
       <c r="F5" t="inlineStr">
+        <is>
+          <t>Чек-лист/Реестр объектов контроля</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
         <is>
           <t>Контроль корректности определения объектов налогообложения по земельному налогу</t>
         </is>
@@ -2044,12 +2071,15 @@
       <c r="D6" t="n">
         <v>0</v>
       </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>Чек-лист/Реестр объектов контроля</t>
-        </is>
+      <c r="E6" t="n">
+        <v>0</v>
       </c>
       <c r="F6" t="inlineStr">
+        <is>
+          <t>Чек-лист/Реестр объектов контроля</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
         <is>
           <t>Контроль корректности определения налоговой базы по земельному налогу</t>
         </is>
@@ -2070,12 +2100,15 @@
       <c r="D7" t="n">
         <v>0</v>
       </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>Чек-лист/Реестр объектов контроля</t>
-        </is>
+      <c r="E7" t="n">
+        <v>0</v>
       </c>
       <c r="F7" t="inlineStr">
+        <is>
+          <t>Чек-лист/Реестр объектов контроля</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
         <is>
           <t>Контроль корректности определения налоговых ставок по земельному налогу</t>
         </is>
@@ -2096,12 +2129,15 @@
       <c r="D8" t="n">
         <v>0</v>
       </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>Чек-лист/Реестр объектов контроля</t>
-        </is>
+      <c r="E8" t="n">
+        <v>0</v>
       </c>
       <c r="F8" t="inlineStr">
+        <is>
+          <t>Чек-лист/Реестр объектов контроля</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
         <is>
           <t>Контроль полноты и правомерности применения федеральных и местных льгот по земельному налогу (освобождение, пониженная ставка)</t>
         </is>
@@ -2122,12 +2158,15 @@
       <c r="D9" t="n">
         <v>0</v>
       </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>Чек-лист/Реестр объектов контроля</t>
-        </is>
+      <c r="E9" t="n">
+        <v>0</v>
       </c>
       <c r="F9" t="inlineStr">
+        <is>
+          <t>Чек-лист/Реестр объектов контроля</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
         <is>
           <t>Контроль полноты и корректности определения объектов налогообложения по НДПИ</t>
         </is>
@@ -2148,12 +2187,15 @@
       <c r="D10" t="n">
         <v>0</v>
       </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>Чек-лист/Реестр объектов контроля</t>
-        </is>
+      <c r="E10" t="n">
+        <v>0</v>
       </c>
       <c r="F10" t="inlineStr">
+        <is>
+          <t>Чек-лист/Реестр объектов контроля</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
         <is>
           <t xml:space="preserve">Контроль корректности определения налоговой базы по НДПИ на нефть, газ, газовый конденсат </t>
         </is>
@@ -2174,12 +2216,15 @@
       <c r="D11" t="n">
         <v>0</v>
       </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>Чек-лист/Реестр объектов контроля</t>
-        </is>
+      <c r="E11" t="n">
+        <v>0</v>
       </c>
       <c r="F11" t="inlineStr">
+        <is>
+          <t>Чек-лист/Реестр объектов контроля</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
         <is>
           <t>Контроль корректности расчета налоговой ставки НДПИ на газ, газовый конденсат</t>
         </is>
@@ -2200,12 +2245,15 @@
       <c r="D12" t="n">
         <v>0</v>
       </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>Чек-лист/Реестр объектов контроля</t>
-        </is>
+      <c r="E12" t="n">
+        <v>0</v>
       </c>
       <c r="F12" t="inlineStr">
+        <is>
+          <t>Чек-лист/Реестр объектов контроля</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
         <is>
           <t>Контроль полноты и корректности определения объектов налогообложения по НДС</t>
         </is>
@@ -2226,12 +2274,15 @@
       <c r="D13" t="n">
         <v>0</v>
       </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>Чек-лист/Реестр объектов контроля</t>
-        </is>
+      <c r="E13" t="n">
+        <v>0</v>
       </c>
       <c r="F13" t="inlineStr">
+        <is>
+          <t>Чек-лист/Реестр объектов контроля</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
         <is>
           <t>Контроль полноты и корректности отражения исходящего НДС в учетной системе</t>
         </is>
@@ -2252,12 +2303,15 @@
       <c r="D14" t="n">
         <v>0</v>
       </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>Чек-лист/Реестр объектов контроля</t>
-        </is>
+      <c r="E14" t="n">
+        <v>0</v>
       </c>
       <c r="F14" t="inlineStr">
+        <is>
+          <t>Чек-лист/Реестр объектов контроля</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
         <is>
           <t>Контроль корректности и своевременности восстановления НДС</t>
         </is>
@@ -2278,12 +2332,15 @@
       <c r="D15" t="n">
         <v>0</v>
       </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>Чек-лист/Реестр объектов контроля</t>
-        </is>
+      <c r="E15" t="n">
+        <v>0</v>
       </c>
       <c r="F15" t="inlineStr">
+        <is>
+          <t>Чек-лист/Реестр объектов контроля</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
         <is>
           <t>Контроль корректности и правомерности отнесения операций к не облагаемым НДС</t>
         </is>
@@ -2304,12 +2361,15 @@
       <c r="D16" t="n">
         <v>0</v>
       </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>Чек-лист/Реестр объектов контроля</t>
-        </is>
+      <c r="E16" t="n">
+        <v>0</v>
       </c>
       <c r="F16" t="inlineStr">
+        <is>
+          <t>Чек-лист/Реестр объектов контроля</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
         <is>
           <t>Контроль корректности формирования выставленных счетов-фактур</t>
         </is>
@@ -2330,12 +2390,15 @@
       <c r="D17" t="n">
         <v>0</v>
       </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>Чек-лист/Реестр объектов контроля</t>
-        </is>
+      <c r="E17" t="n">
+        <v>0</v>
       </c>
       <c r="F17" t="inlineStr">
+        <is>
+          <t>Чек-лист/Реестр объектов контроля</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
         <is>
           <t>Контроль полноты и корректности отражения входящего НДС в учетной системе</t>
         </is>
@@ -2356,12 +2419,15 @@
       <c r="D18" t="n">
         <v>0</v>
       </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>Чек-лист/Реестр объектов контроля</t>
-        </is>
+      <c r="E18" t="n">
+        <v>0</v>
       </c>
       <c r="F18" t="inlineStr">
+        <is>
+          <t>Чек-лист/Реестр объектов контроля</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
         <is>
           <t>Контроль периода отнесения НДС к вычету</t>
         </is>
@@ -2382,12 +2448,15 @@
       <c r="D19" t="n">
         <v>0</v>
       </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>Чек-лист/Реестр объектов контроля</t>
-        </is>
+      <c r="E19" t="n">
+        <v>0</v>
       </c>
       <c r="F19" t="inlineStr">
+        <is>
+          <t>Чек-лист/Реестр объектов контроля</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
         <is>
           <t>Контроль корректности составления полученных счетов-фактур</t>
         </is>
@@ -2408,12 +2477,15 @@
       <c r="D20" t="n">
         <v>0</v>
       </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>Чек-лист/Реестр объектов контроля</t>
-        </is>
+      <c r="E20" t="n">
+        <v>0</v>
       </c>
       <c r="F20" t="inlineStr">
+        <is>
+          <t>Чек-лист/Реестр объектов контроля</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
         <is>
           <t>Контроль отнесения входящего НДС по видам деятельности, облагаемой НДС/ необлагаемой НДС</t>
         </is>
@@ -2434,12 +2506,15 @@
       <c r="D21" t="n">
         <v>0</v>
       </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>Чек-лист/Реестр объектов контроля</t>
-        </is>
+      <c r="E21" t="n">
+        <v>0</v>
       </c>
       <c r="F21" t="inlineStr">
+        <is>
+          <t>Чек-лист/Реестр объектов контроля</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
         <is>
           <t>Контроль распределения входящего НДС, относящегося одновременно к облагаемым и необлагаемым операциям</t>
         </is>
@@ -2460,12 +2535,15 @@
       <c r="D22" t="n">
         <v>0</v>
       </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>Чек-лист/Реестр объектов контроля</t>
-        </is>
+      <c r="E22" t="n">
+        <v>0</v>
       </c>
       <c r="F22" t="inlineStr">
+        <is>
+          <t>Чек-лист/Реестр объектов контроля</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
         <is>
           <t xml:space="preserve">Контроль корректности и своевременности принятия к вычету НДС, уплаченного таможенным органам при ввозе товаров на территорию РФ </t>
         </is>
@@ -2486,12 +2564,15 @@
       <c r="D23" t="n">
         <v>0</v>
       </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>Чек-лист/Реестр объектов контроля</t>
-        </is>
+      <c r="E23" t="n">
+        <v>0</v>
       </c>
       <c r="F23" t="inlineStr">
+        <is>
+          <t>Чек-лист/Реестр объектов контроля</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
         <is>
           <t>Контроль корректности исчисления НДС в качестве налогового агента</t>
         </is>
@@ -2512,12 +2593,15 @@
       <c r="D24" t="n">
         <v>0</v>
       </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>Чек-лист/Реестр объектов контроля</t>
-        </is>
+      <c r="E24" t="n">
+        <v>0</v>
       </c>
       <c r="F24" t="inlineStr">
+        <is>
+          <t>Чек-лист/Реестр объектов контроля</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
         <is>
           <t>Контроль полноты и корректности заполнения книги продаж</t>
         </is>
@@ -2538,12 +2622,15 @@
       <c r="D25" t="n">
         <v>0</v>
       </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>Чек-лист/Реестр объектов контроля</t>
-        </is>
+      <c r="E25" t="n">
+        <v>0</v>
       </c>
       <c r="F25" t="inlineStr">
+        <is>
+          <t>Чек-лист/Реестр объектов контроля</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
         <is>
           <t>Контроль полноты и корректности заполнения книги покупок</t>
         </is>
@@ -2564,12 +2651,15 @@
       <c r="D26" t="n">
         <v>0</v>
       </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>Чек-лист/Реестр объектов контроля</t>
-        </is>
+      <c r="E26" t="n">
+        <v>0</v>
       </c>
       <c r="F26" t="inlineStr">
+        <is>
+          <t>Чек-лист/Реестр объектов контроля</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
         <is>
           <t>Контроль полноты и корректности составления журнала выставленных/полученных счетов-фактур</t>
         </is>
@@ -2590,12 +2680,15 @@
       <c r="D27" t="n">
         <v>0</v>
       </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>Чек-лист/Реестр объектов контроля</t>
-        </is>
+      <c r="E27" t="n">
+        <v>0</v>
       </c>
       <c r="F27" t="inlineStr">
+        <is>
+          <t>Чек-лист/Реестр объектов контроля</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
         <is>
           <t>Контроль корректности расчета заработной платы специалистами Бухгалтерии для целей удержания НДФЛ</t>
         </is>
@@ -2616,12 +2709,15 @@
       <c r="D28" t="n">
         <v>0</v>
       </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>Чек-лист/Реестр объектов контроля</t>
-        </is>
+      <c r="E28" t="n">
+        <v>0</v>
       </c>
       <c r="F28" t="inlineStr">
+        <is>
+          <t>Чек-лист/Реестр объектов контроля</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
         <is>
           <t>Контроль удержания НДФЛ при выплате сотрудникам дохода в виде материальной выгоды</t>
         </is>
@@ -2642,12 +2738,15 @@
       <c r="D29" t="n">
         <v>0</v>
       </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>Чек-лист/Реестр объектов контроля</t>
-        </is>
+      <c r="E29" t="n">
+        <v>0</v>
       </c>
       <c r="F29" t="inlineStr">
+        <is>
+          <t>Чек-лист/Реестр объектов контроля</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
         <is>
           <t xml:space="preserve">Контроль корректности определения налоговой базы по НДФЛ </t>
         </is>
@@ -2668,12 +2767,15 @@
       <c r="D30" t="n">
         <v>0</v>
       </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>Чек-лист/Реестр объектов контроля</t>
-        </is>
+      <c r="E30" t="n">
+        <v>0</v>
       </c>
       <c r="F30" t="inlineStr">
+        <is>
+          <t>Чек-лист/Реестр объектов контроля</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
         <is>
           <t>Контроль полноты и корректности применения налоговых вычетов по НДФЛ</t>
         </is>
@@ -2694,12 +2796,15 @@
       <c r="D31" t="n">
         <v>0</v>
       </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>Чек-лист/Реестр объектов контроля</t>
-        </is>
+      <c r="E31" t="n">
+        <v>0</v>
       </c>
       <c r="F31" t="inlineStr">
+        <is>
+          <t>Чек-лист/Реестр объектов контроля</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
         <is>
           <t>Контроль корректности применения ставки НДФЛ при налогообложении доходов нерезидентов</t>
         </is>
@@ -2720,12 +2825,15 @@
       <c r="D32" t="n">
         <v>0</v>
       </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>Чек-лист/Реестр объектов контроля</t>
-        </is>
+      <c r="E32" t="n">
+        <v>0</v>
       </c>
       <c r="F32" t="inlineStr">
+        <is>
+          <t>Чек-лист/Реестр объектов контроля</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
         <is>
           <t xml:space="preserve">Контроль корректности классификации имущества в качестве недвижимого/движимого </t>
         </is>
@@ -2746,12 +2854,15 @@
       <c r="D33" t="n">
         <v>0</v>
       </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>Чек-лист/Реестр объектов контроля</t>
-        </is>
+      <c r="E33" t="n">
+        <v>0</v>
       </c>
       <c r="F33" t="inlineStr">
+        <is>
+          <t>Чек-лист/Реестр объектов контроля</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
         <is>
           <t>Контроль корректности определения даты принятия к учёту объектов ОС</t>
         </is>
@@ -2772,12 +2883,15 @@
       <c r="D34" t="n">
         <v>0</v>
       </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>Чек-лист/Реестр объектов контроля</t>
-        </is>
+      <c r="E34" t="n">
+        <v>0</v>
       </c>
       <c r="F34" t="inlineStr">
+        <is>
+          <t>Чек-лист/Реестр объектов контроля</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
         <is>
           <t xml:space="preserve">Контроль корректности учета недвижимого имущества </t>
         </is>
@@ -2798,12 +2912,15 @@
       <c r="D35" t="n">
         <v>0</v>
       </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>Чек-лист/Реестр объектов контроля</t>
-        </is>
+      <c r="E35" t="n">
+        <v>0</v>
       </c>
       <c r="F35" t="inlineStr">
+        <is>
+          <t>Чек-лист/Реестр объектов контроля</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
         <is>
           <t>Контроль корректности определения налоговой базы по налогу на имущество исходя из кадастровой стоимости</t>
         </is>
@@ -2824,12 +2941,15 @@
       <c r="D36" t="n">
         <v>0</v>
       </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>Чек-лист/Реестр объектов контроля</t>
-        </is>
+      <c r="E36" t="n">
+        <v>0</v>
       </c>
       <c r="F36" t="inlineStr">
+        <is>
+          <t>Чек-лист/Реестр объектов контроля</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
         <is>
           <t>Контроль корректности определения налоговых ставок по налогу на имущество</t>
         </is>
@@ -2850,12 +2970,15 @@
       <c r="D37" t="n">
         <v>0</v>
       </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>Чек-лист/Реестр объектов контроля</t>
-        </is>
+      <c r="E37" t="n">
+        <v>0</v>
       </c>
       <c r="F37" t="inlineStr">
+        <is>
+          <t>Чек-лист/Реестр объектов контроля</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
         <is>
           <t>Контроль полноты и правомерности применения федеральных и региональных льгот по налогу на имущество (освобождение, пониженная ставка)</t>
         </is>
@@ -2871,17 +2994,20 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>66</v>
+        <v>43</v>
       </c>
       <c r="D38" t="n">
-        <v>34</v>
-      </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>Чек-лист/Реестр объектов контроля</t>
-        </is>
+        <v>22</v>
+      </c>
+      <c r="E38" t="n">
+        <v>21</v>
       </c>
       <c r="F38" t="inlineStr">
+        <is>
+          <t>Чек-лист/Реестр объектов контроля</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
         <is>
           <t>Контроль отражения методологической позиции по налоговому учету хозяйственных операций в методологических документах компании</t>
         </is>
@@ -2902,12 +3028,15 @@
       <c r="D39" t="n">
         <v>0</v>
       </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>Чек-лист/Реестр объектов контроля</t>
-        </is>
+      <c r="E39" t="n">
+        <v>0</v>
       </c>
       <c r="F39" t="inlineStr">
+        <is>
+          <t>Чек-лист/Реестр объектов контроля</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
         <is>
           <t>Мониторинг изменений налогового законодательства</t>
         </is>
@@ -2928,12 +3057,15 @@
       <c r="D40" t="n">
         <v>22</v>
       </c>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>Чек-лист/Реестр объектов контроля</t>
-        </is>
+      <c r="E40" t="n">
+        <v>21</v>
       </c>
       <c r="F40" t="inlineStr">
+        <is>
+          <t>Чек-лист/Реестр объектов контроля</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
         <is>
           <t>Проверка полноты и достоверности ПУД</t>
         </is>
@@ -2954,12 +3086,15 @@
       <c r="D41" t="n">
         <v>0</v>
       </c>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>Чек-лист/Реестр объектов контроля</t>
-        </is>
+      <c r="E41" t="n">
+        <v>0</v>
       </c>
       <c r="F41" t="inlineStr">
+        <is>
+          <t>Чек-лист/Реестр объектов контроля</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
         <is>
           <t>Проверка корректности ПУД и осуществления проводки в учетной системе</t>
         </is>
@@ -2980,12 +3115,15 @@
       <c r="D42" t="n">
         <v>0</v>
       </c>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>Чек-лист/Реестр объектов контроля</t>
-        </is>
+      <c r="E42" t="n">
+        <v>0</v>
       </c>
       <c r="F42" t="inlineStr">
+        <is>
+          <t>Чек-лист/Реестр объектов контроля</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
         <is>
           <t>Проверка полноты и корректности внесения данных в НСИ</t>
         </is>
@@ -3006,12 +3144,15 @@
       <c r="D43" t="n">
         <v>0</v>
       </c>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>Чек-лист/Реестр объектов контроля</t>
-        </is>
+      <c r="E43" t="n">
+        <v>0</v>
       </c>
       <c r="F43" t="inlineStr">
+        <is>
+          <t>Чек-лист/Реестр объектов контроля</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
         <is>
           <t>Контроль полноты и корректности формирования деклараций (расчетов)</t>
         </is>
@@ -3032,12 +3173,15 @@
       <c r="D44" t="n">
         <v>0</v>
       </c>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t>Чек-лист/Реестр объектов контроля</t>
-        </is>
+      <c r="E44" t="n">
+        <v>0</v>
       </c>
       <c r="F44" t="inlineStr">
+        <is>
+          <t>Чек-лист/Реестр объектов контроля</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
         <is>
           <t>Контроль представления отчетности в налоговый орган</t>
         </is>
@@ -3058,12 +3202,15 @@
       <c r="D45" t="n">
         <v>0</v>
       </c>
-      <c r="E45" t="inlineStr">
-        <is>
-          <t>Чек-лист/Реестр объектов контроля</t>
-        </is>
+      <c r="E45" t="n">
+        <v>0</v>
       </c>
       <c r="F45" t="inlineStr">
+        <is>
+          <t>Чек-лист/Реестр объектов контроля</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
         <is>
           <t>Контроль корректности исчисления суммы налогов, сборов, страховых взносов</t>
         </is>
@@ -3084,12 +3231,15 @@
       <c r="D46" t="n">
         <v>0</v>
       </c>
-      <c r="E46" t="inlineStr">
-        <is>
-          <t>Чек-лист/Реестр объектов контроля</t>
-        </is>
+      <c r="E46" t="n">
+        <v>0</v>
       </c>
       <c r="F46" t="inlineStr">
+        <is>
+          <t>Чек-лист/Реестр объектов контроля</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
         <is>
           <t>Контроль своевременности уплаты (перечисления) налогов, сборов, страховых взносов</t>
         </is>
@@ -3110,12 +3260,15 @@
       <c r="D47" t="n">
         <v>0</v>
       </c>
-      <c r="E47" t="inlineStr">
-        <is>
-          <t>Чек-лист/Реестр объектов контроля</t>
-        </is>
+      <c r="E47" t="n">
+        <v>0</v>
       </c>
       <c r="F47" t="inlineStr">
+        <is>
+          <t>Чек-лист/Реестр объектов контроля</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
         <is>
           <t xml:space="preserve">Контроль за соблюдением порядка и сроков хранения первичных учетных документов и регистров </t>
         </is>
@@ -3136,12 +3289,15 @@
       <c r="D48" t="n">
         <v>0</v>
       </c>
-      <c r="E48" t="inlineStr">
-        <is>
-          <t>Чек-лист/Реестр объектов контроля</t>
-        </is>
+      <c r="E48" t="n">
+        <v>0</v>
       </c>
       <c r="F48" t="inlineStr">
+        <is>
+          <t>Чек-лист/Реестр объектов контроля</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
         <is>
           <t>Автоматизированная проверка корректности налоговых деклараций и контрольных соотношений показателей налоговой отчетности</t>
         </is>
@@ -3162,12 +3318,15 @@
       <c r="D49" t="n">
         <v>0</v>
       </c>
-      <c r="E49" t="inlineStr">
-        <is>
-          <t>Чек-лист/Реестр объектов контроля</t>
-        </is>
+      <c r="E49" t="n">
+        <v>0</v>
       </c>
       <c r="F49" t="inlineStr">
+        <is>
+          <t>Чек-лист/Реестр объектов контроля</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
         <is>
           <t xml:space="preserve">Проверка экономической целесообразности сделки </t>
         </is>
@@ -3188,12 +3347,15 @@
       <c r="D50" t="n">
         <v>0</v>
       </c>
-      <c r="E50" t="inlineStr">
-        <is>
-          <t>Чек-лист/Реестр объектов контроля</t>
-        </is>
+      <c r="E50" t="n">
+        <v>0</v>
       </c>
       <c r="F50" t="inlineStr">
+        <is>
+          <t>Чек-лист/Реестр объектов контроля</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
         <is>
           <t>Проверка контрагентов</t>
         </is>
@@ -3214,12 +3376,15 @@
       <c r="D51" t="n">
         <v>0</v>
       </c>
-      <c r="E51" t="inlineStr">
-        <is>
-          <t>Чек-лист/Реестр объектов контроля</t>
-        </is>
+      <c r="E51" t="n">
+        <v>0</v>
       </c>
       <c r="F51" t="inlineStr">
+        <is>
+          <t>Чек-лист/Реестр объектов контроля</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
         <is>
           <t>Экспертиза проектов договоров</t>
         </is>
@@ -3240,12 +3405,15 @@
       <c r="D52" t="n">
         <v>0</v>
       </c>
-      <c r="E52" t="inlineStr">
-        <is>
-          <t>Чек-лист/Реестр объектов контроля</t>
-        </is>
+      <c r="E52" t="n">
+        <v>0</v>
       </c>
       <c r="F52" t="inlineStr">
+        <is>
+          <t>Чек-лист/Реестр объектов контроля</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
         <is>
           <t>Контроль корректности формирования проводки в учетной системе</t>
         </is>
@@ -3266,12 +3434,15 @@
       <c r="D53" t="n">
         <v>0</v>
       </c>
-      <c r="E53" t="inlineStr">
-        <is>
-          <t>Чек-лист/Реестр объектов контроля</t>
-        </is>
+      <c r="E53" t="n">
+        <v>0</v>
       </c>
       <c r="F53" t="inlineStr">
+        <is>
+          <t>Чек-лист/Реестр объектов контроля</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
         <is>
           <t>Контроль за отражением в составе внереализационных доходов сумм доходов в виде штрафов, пеней и (или) иных санкций за нарушение договорных обязательств, а также сумм возмещения убытков или ущерба</t>
         </is>
@@ -3292,12 +3463,15 @@
       <c r="D54" t="n">
         <v>0</v>
       </c>
-      <c r="E54" t="inlineStr">
-        <is>
-          <t>Чек-лист/Реестр объектов контроля</t>
-        </is>
+      <c r="E54" t="n">
+        <v>0</v>
       </c>
       <c r="F54" t="inlineStr">
+        <is>
+          <t>Чек-лист/Реестр объектов контроля</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
         <is>
           <t xml:space="preserve">Проверка своевременности проведения арендной платы по договорам аренды ОС </t>
         </is>
@@ -3318,12 +3492,15 @@
       <c r="D55" t="n">
         <v>0</v>
       </c>
-      <c r="E55" t="inlineStr">
-        <is>
-          <t>Чек-лист/Реестр объектов контроля</t>
-        </is>
+      <c r="E55" t="n">
+        <v>0</v>
       </c>
       <c r="F55" t="inlineStr">
+        <is>
+          <t>Чек-лист/Реестр объектов контроля</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
         <is>
           <t>Контроль списания безнадежного долга</t>
         </is>
@@ -3344,12 +3521,15 @@
       <c r="D56" t="n">
         <v>0</v>
       </c>
-      <c r="E56" t="inlineStr">
-        <is>
-          <t>Чек-лист/Реестр объектов контроля</t>
-        </is>
+      <c r="E56" t="n">
+        <v>0</v>
       </c>
       <c r="F56" t="inlineStr">
+        <is>
+          <t>Чек-лист/Реестр объектов контроля</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
         <is>
           <t>Контроль полноты и корректности отражения в учетной системе проводок поступления объекта</t>
         </is>
@@ -3370,12 +3550,15 @@
       <c r="D57" t="n">
         <v>0</v>
       </c>
-      <c r="E57" t="inlineStr">
-        <is>
-          <t>Чек-лист/Реестр объектов контроля</t>
-        </is>
+      <c r="E57" t="n">
+        <v>0</v>
       </c>
       <c r="F57" t="inlineStr">
+        <is>
+          <t>Чек-лист/Реестр объектов контроля</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
         <is>
           <t>Проверка акта на ввод в эксплуатацию / акта приема-передачи ОС</t>
         </is>
@@ -3396,12 +3579,15 @@
       <c r="D58" t="n">
         <v>0</v>
       </c>
-      <c r="E58" t="inlineStr">
-        <is>
-          <t>Чек-лист/Реестр объектов контроля</t>
-        </is>
+      <c r="E58" t="n">
+        <v>0</v>
       </c>
       <c r="F58" t="inlineStr">
+        <is>
+          <t>Чек-лист/Реестр объектов контроля</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
         <is>
           <t>Контроль корректности отражения в карточке ОС данных об ОС</t>
         </is>
@@ -3422,12 +3608,15 @@
       <c r="D59" t="n">
         <v>0</v>
       </c>
-      <c r="E59" t="inlineStr">
-        <is>
-          <t>Чек-лист/Реестр объектов контроля</t>
-        </is>
+      <c r="E59" t="n">
+        <v>0</v>
       </c>
       <c r="F59" t="inlineStr">
+        <is>
+          <t>Чек-лист/Реестр объектов контроля</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
         <is>
           <t>Контроль корректности расчета амортизации для целей налогового учета</t>
         </is>
@@ -3448,12 +3637,15 @@
       <c r="D60" t="n">
         <v>0</v>
       </c>
-      <c r="E60" t="inlineStr">
-        <is>
-          <t>Чек-лист/Реестр объектов контроля</t>
-        </is>
+      <c r="E60" t="n">
+        <v>0</v>
       </c>
       <c r="F60" t="inlineStr">
+        <is>
+          <t>Чек-лист/Реестр объектов контроля</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
         <is>
           <t>Автоматизированный контроль корректности и своевременности признания амортизационной премии в составе расходов</t>
         </is>
@@ -3474,12 +3666,15 @@
       <c r="D61" t="n">
         <v>0</v>
       </c>
-      <c r="E61" t="inlineStr">
-        <is>
-          <t>Чек-лист/Реестр объектов контроля</t>
-        </is>
+      <c r="E61" t="n">
+        <v>0</v>
       </c>
       <c r="F61" t="inlineStr">
+        <is>
+          <t>Чек-лист/Реестр объектов контроля</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
         <is>
           <t>Контроль корректности, правомерности и своевременности признания амортизационной премии в составе расходов</t>
         </is>
@@ -3500,12 +3695,15 @@
       <c r="D62" t="n">
         <v>0</v>
       </c>
-      <c r="E62" t="inlineStr">
-        <is>
-          <t>Чек-лист/Реестр объектов контроля</t>
-        </is>
+      <c r="E62" t="n">
+        <v>0</v>
       </c>
       <c r="F62" t="inlineStr">
+        <is>
+          <t>Чек-лист/Реестр объектов контроля</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
         <is>
           <t>Автоматизированный контроль корректности, правомерности и своевременности отражения в налоговом учете восстановления амортизационной премии</t>
         </is>
@@ -3526,12 +3724,15 @@
       <c r="D63" t="n">
         <v>0</v>
       </c>
-      <c r="E63" t="inlineStr">
-        <is>
-          <t>Чек-лист/Реестр объектов контроля</t>
-        </is>
+      <c r="E63" t="n">
+        <v>0</v>
       </c>
       <c r="F63" t="inlineStr">
+        <is>
+          <t>Чек-лист/Реестр объектов контроля</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
         <is>
           <t>Квалификация операций в качестве текущего ремонта/ капитального ремонта / реконструкции / модернизации / технического перевооружения</t>
         </is>
@@ -3552,12 +3753,15 @@
       <c r="D64" t="n">
         <v>0</v>
       </c>
-      <c r="E64" t="inlineStr">
-        <is>
-          <t>Чек-лист/Реестр объектов контроля</t>
-        </is>
+      <c r="E64" t="n">
+        <v>0</v>
       </c>
       <c r="F64" t="inlineStr">
+        <is>
+          <t>Чек-лист/Реестр объектов контроля</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
         <is>
           <t>Контроль правильности квалификации операций в качестве капитального ремонта / реконструкции / модернизации / технического перевооружения</t>
         </is>
@@ -3578,12 +3782,15 @@
       <c r="D65" t="n">
         <v>0</v>
       </c>
-      <c r="E65" t="inlineStr">
-        <is>
-          <t>Чек-лист/Реестр объектов контроля</t>
-        </is>
+      <c r="E65" t="n">
+        <v>0</v>
       </c>
       <c r="F65" t="inlineStr">
+        <is>
+          <t>Чек-лист/Реестр объектов контроля</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
         <is>
           <t>Ручной контроль корректности и правомерности отражения расходов по оплате труда в налоговом учете</t>
         </is>
@@ -3604,12 +3811,15 @@
       <c r="D66" t="n">
         <v>0</v>
       </c>
-      <c r="E66" t="inlineStr">
-        <is>
-          <t>Чек-лист/Реестр объектов контроля</t>
-        </is>
+      <c r="E66" t="n">
+        <v>0</v>
       </c>
       <c r="F66" t="inlineStr">
+        <is>
+          <t>Чек-лист/Реестр объектов контроля</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
         <is>
           <t>Контроль отнесения расходов к непринимаемым и принимаемым на стадии приемки ПУД</t>
         </is>
@@ -3630,12 +3840,15 @@
       <c r="D67" t="n">
         <v>0</v>
       </c>
-      <c r="E67" t="inlineStr">
-        <is>
-          <t>Чек-лист/Реестр объектов контроля</t>
-        </is>
+      <c r="E67" t="n">
+        <v>0</v>
       </c>
       <c r="F67" t="inlineStr">
+        <is>
+          <t>Чек-лист/Реестр объектов контроля</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
         <is>
           <t>Контроль определения СПИ программного обеспечения</t>
         </is>
@@ -3656,12 +3869,15 @@
       <c r="D68" t="n">
         <v>0</v>
       </c>
-      <c r="E68" t="inlineStr">
-        <is>
-          <t>Чек-лист/Реестр объектов контроля</t>
-        </is>
+      <c r="E68" t="n">
+        <v>0</v>
       </c>
       <c r="F68" t="inlineStr">
+        <is>
+          <t>Чек-лист/Реестр объектов контроля</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
         <is>
           <t>Контроль корректности проводок по учету доходов и расходов прошлых лет</t>
         </is>
@@ -3682,12 +3898,15 @@
       <c r="D69" t="n">
         <v>0</v>
       </c>
-      <c r="E69" t="inlineStr">
-        <is>
-          <t>Чек-лист/Реестр объектов контроля</t>
-        </is>
+      <c r="E69" t="n">
+        <v>0</v>
       </c>
       <c r="F69" t="inlineStr">
+        <is>
+          <t>Чек-лист/Реестр объектов контроля</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
         <is>
           <t>Контроль корректности, правомерности и своевременности отражения расходов на освоение природных ресурсов</t>
         </is>
@@ -3708,12 +3927,15 @@
       <c r="D70" t="n">
         <v>0</v>
       </c>
-      <c r="E70" t="inlineStr">
-        <is>
-          <t>Чек-лист/Реестр объектов контроля</t>
-        </is>
+      <c r="E70" t="n">
+        <v>0</v>
       </c>
       <c r="F70" t="inlineStr">
+        <is>
+          <t>Чек-лист/Реестр объектов контроля</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
         <is>
           <t>Контроль корректности отражения расчетов с контрагентами в учетной системе</t>
         </is>
@@ -3734,12 +3956,15 @@
       <c r="D71" t="n">
         <v>0</v>
       </c>
-      <c r="E71" t="inlineStr">
-        <is>
-          <t>Чек-лист/Реестр объектов контроля</t>
-        </is>
+      <c r="E71" t="n">
+        <v>0</v>
       </c>
       <c r="F71" t="inlineStr">
+        <is>
+          <t>Чек-лист/Реестр объектов контроля</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
         <is>
           <t>Контроль корректности и своевременности отражения в учетной системе финансового результата при выбытии объектов основных средств</t>
         </is>
@@ -3760,12 +3985,15 @@
       <c r="D72" t="n">
         <v>0</v>
       </c>
-      <c r="E72" t="inlineStr">
-        <is>
-          <t>Чек-лист/Реестр объектов контроля</t>
-        </is>
+      <c r="E72" t="n">
+        <v>0</v>
       </c>
       <c r="F72" t="inlineStr">
+        <is>
+          <t>Чек-лист/Реестр объектов контроля</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
         <is>
           <t>Контроль корректности расчета суммы нормируемых расходов</t>
         </is>
@@ -3786,12 +4014,15 @@
       <c r="D73" t="n">
         <v>0</v>
       </c>
-      <c r="E73" t="inlineStr">
-        <is>
-          <t>Чек-лист/Реестр объектов контроля</t>
-        </is>
+      <c r="E73" t="n">
+        <v>0</v>
       </c>
       <c r="F73" t="inlineStr">
+        <is>
+          <t>Чек-лист/Реестр объектов контроля</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
         <is>
           <t>Контроль корректности, правомерности и своевременности отражения доходов в виде безвозмездно полученного имущества (работ, услуг) или имущественных прав</t>
         </is>
@@ -3812,12 +4043,15 @@
       <c r="D74" t="n">
         <v>0</v>
       </c>
-      <c r="E74" t="inlineStr">
-        <is>
-          <t>Чек-лист/Реестр объектов контроля</t>
-        </is>
+      <c r="E74" t="n">
+        <v>0</v>
       </c>
       <c r="F74" t="inlineStr">
+        <is>
+          <t>Чек-лист/Реестр объектов контроля</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
         <is>
           <t>Контроль своевременности списания кредиторской задолженности</t>
         </is>
@@ -3838,12 +4072,15 @@
       <c r="D75" t="n">
         <v>0</v>
       </c>
-      <c r="E75" t="inlineStr">
-        <is>
-          <t>Чек-лист/Реестр объектов контроля</t>
-        </is>
+      <c r="E75" t="n">
+        <v>0</v>
       </c>
       <c r="F75" t="inlineStr">
+        <is>
+          <t>Чек-лист/Реестр объектов контроля</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
         <is>
           <t>Контроль корректности отражения убытка</t>
         </is>
@@ -3864,12 +4101,15 @@
       <c r="D76" t="n">
         <v>0</v>
       </c>
-      <c r="E76" t="inlineStr">
-        <is>
-          <t>Чек-лист/Реестр объектов контроля</t>
-        </is>
+      <c r="E76" t="n">
+        <v>0</v>
       </c>
       <c r="F76" t="inlineStr">
+        <is>
+          <t>Чек-лист/Реестр объектов контроля</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
         <is>
           <t>Контроль полноты и корректности определения объектов обложения страховыми взносами</t>
         </is>
@@ -3890,12 +4130,15 @@
       <c r="D77" t="n">
         <v>0</v>
       </c>
-      <c r="E77" t="inlineStr">
-        <is>
-          <t>Чек-лист/Реестр объектов контроля</t>
-        </is>
+      <c r="E77" t="n">
+        <v>0</v>
       </c>
       <c r="F77" t="inlineStr">
+        <is>
+          <t>Чек-лист/Реестр объектов контроля</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
         <is>
           <t>Контроль корректности расчета заработной платы специалистами Бухгалтерии для целей обложения страховыми взносами</t>
         </is>
@@ -3916,12 +4159,15 @@
       <c r="D78" t="n">
         <v>0</v>
       </c>
-      <c r="E78" t="inlineStr">
-        <is>
-          <t>Чек-лист/Реестр объектов контроля</t>
-        </is>
+      <c r="E78" t="n">
+        <v>0</v>
       </c>
       <c r="F78" t="inlineStr">
+        <is>
+          <t>Чек-лист/Реестр объектов контроля</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
         <is>
           <t>Контроль корректности определения базы для начисления страховых взносов</t>
         </is>
@@ -3942,12 +4188,15 @@
       <c r="D79" t="n">
         <v>0</v>
       </c>
-      <c r="E79" t="inlineStr">
-        <is>
-          <t>Чек-лист/Реестр объектов контроля</t>
-        </is>
+      <c r="E79" t="n">
+        <v>0</v>
       </c>
       <c r="F79" t="inlineStr">
+        <is>
+          <t>Чек-лист/Реестр объектов контроля</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
         <is>
           <t>Контроль корректности и полноты определения объектов налогообложения по транспортному налогу</t>
         </is>
@@ -3968,12 +4217,15 @@
       <c r="D80" t="n">
         <v>0</v>
       </c>
-      <c r="E80" t="inlineStr">
-        <is>
-          <t>Чек-лист/Реестр объектов контроля</t>
-        </is>
+      <c r="E80" t="n">
+        <v>0</v>
       </c>
       <c r="F80" t="inlineStr">
+        <is>
+          <t>Чек-лист/Реестр объектов контроля</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
         <is>
           <t>Контроль корректности определения налоговой базы по транспортному налогу</t>
         </is>
@@ -3994,12 +4246,15 @@
       <c r="D81" t="n">
         <v>0</v>
       </c>
-      <c r="E81" t="inlineStr">
-        <is>
-          <t>Чек-лист/Реестр объектов контроля</t>
-        </is>
+      <c r="E81" t="n">
+        <v>0</v>
       </c>
       <c r="F81" t="inlineStr">
+        <is>
+          <t>Чек-лист/Реестр объектов контроля</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
         <is>
           <t xml:space="preserve">Контроль полноты и правомерности применения региональных льгот по транспортному налогу (освобождение, пониженная ставка)Контроль корректности определения налоговых ставок по транспортному налогу </t>
         </is>

--- a/excelanalog/example.xlsx
+++ b/excelanalog/example.xlsx
@@ -8,6 +8,9 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet4" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -17,13 +20,16 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -34,7 +40,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -42,17 +48,24 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="centerContinuous" vertical="center" wrapText="1"/>
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -419,171 +432,3739 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K9"/>
+  <dimension ref="A1:J26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <cols>
-    <col width="20" customWidth="1" min="1" max="1"/>
-    <col width="20" customWidth="1" min="2" max="2"/>
-    <col width="20" customWidth="1" min="3" max="3"/>
-    <col width="20" customWidth="1" min="4" max="4"/>
-    <col width="20" customWidth="1" min="5" max="5"/>
-    <col width="20" customWidth="1" min="6" max="6"/>
-    <col width="20" customWidth="1" min="7" max="7"/>
-    <col width="20" customWidth="1" min="8" max="8"/>
-    <col width="20" customWidth="1" min="9" max="9"/>
-    <col width="20" customWidth="1" min="10" max="10"/>
-    <col width="20" customWidth="1" min="11" max="11"/>
-  </cols>
   <sheetData>
-    <row r="1"/>
-    <row r="2"/>
-    <row r="3"/>
-    <row r="4"/>
-    <row r="5"/>
-    <row r="6"/>
-    <row r="7">
-      <c r="F7" s="1" t="n"/>
-      <c r="G7" s="1" t="n"/>
+    <row r="1">
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Сводный реестр контрольных процедур</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="D2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="D3" s="1" t="inlineStr">
+        <is>
+          <t>Выберите филиал</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>наименование филиала/отдела)</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="D6" s="1" t="inlineStr">
+        <is>
+          <t>осуществляемых в целях налогового мониторинга</t>
+        </is>
+      </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
+      <c r="E8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                                              За</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Выберите месяц</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Выберите год</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="inlineStr">
         <is>
           <t>номер п/п</t>
         </is>
       </c>
-      <c r="B8" s="1" t="inlineStr">
+      <c r="B13" s="2" t="inlineStr">
         <is>
           <t>Код КП(общий)</t>
         </is>
       </c>
-      <c r="C8" s="1" t="inlineStr">
-        <is>
-          <t>Код КП(Промежуточный)</t>
-        </is>
-      </c>
-      <c r="D8" s="1" t="inlineStr">
-        <is>
-          <t>Наименования КП</t>
-        </is>
-      </c>
-      <c r="E8" s="1" t="inlineStr">
-        <is>
-          <t>Описание КП</t>
-        </is>
-      </c>
-      <c r="F8" s="1" t="inlineStr">
-        <is>
-          <t>Периодичность проведения (ежедневно/ ежеквартально/ежемесячно/по мере поступления и т.д)</t>
-        </is>
-      </c>
-      <c r="G8" s="1" t="inlineStr">
-        <is>
-          <t>Способ подсчета результаты  проведения КП (ручной/автоматизированный)</t>
-        </is>
-      </c>
-      <c r="H8" s="1" t="inlineStr">
-        <is>
-          <t>Подразделение, ответственное за выполнение контрольной процедуры</t>
-        </is>
-      </c>
-      <c r="I8" s="1" t="inlineStr">
-        <is>
-          <t>Исполнитель КП (ФИО)</t>
-        </is>
-      </c>
-      <c r="J8" s="1" t="inlineStr">
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>Код КП(промежуточный)</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>Наименование КП</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>Подразделение, ответственное за проведение контрольной процедуры</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>Исполнитель КП</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
         <is>
           <t>Количество выполненных КП</t>
         </is>
       </c>
-      <c r="K8" s="1" t="inlineStr">
-        <is>
-          <t>Количество выявленных ошибок/ нарушений</t>
-        </is>
-      </c>
-    </row>
-    <row r="9" ht="250" customHeight="1">
-      <c r="A9" s="2" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="B9" s="2" t="inlineStr">
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>Количество выявленных ошибок</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>Количество контрольных процедур, не выявивших ошибки</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>Номер Чек-листа, подтверждающего проведение контрольной процедуры</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>1</v>
+      </c>
+      <c r="B14" t="inlineStr">
         <is>
           <t>НУ-ОБЩ-1-КП-001</t>
         </is>
       </c>
-      <c r="C9" s="2" t="inlineStr">
+      <c r="C14" t="inlineStr">
         <is>
           <t>НУ-ОБЩ-1-КП-001-01</t>
         </is>
       </c>
-      <c r="D9" s="2" t="inlineStr">
+      <c r="D14" t="inlineStr">
         <is>
           <t>Контроль отражения методологической позиции по налоговому учету хозяйственных операций в методологических документах компании</t>
         </is>
       </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>"Ответственный исполнитель Общества (далее - исполнитель КП) проверяет корректность отражения в учетной политике Общества по налоговому учету положений Корпоративных учетных принципов, сформированных и доведенных вышестоящей организацией.  Исполнитель КП отдела налогов проверяет в учетной политике по налоговому учету  корректность и полноту отражения норм НК РФ, а также единых принципов, разработанных и доведенных Департаментом ПАО ""Газпром"" (К.И. Оганян). В случае если исполнитель КП обнаружи</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>Ежегодно</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>Ручной</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>_</t>
         </is>
       </c>
-      <c r="I9" s="2" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>_</t>
         </is>
       </c>
-      <c r="J9" s="2">
-        <f>Sheet2!H3006</f>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr"/>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>checklist(316)</t>
+        </is>
+      </c>
+    </row>
+    <row r="15"/>
+    <row r="16"/>
+    <row r="17"/>
+    <row r="18"/>
+    <row r="19"/>
+    <row r="20"/>
+    <row r="21">
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Итого:</t>
+        </is>
+      </c>
+      <c r="G21">
+        <f>SUM(G1:G20)</f>
         <v/>
       </c>
-      <c r="K9" s="2">
-        <f>Sheet2!I3006</f>
+      <c r="H21">
+        <f>SUM(H1:H20)</f>
         <v/>
       </c>
+      <c r="I21">
+        <f>SUM(I1:I20)</f>
+        <v/>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>________________________________</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>________________________________</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>________________________________</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>дата</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>должность</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>подпись</t>
+        </is>
+      </c>
+      <c r="F26" s="3" t="inlineStr">
+        <is>
+          <t>ФИО</t>
+        </is>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
-    <mergeCell ref="B8"/>
-    <mergeCell ref="A8"/>
-    <mergeCell ref="E8"/>
-    <mergeCell ref="C8"/>
-    <mergeCell ref="H8"/>
-    <mergeCell ref="F8"/>
-    <mergeCell ref="G8"/>
-    <mergeCell ref="I8"/>
-    <mergeCell ref="J8"/>
-    <mergeCell ref="K8"/>
-    <mergeCell ref="D5"/>
-  </mergeCells>
-  <dataValidations count="2">
-    <dataValidation sqref="F7" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
+  <dataValidations count="3">
+    <dataValidation sqref="D3" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
+      <formula1>"АУП,Югорское УМТС и К,УОВОФ,Надымское УАВР,Югорское УАВР,Белоярское УАВР,Надымское УТТиСТ,Югорское УТТиСТ,Белоярское УТТиСТ,ИТЦ,Учебно-производственный центр,УЭЗ и С,Управление связи,Бобровское ЛПУ,Верхнеказымское ЛПУ,Ивдельское ЛПУ,Казымское ЛПУ,Карпинское ЛПУ,Комсомольское ЛПУ,Краснотурьинское ЛПУ,Лонг-Юганское ЛПУ,Надымское ЛПУ,Нижнетуринское ЛПУ,Ново-Уренгойское ЛПУ,Ныдинское ЛПУ,Октябрьское ЛПУ,Пангодинское ЛПУПелымское ЛПУ,Перегребненское ЛПУ,Правохеттинское ЛПУ,Приозерное ЛПУ,Пунгинское ЛПУ,Сорумское ЛПУ,Сосновское ЛПУ,Таежное ЛПУ,Уральское ЛПУ,Ягельное ЛПУ,Ямбургское ЛПУ,Санаторий-профилакторий,КСК Норд"</formula1>
+    </dataValidation>
+    <dataValidation sqref="F8" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
       <formula1>"Декабрь,Январь,Февраль,Март,Апрель,Май,Июнь,Июль,Август,Сентябрь,Октябрь,Ноябрь"</formula1>
     </dataValidation>
-    <dataValidation sqref="G7" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
-      <formula1>"2022г,2023г,2024г,2025г,2026г,2027г,2028г,2029г,2030г"</formula1>
+    <dataValidation sqref="G8" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
+      <formula1>"2023,2024,2025,2026,2027"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:J2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>№ п/п</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>Код КП(промежуточный)</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>Исполнитель ИП</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>номер чек листа</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>Объект контроля (договор, акт, счет-фактура, КС-2 и др.)</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>Дата документа</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>Номер документа</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>Количество документов/операций</t>
+        </is>
+      </c>
+      <c r="I1" s="2" t="inlineStr">
+        <is>
+          <t>Количество ошибок/нарушений</t>
+        </is>
+      </c>
+      <c r="J1" s="2" t="inlineStr">
+        <is>
+          <t>Примечание</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>НУ-ОБЩ-1-КП-001-01</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr"/>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr"/>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:CC4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>Код БС</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>Количество</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>НУ-ВН-1-КП-0001</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>НУ-ВН-1-КП-002</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>НУ-ВН-1-КП-003</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>НУ-ЗН-1-КП-001</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>НУ-ЗН-1-КП-002</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>НУ-ЗН-1-КП-003</t>
+        </is>
+      </c>
+      <c r="I1" s="2" t="inlineStr">
+        <is>
+          <t>НУ-ЗН-1-КП-004</t>
+        </is>
+      </c>
+      <c r="J1" s="2" t="inlineStr">
+        <is>
+          <t>НУ-НДПИ-1-КП-001</t>
+        </is>
+      </c>
+      <c r="K1" s="2" t="inlineStr">
+        <is>
+          <t>НУ-НДПИ-1-КП-002</t>
+        </is>
+      </c>
+      <c r="L1" s="2" t="inlineStr">
+        <is>
+          <t>НУ-НДПИ-1-КП-006</t>
+        </is>
+      </c>
+      <c r="M1" s="2" t="inlineStr">
+        <is>
+          <t>НУ-НДС-1-КП-001</t>
+        </is>
+      </c>
+      <c r="N1" s="2" t="inlineStr">
+        <is>
+          <t>НУ-НДС-1-КП-002</t>
+        </is>
+      </c>
+      <c r="O1" s="2" t="inlineStr">
+        <is>
+          <t>НУ-НДС-1-КП-003</t>
+        </is>
+      </c>
+      <c r="P1" s="2" t="inlineStr">
+        <is>
+          <t>НУ-НДС-1-КП-004</t>
+        </is>
+      </c>
+      <c r="Q1" s="2" t="inlineStr">
+        <is>
+          <t>НУ-НДС-1-КП-005</t>
+        </is>
+      </c>
+      <c r="R1" s="2" t="inlineStr">
+        <is>
+          <t>НУ-НДС-1-КП-006</t>
+        </is>
+      </c>
+      <c r="S1" s="2" t="inlineStr">
+        <is>
+          <t>НУ-НДС-1-КП-007</t>
+        </is>
+      </c>
+      <c r="T1" s="2" t="inlineStr">
+        <is>
+          <t>НУ-НДС-1-КП-008</t>
+        </is>
+      </c>
+      <c r="U1" s="2" t="inlineStr">
+        <is>
+          <t>НУ-НДС-1-КП-009</t>
+        </is>
+      </c>
+      <c r="V1" s="2" t="inlineStr">
+        <is>
+          <t>НУ-НДС-1-КП-010</t>
+        </is>
+      </c>
+      <c r="W1" s="2" t="inlineStr">
+        <is>
+          <t>НУ-НДС-1-КП-011</t>
+        </is>
+      </c>
+      <c r="X1" s="2" t="inlineStr">
+        <is>
+          <t>НУ-НДС-1-КП-012</t>
+        </is>
+      </c>
+      <c r="Y1" s="2" t="inlineStr">
+        <is>
+          <t>НУ-НДС-1-КП-013</t>
+        </is>
+      </c>
+      <c r="Z1" s="2" t="inlineStr">
+        <is>
+          <t>НУ-НДС-1-КП-014</t>
+        </is>
+      </c>
+      <c r="AA1" s="2" t="inlineStr">
+        <is>
+          <t>НУ-НДС-1-КП-015</t>
+        </is>
+      </c>
+      <c r="AB1" s="2" t="inlineStr">
+        <is>
+          <t>НУ-НДФЛ-1-КП-001</t>
+        </is>
+      </c>
+      <c r="AC1" s="2" t="inlineStr">
+        <is>
+          <t>НУ-НДФЛ-1-КП-003</t>
+        </is>
+      </c>
+      <c r="AD1" s="2" t="inlineStr">
+        <is>
+          <t>НУ-НДФЛ-1-КП-004</t>
+        </is>
+      </c>
+      <c r="AE1" s="2" t="inlineStr">
+        <is>
+          <t>НУ-НДФЛ-1-КП-005</t>
+        </is>
+      </c>
+      <c r="AF1" s="2" t="inlineStr">
+        <is>
+          <t>НУ-НДФЛ-1-КП-006</t>
+        </is>
+      </c>
+      <c r="AG1" s="2" t="inlineStr">
+        <is>
+          <t>НУ-НИ-1-КП-001</t>
+        </is>
+      </c>
+      <c r="AH1" s="2" t="inlineStr">
+        <is>
+          <t>НУ-НИ-1-КП-002</t>
+        </is>
+      </c>
+      <c r="AI1" s="2" t="inlineStr">
+        <is>
+          <t>НУ-НИ-1-КП-003</t>
+        </is>
+      </c>
+      <c r="AJ1" s="2" t="inlineStr">
+        <is>
+          <t>НУ-НИ-1-КП-004</t>
+        </is>
+      </c>
+      <c r="AK1" s="2" t="inlineStr">
+        <is>
+          <t>НУ-НИ-1-КП-005</t>
+        </is>
+      </c>
+      <c r="AL1" s="2" t="inlineStr">
+        <is>
+          <t>НУ-НИ-1-КП-006</t>
+        </is>
+      </c>
+      <c r="AM1" s="2" t="inlineStr">
+        <is>
+          <t>НУ-ОБЩ-1-КП-001</t>
+        </is>
+      </c>
+      <c r="AN1" s="2" t="inlineStr">
+        <is>
+          <t>НУ-ОБЩ-1-КП-002</t>
+        </is>
+      </c>
+      <c r="AO1" s="2" t="inlineStr">
+        <is>
+          <t>НУ-ОБЩ-1-КП-003</t>
+        </is>
+      </c>
+      <c r="AP1" s="2" t="inlineStr">
+        <is>
+          <t>НУ-ОБЩ-1-КП-004</t>
+        </is>
+      </c>
+      <c r="AQ1" s="2" t="inlineStr">
+        <is>
+          <t>НУ-ОБЩ-1-КП-005</t>
+        </is>
+      </c>
+      <c r="AR1" s="2" t="inlineStr">
+        <is>
+          <t>НУ-ОБЩ-1-КП-006</t>
+        </is>
+      </c>
+      <c r="AS1" s="2" t="inlineStr">
+        <is>
+          <t>НУ-ОБЩ-1-КП-007</t>
+        </is>
+      </c>
+      <c r="AT1" s="2" t="inlineStr">
+        <is>
+          <t>НУ-ОБЩ-1-КП-008</t>
+        </is>
+      </c>
+      <c r="AU1" s="2" t="inlineStr">
+        <is>
+          <t>НУ-ОБЩ-1-КП-009</t>
+        </is>
+      </c>
+      <c r="AV1" s="2" t="inlineStr">
+        <is>
+          <t>НУ-ОБЩ-1-КП-010</t>
+        </is>
+      </c>
+      <c r="AW1" s="2" t="inlineStr">
+        <is>
+          <t>НУ-ОБЩ-1-КП-011</t>
+        </is>
+      </c>
+      <c r="AX1" s="2" t="inlineStr">
+        <is>
+          <t>НУ-ПРИБ-1-КП-001</t>
+        </is>
+      </c>
+      <c r="AY1" s="2" t="inlineStr">
+        <is>
+          <t>НУ-ПРИБ-1-КП-002</t>
+        </is>
+      </c>
+      <c r="AZ1" s="2" t="inlineStr">
+        <is>
+          <t>НУ-ПРИБ-1-КП-003</t>
+        </is>
+      </c>
+      <c r="BA1" s="2" t="inlineStr">
+        <is>
+          <t>НУ-ПРИБ-1-КП-009</t>
+        </is>
+      </c>
+      <c r="BB1" s="2" t="inlineStr">
+        <is>
+          <t>НУ-ПРИБ-1-КП-010</t>
+        </is>
+      </c>
+      <c r="BC1" s="2" t="inlineStr">
+        <is>
+          <t>НУ-ПРИБ-1-КП-011</t>
+        </is>
+      </c>
+      <c r="BD1" s="2" t="inlineStr">
+        <is>
+          <t>НУ-ПРИБ-1-КП-013</t>
+        </is>
+      </c>
+      <c r="BE1" s="2" t="inlineStr">
+        <is>
+          <t>НУ-ПРИБ-1-КП-014</t>
+        </is>
+      </c>
+      <c r="BF1" s="2" t="inlineStr">
+        <is>
+          <t>НУ-ПРИБ-1-КП-015</t>
+        </is>
+      </c>
+      <c r="BG1" s="2" t="inlineStr">
+        <is>
+          <t>НУ-ПРИБ-1-КП-016</t>
+        </is>
+      </c>
+      <c r="BH1" s="2" t="inlineStr">
+        <is>
+          <t>НУ-ПРИБ-1-КП-017</t>
+        </is>
+      </c>
+      <c r="BI1" s="2" t="inlineStr">
+        <is>
+          <t>НУ-ПРИБ-1-КП-019</t>
+        </is>
+      </c>
+      <c r="BJ1" s="2" t="inlineStr">
+        <is>
+          <t>НУ-ПРИБ-1-КП-020</t>
+        </is>
+      </c>
+      <c r="BK1" s="2" t="inlineStr">
+        <is>
+          <t>НУ-ПРИБ-1-КП-021НУ-ПРИБ-1-КП-025</t>
+        </is>
+      </c>
+      <c r="BL1" s="2" t="inlineStr">
+        <is>
+          <t>НУ-ПРИБ-1-КП-026НУ-ПРИБ-1-КП-028</t>
+        </is>
+      </c>
+      <c r="BM1" s="2" t="inlineStr">
+        <is>
+          <t>НУ-ПРИБ-1-КП-029</t>
+        </is>
+      </c>
+      <c r="BN1" s="2" t="inlineStr">
+        <is>
+          <t>НУ-ПРИБ-1-КП-030</t>
+        </is>
+      </c>
+      <c r="BO1" s="2" t="inlineStr">
+        <is>
+          <t>НУ-ПРИБ-1-КП-033</t>
+        </is>
+      </c>
+      <c r="BP1" s="2" t="inlineStr">
+        <is>
+          <t>НУ-ПРИБ-1-КП-036</t>
+        </is>
+      </c>
+      <c r="BQ1" s="2" t="inlineStr">
+        <is>
+          <t>НУ-ПРИБ-1-КП-039</t>
+        </is>
+      </c>
+      <c r="BR1" s="2" t="inlineStr">
+        <is>
+          <t>НУ-ПРИБ-1-КП-040</t>
+        </is>
+      </c>
+      <c r="BS1" s="2" t="inlineStr">
+        <is>
+          <t>НУ-ПРИБ-1-КП-042</t>
+        </is>
+      </c>
+      <c r="BT1" s="2" t="inlineStr">
+        <is>
+          <t>НУ-ПРИБ-1-КП-044</t>
+        </is>
+      </c>
+      <c r="BU1" s="2" t="inlineStr">
+        <is>
+          <t>НУ-ПРИБ-1-КП-045</t>
+        </is>
+      </c>
+      <c r="BV1" s="2" t="inlineStr">
+        <is>
+          <t>НУ-ПРИБ-1-КП-046</t>
+        </is>
+      </c>
+      <c r="BW1" s="2" t="inlineStr">
+        <is>
+          <t>НУ-СВ-1-КП-001</t>
+        </is>
+      </c>
+      <c r="BX1" s="2" t="inlineStr">
+        <is>
+          <t>НУ-СВ-1-КП-002</t>
+        </is>
+      </c>
+      <c r="BY1" s="2" t="inlineStr">
+        <is>
+          <t>НУ-СВ-1-КП-003</t>
+        </is>
+      </c>
+      <c r="BZ1" s="2" t="inlineStr">
+        <is>
+          <t>НУ-ТН-1-КП-001</t>
+        </is>
+      </c>
+      <c r="CA1" s="2" t="inlineStr">
+        <is>
+          <t>НУ-ТН-1-КП-002</t>
+        </is>
+      </c>
+      <c r="CB1" s="2" t="inlineStr">
+        <is>
+          <t>НУ-ТН-1-КП-004</t>
+        </is>
+      </c>
+      <c r="CC1" s="2" t="inlineStr">
+        <is>
+          <t>НУ-ТН-1-КП-005</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr"/>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Количество выполненных КП</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S2" t="n">
+        <v>0</v>
+      </c>
+      <c r="T2" t="n">
+        <v>0</v>
+      </c>
+      <c r="U2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="n">
+        <v>0</v>
+      </c>
+      <c r="X2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BR2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BW2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CC2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr"/>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Количество выявленных ошибок</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R3" t="n">
+        <v>0</v>
+      </c>
+      <c r="S3" t="n">
+        <v>0</v>
+      </c>
+      <c r="T3" t="n">
+        <v>0</v>
+      </c>
+      <c r="U3" t="n">
+        <v>0</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="n">
+        <v>0</v>
+      </c>
+      <c r="X3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BR3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BW3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ3" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA3" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB3" t="n">
+        <v>0</v>
+      </c>
+      <c r="CC3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr"/>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Количество контрольных процедур, не выявивших ошибки (отклонения, нарушения)</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
+      <c r="M4" t="inlineStr"/>
+      <c r="N4" t="inlineStr"/>
+      <c r="O4" t="inlineStr"/>
+      <c r="P4" t="inlineStr"/>
+      <c r="Q4" t="inlineStr"/>
+      <c r="R4" t="inlineStr"/>
+      <c r="S4" t="inlineStr"/>
+      <c r="T4" t="inlineStr"/>
+      <c r="U4" t="inlineStr"/>
+      <c r="V4" t="inlineStr"/>
+      <c r="W4" t="inlineStr"/>
+      <c r="X4" t="inlineStr"/>
+      <c r="Y4" t="inlineStr"/>
+      <c r="Z4" t="inlineStr"/>
+      <c r="AA4" t="inlineStr"/>
+      <c r="AB4" t="inlineStr"/>
+      <c r="AC4" t="inlineStr"/>
+      <c r="AD4" t="inlineStr"/>
+      <c r="AE4" t="inlineStr"/>
+      <c r="AF4" t="inlineStr"/>
+      <c r="AG4" t="inlineStr"/>
+      <c r="AH4" t="inlineStr"/>
+      <c r="AI4" t="inlineStr"/>
+      <c r="AJ4" t="inlineStr"/>
+      <c r="AK4" t="inlineStr"/>
+      <c r="AL4" t="inlineStr"/>
+      <c r="AM4" t="inlineStr"/>
+      <c r="AN4" t="inlineStr"/>
+      <c r="AO4" t="inlineStr"/>
+      <c r="AP4" t="inlineStr"/>
+      <c r="AQ4" t="inlineStr"/>
+      <c r="AR4" t="inlineStr"/>
+      <c r="AS4" t="inlineStr"/>
+      <c r="AT4" t="inlineStr"/>
+      <c r="AU4" t="inlineStr"/>
+      <c r="AV4" t="inlineStr"/>
+      <c r="AW4" t="inlineStr"/>
+      <c r="AX4" t="inlineStr"/>
+      <c r="AY4" t="inlineStr"/>
+      <c r="AZ4" t="inlineStr"/>
+      <c r="BA4" t="inlineStr"/>
+      <c r="BB4" t="inlineStr"/>
+      <c r="BC4" t="inlineStr"/>
+      <c r="BD4" t="inlineStr"/>
+      <c r="BE4" t="inlineStr"/>
+      <c r="BF4" t="inlineStr"/>
+      <c r="BG4" t="inlineStr"/>
+      <c r="BH4" t="inlineStr"/>
+      <c r="BI4" t="inlineStr"/>
+      <c r="BJ4" t="inlineStr"/>
+      <c r="BK4" t="inlineStr"/>
+      <c r="BL4" t="inlineStr"/>
+      <c r="BM4" t="inlineStr"/>
+      <c r="BN4" t="inlineStr"/>
+      <c r="BO4" t="inlineStr"/>
+      <c r="BP4" t="inlineStr"/>
+      <c r="BQ4" t="inlineStr"/>
+      <c r="BR4" t="inlineStr"/>
+      <c r="BS4" t="inlineStr"/>
+      <c r="BT4" t="inlineStr"/>
+      <c r="BU4" t="inlineStr"/>
+      <c r="BV4" t="inlineStr"/>
+      <c r="BW4" t="inlineStr"/>
+      <c r="BX4" t="inlineStr"/>
+      <c r="BY4" t="inlineStr"/>
+      <c r="BZ4" t="inlineStr"/>
+      <c r="CA4" t="inlineStr"/>
+      <c r="CB4" t="inlineStr"/>
+      <c r="CC4" t="inlineStr"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G82"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>№ п/п</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>Код КП(общий)</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>Количество выполненных КП</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>Количество выявленных ошибок</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>Количество контрольных процедур, не выявивших ошибки</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>Документ, подтверждающий проведение контрольной процедуры</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>Наименование КП</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>НУ-ВН-1-КП-001</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Чек-лист/Реестр объектов контроля</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>Контроль полноты и корректности определения объектов налогообложения водным налогом</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>НУ-ВН-1-КП-002</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Чек-лист/Реестр объектов контроля</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Контроль корректности определения налоговой базы по водному налогу</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>НУ-ВН-1-КП-003</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Чек-лист/Реестр объектов контроля</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Контроль корректности применения налоговой ставки водного налога</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>НУ-ЗН-1-КП-001</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Чек-лист/Реестр объектов контроля</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Контроль корректности определения объектов налогообложения по земельному налогу</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>НУ-ЗН-1-КП-002</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Чек-лист/Реестр объектов контроля</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Контроль корректности определения налоговой базы по земельному налогу</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>НУ-ЗН-1-КП-003</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Чек-лист/Реестр объектов контроля</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Контроль корректности определения налоговых ставок по земельному налогу</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>НУ-ЗН-1-КП-004</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Чек-лист/Реестр объектов контроля</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Контроль полноты и правомерности применения федеральных и местных льгот по земельному налогу (освобождение, пониженная ставка)</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>НУ-НДПИ-1-КП-001</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Чек-лист/Реестр объектов контроля</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Контроль полноты и корректности определения объектов налогообложения по НДПИ</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>НУ-НДПИ-1-КП-002</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>0</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Чек-лист/Реестр объектов контроля</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Контроль корректности определения налоговой базы по НДПИ на нефть, газ, газовый конденсат </t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>НУ-НДПИ-1-КП-006</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>0</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Чек-лист/Реестр объектов контроля</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Контроль корректности расчета налоговой ставки НДПИ на газ, газовый конденсат</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>НУ-НДС-1-КП-001</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>0</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Чек-лист/Реестр объектов контроля</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Контроль полноты и корректности определения объектов налогообложения по НДС</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>НУ-НДС-1-КП-002</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>0</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Чек-лист/Реестр объектов контроля</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>Контроль полноты и корректности отражения исходящего НДС в учетной системе</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>НУ-НДС-1-КП-003</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>0</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Чек-лист/Реестр объектов контроля</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>Контроль корректности и своевременности восстановления НДС</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>НУ-НДС-1-КП-004</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>0</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Чек-лист/Реестр объектов контроля</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>Контроль корректности и правомерности отнесения операций к не облагаемым НДС</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>НУ-НДС-1-КП-005</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>0</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Чек-лист/Реестр объектов контроля</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>Контроль корректности формирования выставленных счетов-фактур</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>НУ-НДС-1-КП-006</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>0</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Чек-лист/Реестр объектов контроля</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>Контроль полноты и корректности отражения входящего НДС в учетной системе</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>НУ-НДС-1-КП-007</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>0</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0</v>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Чек-лист/Реестр объектов контроля</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>Контроль периода отнесения НДС к вычету</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>НУ-НДС-1-КП-008</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>0</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0</v>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Чек-лист/Реестр объектов контроля</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>Контроль корректности составления полученных счетов-фактур</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>НУ-НДС-1-КП-009</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>0</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Чек-лист/Реестр объектов контроля</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>Контроль отнесения входящего НДС по видам деятельности, облагаемой НДС/ необлагаемой НДС</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>20</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>НУ-НДС-1-КП-010</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>0</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0</v>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Чек-лист/Реестр объектов контроля</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>Контроль распределения входящего НДС, относящегося одновременно к облагаемым и необлагаемым операциям</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>21</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>НУ-НДС-1-КП-011</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>0</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0</v>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Чек-лист/Реестр объектов контроля</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Контроль корректности и своевременности принятия к вычету НДС, уплаченного таможенным органам при ввозе товаров на территорию РФ </t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>22</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>НУ-НДС-1-КП-012</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>0</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Чек-лист/Реестр объектов контроля</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>Контроль корректности исчисления НДС в качестве налогового агента</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>23</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>НУ-НДС-1-КП-013</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>0</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0</v>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Чек-лист/Реестр объектов контроля</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>Контроль полноты и корректности заполнения книги продаж</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>24</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>НУ-НДС-1-КП-014</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>0</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0</v>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Чек-лист/Реестр объектов контроля</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>Контроль полноты и корректности заполнения книги покупок</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>25</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>НУ-НДС-1-КП-015</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>0</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0</v>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Чек-лист/Реестр объектов контроля</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>Контроль полноты и корректности составления журнала выставленных/полученных счетов-фактур</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>26</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>НУ-НДФЛ-1-КП-001</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>0</v>
+      </c>
+      <c r="D27" t="n">
+        <v>0</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0</v>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>Чек-лист/Реестр объектов контроля</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>Контроль корректности расчета заработной платы специалистами Бухгалтерии для целей удержания НДФЛ</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>27</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>НУ-НДФЛ-1-КП-003</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>0</v>
+      </c>
+      <c r="D28" t="n">
+        <v>0</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0</v>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>Чек-лист/Реестр объектов контроля</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>Контроль удержания НДФЛ при выплате сотрудникам дохода в виде материальной выгоды</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>28</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>НУ-НДФЛ-1-КП-004</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>0</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0</v>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>Чек-лист/Реестр объектов контроля</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Контроль корректности определения налоговой базы по НДФЛ </t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>29</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>НУ-НДФЛ-1-КП-005</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>0</v>
+      </c>
+      <c r="D30" t="n">
+        <v>0</v>
+      </c>
+      <c r="E30" t="n">
+        <v>0</v>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>Чек-лист/Реестр объектов контроля</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>Контроль полноты и корректности применения налоговых вычетов по НДФЛ</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>30</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>НУ-НДФЛ-1-КП-006</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>0</v>
+      </c>
+      <c r="D31" t="n">
+        <v>0</v>
+      </c>
+      <c r="E31" t="n">
+        <v>0</v>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>Чек-лист/Реестр объектов контроля</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>Контроль корректности применения ставки НДФЛ при налогообложении доходов нерезидентов</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>31</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>НУ-НИ-1-КП-001</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
+        <v>0</v>
+      </c>
+      <c r="D32" t="n">
+        <v>0</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0</v>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>Чек-лист/Реестр объектов контроля</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Контроль корректности классификации имущества в качестве недвижимого/движимого </t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>32</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>НУ-НИ-1-КП-002</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
+        <v>0</v>
+      </c>
+      <c r="D33" t="n">
+        <v>0</v>
+      </c>
+      <c r="E33" t="n">
+        <v>0</v>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>Чек-лист/Реестр объектов контроля</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>Контроль корректности определения даты принятия к учёту объектов ОС</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>33</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>НУ-НИ-1-КП-003</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
+        <v>0</v>
+      </c>
+      <c r="D34" t="n">
+        <v>0</v>
+      </c>
+      <c r="E34" t="n">
+        <v>0</v>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>Чек-лист/Реестр объектов контроля</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Контроль корректности учета недвижимого имущества </t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>34</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>НУ-НИ-1-КП-004</t>
+        </is>
+      </c>
+      <c r="C35" t="n">
+        <v>0</v>
+      </c>
+      <c r="D35" t="n">
+        <v>0</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0</v>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>Чек-лист/Реестр объектов контроля</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>Контроль корректности определения налоговой базы по налогу на имущество исходя из кадастровой стоимости</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>35</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>НУ-НИ-1-КП-005</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
+        <v>0</v>
+      </c>
+      <c r="D36" t="n">
+        <v>0</v>
+      </c>
+      <c r="E36" t="n">
+        <v>0</v>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>Чек-лист/Реестр объектов контроля</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>Контроль корректности определения налоговых ставок по налогу на имущество</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>36</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>НУ-НИ-1-КП-006</t>
+        </is>
+      </c>
+      <c r="C37" t="n">
+        <v>0</v>
+      </c>
+      <c r="D37" t="n">
+        <v>0</v>
+      </c>
+      <c r="E37" t="n">
+        <v>0</v>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>Чек-лист/Реестр объектов контроля</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>Контроль полноты и правомерности применения федеральных и региональных льгот по налогу на имущество (освобождение, пониженная ставка)</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>37</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>НУ-ОБЩ-1-КП-001</t>
+        </is>
+      </c>
+      <c r="C38" t="n">
+        <v>0</v>
+      </c>
+      <c r="D38" t="n">
+        <v>0</v>
+      </c>
+      <c r="E38" t="n">
+        <v>0</v>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>Чек-лист/Реестр объектов контроля</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>Контроль отражения методологической позиции по налоговому учету хозяйственных операций в методологических документах компании</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>38</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>НУ-ОБЩ-1-КП-002</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
+        <v>0</v>
+      </c>
+      <c r="D39" t="n">
+        <v>0</v>
+      </c>
+      <c r="E39" t="n">
+        <v>0</v>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>Чек-лист/Реестр объектов контроля</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>Мониторинг изменений налогового законодательства</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>39</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>НУ-ОБЩ-1-КП-003</t>
+        </is>
+      </c>
+      <c r="C40" t="n">
+        <v>0</v>
+      </c>
+      <c r="D40" t="n">
+        <v>0</v>
+      </c>
+      <c r="E40" t="n">
+        <v>0</v>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>Чек-лист/Реестр объектов контроля</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>Проверка полноты и достоверности ПУД</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>40</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>НУ-ОБЩ-1-КП-004</t>
+        </is>
+      </c>
+      <c r="C41" t="n">
+        <v>0</v>
+      </c>
+      <c r="D41" t="n">
+        <v>0</v>
+      </c>
+      <c r="E41" t="n">
+        <v>0</v>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>Чек-лист/Реестр объектов контроля</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>Проверка корректности ПУД и осуществления проводки в учетной системе</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>41</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>НУ-ОБЩ-1-КП-005</t>
+        </is>
+      </c>
+      <c r="C42" t="n">
+        <v>0</v>
+      </c>
+      <c r="D42" t="n">
+        <v>0</v>
+      </c>
+      <c r="E42" t="n">
+        <v>0</v>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>Чек-лист/Реестр объектов контроля</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>Проверка полноты и корректности внесения данных в НСИ</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>42</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>НУ-ОБЩ-1-КП-006</t>
+        </is>
+      </c>
+      <c r="C43" t="n">
+        <v>0</v>
+      </c>
+      <c r="D43" t="n">
+        <v>0</v>
+      </c>
+      <c r="E43" t="n">
+        <v>0</v>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>Чек-лист/Реестр объектов контроля</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>Контроль полноты и корректности формирования деклараций (расчетов)</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>43</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>НУ-ОБЩ-1-КП-007</t>
+        </is>
+      </c>
+      <c r="C44" t="n">
+        <v>0</v>
+      </c>
+      <c r="D44" t="n">
+        <v>0</v>
+      </c>
+      <c r="E44" t="n">
+        <v>0</v>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>Чек-лист/Реестр объектов контроля</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>Контроль представления отчетности в налоговый орган</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>44</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>НУ-ОБЩ-1-КП-008</t>
+        </is>
+      </c>
+      <c r="C45" t="n">
+        <v>0</v>
+      </c>
+      <c r="D45" t="n">
+        <v>0</v>
+      </c>
+      <c r="E45" t="n">
+        <v>0</v>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>Чек-лист/Реестр объектов контроля</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>Контроль корректности исчисления суммы налогов, сборов, страховых взносов</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>45</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>НУ-ОБЩ-1-КП-009</t>
+        </is>
+      </c>
+      <c r="C46" t="n">
+        <v>0</v>
+      </c>
+      <c r="D46" t="n">
+        <v>0</v>
+      </c>
+      <c r="E46" t="n">
+        <v>0</v>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>Чек-лист/Реестр объектов контроля</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>Контроль своевременности уплаты (перечисления) налогов, сборов, страховых взносов</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>46</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>НУ-ОБЩ-1-КП-010</t>
+        </is>
+      </c>
+      <c r="C47" t="n">
+        <v>0</v>
+      </c>
+      <c r="D47" t="n">
+        <v>0</v>
+      </c>
+      <c r="E47" t="n">
+        <v>0</v>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>Чек-лист/Реестр объектов контроля</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Контроль за соблюдением порядка и сроков хранения первичных учетных документов и регистров </t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>47</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>НУ-ОБЩ-1-КП-011</t>
+        </is>
+      </c>
+      <c r="C48" t="n">
+        <v>0</v>
+      </c>
+      <c r="D48" t="n">
+        <v>0</v>
+      </c>
+      <c r="E48" t="n">
+        <v>0</v>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>Чек-лист/Реестр объектов контроля</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>Автоматизированная проверка корректности налоговых деклараций и контрольных соотношений показателей налоговой отчетности</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>48</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>НУ-ПРИБ-1-КП-001</t>
+        </is>
+      </c>
+      <c r="C49" t="n">
+        <v>0</v>
+      </c>
+      <c r="D49" t="n">
+        <v>0</v>
+      </c>
+      <c r="E49" t="n">
+        <v>0</v>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>Чек-лист/Реестр объектов контроля</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Проверка экономической целесообразности сделки </t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>49</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>НУ-ПРИБ-1-КП-002</t>
+        </is>
+      </c>
+      <c r="C50" t="n">
+        <v>0</v>
+      </c>
+      <c r="D50" t="n">
+        <v>0</v>
+      </c>
+      <c r="E50" t="n">
+        <v>0</v>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>Чек-лист/Реестр объектов контроля</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>Проверка контрагентов</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>50</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>НУ-ПРИБ-1-КП-003</t>
+        </is>
+      </c>
+      <c r="C51" t="n">
+        <v>0</v>
+      </c>
+      <c r="D51" t="n">
+        <v>0</v>
+      </c>
+      <c r="E51" t="n">
+        <v>0</v>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>Чек-лист/Реестр объектов контроля</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>Экспертиза проектов договоров</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>51</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>НУ-ПРИБ-1-КП-009</t>
+        </is>
+      </c>
+      <c r="C52" t="n">
+        <v>0</v>
+      </c>
+      <c r="D52" t="n">
+        <v>0</v>
+      </c>
+      <c r="E52" t="n">
+        <v>0</v>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>Чек-лист/Реестр объектов контроля</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>Контроль корректности формирования проводки в учетной системе</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>52</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>НУ-ПРИБ-1-КП-010</t>
+        </is>
+      </c>
+      <c r="C53" t="n">
+        <v>0</v>
+      </c>
+      <c r="D53" t="n">
+        <v>0</v>
+      </c>
+      <c r="E53" t="n">
+        <v>0</v>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>Чек-лист/Реестр объектов контроля</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>Контроль за отражением в составе внереализационных доходов сумм доходов в виде штрафов, пеней и (или) иных санкций за нарушение договорных обязательств, а также сумм возмещения убытков или ущерба</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>53</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>НУ-ПРИБ-1-КП-011</t>
+        </is>
+      </c>
+      <c r="C54" t="n">
+        <v>0</v>
+      </c>
+      <c r="D54" t="n">
+        <v>0</v>
+      </c>
+      <c r="E54" t="n">
+        <v>0</v>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>Чек-лист/Реестр объектов контроля</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Проверка своевременности проведения арендной платы по договорам аренды ОС </t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>54</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>НУ-ПРИБ-1-КП-013</t>
+        </is>
+      </c>
+      <c r="C55" t="n">
+        <v>0</v>
+      </c>
+      <c r="D55" t="n">
+        <v>0</v>
+      </c>
+      <c r="E55" t="n">
+        <v>0</v>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>Чек-лист/Реестр объектов контроля</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>Контроль списания безнадежного долга</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>55</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>НУ-ПРИБ-1-КП-014</t>
+        </is>
+      </c>
+      <c r="C56" t="n">
+        <v>0</v>
+      </c>
+      <c r="D56" t="n">
+        <v>0</v>
+      </c>
+      <c r="E56" t="n">
+        <v>0</v>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>Чек-лист/Реестр объектов контроля</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>Контроль полноты и корректности отражения в учетной системе проводок поступления объекта</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>56</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>НУ-ПРИБ-1-КП-015</t>
+        </is>
+      </c>
+      <c r="C57" t="n">
+        <v>0</v>
+      </c>
+      <c r="D57" t="n">
+        <v>0</v>
+      </c>
+      <c r="E57" t="n">
+        <v>0</v>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>Чек-лист/Реестр объектов контроля</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>Проверка акта на ввод в эксплуатацию / акта приема-передачи ОС</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>57</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>НУ-ПРИБ-1-КП-016</t>
+        </is>
+      </c>
+      <c r="C58" t="n">
+        <v>0</v>
+      </c>
+      <c r="D58" t="n">
+        <v>0</v>
+      </c>
+      <c r="E58" t="n">
+        <v>0</v>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>Чек-лист/Реестр объектов контроля</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>Контроль корректности отражения в карточке ОС данных об ОС</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>58</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>НУ-ПРИБ-1-КП-017</t>
+        </is>
+      </c>
+      <c r="C59" t="n">
+        <v>0</v>
+      </c>
+      <c r="D59" t="n">
+        <v>0</v>
+      </c>
+      <c r="E59" t="n">
+        <v>0</v>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>Чек-лист/Реестр объектов контроля</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>Контроль корректности расчета амортизации для целей налогового учета</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>59</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>НУ-ПРИБ-1-КП-019</t>
+        </is>
+      </c>
+      <c r="C60" t="n">
+        <v>0</v>
+      </c>
+      <c r="D60" t="n">
+        <v>0</v>
+      </c>
+      <c r="E60" t="n">
+        <v>0</v>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>Чек-лист/Реестр объектов контроля</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>Автоматизированный контроль корректности и своевременности признания амортизационной премии в составе расходов</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>60</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>НУ-ПРИБ-1-КП-020</t>
+        </is>
+      </c>
+      <c r="C61" t="n">
+        <v>0</v>
+      </c>
+      <c r="D61" t="n">
+        <v>0</v>
+      </c>
+      <c r="E61" t="n">
+        <v>0</v>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>Чек-лист/Реестр объектов контроля</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>Контроль корректности, правомерности и своевременности признания амортизационной премии в составе расходов</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>61</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>НУ-ПРИБ-1-КП-021</t>
+        </is>
+      </c>
+      <c r="C62" t="n">
+        <v>0</v>
+      </c>
+      <c r="D62" t="n">
+        <v>0</v>
+      </c>
+      <c r="E62" t="n">
+        <v>0</v>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>Чек-лист/Реестр объектов контроля</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>Автоматизированный контроль корректности, правомерности и своевременности отражения в налоговом учете восстановления амортизационной премии</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>62</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>НУ-ПРИБ-1-КП-025</t>
+        </is>
+      </c>
+      <c r="C63" t="n">
+        <v>0</v>
+      </c>
+      <c r="D63" t="n">
+        <v>0</v>
+      </c>
+      <c r="E63" t="n">
+        <v>0</v>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>Чек-лист/Реестр объектов контроля</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>Квалификация операций в качестве текущего ремонта/ капитального ремонта / реконструкции / модернизации / технического перевооружения</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>63</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>НУ-ПРИБ-1-КП-026</t>
+        </is>
+      </c>
+      <c r="C64" t="n">
+        <v>0</v>
+      </c>
+      <c r="D64" t="n">
+        <v>0</v>
+      </c>
+      <c r="E64" t="n">
+        <v>0</v>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>Чек-лист/Реестр объектов контроля</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>Контроль правильности квалификации операций в качестве капитального ремонта / реконструкции / модернизации / технического перевооружения</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>64</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>НУ-ПРИБ-1-КП-028</t>
+        </is>
+      </c>
+      <c r="C65" t="n">
+        <v>0</v>
+      </c>
+      <c r="D65" t="n">
+        <v>0</v>
+      </c>
+      <c r="E65" t="n">
+        <v>0</v>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>Чек-лист/Реестр объектов контроля</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>Ручной контроль корректности и правомерности отражения расходов по оплате труда в налоговом учете</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>65</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>НУ-ПРИБ-1-КП-029</t>
+        </is>
+      </c>
+      <c r="C66" t="n">
+        <v>0</v>
+      </c>
+      <c r="D66" t="n">
+        <v>0</v>
+      </c>
+      <c r="E66" t="n">
+        <v>0</v>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>Чек-лист/Реестр объектов контроля</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>Контроль отнесения расходов к непринимаемым и принимаемым на стадии приемки ПУД</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>66</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>НУ-ПРИБ-1-КП-030</t>
+        </is>
+      </c>
+      <c r="C67" t="n">
+        <v>0</v>
+      </c>
+      <c r="D67" t="n">
+        <v>0</v>
+      </c>
+      <c r="E67" t="n">
+        <v>0</v>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>Чек-лист/Реестр объектов контроля</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>Контроль правильности квалификации операций в качестве капитального ремонта / реконструкции / модернизации / технического перевооружения</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>67</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>НУ-ПРИБ-1-КП-033</t>
+        </is>
+      </c>
+      <c r="C68" t="n">
+        <v>0</v>
+      </c>
+      <c r="D68" t="n">
+        <v>0</v>
+      </c>
+      <c r="E68" t="n">
+        <v>0</v>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>Чек-лист/Реестр объектов контроля</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>Контроль определения СПИ программного обеспечения</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>68</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>НУ-ПРИБ-1-КП-036</t>
+        </is>
+      </c>
+      <c r="C69" t="n">
+        <v>0</v>
+      </c>
+      <c r="D69" t="n">
+        <v>0</v>
+      </c>
+      <c r="E69" t="n">
+        <v>0</v>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>Чек-лист/Реестр объектов контроля</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>Контроль корректности проводок по учету доходов и расходов прошлых лет</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>69</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>НУ-ПРИБ-1-КП-039</t>
+        </is>
+      </c>
+      <c r="C70" t="n">
+        <v>0</v>
+      </c>
+      <c r="D70" t="n">
+        <v>0</v>
+      </c>
+      <c r="E70" t="n">
+        <v>0</v>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>Чек-лист/Реестр объектов контроля</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>Контроль корректности, правомерности и своевременности отражения расходов на освоение природных ресурсов</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>70</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>НУ-ПРИБ-1-КП-040</t>
+        </is>
+      </c>
+      <c r="C71" t="n">
+        <v>0</v>
+      </c>
+      <c r="D71" t="n">
+        <v>0</v>
+      </c>
+      <c r="E71" t="n">
+        <v>0</v>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>Чек-лист/Реестр объектов контроля</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>Контроль корректности отражения расчетов с контрагентами в учетной системе</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>71</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>НУ-ПРИБ-1-КП-042</t>
+        </is>
+      </c>
+      <c r="C72" t="n">
+        <v>0</v>
+      </c>
+      <c r="D72" t="n">
+        <v>0</v>
+      </c>
+      <c r="E72" t="n">
+        <v>0</v>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>Чек-лист/Реестр объектов контроля</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>Контроль корректности и своевременности отражения в учетной системе финансового результата при выбытии объектов основных средств</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>72</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>НУ-ПРИБ-1-КП-044</t>
+        </is>
+      </c>
+      <c r="C73" t="n">
+        <v>0</v>
+      </c>
+      <c r="D73" t="n">
+        <v>0</v>
+      </c>
+      <c r="E73" t="n">
+        <v>0</v>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>Чек-лист/Реестр объектов контроля</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>Контроль корректности расчета суммы нормируемых расходов</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>73</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>НУ-ПРИБ-1-КП-045</t>
+        </is>
+      </c>
+      <c r="C74" t="n">
+        <v>0</v>
+      </c>
+      <c r="D74" t="n">
+        <v>0</v>
+      </c>
+      <c r="E74" t="n">
+        <v>0</v>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>Чек-лист/Реестр объектов контроля</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>Контроль корректности, правомерности и своевременности отражения доходов в виде безвозмездно полученного имущества (работ, услуг) или имущественных прав</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>74</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>НУ-ПРИБ-1-КП-046</t>
+        </is>
+      </c>
+      <c r="C75" t="n">
+        <v>0</v>
+      </c>
+      <c r="D75" t="n">
+        <v>0</v>
+      </c>
+      <c r="E75" t="n">
+        <v>0</v>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>Чек-лист/Реестр объектов контроля</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>Контроль своевременности списания кредиторской задолженности</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>75</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>НУ-СВ-1-КП-001</t>
+        </is>
+      </c>
+      <c r="C76" t="n">
+        <v>0</v>
+      </c>
+      <c r="D76" t="n">
+        <v>0</v>
+      </c>
+      <c r="E76" t="n">
+        <v>0</v>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>Чек-лист/Реестр объектов контроля</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>Контроль корректности отражения убытка</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>76</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>НУ-СВ-1-КП-002</t>
+        </is>
+      </c>
+      <c r="C77" t="n">
+        <v>0</v>
+      </c>
+      <c r="D77" t="n">
+        <v>0</v>
+      </c>
+      <c r="E77" t="n">
+        <v>0</v>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>Чек-лист/Реестр объектов контроля</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>Контроль полноты и корректности определения объектов обложения страховыми взносами</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>77</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>НУ-СВ-1-КП-003</t>
+        </is>
+      </c>
+      <c r="C78" t="n">
+        <v>0</v>
+      </c>
+      <c r="D78" t="n">
+        <v>0</v>
+      </c>
+      <c r="E78" t="n">
+        <v>0</v>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>Чек-лист/Реестр объектов контроля</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>Контроль корректности расчета заработной платы специалистами Бухгалтерии для целей обложения страховыми взносами</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>78</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>НУ-ТН-1-КП-001</t>
+        </is>
+      </c>
+      <c r="C79" t="n">
+        <v>0</v>
+      </c>
+      <c r="D79" t="n">
+        <v>0</v>
+      </c>
+      <c r="E79" t="n">
+        <v>0</v>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>Чек-лист/Реестр объектов контроля</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>Контроль корректности определения базы для начисления страховых взносов</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>79</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>НУ-ТН-1-КП-002</t>
+        </is>
+      </c>
+      <c r="C80" t="n">
+        <v>0</v>
+      </c>
+      <c r="D80" t="n">
+        <v>0</v>
+      </c>
+      <c r="E80" t="n">
+        <v>0</v>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>Чек-лист/Реестр объектов контроля</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>Контроль корректности и полноты определения объектов налогообложения по транспортному налогу</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>80</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>НУ-ТН-1-КП-004</t>
+        </is>
+      </c>
+      <c r="C81" t="n">
+        <v>0</v>
+      </c>
+      <c r="D81" t="n">
+        <v>0</v>
+      </c>
+      <c r="E81" t="n">
+        <v>0</v>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>Чек-лист/Реестр объектов контроля</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>Контроль корректности определения налоговой базы по транспортному налогу</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>81</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>НУ-ТН-1-КП-005</t>
+        </is>
+      </c>
+      <c r="C82" t="n">
+        <v>0</v>
+      </c>
+      <c r="D82" t="n">
+        <v>0</v>
+      </c>
+      <c r="E82" t="n">
+        <v>0</v>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>Чек-лист/Реестр объектов контроля</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Контроль полноты и правомерности применения региональных льгот по транспортному налогу (освобождение, пониженная ставка)Контроль корректности определения налоговых ставок по транспортному налогу </t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/excelanalog/example.xlsx
+++ b/excelanalog/example.xlsx
@@ -1,13 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet4" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -17,13 +20,16 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -34,7 +40,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -42,17 +48,24 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="centerContinuous" vertical="center" wrapText="1"/>
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -419,171 +432,3763 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K9"/>
+  <dimension ref="A1:J26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <cols>
-    <col width="20" customWidth="1" min="1" max="1"/>
-    <col width="20" customWidth="1" min="2" max="2"/>
-    <col width="20" customWidth="1" min="3" max="3"/>
-    <col width="20" customWidth="1" min="4" max="4"/>
-    <col width="20" customWidth="1" min="5" max="5"/>
-    <col width="20" customWidth="1" min="6" max="6"/>
-    <col width="20" customWidth="1" min="7" max="7"/>
-    <col width="20" customWidth="1" min="8" max="8"/>
-    <col width="20" customWidth="1" min="9" max="9"/>
-    <col width="20" customWidth="1" min="10" max="10"/>
-    <col width="20" customWidth="1" min="11" max="11"/>
-  </cols>
   <sheetData>
-    <row r="1"/>
-    <row r="2"/>
-    <row r="3"/>
-    <row r="4"/>
-    <row r="5"/>
-    <row r="6"/>
-    <row r="7">
-      <c r="F7" s="1" t="n"/>
-      <c r="G7" s="1" t="n"/>
+    <row r="1">
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Сводный реестр контрольных процедур</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="D2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="D3" s="1" t="inlineStr">
+        <is>
+          <t>Выберите филиал</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>наименование филиала/отдела)</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="D6" s="1" t="inlineStr">
+        <is>
+          <t>осуществляемых в целях налогового мониторинга</t>
+        </is>
+      </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Номер по порядку</t>
-        </is>
-      </c>
-      <c r="B8" s="1" t="inlineStr">
+      <c r="E8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                                              За</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Выберите месяц</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Выберите год</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="inlineStr">
+        <is>
+          <t>номер п/п</t>
+        </is>
+      </c>
+      <c r="B13" s="2" t="inlineStr">
         <is>
           <t>Код КП(общий)</t>
         </is>
       </c>
-      <c r="C8" s="1" t="inlineStr">
-        <is>
-          <t>Код КП(Промежуточный)</t>
-        </is>
-      </c>
-      <c r="D8" s="1" t="inlineStr">
-        <is>
-          <t>Наименования КП</t>
-        </is>
-      </c>
-      <c r="E8" s="1" t="inlineStr">
-        <is>
-          <t>Описание КП</t>
-        </is>
-      </c>
-      <c r="F8" s="1" t="inlineStr">
-        <is>
-          <t>Периодичность проведения (ежедневно/ ежеквартально/ежемесячно/по мере поступления и т.д)</t>
-        </is>
-      </c>
-      <c r="G8" s="1" t="inlineStr">
-        <is>
-          <t>Способ подсчета результаты  проведения КП (ручной/автоматизированный)</t>
-        </is>
-      </c>
-      <c r="H8" s="1" t="inlineStr">
-        <is>
-          <t>Подразделение, ответственное за выполнение контрольной процедуры</t>
-        </is>
-      </c>
-      <c r="I8" s="1" t="inlineStr">
-        <is>
-          <t>Исполнитель КП (ФИО)</t>
-        </is>
-      </c>
-      <c r="J8" s="1" t="inlineStr">
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>Код КП(промежуточный)</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>Наименование КП</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>Подразделение, ответственное за проведение контрольной процедуры</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>Исполнитель КП</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
         <is>
           <t>Количество выполненных КП</t>
         </is>
       </c>
-      <c r="K8" s="1" t="inlineStr">
-        <is>
-          <t>Количество выявленных ошибок/ нарушений</t>
-        </is>
-      </c>
-    </row>
-    <row r="9" ht="250" customHeight="1">
-      <c r="A9" s="2" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="B9" s="2" t="inlineStr">
-        <is>
-          <t>НУ-НДС-1-КП-002</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>НУ-НДС-1-КП-002-01</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>Контроль полноты и корректности отражения исходящего НДС в учетной системе</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>"Сотрудник бухгалтерии администрации Общества (далее - исполнители КП) по доходным операциям проводит проверку в учетной системе: - корректности выбора налогового периода отражения операций по реализации товаров, работ, услуг.  В случае выявления ошибок: до выгрузки данных в ИУС НК - исполнитель КП вносит изменения в данные учетной системы, после выгрузки данных в ИУС НК - исполнитель КП согласовывает с ответственными специалистами отдела налогов внесение соответствующих исправлений.  Исполнител</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>Ежемесячно</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>Автоматизированный</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>Количество выявленных ошибок</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>Количество контрольных процедур, не выявивших ошибки</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>Номер Чек-листа, подтверждающего проведение контрольной процедуры</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>1</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>НУ-ОБЩ-1-КП-001</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>НУ-ОБЩ-1-КП-001-01</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Контроль отражения методологической позиции по налоговому учету хозяйственных операций в методологических документах компании</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
         <is>
           <t>_</t>
         </is>
       </c>
-      <c r="I9" s="2" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>_</t>
         </is>
       </c>
-      <c r="J9" s="2">
-        <f>Sheet2!H3006</f>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr"/>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>checklist(317)</t>
+        </is>
+      </c>
+    </row>
+    <row r="15"/>
+    <row r="16"/>
+    <row r="17"/>
+    <row r="18"/>
+    <row r="19"/>
+    <row r="20"/>
+    <row r="21">
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Итого:</t>
+        </is>
+      </c>
+      <c r="G21">
+        <f>SUM(G1:G20)</f>
         <v/>
       </c>
-      <c r="K9" s="2">
-        <f>Sheet2!I3006</f>
+      <c r="H21">
+        <f>SUM(H1:H20)</f>
         <v/>
       </c>
+      <c r="I21">
+        <f>SUM(I1:I20)</f>
+        <v/>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>________________________________</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>________________________________</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>________________________________</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>дата</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>должность</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>подпись</t>
+        </is>
+      </c>
+      <c r="F26" s="3" t="inlineStr">
+        <is>
+          <t>ФИО</t>
+        </is>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
-    <mergeCell ref="B8"/>
-    <mergeCell ref="A8"/>
-    <mergeCell ref="E8"/>
-    <mergeCell ref="C8"/>
-    <mergeCell ref="H8"/>
-    <mergeCell ref="F8"/>
-    <mergeCell ref="G8"/>
-    <mergeCell ref="I8"/>
-    <mergeCell ref="J8"/>
-    <mergeCell ref="K8"/>
-    <mergeCell ref="D5"/>
-  </mergeCells>
-  <dataValidations count="2">
-    <dataValidation sqref="F7" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
+  <dataValidations count="3">
+    <dataValidation sqref="D3" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
+      <formula1>"АУП,Югорское УМТС и К,УОВОФ,Надымское УАВР,Югорское УАВР,Белоярское УАВР,Надымское УТТиСТ,Югорское УТТиСТ,Белоярское УТТиСТ,ИТЦ,Учебно-производственный центр,УЭЗ и С,Управление связи,Бобровское ЛПУ,Верхнеказымское ЛПУ,Ивдельское ЛПУ,Казымское ЛПУ,Карпинское ЛПУ,Комсомольское ЛПУ,Краснотурьинское ЛПУ,Лонг-Юганское ЛПУ,Надымское ЛПУ,Нижнетуринское ЛПУ,Ново-Уренгойское ЛПУ,Ныдинское ЛПУ,Октябрьское ЛПУ,Пангодинское ЛПУПелымское ЛПУ,Перегребненское ЛПУ,Правохеттинское ЛПУ,Приозерное ЛПУ,Пунгинское ЛПУ,Сорумское ЛПУ,Сосновское ЛПУ,Таежное ЛПУ,Уральское ЛПУ,Ягельное ЛПУ,Ямбургское ЛПУ,Санаторий-профилакторий,КСК Норд"</formula1>
+    </dataValidation>
+    <dataValidation sqref="F8" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
       <formula1>"Декабрь,Январь,Февраль,Март,Апрель,Май,Июнь,Июль,Август,Сентябрь,Октябрь,Ноябрь"</formula1>
     </dataValidation>
-    <dataValidation sqref="G7" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
-      <formula1>"2022г,2023г,2024г,2025г,2026г,2027г,2028г,2029г,2030г"</formula1>
+    <dataValidation sqref="G8" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
+      <formula1>"2023,2024,2025,2026,2027"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:J2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>№ п/п</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>Код КП(промежуточный)</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>Исполнитель КП</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>номер чек листа</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>Объект контроля (договор, акт, счет-фактура, КС-2 и др.)</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>Дата документа</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>Номер документа</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>Количество документов/операций</t>
+        </is>
+      </c>
+      <c r="I1" s="2" t="inlineStr">
+        <is>
+          <t>Количество ошибок/нарушений</t>
+        </is>
+      </c>
+      <c r="J1" s="2" t="inlineStr">
+        <is>
+          <t>Примечание</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>НУ-ОБЩ-1-КП-001-01</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr"/>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr"/>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:CE4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>Код БС</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>Количество</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>НУ-ВН-1-КП-0001</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>НУ-ВН-1-КП-002</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>НУ-ВН-1-КП-003</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>НУ-ЗН-1-КП-001</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>НУ-ЗН-1-КП-002</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>НУ-ЗН-1-КП-003</t>
+        </is>
+      </c>
+      <c r="I1" s="2" t="inlineStr">
+        <is>
+          <t>НУ-ЗН-1-КП-004</t>
+        </is>
+      </c>
+      <c r="J1" s="2" t="inlineStr">
+        <is>
+          <t>НУ-НДПИ-1-КП-001</t>
+        </is>
+      </c>
+      <c r="K1" s="2" t="inlineStr">
+        <is>
+          <t>НУ-НДПИ-1-КП-002</t>
+        </is>
+      </c>
+      <c r="L1" s="2" t="inlineStr">
+        <is>
+          <t>НУ-НДПИ-1-КП-006</t>
+        </is>
+      </c>
+      <c r="M1" s="2" t="inlineStr">
+        <is>
+          <t>НУ-НДС-1-КП-001</t>
+        </is>
+      </c>
+      <c r="N1" s="2" t="inlineStr">
+        <is>
+          <t>НУ-НДС-1-КП-002</t>
+        </is>
+      </c>
+      <c r="O1" s="2" t="inlineStr">
+        <is>
+          <t>НУ-НДС-1-КП-003</t>
+        </is>
+      </c>
+      <c r="P1" s="2" t="inlineStr">
+        <is>
+          <t>НУ-НДС-1-КП-004</t>
+        </is>
+      </c>
+      <c r="Q1" s="2" t="inlineStr">
+        <is>
+          <t>НУ-НДС-1-КП-005</t>
+        </is>
+      </c>
+      <c r="R1" s="2" t="inlineStr">
+        <is>
+          <t>НУ-НДС-1-КП-006</t>
+        </is>
+      </c>
+      <c r="S1" s="2" t="inlineStr">
+        <is>
+          <t>НУ-НДС-1-КП-007</t>
+        </is>
+      </c>
+      <c r="T1" s="2" t="inlineStr">
+        <is>
+          <t>НУ-НДС-1-КП-008</t>
+        </is>
+      </c>
+      <c r="U1" s="2" t="inlineStr">
+        <is>
+          <t>НУ-НДС-1-КП-009</t>
+        </is>
+      </c>
+      <c r="V1" s="2" t="inlineStr">
+        <is>
+          <t>НУ-НДС-1-КП-010</t>
+        </is>
+      </c>
+      <c r="W1" s="2" t="inlineStr">
+        <is>
+          <t>НУ-НДС-1-КП-011</t>
+        </is>
+      </c>
+      <c r="X1" s="2" t="inlineStr">
+        <is>
+          <t>НУ-НДС-1-КП-012</t>
+        </is>
+      </c>
+      <c r="Y1" s="2" t="inlineStr">
+        <is>
+          <t>НУ-НДС-1-КП-013</t>
+        </is>
+      </c>
+      <c r="Z1" s="2" t="inlineStr">
+        <is>
+          <t>НУ-НДС-1-КП-014</t>
+        </is>
+      </c>
+      <c r="AA1" s="2" t="inlineStr">
+        <is>
+          <t>НУ-НДС-1-КП-015</t>
+        </is>
+      </c>
+      <c r="AB1" s="2" t="inlineStr">
+        <is>
+          <t>НУ-НДФЛ-1-КП-001</t>
+        </is>
+      </c>
+      <c r="AC1" s="2" t="inlineStr">
+        <is>
+          <t>НУ-НДФЛ-1-КП-003</t>
+        </is>
+      </c>
+      <c r="AD1" s="2" t="inlineStr">
+        <is>
+          <t>НУ-НДФЛ-1-КП-004</t>
+        </is>
+      </c>
+      <c r="AE1" s="2" t="inlineStr">
+        <is>
+          <t>НУ-НДФЛ-1-КП-005</t>
+        </is>
+      </c>
+      <c r="AF1" s="2" t="inlineStr">
+        <is>
+          <t>НУ-НДФЛ-1-КП-006</t>
+        </is>
+      </c>
+      <c r="AG1" s="2" t="inlineStr">
+        <is>
+          <t>НУ-НИ-1-КП-001</t>
+        </is>
+      </c>
+      <c r="AH1" s="2" t="inlineStr">
+        <is>
+          <t>НУ-НИ-1-КП-002</t>
+        </is>
+      </c>
+      <c r="AI1" s="2" t="inlineStr">
+        <is>
+          <t>НУ-НИ-1-КП-003</t>
+        </is>
+      </c>
+      <c r="AJ1" s="2" t="inlineStr">
+        <is>
+          <t>НУ-НИ-1-КП-004</t>
+        </is>
+      </c>
+      <c r="AK1" s="2" t="inlineStr">
+        <is>
+          <t>НУ-НИ-1-КП-005</t>
+        </is>
+      </c>
+      <c r="AL1" s="2" t="inlineStr">
+        <is>
+          <t>НУ-НИ-1-КП-006</t>
+        </is>
+      </c>
+      <c r="AM1" s="2" t="inlineStr">
+        <is>
+          <t>НУ-ОБЩ-1-КП-001</t>
+        </is>
+      </c>
+      <c r="AN1" s="2" t="inlineStr">
+        <is>
+          <t>НУ-ОБЩ-1-КП-002</t>
+        </is>
+      </c>
+      <c r="AO1" s="2" t="inlineStr">
+        <is>
+          <t>НУ-ОБЩ-1-КП-003</t>
+        </is>
+      </c>
+      <c r="AP1" s="2" t="inlineStr">
+        <is>
+          <t>НУ-ОБЩ-1-КП-004</t>
+        </is>
+      </c>
+      <c r="AQ1" s="2" t="inlineStr">
+        <is>
+          <t>НУ-ОБЩ-1-КП-005</t>
+        </is>
+      </c>
+      <c r="AR1" s="2" t="inlineStr">
+        <is>
+          <t>НУ-ОБЩ-1-КП-006</t>
+        </is>
+      </c>
+      <c r="AS1" s="2" t="inlineStr">
+        <is>
+          <t>НУ-ОБЩ-1-КП-007</t>
+        </is>
+      </c>
+      <c r="AT1" s="2" t="inlineStr">
+        <is>
+          <t>НУ-ОБЩ-1-КП-008</t>
+        </is>
+      </c>
+      <c r="AU1" s="2" t="inlineStr">
+        <is>
+          <t>НУ-ОБЩ-1-КП-009</t>
+        </is>
+      </c>
+      <c r="AV1" s="2" t="inlineStr">
+        <is>
+          <t>НУ-ОБЩ-1-КП-010</t>
+        </is>
+      </c>
+      <c r="AW1" s="2" t="inlineStr">
+        <is>
+          <t>НУ-ОБЩ-1-КП-011</t>
+        </is>
+      </c>
+      <c r="AX1" s="2" t="inlineStr">
+        <is>
+          <t>НУ-ПРИБ-1-КП-001</t>
+        </is>
+      </c>
+      <c r="AY1" s="2" t="inlineStr">
+        <is>
+          <t>НУ-ПРИБ-1-КП-002</t>
+        </is>
+      </c>
+      <c r="AZ1" s="2" t="inlineStr">
+        <is>
+          <t>НУ-ПРИБ-1-КП-003</t>
+        </is>
+      </c>
+      <c r="BA1" s="2" t="inlineStr">
+        <is>
+          <t>НУ-ПРИБ-1-КП-009</t>
+        </is>
+      </c>
+      <c r="BB1" s="2" t="inlineStr">
+        <is>
+          <t>НУ-ПРИБ-1-КП-010</t>
+        </is>
+      </c>
+      <c r="BC1" s="2" t="inlineStr">
+        <is>
+          <t>НУ-ПРИБ-1-КП-011</t>
+        </is>
+      </c>
+      <c r="BD1" s="2" t="inlineStr">
+        <is>
+          <t>НУ-ПРИБ-1-КП-013</t>
+        </is>
+      </c>
+      <c r="BE1" s="2" t="inlineStr">
+        <is>
+          <t>НУ-ПРИБ-1-КП-014</t>
+        </is>
+      </c>
+      <c r="BF1" s="2" t="inlineStr">
+        <is>
+          <t>НУ-ПРИБ-1-КП-015</t>
+        </is>
+      </c>
+      <c r="BG1" s="2" t="inlineStr">
+        <is>
+          <t>НУ-ПРИБ-1-КП-016</t>
+        </is>
+      </c>
+      <c r="BH1" s="2" t="inlineStr">
+        <is>
+          <t>НУ-ПРИБ-1-КП-017</t>
+        </is>
+      </c>
+      <c r="BI1" s="2" t="inlineStr">
+        <is>
+          <t>НУ-ПРИБ-1-КП-019</t>
+        </is>
+      </c>
+      <c r="BJ1" s="2" t="inlineStr">
+        <is>
+          <t>НУ-ПРИБ-1-КП-020</t>
+        </is>
+      </c>
+      <c r="BK1" s="2" t="inlineStr">
+        <is>
+          <t>НУ-ПРИБ-1-КП-021</t>
+        </is>
+      </c>
+      <c r="BL1" s="2" t="inlineStr">
+        <is>
+          <t>НУ-ПРИБ-1-КП-025</t>
+        </is>
+      </c>
+      <c r="BM1" s="2" t="inlineStr">
+        <is>
+          <t>НУ-ПРИБ-1-КП-026</t>
+        </is>
+      </c>
+      <c r="BN1" s="2" t="inlineStr">
+        <is>
+          <t>НУ-ПРИБ-1-КП-028</t>
+        </is>
+      </c>
+      <c r="BO1" s="2" t="inlineStr">
+        <is>
+          <t>НУ-ПРИБ-1-КП-029</t>
+        </is>
+      </c>
+      <c r="BP1" s="2" t="inlineStr">
+        <is>
+          <t>НУ-ПРИБ-1-КП-030</t>
+        </is>
+      </c>
+      <c r="BQ1" s="2" t="inlineStr">
+        <is>
+          <t>НУ-ПРИБ-1-КП-033</t>
+        </is>
+      </c>
+      <c r="BR1" s="2" t="inlineStr">
+        <is>
+          <t>НУ-ПРИБ-1-КП-036</t>
+        </is>
+      </c>
+      <c r="BS1" s="2" t="inlineStr">
+        <is>
+          <t>НУ-ПРИБ-1-КП-039</t>
+        </is>
+      </c>
+      <c r="BT1" s="2" t="inlineStr">
+        <is>
+          <t>НУ-ПРИБ-1-КП-040</t>
+        </is>
+      </c>
+      <c r="BU1" s="2" t="inlineStr">
+        <is>
+          <t>НУ-ПРИБ-1-КП-042</t>
+        </is>
+      </c>
+      <c r="BV1" s="2" t="inlineStr">
+        <is>
+          <t>НУ-ПРИБ-1-КП-044</t>
+        </is>
+      </c>
+      <c r="BW1" s="2" t="inlineStr">
+        <is>
+          <t>НУ-ПРИБ-1-КП-045</t>
+        </is>
+      </c>
+      <c r="BX1" s="2" t="inlineStr">
+        <is>
+          <t>НУ-ПРИБ-1-КП-046</t>
+        </is>
+      </c>
+      <c r="BY1" s="2" t="inlineStr">
+        <is>
+          <t>НУ-СВ-1-КП-001</t>
+        </is>
+      </c>
+      <c r="BZ1" s="2" t="inlineStr">
+        <is>
+          <t>НУ-СВ-1-КП-002</t>
+        </is>
+      </c>
+      <c r="CA1" s="2" t="inlineStr">
+        <is>
+          <t>НУ-СВ-1-КП-003</t>
+        </is>
+      </c>
+      <c r="CB1" s="2" t="inlineStr">
+        <is>
+          <t>НУ-ТН-1-КП-001</t>
+        </is>
+      </c>
+      <c r="CC1" s="2" t="inlineStr">
+        <is>
+          <t>НУ-ТН-1-КП-002</t>
+        </is>
+      </c>
+      <c r="CD1" s="2" t="inlineStr">
+        <is>
+          <t>НУ-ТН-1-КП-004</t>
+        </is>
+      </c>
+      <c r="CE1" s="2" t="inlineStr">
+        <is>
+          <t>НУ-ТН-1-КП-005</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr"/>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Количество выполненных КП</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S2" t="n">
+        <v>0</v>
+      </c>
+      <c r="T2" t="n">
+        <v>0</v>
+      </c>
+      <c r="U2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="n">
+        <v>0</v>
+      </c>
+      <c r="X2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BR2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BW2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CC2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CD2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CE2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr"/>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Количество выявленных ошибок</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R3" t="n">
+        <v>0</v>
+      </c>
+      <c r="S3" t="n">
+        <v>0</v>
+      </c>
+      <c r="T3" t="n">
+        <v>0</v>
+      </c>
+      <c r="U3" t="n">
+        <v>0</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="n">
+        <v>0</v>
+      </c>
+      <c r="X3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BR3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BW3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ3" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA3" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB3" t="n">
+        <v>0</v>
+      </c>
+      <c r="CC3" t="n">
+        <v>0</v>
+      </c>
+      <c r="CD3" t="n">
+        <v>0</v>
+      </c>
+      <c r="CE3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr"/>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Количество контрольных процедур, не выявивших ошибки (отклонения, нарушения)</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
+      <c r="M4" t="inlineStr"/>
+      <c r="N4" t="inlineStr"/>
+      <c r="O4" t="inlineStr"/>
+      <c r="P4" t="inlineStr"/>
+      <c r="Q4" t="inlineStr"/>
+      <c r="R4" t="inlineStr"/>
+      <c r="S4" t="inlineStr"/>
+      <c r="T4" t="inlineStr"/>
+      <c r="U4" t="inlineStr"/>
+      <c r="V4" t="inlineStr"/>
+      <c r="W4" t="inlineStr"/>
+      <c r="X4" t="inlineStr"/>
+      <c r="Y4" t="inlineStr"/>
+      <c r="Z4" t="inlineStr"/>
+      <c r="AA4" t="inlineStr"/>
+      <c r="AB4" t="inlineStr"/>
+      <c r="AC4" t="inlineStr"/>
+      <c r="AD4" t="inlineStr"/>
+      <c r="AE4" t="inlineStr"/>
+      <c r="AF4" t="inlineStr"/>
+      <c r="AG4" t="inlineStr"/>
+      <c r="AH4" t="inlineStr"/>
+      <c r="AI4" t="inlineStr"/>
+      <c r="AJ4" t="inlineStr"/>
+      <c r="AK4" t="inlineStr"/>
+      <c r="AL4" t="inlineStr"/>
+      <c r="AM4" t="inlineStr"/>
+      <c r="AN4" t="inlineStr"/>
+      <c r="AO4" t="inlineStr"/>
+      <c r="AP4" t="inlineStr"/>
+      <c r="AQ4" t="inlineStr"/>
+      <c r="AR4" t="inlineStr"/>
+      <c r="AS4" t="inlineStr"/>
+      <c r="AT4" t="inlineStr"/>
+      <c r="AU4" t="inlineStr"/>
+      <c r="AV4" t="inlineStr"/>
+      <c r="AW4" t="inlineStr"/>
+      <c r="AX4" t="inlineStr"/>
+      <c r="AY4" t="inlineStr"/>
+      <c r="AZ4" t="inlineStr"/>
+      <c r="BA4" t="inlineStr"/>
+      <c r="BB4" t="inlineStr"/>
+      <c r="BC4" t="inlineStr"/>
+      <c r="BD4" t="inlineStr"/>
+      <c r="BE4" t="inlineStr"/>
+      <c r="BF4" t="inlineStr"/>
+      <c r="BG4" t="inlineStr"/>
+      <c r="BH4" t="inlineStr"/>
+      <c r="BI4" t="inlineStr"/>
+      <c r="BJ4" t="inlineStr"/>
+      <c r="BK4" t="inlineStr"/>
+      <c r="BL4" t="inlineStr"/>
+      <c r="BM4" t="inlineStr"/>
+      <c r="BN4" t="inlineStr"/>
+      <c r="BO4" t="inlineStr"/>
+      <c r="BP4" t="inlineStr"/>
+      <c r="BQ4" t="inlineStr"/>
+      <c r="BR4" t="inlineStr"/>
+      <c r="BS4" t="inlineStr"/>
+      <c r="BT4" t="inlineStr"/>
+      <c r="BU4" t="inlineStr"/>
+      <c r="BV4" t="inlineStr"/>
+      <c r="BW4" t="inlineStr"/>
+      <c r="BX4" t="inlineStr"/>
+      <c r="BY4" t="inlineStr"/>
+      <c r="BZ4" t="inlineStr"/>
+      <c r="CA4" t="inlineStr"/>
+      <c r="CB4" t="inlineStr"/>
+      <c r="CC4" t="inlineStr"/>
+      <c r="CD4" t="inlineStr"/>
+      <c r="CE4" t="inlineStr"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G82"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>№ п/п</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>Код КП(общий)</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>Количество выполненных КП</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>Количество выявленных ошибок</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>Количество контрольных процедур, не выявивших ошибки</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>Документ, подтверждающий проведение контрольной процедуры</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>Наименование КП</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>НУ-ВН-1-КП-001</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Чек-лист/Реестр объектов контроля</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>Контроль полноты и корректности определения объектов налогообложения водным налогом</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>НУ-ВН-1-КП-002</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Чек-лист/Реестр объектов контроля</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Контроль корректности определения налоговой базы по водному налогу</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>НУ-ВН-1-КП-003</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Чек-лист/Реестр объектов контроля</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Контроль корректности применения налоговой ставки водного налога</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>НУ-ЗН-1-КП-001</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Чек-лист/Реестр объектов контроля</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Контроль корректности определения объектов налогообложения по земельному налогу</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>НУ-ЗН-1-КП-002</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Чек-лист/Реестр объектов контроля</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Контроль корректности определения налоговой базы по земельному налогу</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>НУ-ЗН-1-КП-003</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Чек-лист/Реестр объектов контроля</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Контроль корректности определения налоговых ставок по земельному налогу</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>НУ-ЗН-1-КП-004</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Чек-лист/Реестр объектов контроля</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Контроль полноты и правомерности применения федеральных и местных льгот по земельному налогу (освобождение, пониженная ставка)</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>НУ-НДПИ-1-КП-001</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Чек-лист/Реестр объектов контроля</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Контроль полноты и корректности определения объектов налогообложения по НДПИ</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>НУ-НДПИ-1-КП-002</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>0</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Чек-лист/Реестр объектов контроля</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Контроль корректности определения налоговой базы по НДПИ на нефть, газ, газовый конденсат </t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>НУ-НДПИ-1-КП-006</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>0</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Чек-лист/Реестр объектов контроля</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Контроль корректности расчета налоговой ставки НДПИ на газ, газовый конденсат</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>НУ-НДС-1-КП-001</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>0</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Чек-лист/Реестр объектов контроля</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Контроль полноты и корректности определения объектов налогообложения по НДС</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>НУ-НДС-1-КП-002</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>0</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Чек-лист/Реестр объектов контроля</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>Контроль полноты и корректности отражения исходящего НДС в учетной системе</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>НУ-НДС-1-КП-003</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>0</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Чек-лист/Реестр объектов контроля</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>Контроль корректности и своевременности восстановления НДС</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>НУ-НДС-1-КП-004</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>0</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Чек-лист/Реестр объектов контроля</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>Контроль корректности и правомерности отнесения операций к не облагаемым НДС</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>НУ-НДС-1-КП-005</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>0</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Чек-лист/Реестр объектов контроля</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>Контроль корректности формирования выставленных счетов-фактур</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>НУ-НДС-1-КП-006</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>0</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Чек-лист/Реестр объектов контроля</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>Контроль полноты и корректности отражения входящего НДС в учетной системе</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>НУ-НДС-1-КП-007</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>0</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0</v>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Чек-лист/Реестр объектов контроля</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>Контроль периода отнесения НДС к вычету</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>НУ-НДС-1-КП-008</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>0</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0</v>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Чек-лист/Реестр объектов контроля</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>Контроль корректности составления полученных счетов-фактур</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>НУ-НДС-1-КП-009</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>0</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Чек-лист/Реестр объектов контроля</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>Контроль отнесения входящего НДС по видам деятельности, облагаемой НДС/ необлагаемой НДС</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>20</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>НУ-НДС-1-КП-010</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>0</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0</v>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Чек-лист/Реестр объектов контроля</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>Контроль распределения входящего НДС, относящегося одновременно к облагаемым и необлагаемым операциям</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>21</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>НУ-НДС-1-КП-011</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>0</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0</v>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Чек-лист/Реестр объектов контроля</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Контроль корректности и своевременности принятия к вычету НДС, уплаченного таможенным органам при ввозе товаров на территорию РФ </t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>22</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>НУ-НДС-1-КП-012</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>0</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Чек-лист/Реестр объектов контроля</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>Контроль корректности исчисления НДС в качестве налогового агента</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>23</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>НУ-НДС-1-КП-013</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>0</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0</v>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Чек-лист/Реестр объектов контроля</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>Контроль полноты и корректности заполнения книги продаж</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>24</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>НУ-НДС-1-КП-014</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>0</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0</v>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Чек-лист/Реестр объектов контроля</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>Контроль полноты и корректности заполнения книги покупок</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>25</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>НУ-НДС-1-КП-015</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>0</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0</v>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Чек-лист/Реестр объектов контроля</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>Контроль полноты и корректности составления журнала выставленных/полученных счетов-фактур</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>26</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>НУ-НДФЛ-1-КП-001</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>0</v>
+      </c>
+      <c r="D27" t="n">
+        <v>0</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0</v>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>Чек-лист/Реестр объектов контроля</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>Контроль корректности расчета заработной платы специалистами Бухгалтерии для целей удержания НДФЛ</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>27</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>НУ-НДФЛ-1-КП-003</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>0</v>
+      </c>
+      <c r="D28" t="n">
+        <v>0</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0</v>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>Чек-лист/Реестр объектов контроля</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>Контроль удержания НДФЛ при выплате сотрудникам дохода в виде материальной выгоды</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>28</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>НУ-НДФЛ-1-КП-004</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>0</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0</v>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>Чек-лист/Реестр объектов контроля</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Контроль корректности определения налоговой базы по НДФЛ </t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>29</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>НУ-НДФЛ-1-КП-005</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>0</v>
+      </c>
+      <c r="D30" t="n">
+        <v>0</v>
+      </c>
+      <c r="E30" t="n">
+        <v>0</v>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>Чек-лист/Реестр объектов контроля</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>Контроль полноты и корректности применения налоговых вычетов по НДФЛ</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>30</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>НУ-НДФЛ-1-КП-006</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>0</v>
+      </c>
+      <c r="D31" t="n">
+        <v>0</v>
+      </c>
+      <c r="E31" t="n">
+        <v>0</v>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>Чек-лист/Реестр объектов контроля</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>Контроль корректности применения ставки НДФЛ при налогообложении доходов нерезидентов</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>31</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>НУ-НИ-1-КП-001</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
+        <v>0</v>
+      </c>
+      <c r="D32" t="n">
+        <v>0</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0</v>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>Чек-лист/Реестр объектов контроля</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Контроль корректности классификации имущества в качестве недвижимого/движимого </t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>32</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>НУ-НИ-1-КП-002</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
+        <v>0</v>
+      </c>
+      <c r="D33" t="n">
+        <v>0</v>
+      </c>
+      <c r="E33" t="n">
+        <v>0</v>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>Чек-лист/Реестр объектов контроля</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>Контроль корректности определения даты принятия к учёту объектов ОС</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>33</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>НУ-НИ-1-КП-003</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
+        <v>0</v>
+      </c>
+      <c r="D34" t="n">
+        <v>0</v>
+      </c>
+      <c r="E34" t="n">
+        <v>0</v>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>Чек-лист/Реестр объектов контроля</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Контроль корректности учета недвижимого имущества </t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>34</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>НУ-НИ-1-КП-004</t>
+        </is>
+      </c>
+      <c r="C35" t="n">
+        <v>0</v>
+      </c>
+      <c r="D35" t="n">
+        <v>0</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0</v>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>Чек-лист/Реестр объектов контроля</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>Контроль корректности определения налоговой базы по налогу на имущество исходя из кадастровой стоимости</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>35</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>НУ-НИ-1-КП-005</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
+        <v>0</v>
+      </c>
+      <c r="D36" t="n">
+        <v>0</v>
+      </c>
+      <c r="E36" t="n">
+        <v>0</v>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>Чек-лист/Реестр объектов контроля</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>Контроль корректности определения налоговых ставок по налогу на имущество</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>36</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>НУ-НИ-1-КП-006</t>
+        </is>
+      </c>
+      <c r="C37" t="n">
+        <v>0</v>
+      </c>
+      <c r="D37" t="n">
+        <v>0</v>
+      </c>
+      <c r="E37" t="n">
+        <v>0</v>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>Чек-лист/Реестр объектов контроля</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>Контроль полноты и правомерности применения федеральных и региональных льгот по налогу на имущество (освобождение, пониженная ставка)</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>37</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>НУ-ОБЩ-1-КП-001</t>
+        </is>
+      </c>
+      <c r="C38" t="n">
+        <v>0</v>
+      </c>
+      <c r="D38" t="n">
+        <v>0</v>
+      </c>
+      <c r="E38" t="n">
+        <v>0</v>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>Чек-лист/Реестр объектов контроля</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>Контроль отражения методологической позиции по налоговому учету хозяйственных операций в методологических документах компании</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>38</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>НУ-ОБЩ-1-КП-002</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
+        <v>0</v>
+      </c>
+      <c r="D39" t="n">
+        <v>0</v>
+      </c>
+      <c r="E39" t="n">
+        <v>0</v>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>Чек-лист/Реестр объектов контроля</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>Мониторинг изменений налогового законодательства</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>39</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>НУ-ОБЩ-1-КП-003</t>
+        </is>
+      </c>
+      <c r="C40" t="n">
+        <v>0</v>
+      </c>
+      <c r="D40" t="n">
+        <v>0</v>
+      </c>
+      <c r="E40" t="n">
+        <v>0</v>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>Чек-лист/Реестр объектов контроля</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>Проверка полноты и достоверности ПУД</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>40</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>НУ-ОБЩ-1-КП-004</t>
+        </is>
+      </c>
+      <c r="C41" t="n">
+        <v>0</v>
+      </c>
+      <c r="D41" t="n">
+        <v>0</v>
+      </c>
+      <c r="E41" t="n">
+        <v>0</v>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>Чек-лист/Реестр объектов контроля</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>Проверка корректности ПУД и осуществления проводки в учетной системе</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>41</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>НУ-ОБЩ-1-КП-005</t>
+        </is>
+      </c>
+      <c r="C42" t="n">
+        <v>0</v>
+      </c>
+      <c r="D42" t="n">
+        <v>0</v>
+      </c>
+      <c r="E42" t="n">
+        <v>0</v>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>Чек-лист/Реестр объектов контроля</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>Проверка полноты и корректности внесения данных в НСИ</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>42</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>НУ-ОБЩ-1-КП-006</t>
+        </is>
+      </c>
+      <c r="C43" t="n">
+        <v>0</v>
+      </c>
+      <c r="D43" t="n">
+        <v>0</v>
+      </c>
+      <c r="E43" t="n">
+        <v>0</v>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>Чек-лист/Реестр объектов контроля</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>Контроль полноты и корректности формирования деклараций (расчетов)</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>43</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>НУ-ОБЩ-1-КП-007</t>
+        </is>
+      </c>
+      <c r="C44" t="n">
+        <v>0</v>
+      </c>
+      <c r="D44" t="n">
+        <v>0</v>
+      </c>
+      <c r="E44" t="n">
+        <v>0</v>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>Чек-лист/Реестр объектов контроля</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>Контроль представления отчетности в налоговый орган</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>44</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>НУ-ОБЩ-1-КП-008</t>
+        </is>
+      </c>
+      <c r="C45" t="n">
+        <v>0</v>
+      </c>
+      <c r="D45" t="n">
+        <v>0</v>
+      </c>
+      <c r="E45" t="n">
+        <v>0</v>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>Чек-лист/Реестр объектов контроля</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>Контроль корректности исчисления суммы налогов, сборов, страховых взносов</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>45</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>НУ-ОБЩ-1-КП-009</t>
+        </is>
+      </c>
+      <c r="C46" t="n">
+        <v>0</v>
+      </c>
+      <c r="D46" t="n">
+        <v>0</v>
+      </c>
+      <c r="E46" t="n">
+        <v>0</v>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>Чек-лист/Реестр объектов контроля</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>Контроль своевременности уплаты (перечисления) налогов, сборов, страховых взносов</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>46</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>НУ-ОБЩ-1-КП-010</t>
+        </is>
+      </c>
+      <c r="C47" t="n">
+        <v>0</v>
+      </c>
+      <c r="D47" t="n">
+        <v>0</v>
+      </c>
+      <c r="E47" t="n">
+        <v>0</v>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>Чек-лист/Реестр объектов контроля</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Контроль за соблюдением порядка и сроков хранения первичных учетных документов и регистров </t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>47</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>НУ-ОБЩ-1-КП-011</t>
+        </is>
+      </c>
+      <c r="C48" t="n">
+        <v>0</v>
+      </c>
+      <c r="D48" t="n">
+        <v>0</v>
+      </c>
+      <c r="E48" t="n">
+        <v>0</v>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>Чек-лист/Реестр объектов контроля</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>Автоматизированная проверка корректности налоговых деклараций и контрольных соотношений показателей налоговой отчетности</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>48</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>НУ-ПРИБ-1-КП-001</t>
+        </is>
+      </c>
+      <c r="C49" t="n">
+        <v>0</v>
+      </c>
+      <c r="D49" t="n">
+        <v>0</v>
+      </c>
+      <c r="E49" t="n">
+        <v>0</v>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>Чек-лист/Реестр объектов контроля</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Проверка экономической целесообразности сделки </t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>49</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>НУ-ПРИБ-1-КП-002</t>
+        </is>
+      </c>
+      <c r="C50" t="n">
+        <v>0</v>
+      </c>
+      <c r="D50" t="n">
+        <v>0</v>
+      </c>
+      <c r="E50" t="n">
+        <v>0</v>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>Чек-лист/Реестр объектов контроля</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>Проверка контрагентов</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>50</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>НУ-ПРИБ-1-КП-003</t>
+        </is>
+      </c>
+      <c r="C51" t="n">
+        <v>0</v>
+      </c>
+      <c r="D51" t="n">
+        <v>0</v>
+      </c>
+      <c r="E51" t="n">
+        <v>0</v>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>Чек-лист/Реестр объектов контроля</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>Экспертиза проектов договоров</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>51</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>НУ-ПРИБ-1-КП-009</t>
+        </is>
+      </c>
+      <c r="C52" t="n">
+        <v>0</v>
+      </c>
+      <c r="D52" t="n">
+        <v>0</v>
+      </c>
+      <c r="E52" t="n">
+        <v>0</v>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>Чек-лист/Реестр объектов контроля</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>Контроль корректности формирования проводки в учетной системе</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>52</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>НУ-ПРИБ-1-КП-010</t>
+        </is>
+      </c>
+      <c r="C53" t="n">
+        <v>0</v>
+      </c>
+      <c r="D53" t="n">
+        <v>0</v>
+      </c>
+      <c r="E53" t="n">
+        <v>0</v>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>Чек-лист/Реестр объектов контроля</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>Контроль за отражением в составе внереализационных доходов сумм доходов в виде штрафов, пеней и (или) иных санкций за нарушение договорных обязательств, а также сумм возмещения убытков или ущерба</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>53</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>НУ-ПРИБ-1-КП-011</t>
+        </is>
+      </c>
+      <c r="C54" t="n">
+        <v>0</v>
+      </c>
+      <c r="D54" t="n">
+        <v>0</v>
+      </c>
+      <c r="E54" t="n">
+        <v>0</v>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>Чек-лист/Реестр объектов контроля</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Проверка своевременности проведения арендной платы по договорам аренды ОС </t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>54</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>НУ-ПРИБ-1-КП-013</t>
+        </is>
+      </c>
+      <c r="C55" t="n">
+        <v>0</v>
+      </c>
+      <c r="D55" t="n">
+        <v>0</v>
+      </c>
+      <c r="E55" t="n">
+        <v>0</v>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>Чек-лист/Реестр объектов контроля</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>Контроль списания безнадежного долга</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>55</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>НУ-ПРИБ-1-КП-014</t>
+        </is>
+      </c>
+      <c r="C56" t="n">
+        <v>0</v>
+      </c>
+      <c r="D56" t="n">
+        <v>0</v>
+      </c>
+      <c r="E56" t="n">
+        <v>0</v>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>Чек-лист/Реестр объектов контроля</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>Контроль полноты и корректности отражения в учетной системе проводок поступления объекта</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>56</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>НУ-ПРИБ-1-КП-015</t>
+        </is>
+      </c>
+      <c r="C57" t="n">
+        <v>0</v>
+      </c>
+      <c r="D57" t="n">
+        <v>0</v>
+      </c>
+      <c r="E57" t="n">
+        <v>0</v>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>Чек-лист/Реестр объектов контроля</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>Проверка акта на ввод в эксплуатацию / акта приема-передачи ОС</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>57</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>НУ-ПРИБ-1-КП-016</t>
+        </is>
+      </c>
+      <c r="C58" t="n">
+        <v>0</v>
+      </c>
+      <c r="D58" t="n">
+        <v>0</v>
+      </c>
+      <c r="E58" t="n">
+        <v>0</v>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>Чек-лист/Реестр объектов контроля</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>Контроль корректности отражения в карточке ОС данных об ОС</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>58</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>НУ-ПРИБ-1-КП-017</t>
+        </is>
+      </c>
+      <c r="C59" t="n">
+        <v>0</v>
+      </c>
+      <c r="D59" t="n">
+        <v>0</v>
+      </c>
+      <c r="E59" t="n">
+        <v>0</v>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>Чек-лист/Реестр объектов контроля</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>Контроль корректности расчета амортизации для целей налогового учета</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>59</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>НУ-ПРИБ-1-КП-019</t>
+        </is>
+      </c>
+      <c r="C60" t="n">
+        <v>0</v>
+      </c>
+      <c r="D60" t="n">
+        <v>0</v>
+      </c>
+      <c r="E60" t="n">
+        <v>0</v>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>Чек-лист/Реестр объектов контроля</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>Автоматизированный контроль корректности и своевременности признания амортизационной премии в составе расходов</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>60</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>НУ-ПРИБ-1-КП-020</t>
+        </is>
+      </c>
+      <c r="C61" t="n">
+        <v>0</v>
+      </c>
+      <c r="D61" t="n">
+        <v>0</v>
+      </c>
+      <c r="E61" t="n">
+        <v>0</v>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>Чек-лист/Реестр объектов контроля</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>Контроль корректности, правомерности и своевременности признания амортизационной премии в составе расходов</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>61</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>НУ-ПРИБ-1-КП-021</t>
+        </is>
+      </c>
+      <c r="C62" t="n">
+        <v>0</v>
+      </c>
+      <c r="D62" t="n">
+        <v>0</v>
+      </c>
+      <c r="E62" t="n">
+        <v>0</v>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>Чек-лист/Реестр объектов контроля</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>Автоматизированный контроль корректности, правомерности и своевременности отражения в налоговом учете восстановления амортизационной премии</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>62</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>НУ-ПРИБ-1-КП-025</t>
+        </is>
+      </c>
+      <c r="C63" t="n">
+        <v>0</v>
+      </c>
+      <c r="D63" t="n">
+        <v>0</v>
+      </c>
+      <c r="E63" t="n">
+        <v>0</v>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>Чек-лист/Реестр объектов контроля</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>Квалификация операций в качестве текущего ремонта/ капитального ремонта / реконструкции / модернизации / технического перевооружения</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>63</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>НУ-ПРИБ-1-КП-026</t>
+        </is>
+      </c>
+      <c r="C64" t="n">
+        <v>0</v>
+      </c>
+      <c r="D64" t="n">
+        <v>0</v>
+      </c>
+      <c r="E64" t="n">
+        <v>0</v>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>Чек-лист/Реестр объектов контроля</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>Контроль правильности квалификации операций в качестве капитального ремонта / реконструкции / модернизации / технического перевооружения</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>64</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>НУ-ПРИБ-1-КП-028</t>
+        </is>
+      </c>
+      <c r="C65" t="n">
+        <v>0</v>
+      </c>
+      <c r="D65" t="n">
+        <v>0</v>
+      </c>
+      <c r="E65" t="n">
+        <v>0</v>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>Чек-лист/Реестр объектов контроля</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>Ручной контроль корректности и правомерности отражения расходов по оплате труда в налоговом учете</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>65</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>НУ-ПРИБ-1-КП-029</t>
+        </is>
+      </c>
+      <c r="C66" t="n">
+        <v>0</v>
+      </c>
+      <c r="D66" t="n">
+        <v>0</v>
+      </c>
+      <c r="E66" t="n">
+        <v>0</v>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>Чек-лист/Реестр объектов контроля</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>Контроль отнесения расходов к непринимаемым и принимаемым на стадии приемки ПУД</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>66</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>НУ-ПРИБ-1-КП-030</t>
+        </is>
+      </c>
+      <c r="C67" t="n">
+        <v>0</v>
+      </c>
+      <c r="D67" t="n">
+        <v>0</v>
+      </c>
+      <c r="E67" t="n">
+        <v>0</v>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>Чек-лист/Реестр объектов контроля</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>Контроль правильности квалификации операций в качестве капитального ремонта / реконструкции / модернизации / технического перевооружения</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>67</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>НУ-ПРИБ-1-КП-033</t>
+        </is>
+      </c>
+      <c r="C68" t="n">
+        <v>0</v>
+      </c>
+      <c r="D68" t="n">
+        <v>0</v>
+      </c>
+      <c r="E68" t="n">
+        <v>0</v>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>Чек-лист/Реестр объектов контроля</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>Контроль определения СПИ программного обеспечения</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>68</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>НУ-ПРИБ-1-КП-036</t>
+        </is>
+      </c>
+      <c r="C69" t="n">
+        <v>0</v>
+      </c>
+      <c r="D69" t="n">
+        <v>0</v>
+      </c>
+      <c r="E69" t="n">
+        <v>0</v>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>Чек-лист/Реестр объектов контроля</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>Контроль корректности проводок по учету доходов и расходов прошлых лет</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>69</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>НУ-ПРИБ-1-КП-039</t>
+        </is>
+      </c>
+      <c r="C70" t="n">
+        <v>0</v>
+      </c>
+      <c r="D70" t="n">
+        <v>0</v>
+      </c>
+      <c r="E70" t="n">
+        <v>0</v>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>Чек-лист/Реестр объектов контроля</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>Контроль корректности, правомерности и своевременности отражения расходов на освоение природных ресурсов</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>70</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>НУ-ПРИБ-1-КП-040</t>
+        </is>
+      </c>
+      <c r="C71" t="n">
+        <v>0</v>
+      </c>
+      <c r="D71" t="n">
+        <v>0</v>
+      </c>
+      <c r="E71" t="n">
+        <v>0</v>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>Чек-лист/Реестр объектов контроля</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>Контроль корректности отражения расчетов с контрагентами в учетной системе</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>71</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>НУ-ПРИБ-1-КП-042</t>
+        </is>
+      </c>
+      <c r="C72" t="n">
+        <v>0</v>
+      </c>
+      <c r="D72" t="n">
+        <v>0</v>
+      </c>
+      <c r="E72" t="n">
+        <v>0</v>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>Чек-лист/Реестр объектов контроля</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>Контроль корректности и своевременности отражения в учетной системе финансового результата при выбытии объектов основных средств</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>72</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>НУ-ПРИБ-1-КП-044</t>
+        </is>
+      </c>
+      <c r="C73" t="n">
+        <v>0</v>
+      </c>
+      <c r="D73" t="n">
+        <v>0</v>
+      </c>
+      <c r="E73" t="n">
+        <v>0</v>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>Чек-лист/Реестр объектов контроля</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>Контроль корректности расчета суммы нормируемых расходов</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>73</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>НУ-ПРИБ-1-КП-045</t>
+        </is>
+      </c>
+      <c r="C74" t="n">
+        <v>0</v>
+      </c>
+      <c r="D74" t="n">
+        <v>0</v>
+      </c>
+      <c r="E74" t="n">
+        <v>0</v>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>Чек-лист/Реестр объектов контроля</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>Контроль корректности, правомерности и своевременности отражения доходов в виде безвозмездно полученного имущества (работ, услуг) или имущественных прав</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>74</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>НУ-ПРИБ-1-КП-046</t>
+        </is>
+      </c>
+      <c r="C75" t="n">
+        <v>0</v>
+      </c>
+      <c r="D75" t="n">
+        <v>0</v>
+      </c>
+      <c r="E75" t="n">
+        <v>0</v>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>Чек-лист/Реестр объектов контроля</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>Контроль своевременности списания кредиторской задолженности</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>75</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>НУ-СВ-1-КП-001</t>
+        </is>
+      </c>
+      <c r="C76" t="n">
+        <v>0</v>
+      </c>
+      <c r="D76" t="n">
+        <v>0</v>
+      </c>
+      <c r="E76" t="n">
+        <v>0</v>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>Чек-лист/Реестр объектов контроля</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>Контроль корректности отражения убытка</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>76</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>НУ-СВ-1-КП-002</t>
+        </is>
+      </c>
+      <c r="C77" t="n">
+        <v>0</v>
+      </c>
+      <c r="D77" t="n">
+        <v>0</v>
+      </c>
+      <c r="E77" t="n">
+        <v>0</v>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>Чек-лист/Реестр объектов контроля</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>Контроль полноты и корректности определения объектов обложения страховыми взносами</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>77</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>НУ-СВ-1-КП-003</t>
+        </is>
+      </c>
+      <c r="C78" t="n">
+        <v>0</v>
+      </c>
+      <c r="D78" t="n">
+        <v>0</v>
+      </c>
+      <c r="E78" t="n">
+        <v>0</v>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>Чек-лист/Реестр объектов контроля</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>Контроль корректности расчета заработной платы специалистами Бухгалтерии для целей обложения страховыми взносами</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>78</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>НУ-ТН-1-КП-001</t>
+        </is>
+      </c>
+      <c r="C79" t="n">
+        <v>0</v>
+      </c>
+      <c r="D79" t="n">
+        <v>0</v>
+      </c>
+      <c r="E79" t="n">
+        <v>0</v>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>Чек-лист/Реестр объектов контроля</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>Контроль корректности определения базы для начисления страховых взносов</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>79</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>НУ-ТН-1-КП-002</t>
+        </is>
+      </c>
+      <c r="C80" t="n">
+        <v>0</v>
+      </c>
+      <c r="D80" t="n">
+        <v>0</v>
+      </c>
+      <c r="E80" t="n">
+        <v>0</v>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>Чек-лист/Реестр объектов контроля</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>Контроль корректности и полноты определения объектов налогообложения по транспортному налогу</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>80</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>НУ-ТН-1-КП-004</t>
+        </is>
+      </c>
+      <c r="C81" t="n">
+        <v>0</v>
+      </c>
+      <c r="D81" t="n">
+        <v>0</v>
+      </c>
+      <c r="E81" t="n">
+        <v>0</v>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>Чек-лист/Реестр объектов контроля</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>Контроль корректности определения налоговой базы по транспортному налогу</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>81</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>НУ-ТН-1-КП-005</t>
+        </is>
+      </c>
+      <c r="C82" t="n">
+        <v>0</v>
+      </c>
+      <c r="D82" t="n">
+        <v>0</v>
+      </c>
+      <c r="E82" t="n">
+        <v>0</v>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>Чек-лист/Реестр объектов контроля</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Контроль полноты и правомерности применения региональных льгот по транспортному налогу (освобождение, пониженная ставка)Контроль корректности определения налоговых ставок по транспортному налогу </t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/excelanalog/example.xlsx
+++ b/excelanalog/example.xlsx
@@ -19,7 +19,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -58,7 +61,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -67,6 +70,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -560,7 +564,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>НУ-ОБЩ-1-КП-001-01</t>
+          <t>НУ-ОБЩ-1-КП-001-02</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -570,20 +574,26 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>_</t>
+          <t>ОН</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>_</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr"/>
-      <c r="H14" t="inlineStr"/>
-      <c r="I14" t="inlineStr"/>
+          <t>Андрес ТП</t>
+        </is>
+      </c>
+      <c r="G14" t="n">
+        <v>27</v>
+      </c>
+      <c r="H14" t="n">
+        <v>2</v>
+      </c>
+      <c r="I14" t="n">
+        <v>25</v>
+      </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>checklist(317)</t>
+          <t>Сентябрь_Андрес ТП_НУ-ОБЩ-1-КП-001-02(1)</t>
         </is>
       </c>
     </row>
@@ -678,7 +688,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:J28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -689,7 +699,7 @@
     <row r="1">
       <c r="A1" s="2" t="inlineStr">
         <is>
-          <t>№ п/п</t>
+          <t>№ п/п чек-листа</t>
         </is>
       </c>
       <c r="B1" s="2" t="inlineStr">
@@ -744,17 +754,1089 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>НУ-ОБЩ-1-КП-001-01</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr"/>
-      <c r="G2" t="inlineStr"/>
-      <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
+          <t>НУ-ОБЩ-1-КП-001-02</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Андрес ТП</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Сентябрь_Андрес ТП_НУ-ОБЩ-1-КП-001-02 </t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>ОО</t>
+        </is>
+      </c>
+      <c r="F2" s="4" t="n">
+        <v>44469</v>
+      </c>
+      <c r="G2" t="n">
+        <v>44</v>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>ТРТР</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>НУ-ОБЩ-1-КП-001-02</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Андрес ТП</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Сентябрь_Андрес ТП_НУ-ОБЩ-1-КП-001-02 </t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>ОО</t>
+        </is>
+      </c>
+      <c r="F3" s="4" t="n">
+        <v>44469</v>
+      </c>
+      <c r="G3" t="n">
+        <v>45</v>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>ТРТР</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>НУ-ОБЩ-1-КП-001-02</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Андрес ТП</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Сентябрь_Андрес ТП_НУ-ОБЩ-1-КП-001-02 </t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>ОО</t>
+        </is>
+      </c>
+      <c r="F4" s="4" t="n">
+        <v>44469</v>
+      </c>
+      <c r="G4" t="n">
+        <v>46</v>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>ТРТР</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>НУ-ОБЩ-1-КП-001-02</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Андрес ТП</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Сентябрь_Андрес ТП_НУ-ОБЩ-1-КП-001-02 </t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>ОО</t>
+        </is>
+      </c>
+      <c r="F5" s="4" t="n">
+        <v>44469</v>
+      </c>
+      <c r="G5" t="n">
+        <v>47</v>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>ТРТР</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>НУ-ОБЩ-1-КП-001-02</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Андрес ТП</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Сентябрь_Андрес ТП_НУ-ОБЩ-1-КП-001-02 </t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>ОО</t>
+        </is>
+      </c>
+      <c r="F6" s="4" t="n">
+        <v>44469</v>
+      </c>
+      <c r="G6" t="n">
+        <v>48</v>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>ТРТР</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>НУ-ОБЩ-1-КП-001-02</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Андрес ТП</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Сентябрь_Андрес ТП_НУ-ОБЩ-1-КП-001-02 </t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>ОО</t>
+        </is>
+      </c>
+      <c r="F7" s="4" t="n">
+        <v>44469</v>
+      </c>
+      <c r="G7" t="n">
+        <v>49</v>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+      <c r="I7" t="n">
+        <v>1</v>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>ТРТР</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>НУ-ОБЩ-1-КП-001-02</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Андрес ТП</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Сентябрь_Андрес ТП_НУ-ОБЩ-1-КП-001-02 </t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>ОО</t>
+        </is>
+      </c>
+      <c r="F8" s="4" t="n">
+        <v>44469</v>
+      </c>
+      <c r="G8" t="n">
+        <v>50</v>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>ТРТР</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>НУ-ОБЩ-1-КП-001-02</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Андрес ТП</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Сентябрь_Андрес ТП_НУ-ОБЩ-1-КП-001-02 </t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>ОО</t>
+        </is>
+      </c>
+      <c r="F9" s="4" t="n">
+        <v>44469</v>
+      </c>
+      <c r="G9" t="n">
+        <v>51</v>
+      </c>
+      <c r="H9" t="n">
+        <v>1</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>ТРТР</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>НУ-ОБЩ-1-КП-001-02</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Андрес ТП</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Сентябрь_Андрес ТП_НУ-ОБЩ-1-КП-001-02 </t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>ОО</t>
+        </is>
+      </c>
+      <c r="F10" s="4" t="n">
+        <v>44469</v>
+      </c>
+      <c r="G10" t="n">
+        <v>52</v>
+      </c>
+      <c r="H10" t="n">
+        <v>1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>ТРТР</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>НУ-ОБЩ-1-КП-001-02</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Андрес ТП</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Сентябрь_Андрес ТП_НУ-ОБЩ-1-КП-001-02 </t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>ОО</t>
+        </is>
+      </c>
+      <c r="F11" s="4" t="n">
+        <v>44469</v>
+      </c>
+      <c r="G11" t="n">
+        <v>53</v>
+      </c>
+      <c r="H11" t="n">
+        <v>1</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>ТРТР</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>НУ-ОБЩ-1-КП-001-02</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Андрес ТП</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Сентябрь_Андрес ТП_НУ-ОБЩ-1-КП-001-02 </t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>ОО</t>
+        </is>
+      </c>
+      <c r="F12" s="4" t="n">
+        <v>44469</v>
+      </c>
+      <c r="G12" t="n">
+        <v>54</v>
+      </c>
+      <c r="H12" t="n">
+        <v>1</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>ТРТР</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>НУ-ОБЩ-1-КП-001-02</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Андрес ТП</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Сентябрь_Андрес ТП_НУ-ОБЩ-1-КП-001-02 </t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>ОО</t>
+        </is>
+      </c>
+      <c r="F13" s="4" t="n">
+        <v>44469</v>
+      </c>
+      <c r="G13" t="n">
+        <v>55</v>
+      </c>
+      <c r="H13" t="n">
+        <v>1</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>ТРТР</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>НУ-ОБЩ-1-КП-001-02</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Андрес ТП</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Сентябрь_Андрес ТП_НУ-ОБЩ-1-КП-001-02 </t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>ОО</t>
+        </is>
+      </c>
+      <c r="F14" s="4" t="n">
+        <v>44469</v>
+      </c>
+      <c r="G14" t="n">
+        <v>56</v>
+      </c>
+      <c r="H14" t="n">
+        <v>1</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>ТРТР</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>НУ-ОБЩ-1-КП-001-02</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Андрес ТП</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Сентябрь_Андрес ТП_НУ-ОБЩ-1-КП-001-02 </t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>ОО</t>
+        </is>
+      </c>
+      <c r="F15" s="4" t="n">
+        <v>44469</v>
+      </c>
+      <c r="G15" t="n">
+        <v>57</v>
+      </c>
+      <c r="H15" t="n">
+        <v>1</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>ТРТР</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>НУ-ОБЩ-1-КП-001-02</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Андрес ТП</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Сентябрь_Андрес ТП_НУ-ОБЩ-1-КП-001-02 </t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>ОО</t>
+        </is>
+      </c>
+      <c r="F16" s="4" t="n">
+        <v>44469</v>
+      </c>
+      <c r="G16" t="n">
+        <v>58</v>
+      </c>
+      <c r="H16" t="n">
+        <v>1</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>ТРТР</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>НУ-ОБЩ-1-КП-001-02</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Андрес ТП</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Сентябрь_Андрес ТП_НУ-ОБЩ-1-КП-001-02 </t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>ОО</t>
+        </is>
+      </c>
+      <c r="F17" s="4" t="n">
+        <v>44469</v>
+      </c>
+      <c r="G17" t="n">
+        <v>59</v>
+      </c>
+      <c r="H17" t="n">
+        <v>1</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>ТРТР</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>НУ-ОБЩ-1-КП-001-02</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Андрес ТП</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Сентябрь_Андрес ТП_НУ-ОБЩ-1-КП-001-02 </t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>ОО</t>
+        </is>
+      </c>
+      <c r="F18" s="4" t="n">
+        <v>44469</v>
+      </c>
+      <c r="G18" t="n">
+        <v>60</v>
+      </c>
+      <c r="H18" t="n">
+        <v>1</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>НУ-ОБЩ-1-КП-001-02</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Андрес ТП</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Сентябрь_Андрес ТП_НУ-ОБЩ-1-КП-001-02 </t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>ОО</t>
+        </is>
+      </c>
+      <c r="F19" s="4" t="n">
+        <v>44469</v>
+      </c>
+      <c r="G19" t="n">
+        <v>61</v>
+      </c>
+      <c r="H19" t="n">
+        <v>1</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>НУ-ОБЩ-1-КП-001-02</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Андрес ТП</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Сентябрь_Андрес ТП_НУ-ОБЩ-1-КП-001-02 </t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>ОО</t>
+        </is>
+      </c>
+      <c r="F20" s="4" t="n">
+        <v>44469</v>
+      </c>
+      <c r="G20" t="n">
+        <v>62</v>
+      </c>
+      <c r="H20" t="n">
+        <v>1</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>20</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>НУ-ОБЩ-1-КП-001-02</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Андрес ТП</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Сентябрь_Андрес ТП_НУ-ОБЩ-1-КП-001-02 </t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>ОО</t>
+        </is>
+      </c>
+      <c r="F21" s="4" t="n">
+        <v>44469</v>
+      </c>
+      <c r="G21" t="n">
+        <v>63</v>
+      </c>
+      <c r="H21" t="n">
+        <v>1</v>
+      </c>
+      <c r="I21" t="n">
+        <v>1</v>
+      </c>
+      <c r="J21" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>21</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>НУ-ОБЩ-1-КП-001-02</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Андрес ТП</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Сентябрь_Андрес ТП_НУ-ОБЩ-1-КП-001-02 </t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>ОО</t>
+        </is>
+      </c>
+      <c r="F22" s="4" t="n">
+        <v>44469</v>
+      </c>
+      <c r="G22" t="n">
+        <v>64</v>
+      </c>
+      <c r="H22" t="n">
+        <v>1</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0</v>
+      </c>
+      <c r="J22" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>22</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>НУ-ОБЩ-1-КП-001-02</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Андрес ТП</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Сентябрь_Андрес ТП_НУ-ОБЩ-1-КП-001-02 </t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>ОО</t>
+        </is>
+      </c>
+      <c r="F23" s="4" t="n">
+        <v>44469</v>
+      </c>
+      <c r="G23" t="n">
+        <v>65</v>
+      </c>
+      <c r="H23" t="n">
+        <v>1</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>23</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>НУ-ОБЩ-1-КП-001-02</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Андрес ТП</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Сентябрь_Андрес ТП_НУ-ОБЩ-1-КП-001-02 </t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>ОО</t>
+        </is>
+      </c>
+      <c r="F24" s="4" t="n">
+        <v>44469</v>
+      </c>
+      <c r="G24" t="n">
+        <v>65</v>
+      </c>
+      <c r="H24" t="n">
+        <v>1</v>
+      </c>
+      <c r="I24" t="n">
+        <v>0</v>
+      </c>
+      <c r="J24" t="inlineStr"/>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>24</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>НУ-ОБЩ-1-КП-001-02</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Андрес ТП</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Сентябрь_Андрес ТП_НУ-ОБЩ-1-КП-001-02 </t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>ОО</t>
+        </is>
+      </c>
+      <c r="F25" s="4" t="n">
+        <v>44469</v>
+      </c>
+      <c r="G25" t="n">
+        <v>65</v>
+      </c>
+      <c r="H25" t="n">
+        <v>1</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="inlineStr"/>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>25</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>НУ-ОБЩ-1-КП-001-02</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Андрес ТП</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Сентябрь_Андрес ТП_НУ-ОБЩ-1-КП-001-02 </t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>ОО</t>
+        </is>
+      </c>
+      <c r="F26" s="4" t="n">
+        <v>44469</v>
+      </c>
+      <c r="G26" t="n">
+        <v>65</v>
+      </c>
+      <c r="H26" t="n">
+        <v>1</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="inlineStr"/>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>26</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>НУ-ОБЩ-1-КП-001-02</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Андрес ТП</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Сентябрь_Андрес ТП_НУ-ОБЩ-1-КП-001-02 </t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>ОО</t>
+        </is>
+      </c>
+      <c r="F27" s="4" t="n">
+        <v>44469</v>
+      </c>
+      <c r="G27" t="n">
+        <v>65</v>
+      </c>
+      <c r="H27" t="n">
+        <v>1</v>
+      </c>
+      <c r="I27" t="n">
+        <v>0</v>
+      </c>
+      <c r="J27" t="inlineStr"/>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>27</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>НУ-ОБЩ-1-КП-001-02</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Андрес ТП</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Сентябрь_Андрес ТП_НУ-ОБЩ-1-КП-001-02 </t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>ОО</t>
+        </is>
+      </c>
+      <c r="F28" s="4" t="n">
+        <v>44469</v>
+      </c>
+      <c r="G28" t="n">
+        <v>65</v>
+      </c>
+      <c r="H28" t="n">
+        <v>1</v>
+      </c>
+      <c r="I28" t="n">
+        <v>0</v>
+      </c>
+      <c r="J28" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1308,7 +2390,7 @@
         <v>0</v>
       </c>
       <c r="AM2" t="n">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="AN2" t="n">
         <v>0</v>
@@ -1559,7 +2641,7 @@
         <v>0</v>
       </c>
       <c r="AM3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AN3" t="n">
         <v>0</v>
@@ -2893,13 +3975,13 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>

--- a/excelanalog/example.xlsx
+++ b/excelanalog/example.xlsx
@@ -8,6 +8,9 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Sheet4" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -17,13 +20,16 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -34,7 +40,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -42,17 +48,24 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="centerContinuous" vertical="center" wrapText="1"/>
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -419,171 +432,3763 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K9"/>
+  <dimension ref="A1:J26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <cols>
-    <col width="20" customWidth="1" min="1" max="1"/>
-    <col width="20" customWidth="1" min="2" max="2"/>
-    <col width="20" customWidth="1" min="3" max="3"/>
-    <col width="20" customWidth="1" min="4" max="4"/>
-    <col width="20" customWidth="1" min="5" max="5"/>
-    <col width="20" customWidth="1" min="6" max="6"/>
-    <col width="20" customWidth="1" min="7" max="7"/>
-    <col width="20" customWidth="1" min="8" max="8"/>
-    <col width="20" customWidth="1" min="9" max="9"/>
-    <col width="20" customWidth="1" min="10" max="10"/>
-    <col width="20" customWidth="1" min="11" max="11"/>
-  </cols>
   <sheetData>
-    <row r="1"/>
-    <row r="2"/>
-    <row r="3"/>
-    <row r="4"/>
-    <row r="5"/>
-    <row r="6"/>
-    <row r="7">
-      <c r="F7" s="1" t="n"/>
-      <c r="G7" s="1" t="n"/>
+    <row r="1">
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Сводный реестр контрольных процедур</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="D2" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="D3" s="1" t="inlineStr">
+        <is>
+          <t>Выберите филиал</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>наименование филиала/отдела)</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="D6" s="1" t="inlineStr">
+        <is>
+          <t>осуществляемых в целях налогового мониторинга</t>
+        </is>
+      </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Номер по порядку</t>
-        </is>
-      </c>
-      <c r="B8" s="1" t="inlineStr">
+      <c r="E8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                                              За</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Выберите месяц</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Выберите год</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="inlineStr">
+        <is>
+          <t>номер п/п</t>
+        </is>
+      </c>
+      <c r="B13" s="2" t="inlineStr">
         <is>
           <t>Код КП(общий)</t>
         </is>
       </c>
-      <c r="C8" s="1" t="inlineStr">
-        <is>
-          <t>Код КП(Промежуточный)</t>
-        </is>
-      </c>
-      <c r="D8" s="1" t="inlineStr">
-        <is>
-          <t>Наименования КП</t>
-        </is>
-      </c>
-      <c r="E8" s="1" t="inlineStr">
-        <is>
-          <t>Описание КП</t>
-        </is>
-      </c>
-      <c r="F8" s="1" t="inlineStr">
-        <is>
-          <t>Периодичность проведения (ежедневно/ ежеквартально/ежемесячно/по мере поступления и т.д)</t>
-        </is>
-      </c>
-      <c r="G8" s="1" t="inlineStr">
-        <is>
-          <t>Способ подсчета результаты  проведения КП (ручной/автоматизированный)</t>
-        </is>
-      </c>
-      <c r="H8" s="1" t="inlineStr">
-        <is>
-          <t>Подразделение, ответственное за выполнение контрольной процедуры</t>
-        </is>
-      </c>
-      <c r="I8" s="1" t="inlineStr">
-        <is>
-          <t>Исполнитель КП (ФИО)</t>
-        </is>
-      </c>
-      <c r="J8" s="1" t="inlineStr">
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>Код КП(промежуточный)</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>Наименование КП</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>Подразделение, ответственное за проведение контрольной процедуры</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>Исполнитель КП</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
         <is>
           <t>Количество выполненных КП</t>
         </is>
       </c>
-      <c r="K8" s="1" t="inlineStr">
-        <is>
-          <t>Количество выявленных ошибок/ нарушений</t>
-        </is>
-      </c>
-    </row>
-    <row r="9" ht="250" customHeight="1">
-      <c r="A9" s="2" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="B9" s="2" t="inlineStr">
-        <is>
-          <t>НУ-НДФЛ-1-КП-001</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>НУ-НДФЛ-1-КП-001-02</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>Контроль корректности расчета заработной платы специалистами Бухгалтерии для целей удержания НДФЛ</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>"Ответственный исполнитель УКГ филиала (далее - исполнитель КП) формирует свод по начислениям и удержаниям заработной платы из учетной системы и выполняет следующие проверки: -проверяет обоснованность и правильность расчетов по НДФЛ с данными сформированного свода; -проверяет свод на предмет наличия новых видов оплат, проверяет налогообложение новых видов оплат в соответствии с НК РФ; Ответственный исполнитель УКГ филиала (далее - исполнитель КП) по расчетам с подотчетными лицам формирует ведомо</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>Ежемесячно</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>Автоматизированный</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>Количество выявленных ошибок</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>Количество контрольных процедур, не выявивших ошибки</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>Номер Чек-листа, подтверждающего проведение контрольной процедуры</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>1</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>НУ-ОБЩ-1-КП-001</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>НУ-ОБЩ-1-КП-001-01</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Контроль отражения методологической позиции по налоговому учету хозяйственных операций в методологических документах компании</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
         <is>
           <t>_</t>
         </is>
       </c>
-      <c r="I9" s="2" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>_</t>
         </is>
       </c>
-      <c r="J9" s="2">
-        <f>Sheet2!H3006</f>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr"/>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>checklist</t>
+        </is>
+      </c>
+    </row>
+    <row r="15"/>
+    <row r="16"/>
+    <row r="17"/>
+    <row r="18"/>
+    <row r="19"/>
+    <row r="20"/>
+    <row r="21">
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Итого:</t>
+        </is>
+      </c>
+      <c r="G21">
+        <f>SUM(G1:G20)</f>
         <v/>
       </c>
-      <c r="K9" s="2">
-        <f>Sheet2!I3006</f>
+      <c r="H21">
+        <f>SUM(H1:H20)</f>
         <v/>
       </c>
+      <c r="I21">
+        <f>SUM(I1:I20)</f>
+        <v/>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>________________________________</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>________________________________</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>________________________________</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>дата</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>должность</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>подпись</t>
+        </is>
+      </c>
+      <c r="F26" s="3" t="inlineStr">
+        <is>
+          <t>ФИО</t>
+        </is>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
-    <mergeCell ref="B8"/>
-    <mergeCell ref="A8"/>
-    <mergeCell ref="E8"/>
-    <mergeCell ref="C8"/>
-    <mergeCell ref="H8"/>
-    <mergeCell ref="F8"/>
-    <mergeCell ref="G8"/>
-    <mergeCell ref="I8"/>
-    <mergeCell ref="J8"/>
-    <mergeCell ref="K8"/>
-    <mergeCell ref="D5"/>
-  </mergeCells>
-  <dataValidations count="2">
-    <dataValidation sqref="F7" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
+  <dataValidations count="3">
+    <dataValidation sqref="D3" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
+      <formula1>"АУП,Югорское УМТС и К,УОВОФ,Надымское УАВР,Югорское УАВР,Белоярское УАВР,Надымское УТТиСТ,Югорское УТТиСТ,Белоярское УТТиСТ,ИТЦ,Учебно-производственный центр,УЭЗ и С,Управление связи,Бобровское ЛПУ,Верхнеказымское ЛПУ,Ивдельское ЛПУ,Казымское ЛПУ,Карпинское ЛПУ,Комсомольское ЛПУ,Краснотурьинское ЛПУ,Лонг-Юганское ЛПУ,Надымское ЛПУ,Нижнетуринское ЛПУ,Ново-Уренгойское ЛПУ,Ныдинское ЛПУ,Октябрьское ЛПУ,Пангодинское ЛПУПелымское ЛПУ,Перегребненское ЛПУ,Правохеттинское ЛПУ,Приозерное ЛПУ,Пунгинское ЛПУ,Сорумское ЛПУ,Сосновское ЛПУ,Таежное ЛПУ,Уральское ЛПУ,Ягельное ЛПУ,Ямбургское ЛПУ,Санаторий-профилакторий,КСК Норд"</formula1>
+    </dataValidation>
+    <dataValidation sqref="F8" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
       <formula1>"Декабрь,Январь,Февраль,Март,Апрель,Май,Июнь,Июль,Август,Сентябрь,Октябрь,Ноябрь"</formula1>
     </dataValidation>
-    <dataValidation sqref="G7" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
-      <formula1>"2022г,2023г,2024г,2025г,2026г,2027г,2028г,2029г,2030г"</formula1>
+    <dataValidation sqref="G8" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
+      <formula1>"2023,2024,2025,2026,2027"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:J2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>№ п/п чек-листа</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>Код КП(промежуточный)</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>Исполнитель КП</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>номер чек листа</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>Объект контроля (договор, акт, счет-фактура, КС-2 и др.)</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>Дата документа</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>Номер документа</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>Количество документов/операций</t>
+        </is>
+      </c>
+      <c r="I1" s="2" t="inlineStr">
+        <is>
+          <t>Количество ошибок/нарушений</t>
+        </is>
+      </c>
+      <c r="J1" s="2" t="inlineStr">
+        <is>
+          <t>Примечание</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>НУ-ОБЩ-1-КП-001-01</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr"/>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr"/>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:CE4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>Код БС</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>Количество</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>НУ-ВН-1-КП-0001</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>НУ-ВН-1-КП-002</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>НУ-ВН-1-КП-003</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>НУ-ЗН-1-КП-001</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>НУ-ЗН-1-КП-002</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>НУ-ЗН-1-КП-003</t>
+        </is>
+      </c>
+      <c r="I1" s="2" t="inlineStr">
+        <is>
+          <t>НУ-ЗН-1-КП-004</t>
+        </is>
+      </c>
+      <c r="J1" s="2" t="inlineStr">
+        <is>
+          <t>НУ-НДПИ-1-КП-001</t>
+        </is>
+      </c>
+      <c r="K1" s="2" t="inlineStr">
+        <is>
+          <t>НУ-НДПИ-1-КП-002</t>
+        </is>
+      </c>
+      <c r="L1" s="2" t="inlineStr">
+        <is>
+          <t>НУ-НДПИ-1-КП-006</t>
+        </is>
+      </c>
+      <c r="M1" s="2" t="inlineStr">
+        <is>
+          <t>НУ-НДС-1-КП-001</t>
+        </is>
+      </c>
+      <c r="N1" s="2" t="inlineStr">
+        <is>
+          <t>НУ-НДС-1-КП-002</t>
+        </is>
+      </c>
+      <c r="O1" s="2" t="inlineStr">
+        <is>
+          <t>НУ-НДС-1-КП-003</t>
+        </is>
+      </c>
+      <c r="P1" s="2" t="inlineStr">
+        <is>
+          <t>НУ-НДС-1-КП-004</t>
+        </is>
+      </c>
+      <c r="Q1" s="2" t="inlineStr">
+        <is>
+          <t>НУ-НДС-1-КП-005</t>
+        </is>
+      </c>
+      <c r="R1" s="2" t="inlineStr">
+        <is>
+          <t>НУ-НДС-1-КП-006</t>
+        </is>
+      </c>
+      <c r="S1" s="2" t="inlineStr">
+        <is>
+          <t>НУ-НДС-1-КП-007</t>
+        </is>
+      </c>
+      <c r="T1" s="2" t="inlineStr">
+        <is>
+          <t>НУ-НДС-1-КП-008</t>
+        </is>
+      </c>
+      <c r="U1" s="2" t="inlineStr">
+        <is>
+          <t>НУ-НДС-1-КП-009</t>
+        </is>
+      </c>
+      <c r="V1" s="2" t="inlineStr">
+        <is>
+          <t>НУ-НДС-1-КП-010</t>
+        </is>
+      </c>
+      <c r="W1" s="2" t="inlineStr">
+        <is>
+          <t>НУ-НДС-1-КП-011</t>
+        </is>
+      </c>
+      <c r="X1" s="2" t="inlineStr">
+        <is>
+          <t>НУ-НДС-1-КП-012</t>
+        </is>
+      </c>
+      <c r="Y1" s="2" t="inlineStr">
+        <is>
+          <t>НУ-НДС-1-КП-013</t>
+        </is>
+      </c>
+      <c r="Z1" s="2" t="inlineStr">
+        <is>
+          <t>НУ-НДС-1-КП-014</t>
+        </is>
+      </c>
+      <c r="AA1" s="2" t="inlineStr">
+        <is>
+          <t>НУ-НДС-1-КП-015</t>
+        </is>
+      </c>
+      <c r="AB1" s="2" t="inlineStr">
+        <is>
+          <t>НУ-НДФЛ-1-КП-001</t>
+        </is>
+      </c>
+      <c r="AC1" s="2" t="inlineStr">
+        <is>
+          <t>НУ-НДФЛ-1-КП-003</t>
+        </is>
+      </c>
+      <c r="AD1" s="2" t="inlineStr">
+        <is>
+          <t>НУ-НДФЛ-1-КП-004</t>
+        </is>
+      </c>
+      <c r="AE1" s="2" t="inlineStr">
+        <is>
+          <t>НУ-НДФЛ-1-КП-005</t>
+        </is>
+      </c>
+      <c r="AF1" s="2" t="inlineStr">
+        <is>
+          <t>НУ-НДФЛ-1-КП-006</t>
+        </is>
+      </c>
+      <c r="AG1" s="2" t="inlineStr">
+        <is>
+          <t>НУ-НИ-1-КП-001</t>
+        </is>
+      </c>
+      <c r="AH1" s="2" t="inlineStr">
+        <is>
+          <t>НУ-НИ-1-КП-002</t>
+        </is>
+      </c>
+      <c r="AI1" s="2" t="inlineStr">
+        <is>
+          <t>НУ-НИ-1-КП-003</t>
+        </is>
+      </c>
+      <c r="AJ1" s="2" t="inlineStr">
+        <is>
+          <t>НУ-НИ-1-КП-004</t>
+        </is>
+      </c>
+      <c r="AK1" s="2" t="inlineStr">
+        <is>
+          <t>НУ-НИ-1-КП-005</t>
+        </is>
+      </c>
+      <c r="AL1" s="2" t="inlineStr">
+        <is>
+          <t>НУ-НИ-1-КП-006</t>
+        </is>
+      </c>
+      <c r="AM1" s="2" t="inlineStr">
+        <is>
+          <t>НУ-ОБЩ-1-КП-001</t>
+        </is>
+      </c>
+      <c r="AN1" s="2" t="inlineStr">
+        <is>
+          <t>НУ-ОБЩ-1-КП-002</t>
+        </is>
+      </c>
+      <c r="AO1" s="2" t="inlineStr">
+        <is>
+          <t>НУ-ОБЩ-1-КП-003</t>
+        </is>
+      </c>
+      <c r="AP1" s="2" t="inlineStr">
+        <is>
+          <t>НУ-ОБЩ-1-КП-004</t>
+        </is>
+      </c>
+      <c r="AQ1" s="2" t="inlineStr">
+        <is>
+          <t>НУ-ОБЩ-1-КП-005</t>
+        </is>
+      </c>
+      <c r="AR1" s="2" t="inlineStr">
+        <is>
+          <t>НУ-ОБЩ-1-КП-006</t>
+        </is>
+      </c>
+      <c r="AS1" s="2" t="inlineStr">
+        <is>
+          <t>НУ-ОБЩ-1-КП-007</t>
+        </is>
+      </c>
+      <c r="AT1" s="2" t="inlineStr">
+        <is>
+          <t>НУ-ОБЩ-1-КП-008</t>
+        </is>
+      </c>
+      <c r="AU1" s="2" t="inlineStr">
+        <is>
+          <t>НУ-ОБЩ-1-КП-009</t>
+        </is>
+      </c>
+      <c r="AV1" s="2" t="inlineStr">
+        <is>
+          <t>НУ-ОБЩ-1-КП-010</t>
+        </is>
+      </c>
+      <c r="AW1" s="2" t="inlineStr">
+        <is>
+          <t>НУ-ОБЩ-1-КП-011</t>
+        </is>
+      </c>
+      <c r="AX1" s="2" t="inlineStr">
+        <is>
+          <t>НУ-ПРИБ-1-КП-001</t>
+        </is>
+      </c>
+      <c r="AY1" s="2" t="inlineStr">
+        <is>
+          <t>НУ-ПРИБ-1-КП-002</t>
+        </is>
+      </c>
+      <c r="AZ1" s="2" t="inlineStr">
+        <is>
+          <t>НУ-ПРИБ-1-КП-003</t>
+        </is>
+      </c>
+      <c r="BA1" s="2" t="inlineStr">
+        <is>
+          <t>НУ-ПРИБ-1-КП-009</t>
+        </is>
+      </c>
+      <c r="BB1" s="2" t="inlineStr">
+        <is>
+          <t>НУ-ПРИБ-1-КП-010</t>
+        </is>
+      </c>
+      <c r="BC1" s="2" t="inlineStr">
+        <is>
+          <t>НУ-ПРИБ-1-КП-011</t>
+        </is>
+      </c>
+      <c r="BD1" s="2" t="inlineStr">
+        <is>
+          <t>НУ-ПРИБ-1-КП-013</t>
+        </is>
+      </c>
+      <c r="BE1" s="2" t="inlineStr">
+        <is>
+          <t>НУ-ПРИБ-1-КП-014</t>
+        </is>
+      </c>
+      <c r="BF1" s="2" t="inlineStr">
+        <is>
+          <t>НУ-ПРИБ-1-КП-015</t>
+        </is>
+      </c>
+      <c r="BG1" s="2" t="inlineStr">
+        <is>
+          <t>НУ-ПРИБ-1-КП-016</t>
+        </is>
+      </c>
+      <c r="BH1" s="2" t="inlineStr">
+        <is>
+          <t>НУ-ПРИБ-1-КП-017</t>
+        </is>
+      </c>
+      <c r="BI1" s="2" t="inlineStr">
+        <is>
+          <t>НУ-ПРИБ-1-КП-019</t>
+        </is>
+      </c>
+      <c r="BJ1" s="2" t="inlineStr">
+        <is>
+          <t>НУ-ПРИБ-1-КП-020</t>
+        </is>
+      </c>
+      <c r="BK1" s="2" t="inlineStr">
+        <is>
+          <t>НУ-ПРИБ-1-КП-021</t>
+        </is>
+      </c>
+      <c r="BL1" s="2" t="inlineStr">
+        <is>
+          <t>НУ-ПРИБ-1-КП-025</t>
+        </is>
+      </c>
+      <c r="BM1" s="2" t="inlineStr">
+        <is>
+          <t>НУ-ПРИБ-1-КП-026</t>
+        </is>
+      </c>
+      <c r="BN1" s="2" t="inlineStr">
+        <is>
+          <t>НУ-ПРИБ-1-КП-028</t>
+        </is>
+      </c>
+      <c r="BO1" s="2" t="inlineStr">
+        <is>
+          <t>НУ-ПРИБ-1-КП-029</t>
+        </is>
+      </c>
+      <c r="BP1" s="2" t="inlineStr">
+        <is>
+          <t>НУ-ПРИБ-1-КП-030</t>
+        </is>
+      </c>
+      <c r="BQ1" s="2" t="inlineStr">
+        <is>
+          <t>НУ-ПРИБ-1-КП-033</t>
+        </is>
+      </c>
+      <c r="BR1" s="2" t="inlineStr">
+        <is>
+          <t>НУ-ПРИБ-1-КП-036</t>
+        </is>
+      </c>
+      <c r="BS1" s="2" t="inlineStr">
+        <is>
+          <t>НУ-ПРИБ-1-КП-039</t>
+        </is>
+      </c>
+      <c r="BT1" s="2" t="inlineStr">
+        <is>
+          <t>НУ-ПРИБ-1-КП-040</t>
+        </is>
+      </c>
+      <c r="BU1" s="2" t="inlineStr">
+        <is>
+          <t>НУ-ПРИБ-1-КП-042</t>
+        </is>
+      </c>
+      <c r="BV1" s="2" t="inlineStr">
+        <is>
+          <t>НУ-ПРИБ-1-КП-044</t>
+        </is>
+      </c>
+      <c r="BW1" s="2" t="inlineStr">
+        <is>
+          <t>НУ-ПРИБ-1-КП-045</t>
+        </is>
+      </c>
+      <c r="BX1" s="2" t="inlineStr">
+        <is>
+          <t>НУ-ПРИБ-1-КП-046</t>
+        </is>
+      </c>
+      <c r="BY1" s="2" t="inlineStr">
+        <is>
+          <t>НУ-СВ-1-КП-001</t>
+        </is>
+      </c>
+      <c r="BZ1" s="2" t="inlineStr">
+        <is>
+          <t>НУ-СВ-1-КП-002</t>
+        </is>
+      </c>
+      <c r="CA1" s="2" t="inlineStr">
+        <is>
+          <t>НУ-СВ-1-КП-003</t>
+        </is>
+      </c>
+      <c r="CB1" s="2" t="inlineStr">
+        <is>
+          <t>НУ-ТН-1-КП-001</t>
+        </is>
+      </c>
+      <c r="CC1" s="2" t="inlineStr">
+        <is>
+          <t>НУ-ТН-1-КП-002</t>
+        </is>
+      </c>
+      <c r="CD1" s="2" t="inlineStr">
+        <is>
+          <t>НУ-ТН-1-КП-004</t>
+        </is>
+      </c>
+      <c r="CE1" s="2" t="inlineStr">
+        <is>
+          <t>НУ-ТН-1-КП-005</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr"/>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Количество выполненных КП</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S2" t="n">
+        <v>0</v>
+      </c>
+      <c r="T2" t="n">
+        <v>0</v>
+      </c>
+      <c r="U2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="n">
+        <v>0</v>
+      </c>
+      <c r="X2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BR2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BW2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CC2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CD2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CE2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr"/>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Количество выявленных ошибок</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R3" t="n">
+        <v>0</v>
+      </c>
+      <c r="S3" t="n">
+        <v>0</v>
+      </c>
+      <c r="T3" t="n">
+        <v>0</v>
+      </c>
+      <c r="U3" t="n">
+        <v>0</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="n">
+        <v>0</v>
+      </c>
+      <c r="X3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BR3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BW3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ3" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA3" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB3" t="n">
+        <v>0</v>
+      </c>
+      <c r="CC3" t="n">
+        <v>0</v>
+      </c>
+      <c r="CD3" t="n">
+        <v>0</v>
+      </c>
+      <c r="CE3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr"/>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Количество контрольных процедур, не выявивших ошибки (отклонения, нарушения)</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
+      <c r="M4" t="inlineStr"/>
+      <c r="N4" t="inlineStr"/>
+      <c r="O4" t="inlineStr"/>
+      <c r="P4" t="inlineStr"/>
+      <c r="Q4" t="inlineStr"/>
+      <c r="R4" t="inlineStr"/>
+      <c r="S4" t="inlineStr"/>
+      <c r="T4" t="inlineStr"/>
+      <c r="U4" t="inlineStr"/>
+      <c r="V4" t="inlineStr"/>
+      <c r="W4" t="inlineStr"/>
+      <c r="X4" t="inlineStr"/>
+      <c r="Y4" t="inlineStr"/>
+      <c r="Z4" t="inlineStr"/>
+      <c r="AA4" t="inlineStr"/>
+      <c r="AB4" t="inlineStr"/>
+      <c r="AC4" t="inlineStr"/>
+      <c r="AD4" t="inlineStr"/>
+      <c r="AE4" t="inlineStr"/>
+      <c r="AF4" t="inlineStr"/>
+      <c r="AG4" t="inlineStr"/>
+      <c r="AH4" t="inlineStr"/>
+      <c r="AI4" t="inlineStr"/>
+      <c r="AJ4" t="inlineStr"/>
+      <c r="AK4" t="inlineStr"/>
+      <c r="AL4" t="inlineStr"/>
+      <c r="AM4" t="inlineStr"/>
+      <c r="AN4" t="inlineStr"/>
+      <c r="AO4" t="inlineStr"/>
+      <c r="AP4" t="inlineStr"/>
+      <c r="AQ4" t="inlineStr"/>
+      <c r="AR4" t="inlineStr"/>
+      <c r="AS4" t="inlineStr"/>
+      <c r="AT4" t="inlineStr"/>
+      <c r="AU4" t="inlineStr"/>
+      <c r="AV4" t="inlineStr"/>
+      <c r="AW4" t="inlineStr"/>
+      <c r="AX4" t="inlineStr"/>
+      <c r="AY4" t="inlineStr"/>
+      <c r="AZ4" t="inlineStr"/>
+      <c r="BA4" t="inlineStr"/>
+      <c r="BB4" t="inlineStr"/>
+      <c r="BC4" t="inlineStr"/>
+      <c r="BD4" t="inlineStr"/>
+      <c r="BE4" t="inlineStr"/>
+      <c r="BF4" t="inlineStr"/>
+      <c r="BG4" t="inlineStr"/>
+      <c r="BH4" t="inlineStr"/>
+      <c r="BI4" t="inlineStr"/>
+      <c r="BJ4" t="inlineStr"/>
+      <c r="BK4" t="inlineStr"/>
+      <c r="BL4" t="inlineStr"/>
+      <c r="BM4" t="inlineStr"/>
+      <c r="BN4" t="inlineStr"/>
+      <c r="BO4" t="inlineStr"/>
+      <c r="BP4" t="inlineStr"/>
+      <c r="BQ4" t="inlineStr"/>
+      <c r="BR4" t="inlineStr"/>
+      <c r="BS4" t="inlineStr"/>
+      <c r="BT4" t="inlineStr"/>
+      <c r="BU4" t="inlineStr"/>
+      <c r="BV4" t="inlineStr"/>
+      <c r="BW4" t="inlineStr"/>
+      <c r="BX4" t="inlineStr"/>
+      <c r="BY4" t="inlineStr"/>
+      <c r="BZ4" t="inlineStr"/>
+      <c r="CA4" t="inlineStr"/>
+      <c r="CB4" t="inlineStr"/>
+      <c r="CC4" t="inlineStr"/>
+      <c r="CD4" t="inlineStr"/>
+      <c r="CE4" t="inlineStr"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G82"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>№ п/п</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>Код КП(общий)</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>Количество выполненных КП</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>Количество выявленных ошибок</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>Количество контрольных процедур, не выявивших ошибки</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>Документ, подтверждающий проведение контрольной процедуры</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>Наименование КП</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>НУ-ВН-1-КП-001</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Чек-лист/Реестр объектов контроля</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>Контроль полноты и корректности определения объектов налогообложения водным налогом</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>НУ-ВН-1-КП-002</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Чек-лист/Реестр объектов контроля</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Контроль корректности определения налоговой базы по водному налогу</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>НУ-ВН-1-КП-003</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Чек-лист/Реестр объектов контроля</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Контроль корректности применения налоговой ставки водного налога</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>НУ-ЗН-1-КП-001</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Чек-лист/Реестр объектов контроля</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Контроль корректности определения объектов налогообложения по земельному налогу</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>НУ-ЗН-1-КП-002</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Чек-лист/Реестр объектов контроля</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Контроль корректности определения налоговой базы по земельному налогу</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>НУ-ЗН-1-КП-003</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Чек-лист/Реестр объектов контроля</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Контроль корректности определения налоговых ставок по земельному налогу</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>НУ-ЗН-1-КП-004</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Чек-лист/Реестр объектов контроля</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Контроль полноты и правомерности применения федеральных и местных льгот по земельному налогу (освобождение, пониженная ставка)</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>НУ-НДПИ-1-КП-001</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Чек-лист/Реестр объектов контроля</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Контроль полноты и корректности определения объектов налогообложения по НДПИ</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>НУ-НДПИ-1-КП-002</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>0</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Чек-лист/Реестр объектов контроля</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Контроль корректности определения налоговой базы по НДПИ на нефть, газ, газовый конденсат </t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>НУ-НДПИ-1-КП-006</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>0</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Чек-лист/Реестр объектов контроля</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Контроль корректности расчета налоговой ставки НДПИ на газ, газовый конденсат</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>НУ-НДС-1-КП-001</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>0</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Чек-лист/Реестр объектов контроля</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Контроль полноты и корректности определения объектов налогообложения по НДС</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>НУ-НДС-1-КП-002</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>0</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Чек-лист/Реестр объектов контроля</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>Контроль полноты и корректности отражения исходящего НДС в учетной системе</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>НУ-НДС-1-КП-003</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>0</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Чек-лист/Реестр объектов контроля</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>Контроль корректности и своевременности восстановления НДС</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>НУ-НДС-1-КП-004</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>0</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Чек-лист/Реестр объектов контроля</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>Контроль корректности и правомерности отнесения операций к не облагаемым НДС</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>НУ-НДС-1-КП-005</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>0</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Чек-лист/Реестр объектов контроля</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>Контроль корректности формирования выставленных счетов-фактур</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>НУ-НДС-1-КП-006</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>0</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Чек-лист/Реестр объектов контроля</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>Контроль полноты и корректности отражения входящего НДС в учетной системе</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>НУ-НДС-1-КП-007</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>0</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0</v>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Чек-лист/Реестр объектов контроля</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>Контроль периода отнесения НДС к вычету</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>НУ-НДС-1-КП-008</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>0</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0</v>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Чек-лист/Реестр объектов контроля</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>Контроль корректности составления полученных счетов-фактур</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>НУ-НДС-1-КП-009</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>0</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Чек-лист/Реестр объектов контроля</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>Контроль отнесения входящего НДС по видам деятельности, облагаемой НДС/ необлагаемой НДС</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>20</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>НУ-НДС-1-КП-010</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>0</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0</v>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Чек-лист/Реестр объектов контроля</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>Контроль распределения входящего НДС, относящегося одновременно к облагаемым и необлагаемым операциям</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>21</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>НУ-НДС-1-КП-011</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>0</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0</v>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Чек-лист/Реестр объектов контроля</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Контроль корректности и своевременности принятия к вычету НДС, уплаченного таможенным органам при ввозе товаров на территорию РФ </t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>22</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>НУ-НДС-1-КП-012</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>0</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Чек-лист/Реестр объектов контроля</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>Контроль корректности исчисления НДС в качестве налогового агента</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>23</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>НУ-НДС-1-КП-013</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>0</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0</v>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Чек-лист/Реестр объектов контроля</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>Контроль полноты и корректности заполнения книги продаж</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>24</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>НУ-НДС-1-КП-014</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>0</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0</v>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Чек-лист/Реестр объектов контроля</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>Контроль полноты и корректности заполнения книги покупок</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>25</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>НУ-НДС-1-КП-015</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>0</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0</v>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Чек-лист/Реестр объектов контроля</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>Контроль полноты и корректности составления журнала выставленных/полученных счетов-фактур</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>26</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>НУ-НДФЛ-1-КП-001</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>0</v>
+      </c>
+      <c r="D27" t="n">
+        <v>0</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0</v>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>Чек-лист/Реестр объектов контроля</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>Контроль корректности расчета заработной платы специалистами Бухгалтерии для целей удержания НДФЛ</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>27</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>НУ-НДФЛ-1-КП-003</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>0</v>
+      </c>
+      <c r="D28" t="n">
+        <v>0</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0</v>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>Чек-лист/Реестр объектов контроля</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>Контроль удержания НДФЛ при выплате сотрудникам дохода в виде материальной выгоды</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>28</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>НУ-НДФЛ-1-КП-004</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>0</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0</v>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>Чек-лист/Реестр объектов контроля</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Контроль корректности определения налоговой базы по НДФЛ </t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>29</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>НУ-НДФЛ-1-КП-005</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>0</v>
+      </c>
+      <c r="D30" t="n">
+        <v>0</v>
+      </c>
+      <c r="E30" t="n">
+        <v>0</v>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>Чек-лист/Реестр объектов контроля</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>Контроль полноты и корректности применения налоговых вычетов по НДФЛ</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>30</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>НУ-НДФЛ-1-КП-006</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>0</v>
+      </c>
+      <c r="D31" t="n">
+        <v>0</v>
+      </c>
+      <c r="E31" t="n">
+        <v>0</v>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>Чек-лист/Реестр объектов контроля</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>Контроль корректности применения ставки НДФЛ при налогообложении доходов нерезидентов</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>31</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>НУ-НИ-1-КП-001</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
+        <v>0</v>
+      </c>
+      <c r="D32" t="n">
+        <v>0</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0</v>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>Чек-лист/Реестр объектов контроля</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Контроль корректности классификации имущества в качестве недвижимого/движимого </t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>32</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>НУ-НИ-1-КП-002</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
+        <v>0</v>
+      </c>
+      <c r="D33" t="n">
+        <v>0</v>
+      </c>
+      <c r="E33" t="n">
+        <v>0</v>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>Чек-лист/Реестр объектов контроля</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>Контроль корректности определения даты принятия к учёту объектов ОС</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>33</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>НУ-НИ-1-КП-003</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
+        <v>0</v>
+      </c>
+      <c r="D34" t="n">
+        <v>0</v>
+      </c>
+      <c r="E34" t="n">
+        <v>0</v>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>Чек-лист/Реестр объектов контроля</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Контроль корректности учета недвижимого имущества </t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>34</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>НУ-НИ-1-КП-004</t>
+        </is>
+      </c>
+      <c r="C35" t="n">
+        <v>0</v>
+      </c>
+      <c r="D35" t="n">
+        <v>0</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0</v>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>Чек-лист/Реестр объектов контроля</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>Контроль корректности определения налоговой базы по налогу на имущество исходя из кадастровой стоимости</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>35</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>НУ-НИ-1-КП-005</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
+        <v>0</v>
+      </c>
+      <c r="D36" t="n">
+        <v>0</v>
+      </c>
+      <c r="E36" t="n">
+        <v>0</v>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>Чек-лист/Реестр объектов контроля</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>Контроль корректности определения налоговых ставок по налогу на имущество</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>36</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>НУ-НИ-1-КП-006</t>
+        </is>
+      </c>
+      <c r="C37" t="n">
+        <v>0</v>
+      </c>
+      <c r="D37" t="n">
+        <v>0</v>
+      </c>
+      <c r="E37" t="n">
+        <v>0</v>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>Чек-лист/Реестр объектов контроля</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>Контроль полноты и правомерности применения федеральных и региональных льгот по налогу на имущество (освобождение, пониженная ставка)</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>37</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>НУ-ОБЩ-1-КП-001</t>
+        </is>
+      </c>
+      <c r="C38" t="n">
+        <v>0</v>
+      </c>
+      <c r="D38" t="n">
+        <v>0</v>
+      </c>
+      <c r="E38" t="n">
+        <v>0</v>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>Чек-лист/Реестр объектов контроля</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>Контроль отражения методологической позиции по налоговому учету хозяйственных операций в методологических документах компании</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>38</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>НУ-ОБЩ-1-КП-002</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
+        <v>0</v>
+      </c>
+      <c r="D39" t="n">
+        <v>0</v>
+      </c>
+      <c r="E39" t="n">
+        <v>0</v>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>Чек-лист/Реестр объектов контроля</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>Мониторинг изменений налогового законодательства</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>39</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>НУ-ОБЩ-1-КП-003</t>
+        </is>
+      </c>
+      <c r="C40" t="n">
+        <v>0</v>
+      </c>
+      <c r="D40" t="n">
+        <v>0</v>
+      </c>
+      <c r="E40" t="n">
+        <v>0</v>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>Чек-лист/Реестр объектов контроля</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>Проверка полноты и достоверности ПУД</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>40</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>НУ-ОБЩ-1-КП-004</t>
+        </is>
+      </c>
+      <c r="C41" t="n">
+        <v>0</v>
+      </c>
+      <c r="D41" t="n">
+        <v>0</v>
+      </c>
+      <c r="E41" t="n">
+        <v>0</v>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>Чек-лист/Реестр объектов контроля</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>Проверка корректности ПУД и осуществления проводки в учетной системе</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>41</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>НУ-ОБЩ-1-КП-005</t>
+        </is>
+      </c>
+      <c r="C42" t="n">
+        <v>0</v>
+      </c>
+      <c r="D42" t="n">
+        <v>0</v>
+      </c>
+      <c r="E42" t="n">
+        <v>0</v>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>Чек-лист/Реестр объектов контроля</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>Проверка полноты и корректности внесения данных в НСИ</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>42</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>НУ-ОБЩ-1-КП-006</t>
+        </is>
+      </c>
+      <c r="C43" t="n">
+        <v>0</v>
+      </c>
+      <c r="D43" t="n">
+        <v>0</v>
+      </c>
+      <c r="E43" t="n">
+        <v>0</v>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>Чек-лист/Реестр объектов контроля</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>Контроль полноты и корректности формирования деклараций (расчетов)</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>43</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>НУ-ОБЩ-1-КП-007</t>
+        </is>
+      </c>
+      <c r="C44" t="n">
+        <v>0</v>
+      </c>
+      <c r="D44" t="n">
+        <v>0</v>
+      </c>
+      <c r="E44" t="n">
+        <v>0</v>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>Чек-лист/Реестр объектов контроля</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>Контроль представления отчетности в налоговый орган</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>44</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>НУ-ОБЩ-1-КП-008</t>
+        </is>
+      </c>
+      <c r="C45" t="n">
+        <v>0</v>
+      </c>
+      <c r="D45" t="n">
+        <v>0</v>
+      </c>
+      <c r="E45" t="n">
+        <v>0</v>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>Чек-лист/Реестр объектов контроля</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>Контроль корректности исчисления суммы налогов, сборов, страховых взносов</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>45</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>НУ-ОБЩ-1-КП-009</t>
+        </is>
+      </c>
+      <c r="C46" t="n">
+        <v>0</v>
+      </c>
+      <c r="D46" t="n">
+        <v>0</v>
+      </c>
+      <c r="E46" t="n">
+        <v>0</v>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>Чек-лист/Реестр объектов контроля</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>Контроль своевременности уплаты (перечисления) налогов, сборов, страховых взносов</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>46</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>НУ-ОБЩ-1-КП-010</t>
+        </is>
+      </c>
+      <c r="C47" t="n">
+        <v>0</v>
+      </c>
+      <c r="D47" t="n">
+        <v>0</v>
+      </c>
+      <c r="E47" t="n">
+        <v>0</v>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>Чек-лист/Реестр объектов контроля</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Контроль за соблюдением порядка и сроков хранения первичных учетных документов и регистров </t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>47</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>НУ-ОБЩ-1-КП-011</t>
+        </is>
+      </c>
+      <c r="C48" t="n">
+        <v>0</v>
+      </c>
+      <c r="D48" t="n">
+        <v>0</v>
+      </c>
+      <c r="E48" t="n">
+        <v>0</v>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>Чек-лист/Реестр объектов контроля</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>Автоматизированная проверка корректности налоговых деклараций и контрольных соотношений показателей налоговой отчетности</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>48</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>НУ-ПРИБ-1-КП-001</t>
+        </is>
+      </c>
+      <c r="C49" t="n">
+        <v>0</v>
+      </c>
+      <c r="D49" t="n">
+        <v>0</v>
+      </c>
+      <c r="E49" t="n">
+        <v>0</v>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>Чек-лист/Реестр объектов контроля</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Проверка экономической целесообразности сделки </t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>49</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>НУ-ПРИБ-1-КП-002</t>
+        </is>
+      </c>
+      <c r="C50" t="n">
+        <v>0</v>
+      </c>
+      <c r="D50" t="n">
+        <v>0</v>
+      </c>
+      <c r="E50" t="n">
+        <v>0</v>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>Чек-лист/Реестр объектов контроля</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>Проверка контрагентов</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>50</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>НУ-ПРИБ-1-КП-003</t>
+        </is>
+      </c>
+      <c r="C51" t="n">
+        <v>0</v>
+      </c>
+      <c r="D51" t="n">
+        <v>0</v>
+      </c>
+      <c r="E51" t="n">
+        <v>0</v>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>Чек-лист/Реестр объектов контроля</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>Экспертиза проектов договоров</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>51</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>НУ-ПРИБ-1-КП-009</t>
+        </is>
+      </c>
+      <c r="C52" t="n">
+        <v>0</v>
+      </c>
+      <c r="D52" t="n">
+        <v>0</v>
+      </c>
+      <c r="E52" t="n">
+        <v>0</v>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>Чек-лист/Реестр объектов контроля</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>Контроль корректности формирования проводки в учетной системе</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>52</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>НУ-ПРИБ-1-КП-010</t>
+        </is>
+      </c>
+      <c r="C53" t="n">
+        <v>0</v>
+      </c>
+      <c r="D53" t="n">
+        <v>0</v>
+      </c>
+      <c r="E53" t="n">
+        <v>0</v>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>Чек-лист/Реестр объектов контроля</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>Контроль за отражением в составе внереализационных доходов сумм доходов в виде штрафов, пеней и (или) иных санкций за нарушение договорных обязательств, а также сумм возмещения убытков или ущерба</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>53</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>НУ-ПРИБ-1-КП-011</t>
+        </is>
+      </c>
+      <c r="C54" t="n">
+        <v>0</v>
+      </c>
+      <c r="D54" t="n">
+        <v>0</v>
+      </c>
+      <c r="E54" t="n">
+        <v>0</v>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>Чек-лист/Реестр объектов контроля</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Проверка своевременности проведения арендной платы по договорам аренды ОС </t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>54</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>НУ-ПРИБ-1-КП-013</t>
+        </is>
+      </c>
+      <c r="C55" t="n">
+        <v>0</v>
+      </c>
+      <c r="D55" t="n">
+        <v>0</v>
+      </c>
+      <c r="E55" t="n">
+        <v>0</v>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>Чек-лист/Реестр объектов контроля</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>Контроль списания безнадежного долга</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>55</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>НУ-ПРИБ-1-КП-014</t>
+        </is>
+      </c>
+      <c r="C56" t="n">
+        <v>0</v>
+      </c>
+      <c r="D56" t="n">
+        <v>0</v>
+      </c>
+      <c r="E56" t="n">
+        <v>0</v>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>Чек-лист/Реестр объектов контроля</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>Контроль полноты и корректности отражения в учетной системе проводок поступления объекта</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>56</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>НУ-ПРИБ-1-КП-015</t>
+        </is>
+      </c>
+      <c r="C57" t="n">
+        <v>0</v>
+      </c>
+      <c r="D57" t="n">
+        <v>0</v>
+      </c>
+      <c r="E57" t="n">
+        <v>0</v>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>Чек-лист/Реестр объектов контроля</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>Проверка акта на ввод в эксплуатацию / акта приема-передачи ОС</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>57</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>НУ-ПРИБ-1-КП-016</t>
+        </is>
+      </c>
+      <c r="C58" t="n">
+        <v>0</v>
+      </c>
+      <c r="D58" t="n">
+        <v>0</v>
+      </c>
+      <c r="E58" t="n">
+        <v>0</v>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>Чек-лист/Реестр объектов контроля</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>Контроль корректности отражения в карточке ОС данных об ОС</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>58</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>НУ-ПРИБ-1-КП-017</t>
+        </is>
+      </c>
+      <c r="C59" t="n">
+        <v>0</v>
+      </c>
+      <c r="D59" t="n">
+        <v>0</v>
+      </c>
+      <c r="E59" t="n">
+        <v>0</v>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>Чек-лист/Реестр объектов контроля</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>Контроль корректности расчета амортизации для целей налогового учета</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>59</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>НУ-ПРИБ-1-КП-019</t>
+        </is>
+      </c>
+      <c r="C60" t="n">
+        <v>0</v>
+      </c>
+      <c r="D60" t="n">
+        <v>0</v>
+      </c>
+      <c r="E60" t="n">
+        <v>0</v>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>Чек-лист/Реестр объектов контроля</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>Автоматизированный контроль корректности и своевременности признания амортизационной премии в составе расходов</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>60</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>НУ-ПРИБ-1-КП-020</t>
+        </is>
+      </c>
+      <c r="C61" t="n">
+        <v>0</v>
+      </c>
+      <c r="D61" t="n">
+        <v>0</v>
+      </c>
+      <c r="E61" t="n">
+        <v>0</v>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>Чек-лист/Реестр объектов контроля</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>Контроль корректности, правомерности и своевременности признания амортизационной премии в составе расходов</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>61</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>НУ-ПРИБ-1-КП-021</t>
+        </is>
+      </c>
+      <c r="C62" t="n">
+        <v>0</v>
+      </c>
+      <c r="D62" t="n">
+        <v>0</v>
+      </c>
+      <c r="E62" t="n">
+        <v>0</v>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>Чек-лист/Реестр объектов контроля</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>Автоматизированный контроль корректности, правомерности и своевременности отражения в налоговом учете восстановления амортизационной премии</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>62</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>НУ-ПРИБ-1-КП-025</t>
+        </is>
+      </c>
+      <c r="C63" t="n">
+        <v>0</v>
+      </c>
+      <c r="D63" t="n">
+        <v>0</v>
+      </c>
+      <c r="E63" t="n">
+        <v>0</v>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>Чек-лист/Реестр объектов контроля</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>Квалификация операций в качестве текущего ремонта/ капитального ремонта / реконструкции / модернизации / технического перевооружения</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>63</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>НУ-ПРИБ-1-КП-026</t>
+        </is>
+      </c>
+      <c r="C64" t="n">
+        <v>0</v>
+      </c>
+      <c r="D64" t="n">
+        <v>0</v>
+      </c>
+      <c r="E64" t="n">
+        <v>0</v>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>Чек-лист/Реестр объектов контроля</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>Контроль правильности квалификации операций в качестве капитального ремонта / реконструкции / модернизации / технического перевооружения</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>64</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>НУ-ПРИБ-1-КП-028</t>
+        </is>
+      </c>
+      <c r="C65" t="n">
+        <v>0</v>
+      </c>
+      <c r="D65" t="n">
+        <v>0</v>
+      </c>
+      <c r="E65" t="n">
+        <v>0</v>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>Чек-лист/Реестр объектов контроля</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>Ручной контроль корректности и правомерности отражения расходов по оплате труда в налоговом учете</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>65</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>НУ-ПРИБ-1-КП-029</t>
+        </is>
+      </c>
+      <c r="C66" t="n">
+        <v>0</v>
+      </c>
+      <c r="D66" t="n">
+        <v>0</v>
+      </c>
+      <c r="E66" t="n">
+        <v>0</v>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>Чек-лист/Реестр объектов контроля</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>Контроль отнесения расходов к непринимаемым и принимаемым на стадии приемки ПУД</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>66</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>НУ-ПРИБ-1-КП-030</t>
+        </is>
+      </c>
+      <c r="C67" t="n">
+        <v>0</v>
+      </c>
+      <c r="D67" t="n">
+        <v>0</v>
+      </c>
+      <c r="E67" t="n">
+        <v>0</v>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>Чек-лист/Реестр объектов контроля</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>Контроль правильности квалификации операций в качестве капитального ремонта / реконструкции / модернизации / технического перевооружения</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>67</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>НУ-ПРИБ-1-КП-033</t>
+        </is>
+      </c>
+      <c r="C68" t="n">
+        <v>0</v>
+      </c>
+      <c r="D68" t="n">
+        <v>0</v>
+      </c>
+      <c r="E68" t="n">
+        <v>0</v>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>Чек-лист/Реестр объектов контроля</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>Контроль определения СПИ программного обеспечения</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>68</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>НУ-ПРИБ-1-КП-036</t>
+        </is>
+      </c>
+      <c r="C69" t="n">
+        <v>0</v>
+      </c>
+      <c r="D69" t="n">
+        <v>0</v>
+      </c>
+      <c r="E69" t="n">
+        <v>0</v>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>Чек-лист/Реестр объектов контроля</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>Контроль корректности проводок по учету доходов и расходов прошлых лет</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>69</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>НУ-ПРИБ-1-КП-039</t>
+        </is>
+      </c>
+      <c r="C70" t="n">
+        <v>0</v>
+      </c>
+      <c r="D70" t="n">
+        <v>0</v>
+      </c>
+      <c r="E70" t="n">
+        <v>0</v>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>Чек-лист/Реестр объектов контроля</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>Контроль корректности, правомерности и своевременности отражения расходов на освоение природных ресурсов</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>70</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>НУ-ПРИБ-1-КП-040</t>
+        </is>
+      </c>
+      <c r="C71" t="n">
+        <v>0</v>
+      </c>
+      <c r="D71" t="n">
+        <v>0</v>
+      </c>
+      <c r="E71" t="n">
+        <v>0</v>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>Чек-лист/Реестр объектов контроля</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>Контроль корректности отражения расчетов с контрагентами в учетной системе</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>71</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>НУ-ПРИБ-1-КП-042</t>
+        </is>
+      </c>
+      <c r="C72" t="n">
+        <v>0</v>
+      </c>
+      <c r="D72" t="n">
+        <v>0</v>
+      </c>
+      <c r="E72" t="n">
+        <v>0</v>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>Чек-лист/Реестр объектов контроля</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>Контроль корректности и своевременности отражения в учетной системе финансового результата при выбытии объектов основных средств</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>72</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>НУ-ПРИБ-1-КП-044</t>
+        </is>
+      </c>
+      <c r="C73" t="n">
+        <v>0</v>
+      </c>
+      <c r="D73" t="n">
+        <v>0</v>
+      </c>
+      <c r="E73" t="n">
+        <v>0</v>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>Чек-лист/Реестр объектов контроля</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>Контроль корректности расчета суммы нормируемых расходов</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>73</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>НУ-ПРИБ-1-КП-045</t>
+        </is>
+      </c>
+      <c r="C74" t="n">
+        <v>0</v>
+      </c>
+      <c r="D74" t="n">
+        <v>0</v>
+      </c>
+      <c r="E74" t="n">
+        <v>0</v>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>Чек-лист/Реестр объектов контроля</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>Контроль корректности, правомерности и своевременности отражения доходов в виде безвозмездно полученного имущества (работ, услуг) или имущественных прав</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>74</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>НУ-ПРИБ-1-КП-046</t>
+        </is>
+      </c>
+      <c r="C75" t="n">
+        <v>0</v>
+      </c>
+      <c r="D75" t="n">
+        <v>0</v>
+      </c>
+      <c r="E75" t="n">
+        <v>0</v>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>Чек-лист/Реестр объектов контроля</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>Контроль своевременности списания кредиторской задолженности</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>75</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>НУ-СВ-1-КП-001</t>
+        </is>
+      </c>
+      <c r="C76" t="n">
+        <v>0</v>
+      </c>
+      <c r="D76" t="n">
+        <v>0</v>
+      </c>
+      <c r="E76" t="n">
+        <v>0</v>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>Чек-лист/Реестр объектов контроля</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>Контроль корректности отражения убытка</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>76</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>НУ-СВ-1-КП-002</t>
+        </is>
+      </c>
+      <c r="C77" t="n">
+        <v>0</v>
+      </c>
+      <c r="D77" t="n">
+        <v>0</v>
+      </c>
+      <c r="E77" t="n">
+        <v>0</v>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>Чек-лист/Реестр объектов контроля</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>Контроль полноты и корректности определения объектов обложения страховыми взносами</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>77</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>НУ-СВ-1-КП-003</t>
+        </is>
+      </c>
+      <c r="C78" t="n">
+        <v>0</v>
+      </c>
+      <c r="D78" t="n">
+        <v>0</v>
+      </c>
+      <c r="E78" t="n">
+        <v>0</v>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>Чек-лист/Реестр объектов контроля</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>Контроль корректности расчета заработной платы специалистами Бухгалтерии для целей обложения страховыми взносами</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>78</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>НУ-ТН-1-КП-001</t>
+        </is>
+      </c>
+      <c r="C79" t="n">
+        <v>0</v>
+      </c>
+      <c r="D79" t="n">
+        <v>0</v>
+      </c>
+      <c r="E79" t="n">
+        <v>0</v>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>Чек-лист/Реестр объектов контроля</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>Контроль корректности определения базы для начисления страховых взносов</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>79</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>НУ-ТН-1-КП-002</t>
+        </is>
+      </c>
+      <c r="C80" t="n">
+        <v>0</v>
+      </c>
+      <c r="D80" t="n">
+        <v>0</v>
+      </c>
+      <c r="E80" t="n">
+        <v>0</v>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>Чек-лист/Реестр объектов контроля</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>Контроль корректности и полноты определения объектов налогообложения по транспортному налогу</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>80</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>НУ-ТН-1-КП-004</t>
+        </is>
+      </c>
+      <c r="C81" t="n">
+        <v>0</v>
+      </c>
+      <c r="D81" t="n">
+        <v>0</v>
+      </c>
+      <c r="E81" t="n">
+        <v>0</v>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>Чек-лист/Реестр объектов контроля</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>Контроль корректности определения налоговой базы по транспортному налогу</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>81</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>НУ-ТН-1-КП-005</t>
+        </is>
+      </c>
+      <c r="C82" t="n">
+        <v>0</v>
+      </c>
+      <c r="D82" t="n">
+        <v>0</v>
+      </c>
+      <c r="E82" t="n">
+        <v>0</v>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>Чек-лист/Реестр объектов контроля</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Контроль полноты и правомерности применения региональных льгот по транспортному налогу (освобождение, пониженная ставка)Контроль корректности определения налоговых ставок по транспортному налогу </t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/excelanalog/example.xlsx
+++ b/excelanalog/example.xlsx
@@ -8,6 +8,9 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet4" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,14 +19,20 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="1">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
+  </numFmts>
+  <fonts count="2">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -34,7 +43,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -42,18 +51,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="centerContinuous" vertical="center" wrapText="1"/>
+      <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -419,171 +436,4864 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K9"/>
+  <dimension ref="A1:J24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <cols>
-    <col width="20" customWidth="1" min="1" max="1"/>
-    <col width="20" customWidth="1" min="2" max="2"/>
-    <col width="20" customWidth="1" min="3" max="3"/>
-    <col width="20" customWidth="1" min="4" max="4"/>
-    <col width="20" customWidth="1" min="5" max="5"/>
-    <col width="20" customWidth="1" min="6" max="6"/>
-    <col width="20" customWidth="1" min="7" max="7"/>
-    <col width="20" customWidth="1" min="8" max="8"/>
-    <col width="20" customWidth="1" min="9" max="9"/>
-    <col width="20" customWidth="1" min="10" max="10"/>
-    <col width="20" customWidth="1" min="11" max="11"/>
-  </cols>
   <sheetData>
-    <row r="1"/>
-    <row r="2"/>
-    <row r="3"/>
-    <row r="4"/>
-    <row r="5"/>
-    <row r="6"/>
+    <row r="1">
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Сводный реестр контрольных процедур</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="D2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="D3" s="1" t="inlineStr">
+        <is>
+          <t>Указать филиал</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>наименование филиала/отдела)</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="D6" s="1" t="inlineStr">
+        <is>
+          <t>осуществляемых в целях налогового мониторинга</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="E8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                                              За</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Указать месяц</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Указать год</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="inlineStr">
+        <is>
+          <t>номер п/п</t>
+        </is>
+      </c>
+      <c r="B13" s="2" t="inlineStr">
+        <is>
+          <t>Код КП(общий)</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>Код КП(промежуточный)</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>Наименование КП</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>Подразделение, ответственное за проведение контрольной процедуры</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>Исполнитель КП</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>Количество выполненных КП</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>Количество выявленных ошибок</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>Количество контрольных процедур, не выявивших ошибки</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>Номер Чек-листа, подтверждающего проведение контрольной процедуры</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>1</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>НУ-ОБЩ-1-КП-003</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>НУ-ОБЩ-1-КП-003-06</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Проверка полноты и достоверности ПУД</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>СпоРСП</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Антонова Н.Д.</t>
+        </is>
+      </c>
+      <c r="G14" t="n">
+        <v>7</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>7</v>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>Декабрь_Антонова Н.Д._НУ-ОБЩ-1-КП-003-06</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>1</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>НУ-НДФЛ-1-КП-004</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>НУ-НДФЛ-1-КП-004-02</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Контроль корректности определения налоговой базы по НДФЛ</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>СпоРСП</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Антонова Н.Д.</t>
+        </is>
+      </c>
+      <c r="G15" t="n">
+        <v>1</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0</v>
+      </c>
+      <c r="I15" t="n">
+        <v>1</v>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>Декабрь_Антонова Н.Д._НУ-НДФЛ-1-КП-004-02</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>1</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>НУ-НДФЛ-1-КП-006</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>НУ-НДФЛ-1-КП-006-02</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Контроль корректности применения ставки НДФЛ при налогообложении доходов нерезидентов</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>СпоРСП</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Антонова Н.Д.</t>
+        </is>
+      </c>
+      <c r="G16" t="n">
+        <v>9</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" t="n">
+        <v>9</v>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>Декабрь_Антонова Н.Д._НУ-НДФЛ-1-КП-006-02</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>1</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>НУ-ПРИБ-1-КП-029</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>НУ-ПРИБ-1-КП-029-02</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Контроль отнесения расходов к непринимаемым и принимаемым на стадии приемки ПУД</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>СпоРСП</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Антонова Н.Д.</t>
+        </is>
+      </c>
+      <c r="G17" t="n">
+        <v>7</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>7</v>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>Декабрь_Антонова Н.Д._НУ-ПРИБ-1-КП-029-02</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>1</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>НУ-ОБЩ-1-КП-004</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>НУ-ОБЩ-1-КП-004-03</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Проверка корректности ПУД и осуществления проводки в учетной системе</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>СпоРСП</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Антонова Н.Д.</t>
+        </is>
+      </c>
+      <c r="G18" t="n">
+        <v>7</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0</v>
+      </c>
+      <c r="I18" t="n">
+        <v>7</v>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>Декабрь_Антонова Н.Д._НУ-ОБЩ-1-КП-004-03</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Итого:</t>
+        </is>
+      </c>
+      <c r="G19">
+        <f>SUM(G13:G18)</f>
+        <v/>
+      </c>
+      <c r="H19">
+        <f>SUM(H13:H18)</f>
+        <v/>
+      </c>
+      <c r="I19">
+        <f>SUM(I13:I18)</f>
+        <v/>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>________________________________</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>________________________________</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>________________________________</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>дата</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>должность</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>подпись</t>
+        </is>
+      </c>
+      <c r="F24" s="3" t="inlineStr">
+        <is>
+          <t>ФИО</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:J25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>№ п/п чек-листа</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>Код КП(промежуточный)</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>Исполнитель КП</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>номер чек листа</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>Объект контроля (договор, акт, счет-фактура, КС-2 и др.)</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>Дата документа</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>Номер документа</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>Количество документов/операций</t>
+        </is>
+      </c>
+      <c r="I1" s="2" t="inlineStr">
+        <is>
+          <t>Количество ошибок/нарушений</t>
+        </is>
+      </c>
+      <c r="J1" s="2" t="inlineStr">
+        <is>
+          <t>Примечание</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>НУ-ОБЩ-1-КП-003-06</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Антонова Н.Д.</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Декабрь_Антонова Н.Д._НУ-ОБЩ-1-КП-003-06</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Свод начислений и удержаний по выплатам социального характера пенсионерам  за период с 01.12.2023 по 31.12.2023</t>
+        </is>
+      </c>
+      <c r="F2" s="4" t="n">
+        <v>45291</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>б/н</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>НУ-ОБЩ-1-КП-003-06</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Антонова Н.Д.</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Декабрь_Антонова Н.Д._НУ-ОБЩ-1-КП-003-06</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Приказ о постановке на учет пенсионеров и возобновлении выплат</t>
+        </is>
+      </c>
+      <c r="F3" s="4" t="n">
+        <v>45267</v>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>01900</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>НУ-ОБЩ-1-КП-003-06</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Антонова Н.Д.</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Декабрь_Антонова Н.Д._НУ-ОБЩ-1-КП-003-06</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Приказ об оказании материальной помощи пенсионерам Общества</t>
+        </is>
+      </c>
+      <c r="F4" s="4" t="n">
+        <v>45267</v>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>01901</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>НУ-ОБЩ-1-КП-003-06</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Антонова Н.Д.</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Декабрь_Антонова Н.Д._НУ-ОБЩ-1-КП-003-06</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Приказ о приостановлении, прекращении предоставления льгот и компенсаций пенсионерам</t>
+        </is>
+      </c>
+      <c r="F5" s="4" t="n">
+        <v>45267</v>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>01902</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>НУ-ОБЩ-1-КП-003-06</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Антонова Н.Д.</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Декабрь_Антонова Н.Д._НУ-ОБЩ-1-КП-003-06</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Приказ о компенсации расходов пенсионерам</t>
+        </is>
+      </c>
+      <c r="F6" s="4" t="n">
+        <v>45267</v>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>01903</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="inlineStr"/>
+    </row>
     <row r="7">
-      <c r="F7" s="1" t="n"/>
-      <c r="G7" s="1" t="n"/>
+      <c r="A7" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>НУ-ОБЩ-1-КП-003-06</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Антонова Н.Д.</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Декабрь_Антонова Н.Д._НУ-ОБЩ-1-КП-003-06</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Приказ о компенсации стоимости приобретения жилья пенсионерам</t>
+        </is>
+      </c>
+      <c r="F7" s="4" t="n">
+        <v>45265</v>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>673</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="inlineStr"/>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Номер по порядку</t>
-        </is>
-      </c>
-      <c r="B8" s="1" t="inlineStr">
+      <c r="A8" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>НУ-ОБЩ-1-КП-003-06</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Антонова Н.Д.</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Декабрь_Антонова Н.Д._НУ-ОБЩ-1-КП-003-06</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Приказ о компенсации стоимости приобретения жилья пенсионерам</t>
+        </is>
+      </c>
+      <c r="F8" s="4" t="n">
+        <v>45278</v>
+      </c>
+      <c r="G8" t="n">
+        <v>701</v>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>1</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>НУ-НДФЛ-1-КП-004-02</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Антонова Н.Д.</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Декабрь_Антонова Н.Д._НУ-НДФЛ-1-КП-004-02</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Свод начислений и удержаний по выплатам социального характера пенсионерам  за период с 01.12.2023 по 31.12.2023</t>
+        </is>
+      </c>
+      <c r="F9" s="4" t="n">
+        <v>45291</v>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>б/н</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>1</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>1</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>НУ-НДФЛ-1-КП-006-02</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Антонова Н.Д.</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Декабрь_Антонова Н.Д._НУ-НДФЛ-1-КП-006-02</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Свод начислений и удержаний по выплатам социального характера пенсионерам  за период с 01.12.2023 по 31.12.2023</t>
+        </is>
+      </c>
+      <c r="F10" s="4" t="n">
+        <v>45291</v>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>б/н</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>2</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>НУ-НДФЛ-1-КП-006-02</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Антонова Н.Д.</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Декабрь_Антонова Н.Д._НУ-НДФЛ-1-КП-006-02</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Копии документов (паспорт, вид на жительство)</t>
+        </is>
+      </c>
+      <c r="F11" s="4" t="n">
+        <v>45291</v>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>б/н</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>1</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>НУ-ПРИБ-1-КП-029-02</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Антонова Н.Д.</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Декабрь_Антонова Н.Д._НУ-ПРИБ-1-КП-029-02</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Свод начислений и удержаний по выплатам социального характера пенсионерам  за период с 01.12.2023 по 31.12.2023</t>
+        </is>
+      </c>
+      <c r="F12" s="4" t="n">
+        <v>45291</v>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>б/н</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>1</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>2</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>НУ-ПРИБ-1-КП-029-02</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Антонова Н.Д.</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Декабрь_Антонова Н.Д._НУ-ПРИБ-1-КП-029-02</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Приказ о постановке на учет пенсионеров и возобновлении выплат</t>
+        </is>
+      </c>
+      <c r="F13" s="4" t="n">
+        <v>45267</v>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>01900</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>1</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>3</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>НУ-ПРИБ-1-КП-029-02</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Антонова Н.Д.</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Декабрь_Антонова Н.Д._НУ-ПРИБ-1-КП-029-02</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Приказ об оказании материальной помощи пенсионерам Общества</t>
+        </is>
+      </c>
+      <c r="F14" s="4" t="n">
+        <v>45267</v>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>01901</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>1</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>4</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>НУ-ПРИБ-1-КП-029-02</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Антонова Н.Д.</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Декабрь_Антонова Н.Д._НУ-ПРИБ-1-КП-029-02</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Приказ о приостановлении, прекращении предоставления льгот и компенсаций пенсионерам</t>
+        </is>
+      </c>
+      <c r="F15" s="4" t="n">
+        <v>45267</v>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>01902</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>1</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>5</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>НУ-ПРИБ-1-КП-029-02</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Антонова Н.Д.</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Декабрь_Антонова Н.Д._НУ-ПРИБ-1-КП-029-02</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Приказ о компенсации расходов пенсионерам</t>
+        </is>
+      </c>
+      <c r="F16" s="4" t="n">
+        <v>45267</v>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>01903</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>1</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>6</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>НУ-ПРИБ-1-КП-029-02</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Антонова Н.Д.</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Декабрь_Антонова Н.Д._НУ-ПРИБ-1-КП-029-02</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Приказ о компенсации стоимости приобретения жилья пенсионерам</t>
+        </is>
+      </c>
+      <c r="F17" s="4" t="n">
+        <v>45265</v>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>673</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>1</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>7</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>НУ-ПРИБ-1-КП-029-02</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Антонова Н.Д.</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Декабрь_Антонова Н.Д._НУ-ПРИБ-1-КП-029-02</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Приказ о компенсации стоимости приобретения жилья пенсионерам</t>
+        </is>
+      </c>
+      <c r="F18" s="4" t="n">
+        <v>45278</v>
+      </c>
+      <c r="G18" t="n">
+        <v>701</v>
+      </c>
+      <c r="H18" t="n">
+        <v>1</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>1</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>НУ-ОБЩ-1-КП-004-03</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Антонова Н.Д.</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Декабрь_Антонова Н.Д._НУ-ОБЩ-1-КП-004-03</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Свод начислений и удержаний по выплатам социального характера пенсионерам  за период с 01.12.2023 по 31.12.2023</t>
+        </is>
+      </c>
+      <c r="F19" s="4" t="n">
+        <v>45291</v>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>б/н</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>1</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>2</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>НУ-ОБЩ-1-КП-004-03</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Антонова Н.Д.</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Декабрь_Антонова Н.Д._НУ-ОБЩ-1-КП-004-03</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Приказ о постановке на учет пенсионеров и возобновлении выплат</t>
+        </is>
+      </c>
+      <c r="F20" s="4" t="n">
+        <v>45267</v>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>01900</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>1</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>3</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>НУ-ОБЩ-1-КП-004-03</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Антонова Н.Д.</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Декабрь_Антонова Н.Д._НУ-ОБЩ-1-КП-004-03</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Приказ об оказании материальной помощи пенсионерам Общества</t>
+        </is>
+      </c>
+      <c r="F21" s="4" t="n">
+        <v>45267</v>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>01901</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>1</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>4</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>НУ-ОБЩ-1-КП-004-03</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Антонова Н.Д.</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Декабрь_Антонова Н.Д._НУ-ОБЩ-1-КП-004-03</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Приказ о приостановлении, прекращении предоставления льгот и компенсаций пенсионерам</t>
+        </is>
+      </c>
+      <c r="F22" s="4" t="n">
+        <v>45267</v>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>01902</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>1</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0</v>
+      </c>
+      <c r="J22" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>5</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>НУ-ОБЩ-1-КП-004-03</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Антонова Н.Д.</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Декабрь_Антонова Н.Д._НУ-ОБЩ-1-КП-004-03</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>Приказ о компенсации расходов пенсионерам</t>
+        </is>
+      </c>
+      <c r="F23" s="4" t="n">
+        <v>45267</v>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>01903</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>1</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>6</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>НУ-ОБЩ-1-КП-004-03</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Антонова Н.Д.</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Декабрь_Антонова Н.Д._НУ-ОБЩ-1-КП-004-03</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>Приказ о компенсации стоимости приобретения жилья пенсионерам</t>
+        </is>
+      </c>
+      <c r="F24" s="4" t="n">
+        <v>45265</v>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>673</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>1</v>
+      </c>
+      <c r="I24" t="n">
+        <v>0</v>
+      </c>
+      <c r="J24" t="inlineStr"/>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>7</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>НУ-ОБЩ-1-КП-004-03</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Антонова Н.Д.</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Декабрь_Антонова Н.Д._НУ-ОБЩ-1-КП-004-03</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>Приказ о компенсации стоимости приобретения жилья пенсионерам</t>
+        </is>
+      </c>
+      <c r="F25" s="4" t="n">
+        <v>45278</v>
+      </c>
+      <c r="G25" t="n">
+        <v>701</v>
+      </c>
+      <c r="H25" t="n">
+        <v>1</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="inlineStr"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:CE4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>Код БС</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>Количество</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>НУ-ВН-1-КП-001</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>НУ-ВН-1-КП-002</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>НУ-ВН-1-КП-003</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>НУ-ЗН-1-КП-001</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>НУ-ЗН-1-КП-002</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>НУ-ЗН-1-КП-003</t>
+        </is>
+      </c>
+      <c r="I1" s="2" t="inlineStr">
+        <is>
+          <t>НУ-ЗН-1-КП-004</t>
+        </is>
+      </c>
+      <c r="J1" s="2" t="inlineStr">
+        <is>
+          <t>НУ-НДПИ-1-КП-001</t>
+        </is>
+      </c>
+      <c r="K1" s="2" t="inlineStr">
+        <is>
+          <t>НУ-НДПИ-1-КП-002</t>
+        </is>
+      </c>
+      <c r="L1" s="2" t="inlineStr">
+        <is>
+          <t>НУ-НДПИ-1-КП-006</t>
+        </is>
+      </c>
+      <c r="M1" s="2" t="inlineStr">
+        <is>
+          <t>НУ-НДС-1-КП-001</t>
+        </is>
+      </c>
+      <c r="N1" s="2" t="inlineStr">
+        <is>
+          <t>НУ-НДС-1-КП-002</t>
+        </is>
+      </c>
+      <c r="O1" s="2" t="inlineStr">
+        <is>
+          <t>НУ-НДС-1-КП-003</t>
+        </is>
+      </c>
+      <c r="P1" s="2" t="inlineStr">
+        <is>
+          <t>НУ-НДС-1-КП-004</t>
+        </is>
+      </c>
+      <c r="Q1" s="2" t="inlineStr">
+        <is>
+          <t>НУ-НДС-1-КП-005</t>
+        </is>
+      </c>
+      <c r="R1" s="2" t="inlineStr">
+        <is>
+          <t>НУ-НДС-1-КП-006</t>
+        </is>
+      </c>
+      <c r="S1" s="2" t="inlineStr">
+        <is>
+          <t>НУ-НДС-1-КП-007</t>
+        </is>
+      </c>
+      <c r="T1" s="2" t="inlineStr">
+        <is>
+          <t>НУ-НДС-1-КП-008</t>
+        </is>
+      </c>
+      <c r="U1" s="2" t="inlineStr">
+        <is>
+          <t>НУ-НДС-1-КП-009</t>
+        </is>
+      </c>
+      <c r="V1" s="2" t="inlineStr">
+        <is>
+          <t>НУ-НДС-1-КП-010</t>
+        </is>
+      </c>
+      <c r="W1" s="2" t="inlineStr">
+        <is>
+          <t>НУ-НДС-1-КП-011</t>
+        </is>
+      </c>
+      <c r="X1" s="2" t="inlineStr">
+        <is>
+          <t>НУ-НДС-1-КП-012</t>
+        </is>
+      </c>
+      <c r="Y1" s="2" t="inlineStr">
+        <is>
+          <t>НУ-НДС-1-КП-013</t>
+        </is>
+      </c>
+      <c r="Z1" s="2" t="inlineStr">
+        <is>
+          <t>НУ-НДС-1-КП-014</t>
+        </is>
+      </c>
+      <c r="AA1" s="2" t="inlineStr">
+        <is>
+          <t>НУ-НДС-1-КП-015</t>
+        </is>
+      </c>
+      <c r="AB1" s="2" t="inlineStr">
+        <is>
+          <t>НУ-НДФЛ-1-КП-001</t>
+        </is>
+      </c>
+      <c r="AC1" s="2" t="inlineStr">
+        <is>
+          <t>НУ-НДФЛ-1-КП-003</t>
+        </is>
+      </c>
+      <c r="AD1" s="2" t="inlineStr">
+        <is>
+          <t>НУ-НДФЛ-1-КП-004</t>
+        </is>
+      </c>
+      <c r="AE1" s="2" t="inlineStr">
+        <is>
+          <t>НУ-НДФЛ-1-КП-005</t>
+        </is>
+      </c>
+      <c r="AF1" s="2" t="inlineStr">
+        <is>
+          <t>НУ-НДФЛ-1-КП-006</t>
+        </is>
+      </c>
+      <c r="AG1" s="2" t="inlineStr">
+        <is>
+          <t>НУ-НИ-1-КП-001</t>
+        </is>
+      </c>
+      <c r="AH1" s="2" t="inlineStr">
+        <is>
+          <t>НУ-НИ-1-КП-002</t>
+        </is>
+      </c>
+      <c r="AI1" s="2" t="inlineStr">
+        <is>
+          <t>НУ-НИ-1-КП-003</t>
+        </is>
+      </c>
+      <c r="AJ1" s="2" t="inlineStr">
+        <is>
+          <t>НУ-НИ-1-КП-004</t>
+        </is>
+      </c>
+      <c r="AK1" s="2" t="inlineStr">
+        <is>
+          <t>НУ-НИ-1-КП-005</t>
+        </is>
+      </c>
+      <c r="AL1" s="2" t="inlineStr">
+        <is>
+          <t>НУ-НИ-1-КП-006</t>
+        </is>
+      </c>
+      <c r="AM1" s="2" t="inlineStr">
+        <is>
+          <t>НУ-ОБЩ-1-КП-001</t>
+        </is>
+      </c>
+      <c r="AN1" s="2" t="inlineStr">
+        <is>
+          <t>НУ-ОБЩ-1-КП-002</t>
+        </is>
+      </c>
+      <c r="AO1" s="2" t="inlineStr">
+        <is>
+          <t>НУ-ОБЩ-1-КП-003</t>
+        </is>
+      </c>
+      <c r="AP1" s="2" t="inlineStr">
+        <is>
+          <t>НУ-ОБЩ-1-КП-004</t>
+        </is>
+      </c>
+      <c r="AQ1" s="2" t="inlineStr">
+        <is>
+          <t>НУ-ОБЩ-1-КП-005</t>
+        </is>
+      </c>
+      <c r="AR1" s="2" t="inlineStr">
+        <is>
+          <t>НУ-ОБЩ-1-КП-006</t>
+        </is>
+      </c>
+      <c r="AS1" s="2" t="inlineStr">
+        <is>
+          <t>НУ-ОБЩ-1-КП-007</t>
+        </is>
+      </c>
+      <c r="AT1" s="2" t="inlineStr">
+        <is>
+          <t>НУ-ОБЩ-1-КП-008</t>
+        </is>
+      </c>
+      <c r="AU1" s="2" t="inlineStr">
+        <is>
+          <t>НУ-ОБЩ-1-КП-009</t>
+        </is>
+      </c>
+      <c r="AV1" s="2" t="inlineStr">
+        <is>
+          <t>НУ-ОБЩ-1-КП-010</t>
+        </is>
+      </c>
+      <c r="AW1" s="2" t="inlineStr">
+        <is>
+          <t>НУ-ОБЩ-1-КП-011</t>
+        </is>
+      </c>
+      <c r="AX1" s="2" t="inlineStr">
+        <is>
+          <t>НУ-ПРИБ-1-КП-001</t>
+        </is>
+      </c>
+      <c r="AY1" s="2" t="inlineStr">
+        <is>
+          <t>НУ-ПРИБ-1-КП-002</t>
+        </is>
+      </c>
+      <c r="AZ1" s="2" t="inlineStr">
+        <is>
+          <t>НУ-ПРИБ-1-КП-003</t>
+        </is>
+      </c>
+      <c r="BA1" s="2" t="inlineStr">
+        <is>
+          <t>НУ-ПРИБ-1-КП-009</t>
+        </is>
+      </c>
+      <c r="BB1" s="2" t="inlineStr">
+        <is>
+          <t>НУ-ПРИБ-1-КП-010</t>
+        </is>
+      </c>
+      <c r="BC1" s="2" t="inlineStr">
+        <is>
+          <t>НУ-ПРИБ-1-КП-011</t>
+        </is>
+      </c>
+      <c r="BD1" s="2" t="inlineStr">
+        <is>
+          <t>НУ-ПРИБ-1-КП-013</t>
+        </is>
+      </c>
+      <c r="BE1" s="2" t="inlineStr">
+        <is>
+          <t>НУ-ПРИБ-1-КП-014</t>
+        </is>
+      </c>
+      <c r="BF1" s="2" t="inlineStr">
+        <is>
+          <t>НУ-ПРИБ-1-КП-015</t>
+        </is>
+      </c>
+      <c r="BG1" s="2" t="inlineStr">
+        <is>
+          <t>НУ-ПРИБ-1-КП-016</t>
+        </is>
+      </c>
+      <c r="BH1" s="2" t="inlineStr">
+        <is>
+          <t>НУ-ПРИБ-1-КП-017</t>
+        </is>
+      </c>
+      <c r="BI1" s="2" t="inlineStr">
+        <is>
+          <t>НУ-ПРИБ-1-КП-019</t>
+        </is>
+      </c>
+      <c r="BJ1" s="2" t="inlineStr">
+        <is>
+          <t>НУ-ПРИБ-1-КП-020</t>
+        </is>
+      </c>
+      <c r="BK1" s="2" t="inlineStr">
+        <is>
+          <t>НУ-ПРИБ-1-КП-021</t>
+        </is>
+      </c>
+      <c r="BL1" s="2" t="inlineStr">
+        <is>
+          <t>НУ-ПРИБ-1-КП-025</t>
+        </is>
+      </c>
+      <c r="BM1" s="2" t="inlineStr">
+        <is>
+          <t>НУ-ПРИБ-1-КП-026</t>
+        </is>
+      </c>
+      <c r="BN1" s="2" t="inlineStr">
+        <is>
+          <t>НУ-ПРИБ-1-КП-028</t>
+        </is>
+      </c>
+      <c r="BO1" s="2" t="inlineStr">
+        <is>
+          <t>НУ-ПРИБ-1-КП-029</t>
+        </is>
+      </c>
+      <c r="BP1" s="2" t="inlineStr">
+        <is>
+          <t>НУ-ПРИБ-1-КП-030</t>
+        </is>
+      </c>
+      <c r="BQ1" s="2" t="inlineStr">
+        <is>
+          <t>НУ-ПРИБ-1-КП-033</t>
+        </is>
+      </c>
+      <c r="BR1" s="2" t="inlineStr">
+        <is>
+          <t>НУ-ПРИБ-1-КП-036</t>
+        </is>
+      </c>
+      <c r="BS1" s="2" t="inlineStr">
+        <is>
+          <t>НУ-ПРИБ-1-КП-039</t>
+        </is>
+      </c>
+      <c r="BT1" s="2" t="inlineStr">
+        <is>
+          <t>НУ-ПРИБ-1-КП-040</t>
+        </is>
+      </c>
+      <c r="BU1" s="2" t="inlineStr">
+        <is>
+          <t>НУ-ПРИБ-1-КП-042</t>
+        </is>
+      </c>
+      <c r="BV1" s="2" t="inlineStr">
+        <is>
+          <t>НУ-ПРИБ-1-КП-044</t>
+        </is>
+      </c>
+      <c r="BW1" s="2" t="inlineStr">
+        <is>
+          <t>НУ-ПРИБ-1-КП-045</t>
+        </is>
+      </c>
+      <c r="BX1" s="2" t="inlineStr">
+        <is>
+          <t>НУ-ПРИБ-1-КП-046</t>
+        </is>
+      </c>
+      <c r="BY1" s="2" t="inlineStr">
+        <is>
+          <t>НУ-СВ-1-КП-001</t>
+        </is>
+      </c>
+      <c r="BZ1" s="2" t="inlineStr">
+        <is>
+          <t>НУ-СВ-1-КП-002</t>
+        </is>
+      </c>
+      <c r="CA1" s="2" t="inlineStr">
+        <is>
+          <t>НУ-СВ-1-КП-003</t>
+        </is>
+      </c>
+      <c r="CB1" s="2" t="inlineStr">
+        <is>
+          <t>НУ-ТН-1-КП-001</t>
+        </is>
+      </c>
+      <c r="CC1" s="2" t="inlineStr">
+        <is>
+          <t>НУ-ТН-1-КП-002</t>
+        </is>
+      </c>
+      <c r="CD1" s="2" t="inlineStr">
+        <is>
+          <t>НУ-ТН-1-КП-004</t>
+        </is>
+      </c>
+      <c r="CE1" s="2" t="inlineStr">
+        <is>
+          <t>НУ-ТН-1-КП-005</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr"/>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Количество выполненных КП</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S2" t="n">
+        <v>0</v>
+      </c>
+      <c r="T2" t="n">
+        <v>0</v>
+      </c>
+      <c r="U2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="n">
+        <v>0</v>
+      </c>
+      <c r="X2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>9</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO2" t="n">
+        <v>7</v>
+      </c>
+      <c r="AP2" t="n">
+        <v>7</v>
+      </c>
+      <c r="AQ2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO2" t="n">
+        <v>7</v>
+      </c>
+      <c r="BP2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BR2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BW2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CC2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CD2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CE2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr"/>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Количество выявленных ошибок</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R3" t="n">
+        <v>0</v>
+      </c>
+      <c r="S3" t="n">
+        <v>0</v>
+      </c>
+      <c r="T3" t="n">
+        <v>0</v>
+      </c>
+      <c r="U3" t="n">
+        <v>0</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="n">
+        <v>0</v>
+      </c>
+      <c r="X3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BR3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BW3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ3" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA3" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB3" t="n">
+        <v>0</v>
+      </c>
+      <c r="CC3" t="n">
+        <v>0</v>
+      </c>
+      <c r="CD3" t="n">
+        <v>0</v>
+      </c>
+      <c r="CE3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr"/>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Количество контрольных процедур, не выявивших ошибки (отклонения, нарушения)</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
+      <c r="M4" t="inlineStr"/>
+      <c r="N4" t="inlineStr"/>
+      <c r="O4" t="inlineStr"/>
+      <c r="P4" t="inlineStr"/>
+      <c r="Q4" t="inlineStr"/>
+      <c r="R4" t="inlineStr"/>
+      <c r="S4" t="inlineStr"/>
+      <c r="T4" t="inlineStr"/>
+      <c r="U4" t="inlineStr"/>
+      <c r="V4" t="inlineStr"/>
+      <c r="W4" t="inlineStr"/>
+      <c r="X4" t="inlineStr"/>
+      <c r="Y4" t="inlineStr"/>
+      <c r="Z4" t="inlineStr"/>
+      <c r="AA4" t="inlineStr"/>
+      <c r="AB4" t="inlineStr"/>
+      <c r="AC4" t="inlineStr"/>
+      <c r="AD4" t="inlineStr"/>
+      <c r="AE4" t="inlineStr"/>
+      <c r="AF4" t="inlineStr"/>
+      <c r="AG4" t="inlineStr"/>
+      <c r="AH4" t="inlineStr"/>
+      <c r="AI4" t="inlineStr"/>
+      <c r="AJ4" t="inlineStr"/>
+      <c r="AK4" t="inlineStr"/>
+      <c r="AL4" t="inlineStr"/>
+      <c r="AM4" t="inlineStr"/>
+      <c r="AN4" t="inlineStr"/>
+      <c r="AO4" t="inlineStr"/>
+      <c r="AP4" t="inlineStr"/>
+      <c r="AQ4" t="inlineStr"/>
+      <c r="AR4" t="inlineStr"/>
+      <c r="AS4" t="inlineStr"/>
+      <c r="AT4" t="inlineStr"/>
+      <c r="AU4" t="inlineStr"/>
+      <c r="AV4" t="inlineStr"/>
+      <c r="AW4" t="inlineStr"/>
+      <c r="AX4" t="inlineStr"/>
+      <c r="AY4" t="inlineStr"/>
+      <c r="AZ4" t="inlineStr"/>
+      <c r="BA4" t="inlineStr"/>
+      <c r="BB4" t="inlineStr"/>
+      <c r="BC4" t="inlineStr"/>
+      <c r="BD4" t="inlineStr"/>
+      <c r="BE4" t="inlineStr"/>
+      <c r="BF4" t="inlineStr"/>
+      <c r="BG4" t="inlineStr"/>
+      <c r="BH4" t="inlineStr"/>
+      <c r="BI4" t="inlineStr"/>
+      <c r="BJ4" t="inlineStr"/>
+      <c r="BK4" t="inlineStr"/>
+      <c r="BL4" t="inlineStr"/>
+      <c r="BM4" t="inlineStr"/>
+      <c r="BN4" t="inlineStr"/>
+      <c r="BO4" t="inlineStr"/>
+      <c r="BP4" t="inlineStr"/>
+      <c r="BQ4" t="inlineStr"/>
+      <c r="BR4" t="inlineStr"/>
+      <c r="BS4" t="inlineStr"/>
+      <c r="BT4" t="inlineStr"/>
+      <c r="BU4" t="inlineStr"/>
+      <c r="BV4" t="inlineStr"/>
+      <c r="BW4" t="inlineStr"/>
+      <c r="BX4" t="inlineStr"/>
+      <c r="BY4" t="inlineStr"/>
+      <c r="BZ4" t="inlineStr"/>
+      <c r="CA4" t="inlineStr"/>
+      <c r="CB4" t="inlineStr"/>
+      <c r="CC4" t="inlineStr"/>
+      <c r="CD4" t="inlineStr"/>
+      <c r="CE4" t="inlineStr"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G82"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>№ п/п</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="inlineStr">
         <is>
           <t>Код КП(общий)</t>
         </is>
       </c>
-      <c r="C8" s="1" t="inlineStr">
-        <is>
-          <t>Код КП(Промежуточный)</t>
-        </is>
-      </c>
-      <c r="D8" s="1" t="inlineStr">
-        <is>
-          <t>Наименования КП</t>
-        </is>
-      </c>
-      <c r="E8" s="1" t="inlineStr">
-        <is>
-          <t>Описание КП</t>
-        </is>
-      </c>
-      <c r="F8" s="1" t="inlineStr">
-        <is>
-          <t>Периодичность проведения (ежедневно/ ежеквартально/ежемесячно/по мере поступления и т.д)</t>
-        </is>
-      </c>
-      <c r="G8" s="1" t="inlineStr">
-        <is>
-          <t>Способ подсчета результаты  проведения КП (ручной/автоматизированный)</t>
-        </is>
-      </c>
-      <c r="H8" s="1" t="inlineStr">
-        <is>
-          <t>Подразделение, ответственное за выполнение контрольной процедуры</t>
-        </is>
-      </c>
-      <c r="I8" s="1" t="inlineStr">
-        <is>
-          <t>Исполнитель КП (ФИО)</t>
-        </is>
-      </c>
-      <c r="J8" s="1" t="inlineStr">
+      <c r="C1" s="2" t="inlineStr">
         <is>
           <t>Количество выполненных КП</t>
         </is>
       </c>
-      <c r="K8" s="1" t="inlineStr">
-        <is>
-          <t>Количество выявленных ошибок/ нарушений</t>
-        </is>
-      </c>
-    </row>
-    <row r="9" ht="250" customHeight="1">
-      <c r="A9" s="2" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="B9" s="2" t="inlineStr">
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>Количество выявленных ошибок</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>Количество контрольных процедур, не выявивших ошибки</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>Документ, подтверждающий проведение контрольной процедуры</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>Наименование КП</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>НУ-ВН-1-КП-001</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Чек-лист/Реестр объектов контроля</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>Контроль полноты и корректности определения объектов налогообложения водным налогом</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>НУ-ВН-1-КП-002</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Чек-лист/Реестр объектов контроля</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Контроль корректности определения налоговой базы по водному налогу</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>НУ-ВН-1-КП-003</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Чек-лист/Реестр объектов контроля</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Контроль корректности применения налоговой ставки водного налога</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>НУ-ЗН-1-КП-001</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Чек-лист/Реестр объектов контроля</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Контроль корректности определения объектов налогообложения по земельному налогу</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>НУ-ЗН-1-КП-002</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Чек-лист/Реестр объектов контроля</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Контроль корректности определения налоговой базы по земельному налогу</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>НУ-ЗН-1-КП-003</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Чек-лист/Реестр объектов контроля</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Контроль корректности определения налоговых ставок по земельному налогу</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>НУ-ЗН-1-КП-004</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Чек-лист/Реестр объектов контроля</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Контроль полноты и правомерности применения федеральных и местных льгот по земельному налогу (освобождение, пониженная ставка)</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>НУ-НДПИ-1-КП-001</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Чек-лист/Реестр объектов контроля</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Контроль полноты и корректности определения объектов налогообложения по НДПИ</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>НУ-НДПИ-1-КП-002</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>0</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Чек-лист/Реестр объектов контроля</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Контроль корректности определения налоговой базы по НДПИ на нефть, газ, газовый конденсат </t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>НУ-НДПИ-1-КП-006</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>0</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Чек-лист/Реестр объектов контроля</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Контроль корректности расчета налоговой ставки НДПИ на газ, газовый конденсат</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>НУ-НДС-1-КП-001</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>0</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Чек-лист/Реестр объектов контроля</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Контроль полноты и корректности определения объектов налогообложения по НДС</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>НУ-НДС-1-КП-002</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>0</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Чек-лист/Реестр объектов контроля</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>Контроль полноты и корректности отражения исходящего НДС в учетной системе</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>НУ-НДС-1-КП-003</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>0</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Чек-лист/Реестр объектов контроля</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>Контроль корректности и своевременности восстановления НДС</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>НУ-НДС-1-КП-004</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>0</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Чек-лист/Реестр объектов контроля</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>Контроль корректности и правомерности отнесения операций к не облагаемым НДС</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>НУ-НДС-1-КП-005</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>0</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Чек-лист/Реестр объектов контроля</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>Контроль корректности формирования выставленных счетов-фактур</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>НУ-НДС-1-КП-006</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>0</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Чек-лист/Реестр объектов контроля</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>Контроль полноты и корректности отражения входящего НДС в учетной системе</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>НУ-НДС-1-КП-007</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>0</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0</v>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Чек-лист/Реестр объектов контроля</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>Контроль периода отнесения НДС к вычету</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>НУ-НДС-1-КП-008</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>0</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0</v>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Чек-лист/Реестр объектов контроля</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>Контроль корректности составления полученных счетов-фактур</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>НУ-НДС-1-КП-009</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>0</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Чек-лист/Реестр объектов контроля</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>Контроль отнесения входящего НДС по видам деятельности, облагаемой НДС/ необлагаемой НДС</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>20</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>НУ-НДС-1-КП-010</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>0</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0</v>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Чек-лист/Реестр объектов контроля</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>Контроль распределения входящего НДС, относящегося одновременно к облагаемым и необлагаемым операциям</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>21</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>НУ-НДС-1-КП-011</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>0</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0</v>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Чек-лист/Реестр объектов контроля</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Контроль корректности и своевременности принятия к вычету НДС, уплаченного таможенным органам при ввозе товаров на территорию РФ </t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>22</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>НУ-НДС-1-КП-012</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>0</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Чек-лист/Реестр объектов контроля</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>Контроль корректности исчисления НДС в качестве налогового агента</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>23</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>НУ-НДС-1-КП-013</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>0</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0</v>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Чек-лист/Реестр объектов контроля</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>Контроль полноты и корректности заполнения книги продаж</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>24</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>НУ-НДС-1-КП-014</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>0</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0</v>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Чек-лист/Реестр объектов контроля</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>Контроль полноты и корректности заполнения книги покупок</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>25</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>НУ-НДС-1-КП-015</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>0</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0</v>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Чек-лист/Реестр объектов контроля</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>Контроль полноты и корректности составления журнала выставленных/полученных счетов-фактур</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>26</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>НУ-НДФЛ-1-КП-001</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>0</v>
+      </c>
+      <c r="D27" t="n">
+        <v>0</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0</v>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>Чек-лист/Реестр объектов контроля</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>Контроль корректности расчета заработной платы специалистами Бухгалтерии для целей удержания НДФЛ</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>27</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>НУ-НДФЛ-1-КП-003</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>0</v>
+      </c>
+      <c r="D28" t="n">
+        <v>0</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0</v>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>Чек-лист/Реестр объектов контроля</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>Контроль удержания НДФЛ при выплате сотрудникам дохода в виде материальной выгоды</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>28</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>НУ-НДФЛ-1-КП-004</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>1</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0</v>
+      </c>
+      <c r="E29" t="n">
+        <v>1</v>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>Чек-лист/Реестр объектов контроля</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Контроль корректности определения налоговой базы по НДФЛ </t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>29</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>НУ-НДФЛ-1-КП-005</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>0</v>
+      </c>
+      <c r="D30" t="n">
+        <v>0</v>
+      </c>
+      <c r="E30" t="n">
+        <v>0</v>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>Чек-лист/Реестр объектов контроля</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>Контроль полноты и корректности применения налоговых вычетов по НДФЛ</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>30</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>НУ-НДФЛ-1-КП-006</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>9</v>
+      </c>
+      <c r="D31" t="n">
+        <v>0</v>
+      </c>
+      <c r="E31" t="n">
+        <v>9</v>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>Чек-лист/Реестр объектов контроля</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>Контроль корректности применения ставки НДФЛ при налогообложении доходов нерезидентов</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>31</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>НУ-НИ-1-КП-001</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
+        <v>0</v>
+      </c>
+      <c r="D32" t="n">
+        <v>0</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0</v>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>Чек-лист/Реестр объектов контроля</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Контроль корректности классификации имущества в качестве недвижимого/движимого </t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>32</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>НУ-НИ-1-КП-002</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
+        <v>0</v>
+      </c>
+      <c r="D33" t="n">
+        <v>0</v>
+      </c>
+      <c r="E33" t="n">
+        <v>0</v>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>Чек-лист/Реестр объектов контроля</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>Контроль корректности определения даты принятия к учёту объектов ОС</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>33</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>НУ-НИ-1-КП-003</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
+        <v>0</v>
+      </c>
+      <c r="D34" t="n">
+        <v>0</v>
+      </c>
+      <c r="E34" t="n">
+        <v>0</v>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>Чек-лист/Реестр объектов контроля</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Контроль корректности учета недвижимого имущества </t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>34</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>НУ-НИ-1-КП-004</t>
+        </is>
+      </c>
+      <c r="C35" t="n">
+        <v>0</v>
+      </c>
+      <c r="D35" t="n">
+        <v>0</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0</v>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>Чек-лист/Реестр объектов контроля</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>Контроль корректности определения налоговой базы по налогу на имущество исходя из кадастровой стоимости</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>35</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>НУ-НИ-1-КП-005</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
+        <v>0</v>
+      </c>
+      <c r="D36" t="n">
+        <v>0</v>
+      </c>
+      <c r="E36" t="n">
+        <v>0</v>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>Чек-лист/Реестр объектов контроля</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>Контроль корректности определения налоговых ставок по налогу на имущество</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>36</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>НУ-НИ-1-КП-006</t>
+        </is>
+      </c>
+      <c r="C37" t="n">
+        <v>0</v>
+      </c>
+      <c r="D37" t="n">
+        <v>0</v>
+      </c>
+      <c r="E37" t="n">
+        <v>0</v>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>Чек-лист/Реестр объектов контроля</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>Контроль полноты и правомерности применения федеральных и региональных льгот по налогу на имущество (освобождение, пониженная ставка)</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>37</v>
+      </c>
+      <c r="B38" t="inlineStr">
         <is>
           <t>НУ-ОБЩ-1-КП-001</t>
         </is>
       </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>НУ-ОБЩ-1-КП-001-01</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
+      <c r="C38" t="n">
+        <v>0</v>
+      </c>
+      <c r="D38" t="n">
+        <v>0</v>
+      </c>
+      <c r="E38" t="n">
+        <v>0</v>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>Чек-лист/Реестр объектов контроля</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
         <is>
           <t>Контроль отражения методологической позиции по налоговому учету хозяйственных операций в методологических документах компании</t>
         </is>
       </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>"Ответственный исполнитель Общества (далее - исполнитель КП) проверяет корректность отражения в учетной политике Общества по налоговому учету положений Корпоративных учетных принципов, сформированных и доведенных вышестоящей организацией.  Исполнитель КП отдела налогов проверяет в учетной политике по налоговому учету  корректность и полноту отражения норм НК РФ, а также единых принципов, разработанных и доведенных Департаментом ПАО ""Газпром"" (К.И. Оганян). В случае если исполнитель КП обнаружи</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>Ежегодно</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>Ручной</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>_</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>_</t>
-        </is>
-      </c>
-      <c r="J9" s="2">
-        <f>Sheet2!H5012</f>
-        <v/>
-      </c>
-      <c r="K9" s="2">
-        <f>Sheet2!I5012</f>
-        <v/>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>38</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>НУ-ОБЩ-1-КП-002</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
+        <v>0</v>
+      </c>
+      <c r="D39" t="n">
+        <v>0</v>
+      </c>
+      <c r="E39" t="n">
+        <v>0</v>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>Чек-лист/Реестр объектов контроля</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>Мониторинг изменений налогового законодательства</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>39</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>НУ-ОБЩ-1-КП-003</t>
+        </is>
+      </c>
+      <c r="C40" t="n">
+        <v>7</v>
+      </c>
+      <c r="D40" t="n">
+        <v>0</v>
+      </c>
+      <c r="E40" t="n">
+        <v>7</v>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>Чек-лист/Реестр объектов контроля</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>Проверка полноты и достоверности ПУД</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>40</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>НУ-ОБЩ-1-КП-004</t>
+        </is>
+      </c>
+      <c r="C41" t="n">
+        <v>7</v>
+      </c>
+      <c r="D41" t="n">
+        <v>0</v>
+      </c>
+      <c r="E41" t="n">
+        <v>7</v>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>Чек-лист/Реестр объектов контроля</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>Проверка корректности ПУД и осуществления проводки в учетной системе</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>41</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>НУ-ОБЩ-1-КП-005</t>
+        </is>
+      </c>
+      <c r="C42" t="n">
+        <v>0</v>
+      </c>
+      <c r="D42" t="n">
+        <v>0</v>
+      </c>
+      <c r="E42" t="n">
+        <v>0</v>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>Чек-лист/Реестр объектов контроля</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>Проверка полноты и корректности внесения данных в НСИ</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>42</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>НУ-ОБЩ-1-КП-006</t>
+        </is>
+      </c>
+      <c r="C43" t="n">
+        <v>0</v>
+      </c>
+      <c r="D43" t="n">
+        <v>0</v>
+      </c>
+      <c r="E43" t="n">
+        <v>0</v>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>Чек-лист/Реестр объектов контроля</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>Контроль полноты и корректности формирования деклараций (расчетов)</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>43</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>НУ-ОБЩ-1-КП-007</t>
+        </is>
+      </c>
+      <c r="C44" t="n">
+        <v>0</v>
+      </c>
+      <c r="D44" t="n">
+        <v>0</v>
+      </c>
+      <c r="E44" t="n">
+        <v>0</v>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>Чек-лист/Реестр объектов контроля</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>Контроль представления отчетности в налоговый орган</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>44</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>НУ-ОБЩ-1-КП-008</t>
+        </is>
+      </c>
+      <c r="C45" t="n">
+        <v>0</v>
+      </c>
+      <c r="D45" t="n">
+        <v>0</v>
+      </c>
+      <c r="E45" t="n">
+        <v>0</v>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>Чек-лист/Реестр объектов контроля</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>Контроль корректности исчисления суммы налогов, сборов, страховых взносов</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>45</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>НУ-ОБЩ-1-КП-009</t>
+        </is>
+      </c>
+      <c r="C46" t="n">
+        <v>0</v>
+      </c>
+      <c r="D46" t="n">
+        <v>0</v>
+      </c>
+      <c r="E46" t="n">
+        <v>0</v>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>Чек-лист/Реестр объектов контроля</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>Контроль своевременности уплаты (перечисления) налогов, сборов, страховых взносов</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>46</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>НУ-ОБЩ-1-КП-010</t>
+        </is>
+      </c>
+      <c r="C47" t="n">
+        <v>0</v>
+      </c>
+      <c r="D47" t="n">
+        <v>0</v>
+      </c>
+      <c r="E47" t="n">
+        <v>0</v>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>Чек-лист/Реестр объектов контроля</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Контроль за соблюдением порядка и сроков хранения первичных учетных документов и регистров </t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>47</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>НУ-ОБЩ-1-КП-011</t>
+        </is>
+      </c>
+      <c r="C48" t="n">
+        <v>0</v>
+      </c>
+      <c r="D48" t="n">
+        <v>0</v>
+      </c>
+      <c r="E48" t="n">
+        <v>0</v>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>Чек-лист/Реестр объектов контроля</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>Автоматизированная проверка корректности налоговых деклараций и контрольных соотношений показателей налоговой отчетности</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>48</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>НУ-ПРИБ-1-КП-001</t>
+        </is>
+      </c>
+      <c r="C49" t="n">
+        <v>0</v>
+      </c>
+      <c r="D49" t="n">
+        <v>0</v>
+      </c>
+      <c r="E49" t="n">
+        <v>0</v>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>Чек-лист/Реестр объектов контроля</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Проверка экономической целесообразности сделки </t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>49</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>НУ-ПРИБ-1-КП-002</t>
+        </is>
+      </c>
+      <c r="C50" t="n">
+        <v>0</v>
+      </c>
+      <c r="D50" t="n">
+        <v>0</v>
+      </c>
+      <c r="E50" t="n">
+        <v>0</v>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>Чек-лист/Реестр объектов контроля</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>Проверка контрагентов</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>50</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>НУ-ПРИБ-1-КП-003</t>
+        </is>
+      </c>
+      <c r="C51" t="n">
+        <v>0</v>
+      </c>
+      <c r="D51" t="n">
+        <v>0</v>
+      </c>
+      <c r="E51" t="n">
+        <v>0</v>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>Чек-лист/Реестр объектов контроля</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>Экспертиза проектов договоров</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>51</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>НУ-ПРИБ-1-КП-009</t>
+        </is>
+      </c>
+      <c r="C52" t="n">
+        <v>0</v>
+      </c>
+      <c r="D52" t="n">
+        <v>0</v>
+      </c>
+      <c r="E52" t="n">
+        <v>0</v>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>Чек-лист/Реестр объектов контроля</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>Контроль корректности формирования проводки в учетной системе</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>52</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>НУ-ПРИБ-1-КП-010</t>
+        </is>
+      </c>
+      <c r="C53" t="n">
+        <v>0</v>
+      </c>
+      <c r="D53" t="n">
+        <v>0</v>
+      </c>
+      <c r="E53" t="n">
+        <v>0</v>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>Чек-лист/Реестр объектов контроля</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>Контроль за отражением в составе внереализационных доходов сумм доходов в виде штрафов, пеней и (или) иных санкций за нарушение договорных обязательств, а также сумм возмещения убытков или ущерба</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>53</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>НУ-ПРИБ-1-КП-011</t>
+        </is>
+      </c>
+      <c r="C54" t="n">
+        <v>0</v>
+      </c>
+      <c r="D54" t="n">
+        <v>0</v>
+      </c>
+      <c r="E54" t="n">
+        <v>0</v>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>Чек-лист/Реестр объектов контроля</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Проверка своевременности проведения арендной платы по договорам аренды ОС </t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>54</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>НУ-ПРИБ-1-КП-013</t>
+        </is>
+      </c>
+      <c r="C55" t="n">
+        <v>0</v>
+      </c>
+      <c r="D55" t="n">
+        <v>0</v>
+      </c>
+      <c r="E55" t="n">
+        <v>0</v>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>Чек-лист/Реестр объектов контроля</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>Контроль списания безнадежного долга</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>55</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>НУ-ПРИБ-1-КП-014</t>
+        </is>
+      </c>
+      <c r="C56" t="n">
+        <v>0</v>
+      </c>
+      <c r="D56" t="n">
+        <v>0</v>
+      </c>
+      <c r="E56" t="n">
+        <v>0</v>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>Чек-лист/Реестр объектов контроля</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>Контроль полноты и корректности отражения в учетной системе проводок поступления объекта</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>56</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>НУ-ПРИБ-1-КП-015</t>
+        </is>
+      </c>
+      <c r="C57" t="n">
+        <v>0</v>
+      </c>
+      <c r="D57" t="n">
+        <v>0</v>
+      </c>
+      <c r="E57" t="n">
+        <v>0</v>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>Чек-лист/Реестр объектов контроля</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>Проверка акта на ввод в эксплуатацию / акта приема-передачи ОС</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>57</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>НУ-ПРИБ-1-КП-016</t>
+        </is>
+      </c>
+      <c r="C58" t="n">
+        <v>0</v>
+      </c>
+      <c r="D58" t="n">
+        <v>0</v>
+      </c>
+      <c r="E58" t="n">
+        <v>0</v>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>Чек-лист/Реестр объектов контроля</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>Контроль корректности отражения в карточке ОС данных об ОС</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>58</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>НУ-ПРИБ-1-КП-017</t>
+        </is>
+      </c>
+      <c r="C59" t="n">
+        <v>0</v>
+      </c>
+      <c r="D59" t="n">
+        <v>0</v>
+      </c>
+      <c r="E59" t="n">
+        <v>0</v>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>Чек-лист/Реестр объектов контроля</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>Контроль корректности расчета амортизации для целей налогового учета</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>59</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>НУ-ПРИБ-1-КП-019</t>
+        </is>
+      </c>
+      <c r="C60" t="n">
+        <v>0</v>
+      </c>
+      <c r="D60" t="n">
+        <v>0</v>
+      </c>
+      <c r="E60" t="n">
+        <v>0</v>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>Чек-лист/Реестр объектов контроля</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>Автоматизированный контроль корректности и своевременности признания амортизационной премии в составе расходов</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>60</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>НУ-ПРИБ-1-КП-020</t>
+        </is>
+      </c>
+      <c r="C61" t="n">
+        <v>0</v>
+      </c>
+      <c r="D61" t="n">
+        <v>0</v>
+      </c>
+      <c r="E61" t="n">
+        <v>0</v>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>Чек-лист/Реестр объектов контроля</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>Контроль корректности, правомерности и своевременности признания амортизационной премии в составе расходов</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>61</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>НУ-ПРИБ-1-КП-021</t>
+        </is>
+      </c>
+      <c r="C62" t="n">
+        <v>0</v>
+      </c>
+      <c r="D62" t="n">
+        <v>0</v>
+      </c>
+      <c r="E62" t="n">
+        <v>0</v>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>Чек-лист/Реестр объектов контроля</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>Автоматизированный контроль корректности, правомерности и своевременности отражения в налоговом учете восстановления амортизационной премии</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>62</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>НУ-ПРИБ-1-КП-025</t>
+        </is>
+      </c>
+      <c r="C63" t="n">
+        <v>0</v>
+      </c>
+      <c r="D63" t="n">
+        <v>0</v>
+      </c>
+      <c r="E63" t="n">
+        <v>0</v>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>Чек-лист/Реестр объектов контроля</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>Квалификация операций в качестве текущего ремонта/ капитального ремонта / реконструкции / модернизации / технического перевооружения</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>63</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>НУ-ПРИБ-1-КП-026</t>
+        </is>
+      </c>
+      <c r="C64" t="n">
+        <v>0</v>
+      </c>
+      <c r="D64" t="n">
+        <v>0</v>
+      </c>
+      <c r="E64" t="n">
+        <v>0</v>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>Чек-лист/Реестр объектов контроля</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>Контроль правильности квалификации операций в качестве капитального ремонта / реконструкции / модернизации / технического перевооружения</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>64</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>НУ-ПРИБ-1-КП-028</t>
+        </is>
+      </c>
+      <c r="C65" t="n">
+        <v>0</v>
+      </c>
+      <c r="D65" t="n">
+        <v>0</v>
+      </c>
+      <c r="E65" t="n">
+        <v>0</v>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>Чек-лист/Реестр объектов контроля</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>Ручной контроль корректности и правомерности отражения расходов по оплате труда в налоговом учете</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>65</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>НУ-ПРИБ-1-КП-029</t>
+        </is>
+      </c>
+      <c r="C66" t="n">
+        <v>7</v>
+      </c>
+      <c r="D66" t="n">
+        <v>0</v>
+      </c>
+      <c r="E66" t="n">
+        <v>7</v>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>Чек-лист/Реестр объектов контроля</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>Контроль отнесения расходов к непринимаемым и принимаемым на стадии приемки ПУД</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>66</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>НУ-ПРИБ-1-КП-030</t>
+        </is>
+      </c>
+      <c r="C67" t="n">
+        <v>0</v>
+      </c>
+      <c r="D67" t="n">
+        <v>0</v>
+      </c>
+      <c r="E67" t="n">
+        <v>0</v>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>Чек-лист/Реестр объектов контроля</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>Контроль правильности квалификации операций в качестве капитального ремонта / реконструкции / модернизации / технического перевооружения</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>67</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>НУ-ПРИБ-1-КП-033</t>
+        </is>
+      </c>
+      <c r="C68" t="n">
+        <v>0</v>
+      </c>
+      <c r="D68" t="n">
+        <v>0</v>
+      </c>
+      <c r="E68" t="n">
+        <v>0</v>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>Чек-лист/Реестр объектов контроля</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>Контроль определения СПИ программного обеспечения</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>68</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>НУ-ПРИБ-1-КП-036</t>
+        </is>
+      </c>
+      <c r="C69" t="n">
+        <v>0</v>
+      </c>
+      <c r="D69" t="n">
+        <v>0</v>
+      </c>
+      <c r="E69" t="n">
+        <v>0</v>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>Чек-лист/Реестр объектов контроля</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>Контроль корректности проводок по учету доходов и расходов прошлых лет</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>69</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>НУ-ПРИБ-1-КП-039</t>
+        </is>
+      </c>
+      <c r="C70" t="n">
+        <v>0</v>
+      </c>
+      <c r="D70" t="n">
+        <v>0</v>
+      </c>
+      <c r="E70" t="n">
+        <v>0</v>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>Чек-лист/Реестр объектов контроля</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>Контроль корректности, правомерности и своевременности отражения расходов на освоение природных ресурсов</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>70</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>НУ-ПРИБ-1-КП-040</t>
+        </is>
+      </c>
+      <c r="C71" t="n">
+        <v>0</v>
+      </c>
+      <c r="D71" t="n">
+        <v>0</v>
+      </c>
+      <c r="E71" t="n">
+        <v>0</v>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>Чек-лист/Реестр объектов контроля</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>Контроль корректности отражения расчетов с контрагентами в учетной системе</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>71</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>НУ-ПРИБ-1-КП-042</t>
+        </is>
+      </c>
+      <c r="C72" t="n">
+        <v>0</v>
+      </c>
+      <c r="D72" t="n">
+        <v>0</v>
+      </c>
+      <c r="E72" t="n">
+        <v>0</v>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>Чек-лист/Реестр объектов контроля</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>Контроль корректности и своевременности отражения в учетной системе финансового результата при выбытии объектов основных средств</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>72</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>НУ-ПРИБ-1-КП-044</t>
+        </is>
+      </c>
+      <c r="C73" t="n">
+        <v>0</v>
+      </c>
+      <c r="D73" t="n">
+        <v>0</v>
+      </c>
+      <c r="E73" t="n">
+        <v>0</v>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>Чек-лист/Реестр объектов контроля</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>Контроль корректности расчета суммы нормируемых расходов</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>73</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>НУ-ПРИБ-1-КП-045</t>
+        </is>
+      </c>
+      <c r="C74" t="n">
+        <v>0</v>
+      </c>
+      <c r="D74" t="n">
+        <v>0</v>
+      </c>
+      <c r="E74" t="n">
+        <v>0</v>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>Чек-лист/Реестр объектов контроля</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>Контроль корректности, правомерности и своевременности отражения доходов в виде безвозмездно полученного имущества (работ, услуг) или имущественных прав</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>74</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>НУ-ПРИБ-1-КП-046</t>
+        </is>
+      </c>
+      <c r="C75" t="n">
+        <v>0</v>
+      </c>
+      <c r="D75" t="n">
+        <v>0</v>
+      </c>
+      <c r="E75" t="n">
+        <v>0</v>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>Чек-лист/Реестр объектов контроля</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>Контроль своевременности списания кредиторской задолженности</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>75</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>НУ-СВ-1-КП-001</t>
+        </is>
+      </c>
+      <c r="C76" t="n">
+        <v>0</v>
+      </c>
+      <c r="D76" t="n">
+        <v>0</v>
+      </c>
+      <c r="E76" t="n">
+        <v>0</v>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>Чек-лист/Реестр объектов контроля</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>Контроль корректности отражения убытка</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>76</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>НУ-СВ-1-КП-002</t>
+        </is>
+      </c>
+      <c r="C77" t="n">
+        <v>0</v>
+      </c>
+      <c r="D77" t="n">
+        <v>0</v>
+      </c>
+      <c r="E77" t="n">
+        <v>0</v>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>Чек-лист/Реестр объектов контроля</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>Контроль полноты и корректности определения объектов обложения страховыми взносами</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>77</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>НУ-СВ-1-КП-003</t>
+        </is>
+      </c>
+      <c r="C78" t="n">
+        <v>0</v>
+      </c>
+      <c r="D78" t="n">
+        <v>0</v>
+      </c>
+      <c r="E78" t="n">
+        <v>0</v>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>Чек-лист/Реестр объектов контроля</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>Контроль корректности расчета заработной платы специалистами Бухгалтерии для целей обложения страховыми взносами</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>78</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>НУ-ТН-1-КП-001</t>
+        </is>
+      </c>
+      <c r="C79" t="n">
+        <v>0</v>
+      </c>
+      <c r="D79" t="n">
+        <v>0</v>
+      </c>
+      <c r="E79" t="n">
+        <v>0</v>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>Чек-лист/Реестр объектов контроля</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>Контроль корректности определения базы для начисления страховых взносов</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>79</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>НУ-ТН-1-КП-002</t>
+        </is>
+      </c>
+      <c r="C80" t="n">
+        <v>0</v>
+      </c>
+      <c r="D80" t="n">
+        <v>0</v>
+      </c>
+      <c r="E80" t="n">
+        <v>0</v>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>Чек-лист/Реестр объектов контроля</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>Контроль корректности и полноты определения объектов налогообложения по транспортному налогу</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>80</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>НУ-ТН-1-КП-004</t>
+        </is>
+      </c>
+      <c r="C81" t="n">
+        <v>0</v>
+      </c>
+      <c r="D81" t="n">
+        <v>0</v>
+      </c>
+      <c r="E81" t="n">
+        <v>0</v>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>Чек-лист/Реестр объектов контроля</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>Контроль корректности определения налоговой базы по транспортному налогу</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>81</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>НУ-ТН-1-КП-005</t>
+        </is>
+      </c>
+      <c r="C82" t="n">
+        <v>0</v>
+      </c>
+      <c r="D82" t="n">
+        <v>0</v>
+      </c>
+      <c r="E82" t="n">
+        <v>0</v>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>Чек-лист/Реестр объектов контроля</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Контроль полноты и правомерности применения региональных льгот по транспортному налогу (освобождение, пониженная ставка)Контроль корректности определения налоговых ставок по транспортному налогу </t>
+        </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
-    <mergeCell ref="B8"/>
-    <mergeCell ref="A8"/>
-    <mergeCell ref="E8"/>
-    <mergeCell ref="C8"/>
-    <mergeCell ref="H8"/>
-    <mergeCell ref="F8"/>
-    <mergeCell ref="G8"/>
-    <mergeCell ref="I8"/>
-    <mergeCell ref="J8"/>
-    <mergeCell ref="K8"/>
-    <mergeCell ref="D5"/>
-  </mergeCells>
-  <dataValidations count="2">
-    <dataValidation sqref="F7" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
-      <formula1>"Декабрь,Январь,Февраль,Март,Апрель,Май,Июнь,Июль,Август,Сентябрь,Октябрь,Ноябрь"</formula1>
-    </dataValidation>
-    <dataValidation sqref="G7" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
-      <formula1>"2022г,2023г,2024г,2025г,2026г,2027г,2028г,2029г,2030г"</formula1>
-    </dataValidation>
-  </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>